--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9308200</v>
+        <v>8867500</v>
       </c>
       <c r="E8" s="3">
-        <v>7703900</v>
+        <v>7339100</v>
       </c>
       <c r="F8" s="3">
-        <v>8930700</v>
+        <v>8507900</v>
       </c>
       <c r="G8" s="3">
-        <v>7282400</v>
+        <v>6937600</v>
       </c>
       <c r="H8" s="3">
-        <v>8442000</v>
+        <v>8042300</v>
       </c>
       <c r="I8" s="3">
-        <v>7277200</v>
+        <v>6932700</v>
       </c>
       <c r="J8" s="3">
-        <v>8301100</v>
+        <v>7908100</v>
       </c>
       <c r="K8" s="3">
         <v>6363700</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3493200</v>
+        <v>3327800</v>
       </c>
       <c r="E9" s="3">
-        <v>3048400</v>
+        <v>2904100</v>
       </c>
       <c r="F9" s="3">
-        <v>3242400</v>
+        <v>3088900</v>
       </c>
       <c r="G9" s="3">
-        <v>2837700</v>
+        <v>2703400</v>
       </c>
       <c r="H9" s="3">
-        <v>3153200</v>
+        <v>3003900</v>
       </c>
       <c r="I9" s="3">
-        <v>2863600</v>
+        <v>2728000</v>
       </c>
       <c r="J9" s="3">
-        <v>3186800</v>
+        <v>3035900</v>
       </c>
       <c r="K9" s="3">
         <v>2555100</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5815100</v>
+        <v>5539700</v>
       </c>
       <c r="E10" s="3">
-        <v>4655400</v>
+        <v>4435000</v>
       </c>
       <c r="F10" s="3">
-        <v>5688400</v>
+        <v>5419000</v>
       </c>
       <c r="G10" s="3">
-        <v>4444700</v>
+        <v>4234200</v>
       </c>
       <c r="H10" s="3">
-        <v>5288900</v>
+        <v>5038500</v>
       </c>
       <c r="I10" s="3">
-        <v>4413700</v>
+        <v>4204700</v>
       </c>
       <c r="J10" s="3">
-        <v>5114400</v>
+        <v>4872200</v>
       </c>
       <c r="K10" s="3">
         <v>3808600</v>
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>76300</v>
+        <v>72700</v>
       </c>
       <c r="E14" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="F14" s="3">
-        <v>-161600</v>
+        <v>-154000</v>
       </c>
       <c r="G14" s="3">
-        <v>165500</v>
+        <v>157600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="J14" s="3">
-        <v>-25900</v>
+        <v>-24600</v>
       </c>
       <c r="K14" s="3">
         <v>197000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6151200</v>
+        <v>5860000</v>
       </c>
       <c r="E17" s="3">
-        <v>5634100</v>
+        <v>5367300</v>
       </c>
       <c r="F17" s="3">
-        <v>5600500</v>
+        <v>5335300</v>
       </c>
       <c r="G17" s="3">
-        <v>5341900</v>
+        <v>5089000</v>
       </c>
       <c r="H17" s="3">
-        <v>5610800</v>
+        <v>5345100</v>
       </c>
       <c r="I17" s="3">
-        <v>5345800</v>
+        <v>5092700</v>
       </c>
       <c r="J17" s="3">
-        <v>5605600</v>
+        <v>5340200</v>
       </c>
       <c r="K17" s="3">
         <v>4876800</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3157000</v>
+        <v>3007600</v>
       </c>
       <c r="E18" s="3">
-        <v>2069800</v>
+        <v>1971800</v>
       </c>
       <c r="F18" s="3">
-        <v>3330300</v>
+        <v>3172600</v>
       </c>
       <c r="G18" s="3">
-        <v>1940500</v>
+        <v>1848600</v>
       </c>
       <c r="H18" s="3">
-        <v>2831300</v>
+        <v>2697200</v>
       </c>
       <c r="I18" s="3">
-        <v>1931500</v>
+        <v>1840000</v>
       </c>
       <c r="J18" s="3">
-        <v>2695500</v>
+        <v>2567900</v>
       </c>
       <c r="K18" s="3">
         <v>1486900</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>378800</v>
+        <v>360900</v>
       </c>
       <c r="E20" s="3">
-        <v>337400</v>
+        <v>321400</v>
       </c>
       <c r="F20" s="3">
-        <v>355500</v>
+        <v>338700</v>
       </c>
       <c r="G20" s="3">
-        <v>287000</v>
+        <v>273400</v>
       </c>
       <c r="H20" s="3">
-        <v>287000</v>
+        <v>273400</v>
       </c>
       <c r="I20" s="3">
-        <v>266300</v>
+        <v>253700</v>
       </c>
       <c r="J20" s="3">
-        <v>290900</v>
+        <v>277100</v>
       </c>
       <c r="K20" s="3">
         <v>206100</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3905600</v>
+        <v>3720700</v>
       </c>
       <c r="E21" s="3">
-        <v>2651600</v>
+        <v>2526000</v>
       </c>
       <c r="F21" s="3">
-        <v>3925000</v>
+        <v>3739100</v>
       </c>
       <c r="G21" s="3">
-        <v>2623100</v>
+        <v>2498900</v>
       </c>
       <c r="H21" s="3">
-        <v>3360000</v>
+        <v>3200900</v>
       </c>
       <c r="I21" s="3">
-        <v>2434400</v>
+        <v>2319100</v>
       </c>
       <c r="J21" s="3">
-        <v>3216500</v>
+        <v>3064200</v>
       </c>
       <c r="K21" s="3">
         <v>1943400</v>
@@ -1195,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>350400</v>
+        <v>333800</v>
       </c>
       <c r="E22" s="3">
-        <v>328400</v>
+        <v>312800</v>
       </c>
       <c r="F22" s="3">
-        <v>289600</v>
+        <v>275900</v>
       </c>
       <c r="G22" s="3">
-        <v>241800</v>
+        <v>230300</v>
       </c>
       <c r="H22" s="3">
-        <v>268900</v>
+        <v>256200</v>
       </c>
       <c r="I22" s="3">
-        <v>278000</v>
+        <v>264800</v>
       </c>
       <c r="J22" s="3">
-        <v>305100</v>
+        <v>290700</v>
       </c>
       <c r="K22" s="3">
         <v>292200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3185500</v>
+        <v>3034700</v>
       </c>
       <c r="E23" s="3">
-        <v>2078800</v>
+        <v>1980400</v>
       </c>
       <c r="F23" s="3">
-        <v>3396200</v>
+        <v>3235400</v>
       </c>
       <c r="G23" s="3">
-        <v>1985800</v>
+        <v>1891700</v>
       </c>
       <c r="H23" s="3">
-        <v>2849400</v>
+        <v>2714400</v>
       </c>
       <c r="I23" s="3">
-        <v>1919800</v>
+        <v>1828900</v>
       </c>
       <c r="J23" s="3">
-        <v>2681300</v>
+        <v>2554300</v>
       </c>
       <c r="K23" s="3">
         <v>1400800</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>685200</v>
+        <v>652700</v>
       </c>
       <c r="E24" s="3">
-        <v>437000</v>
+        <v>416300</v>
       </c>
       <c r="F24" s="3">
-        <v>724000</v>
+        <v>689700</v>
       </c>
       <c r="G24" s="3">
-        <v>663200</v>
+        <v>631800</v>
       </c>
       <c r="H24" s="3">
-        <v>565000</v>
+        <v>538200</v>
       </c>
       <c r="I24" s="3">
-        <v>382700</v>
+        <v>364600</v>
       </c>
       <c r="J24" s="3">
-        <v>563700</v>
+        <v>537000</v>
       </c>
       <c r="K24" s="3">
         <v>260900</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500300</v>
+        <v>2381900</v>
       </c>
       <c r="E26" s="3">
-        <v>1641900</v>
+        <v>1564100</v>
       </c>
       <c r="F26" s="3">
-        <v>2672200</v>
+        <v>2545700</v>
       </c>
       <c r="G26" s="3">
-        <v>1322500</v>
+        <v>1259900</v>
       </c>
       <c r="H26" s="3">
-        <v>2284400</v>
+        <v>2176200</v>
       </c>
       <c r="I26" s="3">
-        <v>1537200</v>
+        <v>1464400</v>
       </c>
       <c r="J26" s="3">
-        <v>2117600</v>
+        <v>2017400</v>
       </c>
       <c r="K26" s="3">
         <v>1140000</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2411100</v>
+        <v>2296900</v>
       </c>
       <c r="E27" s="3">
-        <v>1530700</v>
+        <v>1458200</v>
       </c>
       <c r="F27" s="3">
-        <v>2554600</v>
+        <v>2433600</v>
       </c>
       <c r="G27" s="3">
-        <v>1254000</v>
+        <v>1194700</v>
       </c>
       <c r="H27" s="3">
-        <v>2195200</v>
+        <v>2091300</v>
       </c>
       <c r="I27" s="3">
-        <v>1484100</v>
+        <v>1413900</v>
       </c>
       <c r="J27" s="3">
-        <v>2028400</v>
+        <v>1932400</v>
       </c>
       <c r="K27" s="3">
         <v>1093000</v>
@@ -1470,16 +1470,16 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-7800</v>
+        <v>-7400</v>
       </c>
       <c r="H29" s="3">
-        <v>465400</v>
+        <v>443400</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-71100</v>
+        <v>-67700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-378800</v>
+        <v>-360900</v>
       </c>
       <c r="E32" s="3">
-        <v>-337400</v>
+        <v>-321400</v>
       </c>
       <c r="F32" s="3">
-        <v>-355500</v>
+        <v>-338700</v>
       </c>
       <c r="G32" s="3">
-        <v>-287000</v>
+        <v>-273400</v>
       </c>
       <c r="H32" s="3">
-        <v>-287000</v>
+        <v>-273400</v>
       </c>
       <c r="I32" s="3">
-        <v>-266300</v>
+        <v>-253700</v>
       </c>
       <c r="J32" s="3">
-        <v>-290900</v>
+        <v>-277100</v>
       </c>
       <c r="K32" s="3">
         <v>-206100</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2411100</v>
+        <v>2296900</v>
       </c>
       <c r="E33" s="3">
-        <v>1530700</v>
+        <v>1458200</v>
       </c>
       <c r="F33" s="3">
-        <v>2554600</v>
+        <v>2433600</v>
       </c>
       <c r="G33" s="3">
-        <v>1246300</v>
+        <v>1187300</v>
       </c>
       <c r="H33" s="3">
-        <v>2660600</v>
+        <v>2534600</v>
       </c>
       <c r="I33" s="3">
-        <v>1484100</v>
+        <v>1413900</v>
       </c>
       <c r="J33" s="3">
-        <v>1957300</v>
+        <v>1864600</v>
       </c>
       <c r="K33" s="3">
         <v>1093000</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2411100</v>
+        <v>2296900</v>
       </c>
       <c r="E35" s="3">
-        <v>1530700</v>
+        <v>1458200</v>
       </c>
       <c r="F35" s="3">
-        <v>2554600</v>
+        <v>2433600</v>
       </c>
       <c r="G35" s="3">
-        <v>1246300</v>
+        <v>1187300</v>
       </c>
       <c r="H35" s="3">
-        <v>2660600</v>
+        <v>2534600</v>
       </c>
       <c r="I35" s="3">
-        <v>1484100</v>
+        <v>1413900</v>
       </c>
       <c r="J35" s="3">
-        <v>1957300</v>
+        <v>1864600</v>
       </c>
       <c r="K35" s="3">
         <v>1093000</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1228200</v>
+        <v>1170000</v>
       </c>
       <c r="E41" s="3">
-        <v>1204900</v>
+        <v>1147900</v>
       </c>
       <c r="F41" s="3">
-        <v>2056900</v>
+        <v>1959500</v>
       </c>
       <c r="G41" s="3">
-        <v>1129900</v>
+        <v>1076400</v>
       </c>
       <c r="H41" s="3">
-        <v>1189400</v>
+        <v>1133100</v>
       </c>
       <c r="I41" s="3">
-        <v>1539700</v>
+        <v>1466800</v>
       </c>
       <c r="J41" s="3">
-        <v>1621200</v>
+        <v>1544400</v>
       </c>
       <c r="K41" s="3">
         <v>1420400</v>
@@ -1840,25 +1840,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54300</v>
+        <v>51700</v>
       </c>
       <c r="E42" s="3">
-        <v>164200</v>
+        <v>156400</v>
       </c>
       <c r="F42" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="G42" s="3">
-        <v>45200</v>
+        <v>43100</v>
       </c>
       <c r="H42" s="3">
-        <v>159000</v>
+        <v>151500</v>
       </c>
       <c r="I42" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="J42" s="3">
-        <v>162900</v>
+        <v>155200</v>
       </c>
       <c r="K42" s="3">
         <v>645600</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4725200</v>
+        <v>4501500</v>
       </c>
       <c r="E43" s="3">
-        <v>3590100</v>
+        <v>3420200</v>
       </c>
       <c r="F43" s="3">
-        <v>4593400</v>
+        <v>4375900</v>
       </c>
       <c r="G43" s="3">
-        <v>3546200</v>
+        <v>3378300</v>
       </c>
       <c r="H43" s="3">
-        <v>4574000</v>
+        <v>4357400</v>
       </c>
       <c r="I43" s="3">
-        <v>3351000</v>
+        <v>3192300</v>
       </c>
       <c r="J43" s="3">
-        <v>4658000</v>
+        <v>4437500</v>
       </c>
       <c r="K43" s="3">
         <v>3503400</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7057400</v>
+        <v>6723300</v>
       </c>
       <c r="E44" s="3">
-        <v>7074300</v>
+        <v>6739300</v>
       </c>
       <c r="F44" s="3">
-        <v>6820900</v>
+        <v>6497900</v>
       </c>
       <c r="G44" s="3">
-        <v>6483400</v>
+        <v>6176500</v>
       </c>
       <c r="H44" s="3">
-        <v>6359300</v>
+        <v>6058200</v>
       </c>
       <c r="I44" s="3">
-        <v>6190000</v>
+        <v>5896900</v>
       </c>
       <c r="J44" s="3">
-        <v>6129200</v>
+        <v>5839000</v>
       </c>
       <c r="K44" s="3">
         <v>5972400</v>
@@ -1954,16 +1954,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65900</v>
+        <v>62800</v>
       </c>
       <c r="E45" s="3">
-        <v>84000</v>
+        <v>80100</v>
       </c>
       <c r="F45" s="3">
-        <v>107300</v>
+        <v>102200</v>
       </c>
       <c r="G45" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="K45" s="3">
         <v>3900</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13131100</v>
+        <v>12509400</v>
       </c>
       <c r="E46" s="3">
-        <v>12117500</v>
+        <v>11543800</v>
       </c>
       <c r="F46" s="3">
-        <v>13593900</v>
+        <v>12950300</v>
       </c>
       <c r="G46" s="3">
-        <v>11235800</v>
+        <v>10703800</v>
       </c>
       <c r="H46" s="3">
-        <v>12281700</v>
+        <v>11700200</v>
       </c>
       <c r="I46" s="3">
-        <v>11185400</v>
+        <v>10655800</v>
       </c>
       <c r="J46" s="3">
-        <v>12575200</v>
+        <v>11979800</v>
       </c>
       <c r="K46" s="3">
         <v>11545800</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4704500</v>
+        <v>4481800</v>
       </c>
       <c r="E47" s="3">
-        <v>4756200</v>
+        <v>4531100</v>
       </c>
       <c r="F47" s="3">
-        <v>4677400</v>
+        <v>4455900</v>
       </c>
       <c r="G47" s="3">
-        <v>4244300</v>
+        <v>4043300</v>
       </c>
       <c r="H47" s="3">
-        <v>4320600</v>
+        <v>4116000</v>
       </c>
       <c r="I47" s="3">
-        <v>4111100</v>
+        <v>3916500</v>
       </c>
       <c r="J47" s="3">
-        <v>4149900</v>
+        <v>3953400</v>
       </c>
       <c r="K47" s="3">
         <v>3945500</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6303700</v>
+        <v>6005300</v>
       </c>
       <c r="E48" s="3">
-        <v>5803400</v>
+        <v>5528700</v>
       </c>
       <c r="F48" s="3">
-        <v>5512500</v>
+        <v>5251500</v>
       </c>
       <c r="G48" s="3">
-        <v>5316000</v>
+        <v>5064300</v>
       </c>
       <c r="H48" s="3">
-        <v>5137600</v>
+        <v>4894400</v>
       </c>
       <c r="I48" s="3">
-        <v>5216500</v>
+        <v>4969500</v>
       </c>
       <c r="J48" s="3">
-        <v>5173800</v>
+        <v>4928900</v>
       </c>
       <c r="K48" s="3">
         <v>5075100</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15559000</v>
+        <v>14822300</v>
       </c>
       <c r="E49" s="3">
-        <v>16233800</v>
+        <v>15465200</v>
       </c>
       <c r="F49" s="3">
-        <v>16231200</v>
+        <v>15462700</v>
       </c>
       <c r="G49" s="3">
-        <v>16253200</v>
+        <v>15483700</v>
       </c>
       <c r="H49" s="3">
-        <v>16557000</v>
+        <v>15773100</v>
       </c>
       <c r="I49" s="3">
-        <v>16245500</v>
+        <v>15476300</v>
       </c>
       <c r="J49" s="3">
-        <v>16691500</v>
+        <v>15901200</v>
       </c>
       <c r="K49" s="3">
         <v>16134300</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1326400</v>
+        <v>1263600</v>
       </c>
       <c r="E52" s="3">
-        <v>1548800</v>
+        <v>1475500</v>
       </c>
       <c r="F52" s="3">
-        <v>1476400</v>
+        <v>1406500</v>
       </c>
       <c r="G52" s="3">
-        <v>1366500</v>
+        <v>1301800</v>
       </c>
       <c r="H52" s="3">
-        <v>619300</v>
+        <v>589900</v>
       </c>
       <c r="I52" s="3">
-        <v>536500</v>
+        <v>511100</v>
       </c>
       <c r="J52" s="3">
-        <v>491300</v>
+        <v>468000</v>
       </c>
       <c r="K52" s="3">
         <v>460400</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41024700</v>
+        <v>39082400</v>
       </c>
       <c r="E54" s="3">
-        <v>40459800</v>
+        <v>38544200</v>
       </c>
       <c r="F54" s="3">
-        <v>41491400</v>
+        <v>39527000</v>
       </c>
       <c r="G54" s="3">
-        <v>38415800</v>
+        <v>36597000</v>
       </c>
       <c r="H54" s="3">
-        <v>38916200</v>
+        <v>37073600</v>
       </c>
       <c r="I54" s="3">
-        <v>37295000</v>
+        <v>35529200</v>
       </c>
       <c r="J54" s="3">
-        <v>39081600</v>
+        <v>37231300</v>
       </c>
       <c r="K54" s="3">
         <v>37161100</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5784000</v>
+        <v>5510200</v>
       </c>
       <c r="E57" s="3">
-        <v>5432400</v>
+        <v>5175200</v>
       </c>
       <c r="F57" s="3">
-        <v>5707800</v>
+        <v>5437500</v>
       </c>
       <c r="G57" s="3">
-        <v>5106600</v>
+        <v>4864800</v>
       </c>
       <c r="H57" s="3">
-        <v>5354800</v>
+        <v>5101300</v>
       </c>
       <c r="I57" s="3">
-        <v>4606300</v>
+        <v>4388200</v>
       </c>
       <c r="J57" s="3">
-        <v>5092400</v>
+        <v>4851300</v>
       </c>
       <c r="K57" s="3">
         <v>4398100</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4371000</v>
+        <v>4164000</v>
       </c>
       <c r="E58" s="3">
-        <v>2532600</v>
+        <v>2412700</v>
       </c>
       <c r="F58" s="3">
-        <v>2252100</v>
+        <v>2145400</v>
       </c>
       <c r="G58" s="3">
-        <v>2363300</v>
+        <v>2251400</v>
       </c>
       <c r="H58" s="3">
-        <v>3074300</v>
+        <v>2928700</v>
       </c>
       <c r="I58" s="3">
-        <v>3179000</v>
+        <v>3028500</v>
       </c>
       <c r="J58" s="3">
-        <v>3546200</v>
+        <v>3378300</v>
       </c>
       <c r="K58" s="3">
         <v>2684300</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1290200</v>
+        <v>1229100</v>
       </c>
       <c r="E59" s="3">
-        <v>1088500</v>
+        <v>1037000</v>
       </c>
       <c r="F59" s="3">
-        <v>1255300</v>
+        <v>1195900</v>
       </c>
       <c r="G59" s="3">
-        <v>752400</v>
+        <v>716800</v>
       </c>
       <c r="H59" s="3">
-        <v>947600</v>
+        <v>902800</v>
       </c>
       <c r="I59" s="3">
-        <v>824800</v>
+        <v>785800</v>
       </c>
       <c r="J59" s="3">
-        <v>1141600</v>
+        <v>1087500</v>
       </c>
       <c r="K59" s="3">
         <v>987400</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11445200</v>
+        <v>10903400</v>
       </c>
       <c r="E60" s="3">
-        <v>9053500</v>
+        <v>8624900</v>
       </c>
       <c r="F60" s="3">
-        <v>9215100</v>
+        <v>8778800</v>
       </c>
       <c r="G60" s="3">
-        <v>8222300</v>
+        <v>7833000</v>
       </c>
       <c r="H60" s="3">
-        <v>9376800</v>
+        <v>8932800</v>
       </c>
       <c r="I60" s="3">
-        <v>8610100</v>
+        <v>8202500</v>
       </c>
       <c r="J60" s="3">
-        <v>9780100</v>
+        <v>9317100</v>
       </c>
       <c r="K60" s="3">
         <v>8069800</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13045700</v>
+        <v>12428100</v>
       </c>
       <c r="E61" s="3">
-        <v>13698600</v>
+        <v>13050000</v>
       </c>
       <c r="F61" s="3">
-        <v>13279700</v>
+        <v>12651000</v>
       </c>
       <c r="G61" s="3">
-        <v>10438100</v>
+        <v>9943900</v>
       </c>
       <c r="H61" s="3">
-        <v>9886100</v>
+        <v>9418000</v>
       </c>
       <c r="I61" s="3">
-        <v>8510600</v>
+        <v>8107600</v>
       </c>
       <c r="J61" s="3">
-        <v>9698700</v>
+        <v>9239500</v>
       </c>
       <c r="K61" s="3">
         <v>10527100</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4601100</v>
+        <v>4383300</v>
       </c>
       <c r="E62" s="3">
-        <v>4577800</v>
+        <v>4361100</v>
       </c>
       <c r="F62" s="3">
-        <v>4603700</v>
+        <v>4385700</v>
       </c>
       <c r="G62" s="3">
-        <v>4612700</v>
+        <v>4394300</v>
       </c>
       <c r="H62" s="3">
-        <v>4540300</v>
+        <v>4325400</v>
       </c>
       <c r="I62" s="3">
-        <v>4624400</v>
+        <v>4405400</v>
       </c>
       <c r="J62" s="3">
-        <v>5054900</v>
+        <v>4815600</v>
       </c>
       <c r="K62" s="3">
         <v>5286400</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31298900</v>
+        <v>29817000</v>
       </c>
       <c r="E66" s="3">
-        <v>29650600</v>
+        <v>28246700</v>
       </c>
       <c r="F66" s="3">
-        <v>29383000</v>
+        <v>27991800</v>
       </c>
       <c r="G66" s="3">
-        <v>25555000</v>
+        <v>24345000</v>
       </c>
       <c r="H66" s="3">
-        <v>26088900</v>
+        <v>24853700</v>
       </c>
       <c r="I66" s="3">
-        <v>23962200</v>
+        <v>22827700</v>
       </c>
       <c r="J66" s="3">
-        <v>26833600</v>
+        <v>25563100</v>
       </c>
       <c r="K66" s="3">
         <v>26035300</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8660500</v>
+        <v>8250500</v>
       </c>
       <c r="E72" s="3">
-        <v>11767200</v>
+        <v>11210000</v>
       </c>
       <c r="F72" s="3">
-        <v>10451100</v>
+        <v>9956300</v>
       </c>
       <c r="G72" s="3">
-        <v>14211900</v>
+        <v>13539000</v>
       </c>
       <c r="H72" s="3">
-        <v>13921000</v>
+        <v>13261900</v>
       </c>
       <c r="I72" s="3">
-        <v>13958500</v>
+        <v>13297600</v>
       </c>
       <c r="J72" s="3">
-        <v>12816900</v>
+        <v>12210100</v>
       </c>
       <c r="K72" s="3">
         <v>11864000</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9725800</v>
+        <v>9265300</v>
       </c>
       <c r="E76" s="3">
-        <v>10809200</v>
+        <v>10297400</v>
       </c>
       <c r="F76" s="3">
-        <v>12108500</v>
+        <v>11535200</v>
       </c>
       <c r="G76" s="3">
-        <v>12860900</v>
+        <v>12252000</v>
       </c>
       <c r="H76" s="3">
-        <v>12827300</v>
+        <v>12219900</v>
       </c>
       <c r="I76" s="3">
-        <v>13332700</v>
+        <v>12701500</v>
       </c>
       <c r="J76" s="3">
-        <v>12248100</v>
+        <v>11668200</v>
       </c>
       <c r="K76" s="3">
         <v>11125800</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2411100</v>
+        <v>2296900</v>
       </c>
       <c r="E81" s="3">
-        <v>1530700</v>
+        <v>1458200</v>
       </c>
       <c r="F81" s="3">
-        <v>2554600</v>
+        <v>2433600</v>
       </c>
       <c r="G81" s="3">
-        <v>1246300</v>
+        <v>1187300</v>
       </c>
       <c r="H81" s="3">
-        <v>2660600</v>
+        <v>2534600</v>
       </c>
       <c r="I81" s="3">
-        <v>1484100</v>
+        <v>1413900</v>
       </c>
       <c r="J81" s="3">
-        <v>1957300</v>
+        <v>1864600</v>
       </c>
       <c r="K81" s="3">
         <v>1093000</v>
@@ -3239,25 +3239,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>369700</v>
+        <v>352200</v>
       </c>
       <c r="E83" s="3">
-        <v>244300</v>
+        <v>232800</v>
       </c>
       <c r="F83" s="3">
-        <v>239200</v>
+        <v>227800</v>
       </c>
       <c r="G83" s="3">
-        <v>395600</v>
+        <v>376900</v>
       </c>
       <c r="H83" s="3">
-        <v>241800</v>
+        <v>230300</v>
       </c>
       <c r="I83" s="3">
-        <v>236600</v>
+        <v>225400</v>
       </c>
       <c r="J83" s="3">
-        <v>230100</v>
+        <v>219200</v>
       </c>
       <c r="K83" s="3">
         <v>250400</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1665100</v>
+        <v>1586300</v>
       </c>
       <c r="E89" s="3">
-        <v>2125400</v>
+        <v>2024800</v>
       </c>
       <c r="F89" s="3">
-        <v>2073700</v>
+        <v>1975500</v>
       </c>
       <c r="G89" s="3">
-        <v>2373600</v>
+        <v>2261200</v>
       </c>
       <c r="H89" s="3">
-        <v>1613400</v>
+        <v>1537000</v>
       </c>
       <c r="I89" s="3">
-        <v>2411100</v>
+        <v>2296900</v>
       </c>
       <c r="J89" s="3">
-        <v>1638000</v>
+        <v>1560400</v>
       </c>
       <c r="K89" s="3">
         <v>1970800</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-426600</v>
+        <v>-406400</v>
       </c>
       <c r="E91" s="3">
-        <v>-517100</v>
+        <v>-492600</v>
       </c>
       <c r="F91" s="3">
-        <v>-350400</v>
+        <v>-333800</v>
       </c>
       <c r="G91" s="3">
-        <v>-483500</v>
+        <v>-460600</v>
       </c>
       <c r="H91" s="3">
-        <v>-271500</v>
+        <v>-258600</v>
       </c>
       <c r="I91" s="3">
-        <v>-415000</v>
+        <v>-395300</v>
       </c>
       <c r="J91" s="3">
-        <v>-254700</v>
+        <v>-242600</v>
       </c>
       <c r="K91" s="3">
         <v>-393900</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-553300</v>
+        <v>-527100</v>
       </c>
       <c r="E94" s="3">
-        <v>-515800</v>
+        <v>-491400</v>
       </c>
       <c r="F94" s="3">
-        <v>166800</v>
+        <v>158900</v>
       </c>
       <c r="G94" s="3">
-        <v>-482200</v>
+        <v>-459400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1005800</v>
+        <v>-958200</v>
       </c>
       <c r="I94" s="3">
-        <v>-437000</v>
+        <v>-416300</v>
       </c>
       <c r="J94" s="3">
-        <v>-276700</v>
+        <v>-263600</v>
       </c>
       <c r="K94" s="3">
         <v>197000</v>
@@ -3689,25 +3689,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1300600</v>
+        <v>-1239000</v>
       </c>
       <c r="E96" s="3">
-        <v>-814500</v>
+        <v>-775900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1283800</v>
+        <v>-1223000</v>
       </c>
       <c r="G96" s="3">
-        <v>-792500</v>
+        <v>-755000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1251400</v>
+        <v>-1192200</v>
       </c>
       <c r="I96" s="3">
-        <v>-769200</v>
+        <v>-732800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1189400</v>
+        <v>-1133100</v>
       </c>
       <c r="K96" s="3">
         <v>-739500</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-943800</v>
+        <v>-899100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2434400</v>
+        <v>-2319100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1345800</v>
+        <v>-1282100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1868100</v>
+        <v>-1779700</v>
       </c>
       <c r="H100" s="3">
-        <v>-870100</v>
+        <v>-828900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1983200</v>
+        <v>-1889300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1194600</v>
+        <v>-1138000</v>
       </c>
       <c r="K100" s="3">
         <v>-1869100</v>
@@ -3879,25 +3879,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41400</v>
+        <v>-39400</v>
       </c>
       <c r="E101" s="3">
-        <v>-51700</v>
+        <v>-49300</v>
       </c>
       <c r="F101" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="G101" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="H101" s="3">
-        <v>-36200</v>
+        <v>-34500</v>
       </c>
       <c r="I101" s="3">
-        <v>-60800</v>
+        <v>-57900</v>
       </c>
       <c r="J101" s="3">
-        <v>42700</v>
+        <v>40600</v>
       </c>
       <c r="K101" s="3">
         <v>147400</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>126700</v>
+        <v>120700</v>
       </c>
       <c r="E102" s="3">
-        <v>-876500</v>
+        <v>-835000</v>
       </c>
       <c r="F102" s="3">
-        <v>912700</v>
+        <v>869500</v>
       </c>
       <c r="G102" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="H102" s="3">
-        <v>-298600</v>
+        <v>-284500</v>
       </c>
       <c r="I102" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="J102" s="3">
-        <v>209400</v>
+        <v>199500</v>
       </c>
       <c r="K102" s="3">
         <v>446100</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8867500</v>
+        <v>6012200</v>
       </c>
       <c r="E8" s="3">
-        <v>7339100</v>
+        <v>9509700</v>
       </c>
       <c r="F8" s="3">
-        <v>8507900</v>
+        <v>7870600</v>
       </c>
       <c r="G8" s="3">
-        <v>6937600</v>
+        <v>9124000</v>
       </c>
       <c r="H8" s="3">
-        <v>8042300</v>
+        <v>7440000</v>
       </c>
       <c r="I8" s="3">
-        <v>6932700</v>
+        <v>8624800</v>
       </c>
       <c r="J8" s="3">
+        <v>7434700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7908100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6363700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7312000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6469400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3327800</v>
+        <v>2578200</v>
       </c>
       <c r="E9" s="3">
-        <v>2904100</v>
+        <v>3568800</v>
       </c>
       <c r="F9" s="3">
-        <v>3088900</v>
+        <v>3114400</v>
       </c>
       <c r="G9" s="3">
-        <v>2703400</v>
+        <v>3312500</v>
       </c>
       <c r="H9" s="3">
-        <v>3003900</v>
+        <v>2899100</v>
       </c>
       <c r="I9" s="3">
-        <v>2728000</v>
+        <v>3221400</v>
       </c>
       <c r="J9" s="3">
+        <v>2925500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3035900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2555100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2989500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2853500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5539700</v>
+        <v>3434100</v>
       </c>
       <c r="E10" s="3">
-        <v>4435000</v>
+        <v>5940900</v>
       </c>
       <c r="F10" s="3">
-        <v>5419000</v>
+        <v>4756200</v>
       </c>
       <c r="G10" s="3">
-        <v>4234200</v>
+        <v>5811500</v>
       </c>
       <c r="H10" s="3">
-        <v>5038500</v>
+        <v>4540900</v>
       </c>
       <c r="I10" s="3">
-        <v>4204700</v>
+        <v>5403400</v>
       </c>
       <c r="J10" s="3">
+        <v>4509200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4872200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3808600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4322500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3615900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,46 +949,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72700</v>
+        <v>1728900</v>
       </c>
       <c r="E14" s="3">
-        <v>13500</v>
+        <v>77900</v>
       </c>
       <c r="F14" s="3">
-        <v>-154000</v>
+        <v>14500</v>
       </c>
       <c r="G14" s="3">
-        <v>157600</v>
+        <v>-165100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>169100</v>
       </c>
       <c r="I14" s="3">
-        <v>51700</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-24600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>197000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-139600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-233100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5860000</v>
+        <v>6445500</v>
       </c>
       <c r="E17" s="3">
-        <v>5367300</v>
+        <v>6284300</v>
       </c>
       <c r="F17" s="3">
-        <v>5335300</v>
+        <v>5756000</v>
       </c>
       <c r="G17" s="3">
-        <v>5089000</v>
+        <v>5721700</v>
       </c>
       <c r="H17" s="3">
-        <v>5345100</v>
+        <v>5457500</v>
       </c>
       <c r="I17" s="3">
-        <v>5092700</v>
+        <v>5732200</v>
       </c>
       <c r="J17" s="3">
+        <v>5461500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5340200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4876800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4932900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4620600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3007600</v>
+        <v>-433200</v>
       </c>
       <c r="E18" s="3">
-        <v>1971800</v>
+        <v>3225400</v>
       </c>
       <c r="F18" s="3">
-        <v>3172600</v>
+        <v>2114600</v>
       </c>
       <c r="G18" s="3">
-        <v>1848600</v>
+        <v>3402400</v>
       </c>
       <c r="H18" s="3">
-        <v>2697200</v>
+        <v>1982500</v>
       </c>
       <c r="I18" s="3">
-        <v>1840000</v>
+        <v>2892500</v>
       </c>
       <c r="J18" s="3">
+        <v>1973300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2567900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1486900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2379100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1848800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>360900</v>
+        <v>212600</v>
       </c>
       <c r="E20" s="3">
-        <v>321400</v>
+        <v>387000</v>
       </c>
       <c r="F20" s="3">
-        <v>338700</v>
+        <v>344700</v>
       </c>
       <c r="G20" s="3">
-        <v>273400</v>
+        <v>363200</v>
       </c>
       <c r="H20" s="3">
-        <v>273400</v>
+        <v>293200</v>
       </c>
       <c r="I20" s="3">
-        <v>253700</v>
+        <v>293200</v>
       </c>
       <c r="J20" s="3">
+        <v>272100</v>
+      </c>
+      <c r="K20" s="3">
         <v>277100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>206100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>254300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>181700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3720700</v>
+        <v>1830600</v>
       </c>
       <c r="E21" s="3">
-        <v>2526000</v>
+        <v>3990100</v>
       </c>
       <c r="F21" s="3">
-        <v>3739100</v>
+        <v>2708900</v>
       </c>
       <c r="G21" s="3">
-        <v>2498900</v>
+        <v>4009900</v>
       </c>
       <c r="H21" s="3">
-        <v>3200900</v>
+        <v>2679900</v>
       </c>
       <c r="I21" s="3">
-        <v>2319100</v>
+        <v>3432700</v>
       </c>
       <c r="J21" s="3">
+        <v>2487000</v>
+      </c>
+      <c r="K21" s="3">
         <v>3064200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1943400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2999900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2359700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>333800</v>
+        <v>335500</v>
       </c>
       <c r="E22" s="3">
-        <v>312800</v>
+        <v>357900</v>
       </c>
       <c r="F22" s="3">
-        <v>275900</v>
+        <v>335500</v>
       </c>
       <c r="G22" s="3">
-        <v>230300</v>
+        <v>295900</v>
       </c>
       <c r="H22" s="3">
-        <v>256200</v>
+        <v>247000</v>
       </c>
       <c r="I22" s="3">
-        <v>264800</v>
+        <v>274700</v>
       </c>
       <c r="J22" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K22" s="3">
         <v>290700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>292200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>306500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>327900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3034700</v>
+        <v>-556100</v>
       </c>
       <c r="E23" s="3">
-        <v>1980400</v>
+        <v>3254400</v>
       </c>
       <c r="F23" s="3">
-        <v>3235400</v>
+        <v>2123800</v>
       </c>
       <c r="G23" s="3">
-        <v>1891700</v>
+        <v>3469700</v>
       </c>
       <c r="H23" s="3">
-        <v>2714400</v>
+        <v>2028700</v>
       </c>
       <c r="I23" s="3">
-        <v>1828900</v>
+        <v>2911000</v>
       </c>
       <c r="J23" s="3">
+        <v>1961400</v>
+      </c>
+      <c r="K23" s="3">
         <v>2554300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2326900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1702600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>652700</v>
+        <v>77900</v>
       </c>
       <c r="E24" s="3">
-        <v>416300</v>
+        <v>700000</v>
       </c>
       <c r="F24" s="3">
-        <v>689700</v>
+        <v>446400</v>
       </c>
       <c r="G24" s="3">
-        <v>631800</v>
+        <v>739600</v>
       </c>
       <c r="H24" s="3">
-        <v>538200</v>
+        <v>677600</v>
       </c>
       <c r="I24" s="3">
-        <v>364600</v>
+        <v>577200</v>
       </c>
       <c r="J24" s="3">
+        <v>391000</v>
+      </c>
+      <c r="K24" s="3">
         <v>537000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>260900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>386100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>250200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2381900</v>
+        <v>-634000</v>
       </c>
       <c r="E26" s="3">
-        <v>1564100</v>
+        <v>2554400</v>
       </c>
       <c r="F26" s="3">
-        <v>2545700</v>
+        <v>1677400</v>
       </c>
       <c r="G26" s="3">
-        <v>1259900</v>
+        <v>2730100</v>
       </c>
       <c r="H26" s="3">
-        <v>2176200</v>
+        <v>1351200</v>
       </c>
       <c r="I26" s="3">
-        <v>1464400</v>
+        <v>2333800</v>
       </c>
       <c r="J26" s="3">
+        <v>1570400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2017400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1140000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1940800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1452400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2296900</v>
+        <v>-602300</v>
       </c>
       <c r="E27" s="3">
-        <v>1458200</v>
+        <v>2463300</v>
       </c>
       <c r="F27" s="3">
-        <v>2433600</v>
+        <v>1563800</v>
       </c>
       <c r="G27" s="3">
-        <v>1194700</v>
+        <v>2609900</v>
       </c>
       <c r="H27" s="3">
-        <v>2091300</v>
+        <v>1281200</v>
       </c>
       <c r="I27" s="3">
-        <v>1413900</v>
+        <v>2242700</v>
       </c>
       <c r="J27" s="3">
+        <v>1516300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1932400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1093000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1833900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1409000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,46 +1513,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-7400</v>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>443400</v>
+        <v>-7900</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>475500</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-67700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-360900</v>
+        <v>-212600</v>
       </c>
       <c r="E32" s="3">
-        <v>-321400</v>
+        <v>-387000</v>
       </c>
       <c r="F32" s="3">
-        <v>-338700</v>
+        <v>-344700</v>
       </c>
       <c r="G32" s="3">
-        <v>-273400</v>
+        <v>-363200</v>
       </c>
       <c r="H32" s="3">
-        <v>-273400</v>
+        <v>-293200</v>
       </c>
       <c r="I32" s="3">
-        <v>-253700</v>
+        <v>-293200</v>
       </c>
       <c r="J32" s="3">
+        <v>-272100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-277100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-206100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-254300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-181700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2296900</v>
+        <v>-602300</v>
       </c>
       <c r="E33" s="3">
-        <v>1458200</v>
+        <v>2463300</v>
       </c>
       <c r="F33" s="3">
-        <v>2433600</v>
+        <v>1563800</v>
       </c>
       <c r="G33" s="3">
-        <v>1187300</v>
+        <v>2609900</v>
       </c>
       <c r="H33" s="3">
-        <v>2534600</v>
+        <v>1273200</v>
       </c>
       <c r="I33" s="3">
-        <v>1413900</v>
+        <v>2718200</v>
       </c>
       <c r="J33" s="3">
+        <v>1516300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1864600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1093000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1833900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1409000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2296900</v>
+        <v>-602300</v>
       </c>
       <c r="E35" s="3">
-        <v>1458200</v>
+        <v>2463300</v>
       </c>
       <c r="F35" s="3">
-        <v>2433600</v>
+        <v>1563800</v>
       </c>
       <c r="G35" s="3">
-        <v>1187300</v>
+        <v>2609900</v>
       </c>
       <c r="H35" s="3">
-        <v>2534600</v>
+        <v>1273200</v>
       </c>
       <c r="I35" s="3">
-        <v>1413900</v>
+        <v>2718200</v>
       </c>
       <c r="J35" s="3">
+        <v>1516300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1864600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1093000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1833900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1409000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1170000</v>
+        <v>4389000</v>
       </c>
       <c r="E41" s="3">
-        <v>1147900</v>
+        <v>1254800</v>
       </c>
       <c r="F41" s="3">
-        <v>1959500</v>
+        <v>1231000</v>
       </c>
       <c r="G41" s="3">
-        <v>1076400</v>
+        <v>2101400</v>
       </c>
       <c r="H41" s="3">
-        <v>1133100</v>
+        <v>1154400</v>
       </c>
       <c r="I41" s="3">
-        <v>1466800</v>
+        <v>1215100</v>
       </c>
       <c r="J41" s="3">
+        <v>1573100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1544400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1420400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>705600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>621500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>51700</v>
+        <v>99100</v>
       </c>
       <c r="E42" s="3">
-        <v>156400</v>
+        <v>55500</v>
       </c>
       <c r="F42" s="3">
-        <v>14800</v>
+        <v>167700</v>
       </c>
       <c r="G42" s="3">
-        <v>43100</v>
+        <v>15800</v>
       </c>
       <c r="H42" s="3">
-        <v>151500</v>
+        <v>46200</v>
       </c>
       <c r="I42" s="3">
-        <v>99800</v>
+        <v>162500</v>
       </c>
       <c r="J42" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K42" s="3">
         <v>155200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>645600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>288300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>60600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4501500</v>
+        <v>3039100</v>
       </c>
       <c r="E43" s="3">
-        <v>3420200</v>
+        <v>4827500</v>
       </c>
       <c r="F43" s="3">
-        <v>4375900</v>
+        <v>3667800</v>
       </c>
       <c r="G43" s="3">
-        <v>3378300</v>
+        <v>4692800</v>
       </c>
       <c r="H43" s="3">
-        <v>4357400</v>
+        <v>3622900</v>
       </c>
       <c r="I43" s="3">
-        <v>3192300</v>
+        <v>4673000</v>
       </c>
       <c r="J43" s="3">
+        <v>3423500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4437500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3503400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4013400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3206400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6723300</v>
+        <v>7623600</v>
       </c>
       <c r="E44" s="3">
-        <v>6739300</v>
+        <v>7210200</v>
       </c>
       <c r="F44" s="3">
-        <v>6497900</v>
+        <v>7227400</v>
       </c>
       <c r="G44" s="3">
-        <v>6176500</v>
+        <v>6968500</v>
       </c>
       <c r="H44" s="3">
-        <v>6058200</v>
+        <v>6623800</v>
       </c>
       <c r="I44" s="3">
-        <v>5896900</v>
+        <v>6497000</v>
       </c>
       <c r="J44" s="3">
+        <v>6323900</v>
+      </c>
+      <c r="K44" s="3">
         <v>5839000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5972400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5722000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6023000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62800</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>80100</v>
+        <v>67400</v>
       </c>
       <c r="F45" s="3">
-        <v>102200</v>
+        <v>85900</v>
       </c>
       <c r="G45" s="3">
-        <v>29600</v>
+        <v>109600</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>31700</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>734300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12509400</v>
+        <v>15150800</v>
       </c>
       <c r="E46" s="3">
-        <v>11543800</v>
+        <v>13415300</v>
       </c>
       <c r="F46" s="3">
-        <v>12950300</v>
+        <v>12379800</v>
       </c>
       <c r="G46" s="3">
-        <v>10703800</v>
+        <v>13888100</v>
       </c>
       <c r="H46" s="3">
-        <v>11700200</v>
+        <v>11479000</v>
       </c>
       <c r="I46" s="3">
-        <v>10655800</v>
+        <v>12547500</v>
       </c>
       <c r="J46" s="3">
+        <v>11427500</v>
+      </c>
+      <c r="K46" s="3">
         <v>11979800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11545800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11463600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10099800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4481800</v>
+        <v>5719000</v>
       </c>
       <c r="E47" s="3">
-        <v>4531100</v>
+        <v>4806400</v>
       </c>
       <c r="F47" s="3">
-        <v>4455900</v>
+        <v>4859200</v>
       </c>
       <c r="G47" s="3">
-        <v>4043300</v>
+        <v>4778600</v>
       </c>
       <c r="H47" s="3">
-        <v>4116000</v>
+        <v>4336200</v>
       </c>
       <c r="I47" s="3">
-        <v>3916500</v>
+        <v>4414100</v>
       </c>
       <c r="J47" s="3">
+        <v>4200100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3953400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3945500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3457700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3322300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6005300</v>
+        <v>6573600</v>
       </c>
       <c r="E48" s="3">
-        <v>5528700</v>
+        <v>6440200</v>
       </c>
       <c r="F48" s="3">
-        <v>5251500</v>
+        <v>5929000</v>
       </c>
       <c r="G48" s="3">
-        <v>5064300</v>
+        <v>5631800</v>
       </c>
       <c r="H48" s="3">
-        <v>4894400</v>
+        <v>5431100</v>
       </c>
       <c r="I48" s="3">
-        <v>4969500</v>
+        <v>5248800</v>
       </c>
       <c r="J48" s="3">
+        <v>5329400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4928900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5075100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4738600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4944500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14822300</v>
+        <v>14924900</v>
       </c>
       <c r="E49" s="3">
-        <v>15465200</v>
+        <v>15895700</v>
       </c>
       <c r="F49" s="3">
-        <v>15462700</v>
+        <v>16585200</v>
       </c>
       <c r="G49" s="3">
-        <v>15483700</v>
+        <v>16582500</v>
       </c>
       <c r="H49" s="3">
-        <v>15773100</v>
+        <v>16605000</v>
       </c>
       <c r="I49" s="3">
-        <v>15476300</v>
+        <v>16915400</v>
       </c>
       <c r="J49" s="3">
+        <v>16597000</v>
+      </c>
+      <c r="K49" s="3">
         <v>15901200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16134300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14781700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14788900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1263600</v>
+        <v>1624600</v>
       </c>
       <c r="E52" s="3">
-        <v>1475500</v>
+        <v>1355100</v>
       </c>
       <c r="F52" s="3">
-        <v>1406500</v>
+        <v>1582300</v>
       </c>
       <c r="G52" s="3">
-        <v>1301800</v>
+        <v>1508300</v>
       </c>
       <c r="H52" s="3">
-        <v>589900</v>
+        <v>1396100</v>
       </c>
       <c r="I52" s="3">
-        <v>511100</v>
+        <v>632700</v>
       </c>
       <c r="J52" s="3">
+        <v>548100</v>
+      </c>
+      <c r="K52" s="3">
         <v>468000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>460400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>510000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>823000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39082400</v>
+        <v>43992900</v>
       </c>
       <c r="E54" s="3">
-        <v>38544200</v>
+        <v>41912600</v>
       </c>
       <c r="F54" s="3">
-        <v>39527000</v>
+        <v>41335400</v>
       </c>
       <c r="G54" s="3">
-        <v>36597000</v>
+        <v>42389400</v>
       </c>
       <c r="H54" s="3">
-        <v>37073600</v>
+        <v>39247300</v>
       </c>
       <c r="I54" s="3">
-        <v>35529200</v>
+        <v>39758400</v>
       </c>
       <c r="J54" s="3">
+        <v>38102100</v>
+      </c>
+      <c r="K54" s="3">
         <v>37231300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37161100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34951600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33978400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5510200</v>
+        <v>4864500</v>
       </c>
       <c r="E57" s="3">
-        <v>5175200</v>
+        <v>5909200</v>
       </c>
       <c r="F57" s="3">
-        <v>5437500</v>
+        <v>5550000</v>
       </c>
       <c r="G57" s="3">
-        <v>4864800</v>
+        <v>5831300</v>
       </c>
       <c r="H57" s="3">
-        <v>5101300</v>
+        <v>5217100</v>
       </c>
       <c r="I57" s="3">
-        <v>4388200</v>
+        <v>5470700</v>
       </c>
       <c r="J57" s="3">
+        <v>4706000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4851300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4398100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4166000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3875300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4164000</v>
+        <v>2635000</v>
       </c>
       <c r="E58" s="3">
-        <v>2412700</v>
+        <v>4465600</v>
       </c>
       <c r="F58" s="3">
-        <v>2145400</v>
+        <v>2587400</v>
       </c>
       <c r="G58" s="3">
-        <v>2251400</v>
+        <v>2300800</v>
       </c>
       <c r="H58" s="3">
-        <v>2928700</v>
+        <v>2414400</v>
       </c>
       <c r="I58" s="3">
-        <v>3028500</v>
+        <v>3140800</v>
       </c>
       <c r="J58" s="3">
+        <v>3247800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3378300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2684300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2523800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2529600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1229100</v>
+        <v>1080400</v>
       </c>
       <c r="E59" s="3">
-        <v>1037000</v>
+        <v>1318100</v>
       </c>
       <c r="F59" s="3">
-        <v>1195900</v>
+        <v>1112100</v>
       </c>
       <c r="G59" s="3">
-        <v>716800</v>
+        <v>1282500</v>
       </c>
       <c r="H59" s="3">
-        <v>902800</v>
+        <v>768700</v>
       </c>
       <c r="I59" s="3">
-        <v>785800</v>
+        <v>968100</v>
       </c>
       <c r="J59" s="3">
+        <v>842700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1087500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>987400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>875200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>561000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10903400</v>
+        <v>8579900</v>
       </c>
       <c r="E60" s="3">
-        <v>8624900</v>
+        <v>11693000</v>
       </c>
       <c r="F60" s="3">
-        <v>8778800</v>
+        <v>9249500</v>
       </c>
       <c r="G60" s="3">
-        <v>7833000</v>
+        <v>9414600</v>
       </c>
       <c r="H60" s="3">
-        <v>8932800</v>
+        <v>8400200</v>
       </c>
       <c r="I60" s="3">
-        <v>8202500</v>
+        <v>9579700</v>
       </c>
       <c r="J60" s="3">
+        <v>8796500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9317100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8069800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7565000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6965800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12428100</v>
+        <v>19534500</v>
       </c>
       <c r="E61" s="3">
-        <v>13050000</v>
+        <v>13328100</v>
       </c>
       <c r="F61" s="3">
-        <v>12651000</v>
+        <v>13995100</v>
       </c>
       <c r="G61" s="3">
-        <v>9943900</v>
+        <v>13567200</v>
       </c>
       <c r="H61" s="3">
-        <v>9418000</v>
+        <v>10664100</v>
       </c>
       <c r="I61" s="3">
-        <v>8107600</v>
+        <v>10100100</v>
       </c>
       <c r="J61" s="3">
+        <v>8694800</v>
+      </c>
+      <c r="K61" s="3">
         <v>9239500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10527100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10343200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11008400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4383300</v>
+        <v>4731100</v>
       </c>
       <c r="E62" s="3">
-        <v>4361100</v>
+        <v>4700700</v>
       </c>
       <c r="F62" s="3">
-        <v>4385700</v>
+        <v>4676900</v>
       </c>
       <c r="G62" s="3">
-        <v>4394300</v>
+        <v>4703300</v>
       </c>
       <c r="H62" s="3">
-        <v>4325400</v>
+        <v>4712600</v>
       </c>
       <c r="I62" s="3">
-        <v>4405400</v>
+        <v>4638600</v>
       </c>
       <c r="J62" s="3">
+        <v>4724500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4815600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5286400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4421600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3816100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29817000</v>
+        <v>35048500</v>
       </c>
       <c r="E66" s="3">
-        <v>28246700</v>
+        <v>31976300</v>
       </c>
       <c r="F66" s="3">
-        <v>27991800</v>
+        <v>30292300</v>
       </c>
       <c r="G66" s="3">
-        <v>24345000</v>
+        <v>30018900</v>
       </c>
       <c r="H66" s="3">
-        <v>24853700</v>
+        <v>26108100</v>
       </c>
       <c r="I66" s="3">
-        <v>22827700</v>
+        <v>26653500</v>
       </c>
       <c r="J66" s="3">
+        <v>24480800</v>
+      </c>
+      <c r="K66" s="3">
         <v>25563100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26035300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24335800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23745700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8250500</v>
+        <v>9964000</v>
       </c>
       <c r="E72" s="3">
-        <v>11210000</v>
+        <v>11426200</v>
       </c>
       <c r="F72" s="3">
-        <v>9956300</v>
+        <v>12021800</v>
       </c>
       <c r="G72" s="3">
-        <v>13539000</v>
+        <v>13412600</v>
       </c>
       <c r="H72" s="3">
-        <v>13261900</v>
+        <v>14519400</v>
       </c>
       <c r="I72" s="3">
-        <v>13297600</v>
+        <v>14222300</v>
       </c>
       <c r="J72" s="3">
+        <v>14260600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12210100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11864000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12143100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11861600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9265300</v>
+        <v>8944400</v>
       </c>
       <c r="E76" s="3">
-        <v>10297400</v>
+        <v>9936300</v>
       </c>
       <c r="F76" s="3">
-        <v>11535200</v>
+        <v>11043100</v>
       </c>
       <c r="G76" s="3">
-        <v>12252000</v>
+        <v>12370500</v>
       </c>
       <c r="H76" s="3">
-        <v>12219900</v>
+        <v>13139200</v>
       </c>
       <c r="I76" s="3">
-        <v>12701500</v>
+        <v>13104900</v>
       </c>
       <c r="J76" s="3">
+        <v>13621300</v>
+      </c>
+      <c r="K76" s="3">
         <v>11668200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11125800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10615800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10232800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2296900</v>
+        <v>-602300</v>
       </c>
       <c r="E81" s="3">
-        <v>1458200</v>
+        <v>2463300</v>
       </c>
       <c r="F81" s="3">
-        <v>2433600</v>
+        <v>1563800</v>
       </c>
       <c r="G81" s="3">
-        <v>1187300</v>
+        <v>2609900</v>
       </c>
       <c r="H81" s="3">
-        <v>2534600</v>
+        <v>1273200</v>
       </c>
       <c r="I81" s="3">
-        <v>1413900</v>
+        <v>2718200</v>
       </c>
       <c r="J81" s="3">
+        <v>1516300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1864600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1093000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1833900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1409000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>352200</v>
+        <v>2051200</v>
       </c>
       <c r="E83" s="3">
-        <v>232800</v>
+        <v>377700</v>
       </c>
       <c r="F83" s="3">
-        <v>227800</v>
+        <v>249600</v>
       </c>
       <c r="G83" s="3">
-        <v>376900</v>
+        <v>244300</v>
       </c>
       <c r="H83" s="3">
-        <v>230300</v>
+        <v>404200</v>
       </c>
       <c r="I83" s="3">
-        <v>225400</v>
+        <v>247000</v>
       </c>
       <c r="J83" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K83" s="3">
         <v>219200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>250400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>366500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>329200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1586300</v>
+        <v>1363100</v>
       </c>
       <c r="E89" s="3">
-        <v>2024800</v>
+        <v>1701200</v>
       </c>
       <c r="F89" s="3">
-        <v>1975500</v>
+        <v>2171400</v>
       </c>
       <c r="G89" s="3">
-        <v>2261200</v>
+        <v>2118500</v>
       </c>
       <c r="H89" s="3">
-        <v>1537000</v>
+        <v>2425000</v>
       </c>
       <c r="I89" s="3">
-        <v>2296900</v>
+        <v>1648300</v>
       </c>
       <c r="J89" s="3">
+        <v>2463300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1560400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1970800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1352600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2099000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-406400</v>
+        <v>-488700</v>
       </c>
       <c r="E91" s="3">
-        <v>-492600</v>
+        <v>-435900</v>
       </c>
       <c r="F91" s="3">
-        <v>-333800</v>
+        <v>-528300</v>
       </c>
       <c r="G91" s="3">
-        <v>-460600</v>
+        <v>-357900</v>
       </c>
       <c r="H91" s="3">
-        <v>-258600</v>
+        <v>-494000</v>
       </c>
       <c r="I91" s="3">
-        <v>-395300</v>
+        <v>-277400</v>
       </c>
       <c r="J91" s="3">
+        <v>-424000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-242600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-393900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-266100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-484600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-527100</v>
+        <v>-497900</v>
       </c>
       <c r="E94" s="3">
-        <v>-491400</v>
+        <v>-565300</v>
       </c>
       <c r="F94" s="3">
-        <v>158900</v>
+        <v>-527000</v>
       </c>
       <c r="G94" s="3">
-        <v>-459400</v>
+        <v>170400</v>
       </c>
       <c r="H94" s="3">
-        <v>-958200</v>
+        <v>-492700</v>
       </c>
       <c r="I94" s="3">
-        <v>-416300</v>
+        <v>-1027600</v>
       </c>
       <c r="J94" s="3">
+        <v>-446400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-263600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>197000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>580400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>36900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1239000</v>
+        <v>-845300</v>
       </c>
       <c r="E96" s="3">
-        <v>-775900</v>
+        <v>-1328700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1223000</v>
+        <v>-832100</v>
       </c>
       <c r="G96" s="3">
-        <v>-755000</v>
+        <v>-1311500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1192200</v>
+        <v>-809600</v>
       </c>
       <c r="I96" s="3">
-        <v>-732800</v>
+        <v>-1278500</v>
       </c>
       <c r="J96" s="3">
+        <v>-785900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-739500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-711100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-899100</v>
+        <v>2333800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2319100</v>
+        <v>-964200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1282100</v>
+        <v>-2487000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1779700</v>
+        <v>-1374900</v>
       </c>
       <c r="H100" s="3">
-        <v>-828900</v>
+        <v>-1908500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1889300</v>
+        <v>-888900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2026100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39400</v>
+        <v>-116200</v>
       </c>
       <c r="E101" s="3">
-        <v>-49300</v>
+        <v>-42300</v>
       </c>
       <c r="F101" s="3">
-        <v>17200</v>
+        <v>-52800</v>
       </c>
       <c r="G101" s="3">
-        <v>-13500</v>
+        <v>18500</v>
       </c>
       <c r="H101" s="3">
-        <v>-34500</v>
+        <v>-14500</v>
       </c>
       <c r="I101" s="3">
-        <v>-57900</v>
+        <v>-37000</v>
       </c>
       <c r="J101" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K101" s="3">
         <v>40600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>147400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-37800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-115900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>120700</v>
+        <v>3082700</v>
       </c>
       <c r="E102" s="3">
-        <v>-835000</v>
+        <v>129400</v>
       </c>
       <c r="F102" s="3">
-        <v>869500</v>
+        <v>-895500</v>
       </c>
       <c r="G102" s="3">
-        <v>8600</v>
+        <v>932500</v>
       </c>
       <c r="H102" s="3">
-        <v>-284500</v>
+        <v>9200</v>
       </c>
       <c r="I102" s="3">
-        <v>-66500</v>
+        <v>-305100</v>
       </c>
       <c r="J102" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="K102" s="3">
         <v>199500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>446100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>110900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-399000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6012200</v>
+        <v>6060500</v>
       </c>
       <c r="E8" s="3">
-        <v>9509700</v>
+        <v>9586100</v>
       </c>
       <c r="F8" s="3">
-        <v>7870600</v>
+        <v>7933800</v>
       </c>
       <c r="G8" s="3">
-        <v>9124000</v>
+        <v>9197300</v>
       </c>
       <c r="H8" s="3">
-        <v>7440000</v>
+        <v>7499800</v>
       </c>
       <c r="I8" s="3">
-        <v>8624800</v>
+        <v>8694000</v>
       </c>
       <c r="J8" s="3">
-        <v>7434700</v>
+        <v>7494500</v>
       </c>
       <c r="K8" s="3">
         <v>7908100</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2578200</v>
+        <v>2598900</v>
       </c>
       <c r="E9" s="3">
-        <v>3568800</v>
+        <v>3597400</v>
       </c>
       <c r="F9" s="3">
-        <v>3114400</v>
+        <v>3139400</v>
       </c>
       <c r="G9" s="3">
-        <v>3312500</v>
+        <v>3339200</v>
       </c>
       <c r="H9" s="3">
-        <v>2899100</v>
+        <v>2922400</v>
       </c>
       <c r="I9" s="3">
-        <v>3221400</v>
+        <v>3247300</v>
       </c>
       <c r="J9" s="3">
-        <v>2925500</v>
+        <v>2949100</v>
       </c>
       <c r="K9" s="3">
         <v>3035900</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3434100</v>
+        <v>3461600</v>
       </c>
       <c r="E10" s="3">
-        <v>5940900</v>
+        <v>5988600</v>
       </c>
       <c r="F10" s="3">
-        <v>4756200</v>
+        <v>4794400</v>
       </c>
       <c r="G10" s="3">
-        <v>5811500</v>
+        <v>5858200</v>
       </c>
       <c r="H10" s="3">
-        <v>4540900</v>
+        <v>4577400</v>
       </c>
       <c r="I10" s="3">
-        <v>5403400</v>
+        <v>5446800</v>
       </c>
       <c r="J10" s="3">
-        <v>4509200</v>
+        <v>4545400</v>
       </c>
       <c r="K10" s="3">
         <v>4872200</v>
@@ -958,25 +958,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1728900</v>
+        <v>1742800</v>
       </c>
       <c r="E14" s="3">
-        <v>77900</v>
+        <v>78600</v>
       </c>
       <c r="F14" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="G14" s="3">
-        <v>-165100</v>
+        <v>-166400</v>
       </c>
       <c r="H14" s="3">
-        <v>169100</v>
+        <v>170400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>55500</v>
+        <v>55900</v>
       </c>
       <c r="K14" s="3">
         <v>-24600</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6445500</v>
+        <v>6497200</v>
       </c>
       <c r="E17" s="3">
-        <v>6284300</v>
+        <v>6334800</v>
       </c>
       <c r="F17" s="3">
-        <v>5756000</v>
+        <v>5802200</v>
       </c>
       <c r="G17" s="3">
-        <v>5721700</v>
+        <v>5767600</v>
       </c>
       <c r="H17" s="3">
-        <v>5457500</v>
+        <v>5501300</v>
       </c>
       <c r="I17" s="3">
-        <v>5732200</v>
+        <v>5778300</v>
       </c>
       <c r="J17" s="3">
-        <v>5461500</v>
+        <v>5505300</v>
       </c>
       <c r="K17" s="3">
         <v>5340200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-433200</v>
+        <v>-436700</v>
       </c>
       <c r="E18" s="3">
-        <v>3225400</v>
+        <v>3251300</v>
       </c>
       <c r="F18" s="3">
-        <v>2114600</v>
+        <v>2131600</v>
       </c>
       <c r="G18" s="3">
-        <v>3402400</v>
+        <v>3429700</v>
       </c>
       <c r="H18" s="3">
-        <v>1982500</v>
+        <v>1998400</v>
       </c>
       <c r="I18" s="3">
-        <v>2892500</v>
+        <v>2915800</v>
       </c>
       <c r="J18" s="3">
-        <v>1973300</v>
+        <v>1989100</v>
       </c>
       <c r="K18" s="3">
         <v>2567900</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>212600</v>
+        <v>214400</v>
       </c>
       <c r="E20" s="3">
-        <v>387000</v>
+        <v>390100</v>
       </c>
       <c r="F20" s="3">
-        <v>344700</v>
+        <v>347500</v>
       </c>
       <c r="G20" s="3">
-        <v>363200</v>
+        <v>366100</v>
       </c>
       <c r="H20" s="3">
-        <v>293200</v>
+        <v>295600</v>
       </c>
       <c r="I20" s="3">
-        <v>293200</v>
+        <v>295600</v>
       </c>
       <c r="J20" s="3">
-        <v>272100</v>
+        <v>274300</v>
       </c>
       <c r="K20" s="3">
         <v>277100</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1830600</v>
+        <v>1845300</v>
       </c>
       <c r="E21" s="3">
-        <v>3990100</v>
+        <v>4022200</v>
       </c>
       <c r="F21" s="3">
-        <v>2708900</v>
+        <v>2730700</v>
       </c>
       <c r="G21" s="3">
-        <v>4009900</v>
+        <v>4042100</v>
       </c>
       <c r="H21" s="3">
-        <v>2679900</v>
+        <v>2701400</v>
       </c>
       <c r="I21" s="3">
-        <v>3432700</v>
+        <v>3460300</v>
       </c>
       <c r="J21" s="3">
-        <v>2487000</v>
+        <v>2507000</v>
       </c>
       <c r="K21" s="3">
         <v>3064200</v>
@@ -1235,25 +1235,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>335500</v>
+        <v>338200</v>
       </c>
       <c r="E22" s="3">
-        <v>357900</v>
+        <v>360800</v>
       </c>
       <c r="F22" s="3">
-        <v>335500</v>
+        <v>338200</v>
       </c>
       <c r="G22" s="3">
-        <v>295900</v>
+        <v>298200</v>
       </c>
       <c r="H22" s="3">
-        <v>247000</v>
+        <v>249000</v>
       </c>
       <c r="I22" s="3">
-        <v>274700</v>
+        <v>276900</v>
       </c>
       <c r="J22" s="3">
-        <v>284000</v>
+        <v>286300</v>
       </c>
       <c r="K22" s="3">
         <v>290700</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-556100</v>
+        <v>-560500</v>
       </c>
       <c r="E23" s="3">
-        <v>3254400</v>
+        <v>3280600</v>
       </c>
       <c r="F23" s="3">
-        <v>2123800</v>
+        <v>2140900</v>
       </c>
       <c r="G23" s="3">
-        <v>3469700</v>
+        <v>3497600</v>
       </c>
       <c r="H23" s="3">
-        <v>2028700</v>
+        <v>2045000</v>
       </c>
       <c r="I23" s="3">
-        <v>2911000</v>
+        <v>2934400</v>
       </c>
       <c r="J23" s="3">
-        <v>1961400</v>
+        <v>1977100</v>
       </c>
       <c r="K23" s="3">
         <v>2554300</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>77900</v>
+        <v>78600</v>
       </c>
       <c r="E24" s="3">
-        <v>700000</v>
+        <v>705600</v>
       </c>
       <c r="F24" s="3">
-        <v>446400</v>
+        <v>450000</v>
       </c>
       <c r="G24" s="3">
-        <v>739600</v>
+        <v>745600</v>
       </c>
       <c r="H24" s="3">
-        <v>677600</v>
+        <v>683000</v>
       </c>
       <c r="I24" s="3">
-        <v>577200</v>
+        <v>581800</v>
       </c>
       <c r="J24" s="3">
-        <v>391000</v>
+        <v>394100</v>
       </c>
       <c r="K24" s="3">
         <v>537000</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-634000</v>
+        <v>-639100</v>
       </c>
       <c r="E26" s="3">
-        <v>2554400</v>
+        <v>2574900</v>
       </c>
       <c r="F26" s="3">
-        <v>1677400</v>
+        <v>1690900</v>
       </c>
       <c r="G26" s="3">
-        <v>2730100</v>
+        <v>2752000</v>
       </c>
       <c r="H26" s="3">
-        <v>1351200</v>
+        <v>1362000</v>
       </c>
       <c r="I26" s="3">
-        <v>2333800</v>
+        <v>2352600</v>
       </c>
       <c r="J26" s="3">
-        <v>1570400</v>
+        <v>1583000</v>
       </c>
       <c r="K26" s="3">
         <v>2017400</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-602300</v>
+        <v>-607100</v>
       </c>
       <c r="E27" s="3">
-        <v>2463300</v>
+        <v>2483100</v>
       </c>
       <c r="F27" s="3">
-        <v>1563800</v>
+        <v>1576400</v>
       </c>
       <c r="G27" s="3">
-        <v>2609900</v>
+        <v>2630800</v>
       </c>
       <c r="H27" s="3">
-        <v>1281200</v>
+        <v>1291500</v>
       </c>
       <c r="I27" s="3">
-        <v>2242700</v>
+        <v>2260700</v>
       </c>
       <c r="J27" s="3">
-        <v>1516300</v>
+        <v>1528400</v>
       </c>
       <c r="K27" s="3">
         <v>1932400</v>
@@ -1534,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="I29" s="3">
-        <v>475500</v>
+        <v>479300</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-212600</v>
+        <v>-214400</v>
       </c>
       <c r="E32" s="3">
-        <v>-387000</v>
+        <v>-390100</v>
       </c>
       <c r="F32" s="3">
-        <v>-344700</v>
+        <v>-347500</v>
       </c>
       <c r="G32" s="3">
-        <v>-363200</v>
+        <v>-366100</v>
       </c>
       <c r="H32" s="3">
-        <v>-293200</v>
+        <v>-295600</v>
       </c>
       <c r="I32" s="3">
-        <v>-293200</v>
+        <v>-295600</v>
       </c>
       <c r="J32" s="3">
-        <v>-272100</v>
+        <v>-274300</v>
       </c>
       <c r="K32" s="3">
         <v>-277100</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-602300</v>
+        <v>-607100</v>
       </c>
       <c r="E33" s="3">
-        <v>2463300</v>
+        <v>2483100</v>
       </c>
       <c r="F33" s="3">
-        <v>1563800</v>
+        <v>1576400</v>
       </c>
       <c r="G33" s="3">
-        <v>2609900</v>
+        <v>2630800</v>
       </c>
       <c r="H33" s="3">
-        <v>1273200</v>
+        <v>1283500</v>
       </c>
       <c r="I33" s="3">
-        <v>2718200</v>
+        <v>2740000</v>
       </c>
       <c r="J33" s="3">
-        <v>1516300</v>
+        <v>1528400</v>
       </c>
       <c r="K33" s="3">
         <v>1864600</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-602300</v>
+        <v>-607100</v>
       </c>
       <c r="E35" s="3">
-        <v>2463300</v>
+        <v>2483100</v>
       </c>
       <c r="F35" s="3">
-        <v>1563800</v>
+        <v>1576400</v>
       </c>
       <c r="G35" s="3">
-        <v>2609900</v>
+        <v>2630800</v>
       </c>
       <c r="H35" s="3">
-        <v>1273200</v>
+        <v>1283500</v>
       </c>
       <c r="I35" s="3">
-        <v>2718200</v>
+        <v>2740000</v>
       </c>
       <c r="J35" s="3">
-        <v>1516300</v>
+        <v>1528400</v>
       </c>
       <c r="K35" s="3">
         <v>1864600</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4389000</v>
+        <v>4424200</v>
       </c>
       <c r="E41" s="3">
-        <v>1254800</v>
+        <v>1264800</v>
       </c>
       <c r="F41" s="3">
-        <v>1231000</v>
+        <v>1240900</v>
       </c>
       <c r="G41" s="3">
-        <v>2101400</v>
+        <v>2118300</v>
       </c>
       <c r="H41" s="3">
-        <v>1154400</v>
+        <v>1163600</v>
       </c>
       <c r="I41" s="3">
-        <v>1215100</v>
+        <v>1224900</v>
       </c>
       <c r="J41" s="3">
-        <v>1573100</v>
+        <v>1585700</v>
       </c>
       <c r="K41" s="3">
         <v>1544400</v>
@@ -1930,25 +1930,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99100</v>
+        <v>99900</v>
       </c>
       <c r="E42" s="3">
-        <v>55500</v>
+        <v>55900</v>
       </c>
       <c r="F42" s="3">
-        <v>167700</v>
+        <v>169100</v>
       </c>
       <c r="G42" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="H42" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="I42" s="3">
-        <v>162500</v>
+        <v>163800</v>
       </c>
       <c r="J42" s="3">
-        <v>107000</v>
+        <v>107800</v>
       </c>
       <c r="K42" s="3">
         <v>155200</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3039100</v>
+        <v>3063600</v>
       </c>
       <c r="E43" s="3">
-        <v>4827500</v>
+        <v>4866300</v>
       </c>
       <c r="F43" s="3">
-        <v>3667800</v>
+        <v>3697300</v>
       </c>
       <c r="G43" s="3">
-        <v>4692800</v>
+        <v>4730500</v>
       </c>
       <c r="H43" s="3">
-        <v>3622900</v>
+        <v>3652000</v>
       </c>
       <c r="I43" s="3">
-        <v>4673000</v>
+        <v>4710500</v>
       </c>
       <c r="J43" s="3">
-        <v>3423500</v>
+        <v>3451000</v>
       </c>
       <c r="K43" s="3">
         <v>4437500</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7623600</v>
+        <v>7684800</v>
       </c>
       <c r="E44" s="3">
-        <v>7210200</v>
+        <v>7268100</v>
       </c>
       <c r="F44" s="3">
-        <v>7227400</v>
+        <v>7285400</v>
       </c>
       <c r="G44" s="3">
-        <v>6968500</v>
+        <v>7024500</v>
       </c>
       <c r="H44" s="3">
-        <v>6623800</v>
+        <v>6677000</v>
       </c>
       <c r="I44" s="3">
-        <v>6497000</v>
+        <v>6549200</v>
       </c>
       <c r="J44" s="3">
-        <v>6323900</v>
+        <v>6374700</v>
       </c>
       <c r="K44" s="3">
         <v>5839000</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>67400</v>
+        <v>67900</v>
       </c>
       <c r="F45" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="G45" s="3">
-        <v>109600</v>
+        <v>110500</v>
       </c>
       <c r="H45" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15150800</v>
+        <v>15272500</v>
       </c>
       <c r="E46" s="3">
-        <v>13415300</v>
+        <v>13523000</v>
       </c>
       <c r="F46" s="3">
-        <v>12379800</v>
+        <v>12479200</v>
       </c>
       <c r="G46" s="3">
-        <v>13888100</v>
+        <v>13999700</v>
       </c>
       <c r="H46" s="3">
-        <v>11479000</v>
+        <v>11571200</v>
       </c>
       <c r="I46" s="3">
-        <v>12547500</v>
+        <v>12648300</v>
       </c>
       <c r="J46" s="3">
-        <v>11427500</v>
+        <v>11519300</v>
       </c>
       <c r="K46" s="3">
         <v>11979800</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5719000</v>
+        <v>5765000</v>
       </c>
       <c r="E47" s="3">
-        <v>4806400</v>
+        <v>4845000</v>
       </c>
       <c r="F47" s="3">
-        <v>4859200</v>
+        <v>4898200</v>
       </c>
       <c r="G47" s="3">
-        <v>4778600</v>
+        <v>4817000</v>
       </c>
       <c r="H47" s="3">
-        <v>4336200</v>
+        <v>4371000</v>
       </c>
       <c r="I47" s="3">
-        <v>4414100</v>
+        <v>4449500</v>
       </c>
       <c r="J47" s="3">
-        <v>4200100</v>
+        <v>4233900</v>
       </c>
       <c r="K47" s="3">
         <v>3953400</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6573600</v>
+        <v>6626400</v>
       </c>
       <c r="E48" s="3">
-        <v>6440200</v>
+        <v>6491900</v>
       </c>
       <c r="F48" s="3">
-        <v>5929000</v>
+        <v>5976700</v>
       </c>
       <c r="G48" s="3">
-        <v>5631800</v>
+        <v>5677100</v>
       </c>
       <c r="H48" s="3">
-        <v>5431100</v>
+        <v>5474700</v>
       </c>
       <c r="I48" s="3">
-        <v>5248800</v>
+        <v>5291000</v>
       </c>
       <c r="J48" s="3">
-        <v>5329400</v>
+        <v>5372200</v>
       </c>
       <c r="K48" s="3">
         <v>4928900</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14924900</v>
+        <v>15044800</v>
       </c>
       <c r="E49" s="3">
-        <v>15895700</v>
+        <v>16023400</v>
       </c>
       <c r="F49" s="3">
-        <v>16585200</v>
+        <v>16718400</v>
       </c>
       <c r="G49" s="3">
-        <v>16582500</v>
+        <v>16715700</v>
       </c>
       <c r="H49" s="3">
-        <v>16605000</v>
+        <v>16738400</v>
       </c>
       <c r="I49" s="3">
-        <v>16915400</v>
+        <v>17051200</v>
       </c>
       <c r="J49" s="3">
-        <v>16597000</v>
+        <v>16730400</v>
       </c>
       <c r="K49" s="3">
         <v>15901200</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1624600</v>
+        <v>1637600</v>
       </c>
       <c r="E52" s="3">
-        <v>1355100</v>
+        <v>1366000</v>
       </c>
       <c r="F52" s="3">
-        <v>1582300</v>
+        <v>1595000</v>
       </c>
       <c r="G52" s="3">
-        <v>1508300</v>
+        <v>1520500</v>
       </c>
       <c r="H52" s="3">
-        <v>1396100</v>
+        <v>1407300</v>
       </c>
       <c r="I52" s="3">
-        <v>632700</v>
+        <v>637700</v>
       </c>
       <c r="J52" s="3">
-        <v>548100</v>
+        <v>552500</v>
       </c>
       <c r="K52" s="3">
         <v>468000</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43992900</v>
+        <v>44346300</v>
       </c>
       <c r="E54" s="3">
-        <v>41912600</v>
+        <v>42249300</v>
       </c>
       <c r="F54" s="3">
-        <v>41335400</v>
+        <v>41667500</v>
       </c>
       <c r="G54" s="3">
-        <v>42389400</v>
+        <v>42730000</v>
       </c>
       <c r="H54" s="3">
-        <v>39247300</v>
+        <v>39562600</v>
       </c>
       <c r="I54" s="3">
-        <v>39758400</v>
+        <v>40077800</v>
       </c>
       <c r="J54" s="3">
-        <v>38102100</v>
+        <v>38408200</v>
       </c>
       <c r="K54" s="3">
         <v>37231300</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4864500</v>
+        <v>4903500</v>
       </c>
       <c r="E57" s="3">
-        <v>5909200</v>
+        <v>5956700</v>
       </c>
       <c r="F57" s="3">
-        <v>5550000</v>
+        <v>5594500</v>
       </c>
       <c r="G57" s="3">
-        <v>5831300</v>
+        <v>5878100</v>
       </c>
       <c r="H57" s="3">
-        <v>5217100</v>
+        <v>5259000</v>
       </c>
       <c r="I57" s="3">
-        <v>5470700</v>
+        <v>5514700</v>
       </c>
       <c r="J57" s="3">
-        <v>4706000</v>
+        <v>4743800</v>
       </c>
       <c r="K57" s="3">
         <v>4851300</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2635000</v>
+        <v>2656100</v>
       </c>
       <c r="E58" s="3">
-        <v>4465600</v>
+        <v>4501500</v>
       </c>
       <c r="F58" s="3">
-        <v>2587400</v>
+        <v>2608200</v>
       </c>
       <c r="G58" s="3">
-        <v>2300800</v>
+        <v>2319300</v>
       </c>
       <c r="H58" s="3">
-        <v>2414400</v>
+        <v>2433800</v>
       </c>
       <c r="I58" s="3">
-        <v>3140800</v>
+        <v>3166100</v>
       </c>
       <c r="J58" s="3">
-        <v>3247800</v>
+        <v>3273900</v>
       </c>
       <c r="K58" s="3">
         <v>3378300</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1080400</v>
+        <v>1089100</v>
       </c>
       <c r="E59" s="3">
-        <v>1318100</v>
+        <v>1328700</v>
       </c>
       <c r="F59" s="3">
-        <v>1112100</v>
+        <v>1121000</v>
       </c>
       <c r="G59" s="3">
-        <v>1282500</v>
+        <v>1292800</v>
       </c>
       <c r="H59" s="3">
-        <v>768700</v>
+        <v>774900</v>
       </c>
       <c r="I59" s="3">
-        <v>968100</v>
+        <v>975900</v>
       </c>
       <c r="J59" s="3">
-        <v>842700</v>
+        <v>849400</v>
       </c>
       <c r="K59" s="3">
         <v>1087500</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8579900</v>
+        <v>8648800</v>
       </c>
       <c r="E60" s="3">
-        <v>11693000</v>
+        <v>11786900</v>
       </c>
       <c r="F60" s="3">
-        <v>9249500</v>
+        <v>9323800</v>
       </c>
       <c r="G60" s="3">
-        <v>9414600</v>
+        <v>9490200</v>
       </c>
       <c r="H60" s="3">
-        <v>8400200</v>
+        <v>8467700</v>
       </c>
       <c r="I60" s="3">
-        <v>9579700</v>
+        <v>9656600</v>
       </c>
       <c r="J60" s="3">
-        <v>8796500</v>
+        <v>8867100</v>
       </c>
       <c r="K60" s="3">
         <v>9317100</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19534500</v>
+        <v>19691400</v>
       </c>
       <c r="E61" s="3">
-        <v>13328100</v>
+        <v>13435200</v>
       </c>
       <c r="F61" s="3">
-        <v>13995100</v>
+        <v>14107500</v>
       </c>
       <c r="G61" s="3">
-        <v>13567200</v>
+        <v>13676100</v>
       </c>
       <c r="H61" s="3">
-        <v>10664100</v>
+        <v>10749700</v>
       </c>
       <c r="I61" s="3">
-        <v>10100100</v>
+        <v>10181200</v>
       </c>
       <c r="J61" s="3">
-        <v>8694800</v>
+        <v>8764600</v>
       </c>
       <c r="K61" s="3">
         <v>9239500</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4731100</v>
+        <v>4769100</v>
       </c>
       <c r="E62" s="3">
-        <v>4700700</v>
+        <v>4738500</v>
       </c>
       <c r="F62" s="3">
-        <v>4676900</v>
+        <v>4714500</v>
       </c>
       <c r="G62" s="3">
-        <v>4703300</v>
+        <v>4741100</v>
       </c>
       <c r="H62" s="3">
-        <v>4712600</v>
+        <v>4750400</v>
       </c>
       <c r="I62" s="3">
-        <v>4638600</v>
+        <v>4675900</v>
       </c>
       <c r="J62" s="3">
-        <v>4724500</v>
+        <v>4762400</v>
       </c>
       <c r="K62" s="3">
         <v>4815600</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35048500</v>
+        <v>35330000</v>
       </c>
       <c r="E66" s="3">
-        <v>31976300</v>
+        <v>32233200</v>
       </c>
       <c r="F66" s="3">
-        <v>30292300</v>
+        <v>30535700</v>
       </c>
       <c r="G66" s="3">
-        <v>30018900</v>
+        <v>30260100</v>
       </c>
       <c r="H66" s="3">
-        <v>26108100</v>
+        <v>26317800</v>
       </c>
       <c r="I66" s="3">
-        <v>26653500</v>
+        <v>26867700</v>
       </c>
       <c r="J66" s="3">
-        <v>24480800</v>
+        <v>24677500</v>
       </c>
       <c r="K66" s="3">
         <v>25563100</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9964000</v>
+        <v>10044100</v>
       </c>
       <c r="E72" s="3">
-        <v>11426200</v>
+        <v>11517900</v>
       </c>
       <c r="F72" s="3">
-        <v>12021800</v>
+        <v>12118400</v>
       </c>
       <c r="G72" s="3">
-        <v>13412600</v>
+        <v>13520400</v>
       </c>
       <c r="H72" s="3">
-        <v>14519400</v>
+        <v>14636100</v>
       </c>
       <c r="I72" s="3">
-        <v>14222300</v>
+        <v>14336500</v>
       </c>
       <c r="J72" s="3">
-        <v>14260600</v>
+        <v>14375100</v>
       </c>
       <c r="K72" s="3">
         <v>12210100</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8944400</v>
+        <v>9016200</v>
       </c>
       <c r="E76" s="3">
-        <v>9936300</v>
+        <v>10016100</v>
       </c>
       <c r="F76" s="3">
-        <v>11043100</v>
+        <v>11131800</v>
       </c>
       <c r="G76" s="3">
-        <v>12370500</v>
+        <v>12469900</v>
       </c>
       <c r="H76" s="3">
-        <v>13139200</v>
+        <v>13244800</v>
       </c>
       <c r="I76" s="3">
-        <v>13104900</v>
+        <v>13210200</v>
       </c>
       <c r="J76" s="3">
-        <v>13621300</v>
+        <v>13730700</v>
       </c>
       <c r="K76" s="3">
         <v>11668200</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-602300</v>
+        <v>-607100</v>
       </c>
       <c r="E81" s="3">
-        <v>2463300</v>
+        <v>2483100</v>
       </c>
       <c r="F81" s="3">
-        <v>1563800</v>
+        <v>1576400</v>
       </c>
       <c r="G81" s="3">
-        <v>2609900</v>
+        <v>2630800</v>
       </c>
       <c r="H81" s="3">
-        <v>1273200</v>
+        <v>1283500</v>
       </c>
       <c r="I81" s="3">
-        <v>2718200</v>
+        <v>2740000</v>
       </c>
       <c r="J81" s="3">
-        <v>1516300</v>
+        <v>1528400</v>
       </c>
       <c r="K81" s="3">
         <v>1864600</v>
@@ -3438,25 +3438,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2051200</v>
+        <v>2067700</v>
       </c>
       <c r="E83" s="3">
-        <v>377700</v>
+        <v>380800</v>
       </c>
       <c r="F83" s="3">
-        <v>249600</v>
+        <v>251600</v>
       </c>
       <c r="G83" s="3">
-        <v>244300</v>
+        <v>246300</v>
       </c>
       <c r="H83" s="3">
-        <v>404200</v>
+        <v>407400</v>
       </c>
       <c r="I83" s="3">
-        <v>247000</v>
+        <v>249000</v>
       </c>
       <c r="J83" s="3">
-        <v>241700</v>
+        <v>243600</v>
       </c>
       <c r="K83" s="3">
         <v>219200</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1363100</v>
+        <v>1374000</v>
       </c>
       <c r="E89" s="3">
-        <v>1701200</v>
+        <v>1714800</v>
       </c>
       <c r="F89" s="3">
-        <v>2171400</v>
+        <v>2188800</v>
       </c>
       <c r="G89" s="3">
-        <v>2118500</v>
+        <v>2135600</v>
       </c>
       <c r="H89" s="3">
-        <v>2425000</v>
+        <v>2444500</v>
       </c>
       <c r="I89" s="3">
-        <v>1648300</v>
+        <v>1661600</v>
       </c>
       <c r="J89" s="3">
-        <v>2463300</v>
+        <v>2483100</v>
       </c>
       <c r="K89" s="3">
         <v>1560400</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-488700</v>
+        <v>-492600</v>
       </c>
       <c r="E91" s="3">
-        <v>-435900</v>
+        <v>-439400</v>
       </c>
       <c r="F91" s="3">
-        <v>-528300</v>
+        <v>-532600</v>
       </c>
       <c r="G91" s="3">
-        <v>-357900</v>
+        <v>-360800</v>
       </c>
       <c r="H91" s="3">
-        <v>-494000</v>
+        <v>-497900</v>
       </c>
       <c r="I91" s="3">
-        <v>-277400</v>
+        <v>-279600</v>
       </c>
       <c r="J91" s="3">
-        <v>-424000</v>
+        <v>-427400</v>
       </c>
       <c r="K91" s="3">
         <v>-242600</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-497900</v>
+        <v>-501900</v>
       </c>
       <c r="E94" s="3">
-        <v>-565300</v>
+        <v>-569800</v>
       </c>
       <c r="F94" s="3">
-        <v>-527000</v>
+        <v>-531200</v>
       </c>
       <c r="G94" s="3">
-        <v>170400</v>
+        <v>171800</v>
       </c>
       <c r="H94" s="3">
-        <v>-492700</v>
+        <v>-496600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1027600</v>
+        <v>-1035800</v>
       </c>
       <c r="J94" s="3">
-        <v>-446400</v>
+        <v>-450000</v>
       </c>
       <c r="K94" s="3">
         <v>-263600</v>
@@ -3923,25 +3923,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-845300</v>
+        <v>-852100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1328700</v>
+        <v>-1339400</v>
       </c>
       <c r="F96" s="3">
-        <v>-832100</v>
+        <v>-838800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1311500</v>
+        <v>-1322100</v>
       </c>
       <c r="H96" s="3">
-        <v>-809600</v>
+        <v>-816100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1278500</v>
+        <v>-1288800</v>
       </c>
       <c r="J96" s="3">
-        <v>-785900</v>
+        <v>-792200</v>
       </c>
       <c r="K96" s="3">
         <v>-1133100</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2333800</v>
+        <v>2352600</v>
       </c>
       <c r="E100" s="3">
-        <v>-964200</v>
+        <v>-971900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2487000</v>
+        <v>-2507000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1374900</v>
+        <v>-1386000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1908500</v>
+        <v>-1923900</v>
       </c>
       <c r="I100" s="3">
-        <v>-888900</v>
+        <v>-896000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2026100</v>
+        <v>-2042400</v>
       </c>
       <c r="K100" s="3">
         <v>-1138000</v>
@@ -4128,25 +4128,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-116200</v>
+        <v>-117200</v>
       </c>
       <c r="E101" s="3">
-        <v>-42300</v>
+        <v>-42600</v>
       </c>
       <c r="F101" s="3">
-        <v>-52800</v>
+        <v>-53300</v>
       </c>
       <c r="G101" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="H101" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="I101" s="3">
-        <v>-37000</v>
+        <v>-37300</v>
       </c>
       <c r="J101" s="3">
-        <v>-62100</v>
+        <v>-62600</v>
       </c>
       <c r="K101" s="3">
         <v>40600</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3082700</v>
+        <v>3107500</v>
       </c>
       <c r="E102" s="3">
-        <v>129400</v>
+        <v>130500</v>
       </c>
       <c r="F102" s="3">
-        <v>-895500</v>
+        <v>-902700</v>
       </c>
       <c r="G102" s="3">
-        <v>932500</v>
+        <v>940000</v>
       </c>
       <c r="H102" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="I102" s="3">
-        <v>-305100</v>
+        <v>-307600</v>
       </c>
       <c r="J102" s="3">
-        <v>-71300</v>
+        <v>-71900</v>
       </c>
       <c r="K102" s="3">
         <v>199500</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6060500</v>
+        <v>9439300</v>
       </c>
       <c r="E8" s="3">
-        <v>9586100</v>
+        <v>6250800</v>
       </c>
       <c r="F8" s="3">
-        <v>7933800</v>
+        <v>9887000</v>
       </c>
       <c r="G8" s="3">
-        <v>9197300</v>
+        <v>8182800</v>
       </c>
       <c r="H8" s="3">
-        <v>7499800</v>
+        <v>9486000</v>
       </c>
       <c r="I8" s="3">
-        <v>8694000</v>
+        <v>7735200</v>
       </c>
       <c r="J8" s="3">
+        <v>8966900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7494500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7908100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6363700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7312000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6469400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2598900</v>
+        <v>3654100</v>
       </c>
       <c r="E9" s="3">
-        <v>3597400</v>
+        <v>2680500</v>
       </c>
       <c r="F9" s="3">
-        <v>3139400</v>
+        <v>3710400</v>
       </c>
       <c r="G9" s="3">
-        <v>3339200</v>
+        <v>3238000</v>
       </c>
       <c r="H9" s="3">
-        <v>2922400</v>
+        <v>3444000</v>
       </c>
       <c r="I9" s="3">
-        <v>3247300</v>
+        <v>3014200</v>
       </c>
       <c r="J9" s="3">
+        <v>3349200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2949100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3035900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2555100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2989500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2853500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3461600</v>
+        <v>5785200</v>
       </c>
       <c r="E10" s="3">
-        <v>5988600</v>
+        <v>3570300</v>
       </c>
       <c r="F10" s="3">
-        <v>4794400</v>
+        <v>6176600</v>
       </c>
       <c r="G10" s="3">
-        <v>5858200</v>
+        <v>4944900</v>
       </c>
       <c r="H10" s="3">
-        <v>4577400</v>
+        <v>6042000</v>
       </c>
       <c r="I10" s="3">
-        <v>5446800</v>
+        <v>4721000</v>
       </c>
       <c r="J10" s="3">
+        <v>5617700</v>
+      </c>
+      <c r="K10" s="3">
         <v>4545400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4872200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3808600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4322500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3615900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,49 +969,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1742800</v>
+        <v>16500</v>
       </c>
       <c r="E14" s="3">
-        <v>78600</v>
+        <v>1797500</v>
       </c>
       <c r="F14" s="3">
-        <v>14600</v>
+        <v>81000</v>
       </c>
       <c r="G14" s="3">
-        <v>-166400</v>
+        <v>15100</v>
       </c>
       <c r="H14" s="3">
-        <v>170400</v>
+        <v>-171600</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>175800</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>55900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-24600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>197000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-139600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-233100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6497200</v>
+        <v>6357900</v>
       </c>
       <c r="E17" s="3">
-        <v>6334800</v>
+        <v>6701200</v>
       </c>
       <c r="F17" s="3">
-        <v>5802200</v>
+        <v>6533600</v>
       </c>
       <c r="G17" s="3">
-        <v>5767600</v>
+        <v>5984400</v>
       </c>
       <c r="H17" s="3">
-        <v>5501300</v>
+        <v>5948700</v>
       </c>
       <c r="I17" s="3">
-        <v>5778300</v>
+        <v>5674000</v>
       </c>
       <c r="J17" s="3">
+        <v>5959600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5505300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5340200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4876800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4932900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4620600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-436700</v>
+        <v>3081400</v>
       </c>
       <c r="E18" s="3">
-        <v>3251300</v>
+        <v>-450400</v>
       </c>
       <c r="F18" s="3">
-        <v>2131600</v>
+        <v>3353300</v>
       </c>
       <c r="G18" s="3">
-        <v>3429700</v>
+        <v>2198500</v>
       </c>
       <c r="H18" s="3">
-        <v>1998400</v>
+        <v>3537300</v>
       </c>
       <c r="I18" s="3">
-        <v>2915800</v>
+        <v>2061200</v>
       </c>
       <c r="J18" s="3">
+        <v>3007300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1989100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2567900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1486900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2379100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1848800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>214400</v>
+        <v>273300</v>
       </c>
       <c r="E20" s="3">
-        <v>390100</v>
+        <v>221100</v>
       </c>
       <c r="F20" s="3">
-        <v>347500</v>
+        <v>402300</v>
       </c>
       <c r="G20" s="3">
-        <v>366100</v>
+        <v>358400</v>
       </c>
       <c r="H20" s="3">
-        <v>295600</v>
+        <v>377600</v>
       </c>
       <c r="I20" s="3">
-        <v>295600</v>
+        <v>304800</v>
       </c>
       <c r="J20" s="3">
+        <v>304800</v>
+      </c>
+      <c r="K20" s="3">
         <v>274300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>277100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>206100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>254300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>181700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1845300</v>
+        <v>3655400</v>
       </c>
       <c r="E21" s="3">
-        <v>4022200</v>
+        <v>1903200</v>
       </c>
       <c r="F21" s="3">
-        <v>2730700</v>
+        <v>4148400</v>
       </c>
       <c r="G21" s="3">
-        <v>4042100</v>
+        <v>2816400</v>
       </c>
       <c r="H21" s="3">
-        <v>2701400</v>
+        <v>4169000</v>
       </c>
       <c r="I21" s="3">
-        <v>3460300</v>
+        <v>2786200</v>
       </c>
       <c r="J21" s="3">
+        <v>3568900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2507000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3064200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1943400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2999900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2359700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>338200</v>
+        <v>336400</v>
       </c>
       <c r="E22" s="3">
-        <v>360800</v>
+        <v>348800</v>
       </c>
       <c r="F22" s="3">
-        <v>338200</v>
+        <v>372100</v>
       </c>
       <c r="G22" s="3">
-        <v>298200</v>
+        <v>348800</v>
       </c>
       <c r="H22" s="3">
-        <v>249000</v>
+        <v>307600</v>
       </c>
       <c r="I22" s="3">
-        <v>276900</v>
+        <v>256800</v>
       </c>
       <c r="J22" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K22" s="3">
         <v>286300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>290700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>292200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>306500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>327900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-560500</v>
+        <v>3018300</v>
       </c>
       <c r="E23" s="3">
-        <v>3280600</v>
+        <v>-578100</v>
       </c>
       <c r="F23" s="3">
-        <v>2140900</v>
+        <v>3383500</v>
       </c>
       <c r="G23" s="3">
-        <v>3497600</v>
+        <v>2208100</v>
       </c>
       <c r="H23" s="3">
-        <v>2045000</v>
+        <v>3607400</v>
       </c>
       <c r="I23" s="3">
-        <v>2934400</v>
+        <v>2109200</v>
       </c>
       <c r="J23" s="3">
+        <v>3026500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1977100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2554300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2326900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1702600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78600</v>
+        <v>737400</v>
       </c>
       <c r="E24" s="3">
-        <v>705600</v>
+        <v>81000</v>
       </c>
       <c r="F24" s="3">
-        <v>450000</v>
+        <v>727800</v>
       </c>
       <c r="G24" s="3">
-        <v>745600</v>
+        <v>464100</v>
       </c>
       <c r="H24" s="3">
-        <v>683000</v>
+        <v>769000</v>
       </c>
       <c r="I24" s="3">
-        <v>581800</v>
+        <v>704400</v>
       </c>
       <c r="J24" s="3">
+        <v>600100</v>
+      </c>
+      <c r="K24" s="3">
         <v>394100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>537000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>260900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>386100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>250200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-639100</v>
+        <v>2280900</v>
       </c>
       <c r="E26" s="3">
-        <v>2574900</v>
+        <v>-659100</v>
       </c>
       <c r="F26" s="3">
-        <v>1690900</v>
+        <v>2655700</v>
       </c>
       <c r="G26" s="3">
-        <v>2752000</v>
+        <v>1744000</v>
       </c>
       <c r="H26" s="3">
-        <v>1362000</v>
+        <v>2838400</v>
       </c>
       <c r="I26" s="3">
-        <v>2352600</v>
+        <v>1404800</v>
       </c>
       <c r="J26" s="3">
+        <v>2426400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1583000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2017400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1140000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1940800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1452400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-607100</v>
+        <v>2169600</v>
       </c>
       <c r="E27" s="3">
-        <v>2483100</v>
+        <v>-626200</v>
       </c>
       <c r="F27" s="3">
-        <v>1576400</v>
+        <v>2561000</v>
       </c>
       <c r="G27" s="3">
-        <v>2630800</v>
+        <v>1625900</v>
       </c>
       <c r="H27" s="3">
-        <v>1291500</v>
+        <v>2713400</v>
       </c>
       <c r="I27" s="3">
-        <v>2260700</v>
+        <v>1332000</v>
       </c>
       <c r="J27" s="3">
+        <v>2331700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1528400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1932400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1093000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1833900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1409000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1527,38 +1588,41 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-8000</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>479300</v>
+        <v>-8200</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>494300</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-67700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-214400</v>
+        <v>-273300</v>
       </c>
       <c r="E32" s="3">
-        <v>-390100</v>
+        <v>-221100</v>
       </c>
       <c r="F32" s="3">
-        <v>-347500</v>
+        <v>-402300</v>
       </c>
       <c r="G32" s="3">
-        <v>-366100</v>
+        <v>-358400</v>
       </c>
       <c r="H32" s="3">
-        <v>-295600</v>
+        <v>-377600</v>
       </c>
       <c r="I32" s="3">
-        <v>-295600</v>
+        <v>-304800</v>
       </c>
       <c r="J32" s="3">
+        <v>-304800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-274300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-277100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-206100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-254300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-181700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-607100</v>
+        <v>2169600</v>
       </c>
       <c r="E33" s="3">
-        <v>2483100</v>
+        <v>-626200</v>
       </c>
       <c r="F33" s="3">
-        <v>1576400</v>
+        <v>2561000</v>
       </c>
       <c r="G33" s="3">
-        <v>2630800</v>
+        <v>1625900</v>
       </c>
       <c r="H33" s="3">
-        <v>1283500</v>
+        <v>2713400</v>
       </c>
       <c r="I33" s="3">
-        <v>2740000</v>
+        <v>1323800</v>
       </c>
       <c r="J33" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1528400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1864600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1093000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1833900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1409000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-607100</v>
+        <v>2169600</v>
       </c>
       <c r="E35" s="3">
-        <v>2483100</v>
+        <v>-626200</v>
       </c>
       <c r="F35" s="3">
-        <v>1576400</v>
+        <v>2561000</v>
       </c>
       <c r="G35" s="3">
-        <v>2630800</v>
+        <v>1625900</v>
       </c>
       <c r="H35" s="3">
-        <v>1283500</v>
+        <v>2713400</v>
       </c>
       <c r="I35" s="3">
-        <v>2740000</v>
+        <v>1323800</v>
       </c>
       <c r="J35" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1528400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1864600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1093000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1833900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1409000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,172 +1969,185 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4424200</v>
+        <v>3794100</v>
       </c>
       <c r="E41" s="3">
-        <v>1264800</v>
+        <v>4563100</v>
       </c>
       <c r="F41" s="3">
-        <v>1240900</v>
+        <v>1304500</v>
       </c>
       <c r="G41" s="3">
-        <v>2118300</v>
+        <v>1279800</v>
       </c>
       <c r="H41" s="3">
-        <v>1163600</v>
+        <v>2184700</v>
       </c>
       <c r="I41" s="3">
-        <v>1224900</v>
+        <v>1200200</v>
       </c>
       <c r="J41" s="3">
+        <v>1263300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1585700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1544400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1420400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>705600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>621500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99900</v>
+        <v>115300</v>
       </c>
       <c r="E42" s="3">
-        <v>55900</v>
+        <v>103000</v>
       </c>
       <c r="F42" s="3">
-        <v>169100</v>
+        <v>57700</v>
       </c>
       <c r="G42" s="3">
-        <v>16000</v>
+        <v>174400</v>
       </c>
       <c r="H42" s="3">
-        <v>46600</v>
+        <v>16500</v>
       </c>
       <c r="I42" s="3">
-        <v>163800</v>
+        <v>48100</v>
       </c>
       <c r="J42" s="3">
+        <v>168900</v>
+      </c>
+      <c r="K42" s="3">
         <v>107800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>155200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>645600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>288300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>60600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3063600</v>
+        <v>4460100</v>
       </c>
       <c r="E43" s="3">
-        <v>4866300</v>
+        <v>3159700</v>
       </c>
       <c r="F43" s="3">
-        <v>3697300</v>
+        <v>5019000</v>
       </c>
       <c r="G43" s="3">
-        <v>4730500</v>
+        <v>3813300</v>
       </c>
       <c r="H43" s="3">
-        <v>3652000</v>
+        <v>4878900</v>
       </c>
       <c r="I43" s="3">
-        <v>4710500</v>
+        <v>3766700</v>
       </c>
       <c r="J43" s="3">
+        <v>4858300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3451000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4437500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3503400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4013400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3206400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7684800</v>
+        <v>7895800</v>
       </c>
       <c r="E44" s="3">
-        <v>7268100</v>
+        <v>7926100</v>
       </c>
       <c r="F44" s="3">
-        <v>7285400</v>
+        <v>7496200</v>
       </c>
       <c r="G44" s="3">
-        <v>7024500</v>
+        <v>7514100</v>
       </c>
       <c r="H44" s="3">
-        <v>6677000</v>
+        <v>7245000</v>
       </c>
       <c r="I44" s="3">
-        <v>6549200</v>
+        <v>6886500</v>
       </c>
       <c r="J44" s="3">
+        <v>6754700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6374700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5839000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5972400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5722000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6023000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2056,204 +2155,219 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>67900</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>86500</v>
+        <v>70000</v>
       </c>
       <c r="G45" s="3">
-        <v>110500</v>
+        <v>89300</v>
       </c>
       <c r="H45" s="3">
-        <v>32000</v>
+        <v>114000</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>734300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15272500</v>
+        <v>16265400</v>
       </c>
       <c r="E46" s="3">
-        <v>13523000</v>
+        <v>15751900</v>
       </c>
       <c r="F46" s="3">
-        <v>12479200</v>
+        <v>13947500</v>
       </c>
       <c r="G46" s="3">
-        <v>13999700</v>
+        <v>12870900</v>
       </c>
       <c r="H46" s="3">
-        <v>11571200</v>
+        <v>14439100</v>
       </c>
       <c r="I46" s="3">
-        <v>12648300</v>
+        <v>11934400</v>
       </c>
       <c r="J46" s="3">
+        <v>13045300</v>
+      </c>
+      <c r="K46" s="3">
         <v>11519300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11979800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11545800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11463600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10099800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5765000</v>
+        <v>5582000</v>
       </c>
       <c r="E47" s="3">
-        <v>4845000</v>
+        <v>5945900</v>
       </c>
       <c r="F47" s="3">
-        <v>4898200</v>
+        <v>4997000</v>
       </c>
       <c r="G47" s="3">
-        <v>4817000</v>
+        <v>5052000</v>
       </c>
       <c r="H47" s="3">
-        <v>4371000</v>
+        <v>4968200</v>
       </c>
       <c r="I47" s="3">
-        <v>4449500</v>
+        <v>4508200</v>
       </c>
       <c r="J47" s="3">
+        <v>4589200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4233900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3953400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3945500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3457700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3322300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6626400</v>
+        <v>6618800</v>
       </c>
       <c r="E48" s="3">
-        <v>6491900</v>
+        <v>6834400</v>
       </c>
       <c r="F48" s="3">
-        <v>5976700</v>
+        <v>6695700</v>
       </c>
       <c r="G48" s="3">
-        <v>5677100</v>
+        <v>6164200</v>
       </c>
       <c r="H48" s="3">
-        <v>5474700</v>
+        <v>5855300</v>
       </c>
       <c r="I48" s="3">
-        <v>5291000</v>
+        <v>5646600</v>
       </c>
       <c r="J48" s="3">
+        <v>5457100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5372200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4928900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5075100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4738600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4944500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15044800</v>
+        <v>14936200</v>
       </c>
       <c r="E49" s="3">
-        <v>16023400</v>
+        <v>15517000</v>
       </c>
       <c r="F49" s="3">
-        <v>16718400</v>
+        <v>16526300</v>
       </c>
       <c r="G49" s="3">
-        <v>16715700</v>
+        <v>17243100</v>
       </c>
       <c r="H49" s="3">
-        <v>16738400</v>
+        <v>17240400</v>
       </c>
       <c r="I49" s="3">
-        <v>17051200</v>
+        <v>17263700</v>
       </c>
       <c r="J49" s="3">
+        <v>17586400</v>
+      </c>
+      <c r="K49" s="3">
         <v>16730400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15901200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16134300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>14781700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14788900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1637600</v>
+        <v>1643700</v>
       </c>
       <c r="E52" s="3">
-        <v>1366000</v>
+        <v>1689000</v>
       </c>
       <c r="F52" s="3">
-        <v>1595000</v>
+        <v>1408900</v>
       </c>
       <c r="G52" s="3">
-        <v>1520500</v>
+        <v>1645100</v>
       </c>
       <c r="H52" s="3">
-        <v>1407300</v>
+        <v>1568200</v>
       </c>
       <c r="I52" s="3">
-        <v>637700</v>
+        <v>1451500</v>
       </c>
       <c r="J52" s="3">
+        <v>657800</v>
+      </c>
+      <c r="K52" s="3">
         <v>552500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>468000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>460400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>510000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>823000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44346300</v>
+        <v>45046100</v>
       </c>
       <c r="E54" s="3">
-        <v>42249300</v>
+        <v>45738200</v>
       </c>
       <c r="F54" s="3">
-        <v>41667500</v>
+        <v>43575400</v>
       </c>
       <c r="G54" s="3">
-        <v>42730000</v>
+        <v>42975400</v>
       </c>
       <c r="H54" s="3">
-        <v>39562600</v>
+        <v>44071200</v>
       </c>
       <c r="I54" s="3">
-        <v>40077800</v>
+        <v>40804300</v>
       </c>
       <c r="J54" s="3">
+        <v>41335800</v>
+      </c>
+      <c r="K54" s="3">
         <v>38408200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37231300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37161100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34951600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33978400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4903500</v>
+        <v>6349600</v>
       </c>
       <c r="E57" s="3">
-        <v>5956700</v>
+        <v>5057500</v>
       </c>
       <c r="F57" s="3">
-        <v>5594500</v>
+        <v>6143700</v>
       </c>
       <c r="G57" s="3">
-        <v>5878100</v>
+        <v>5770100</v>
       </c>
       <c r="H57" s="3">
-        <v>5259000</v>
+        <v>6062600</v>
       </c>
       <c r="I57" s="3">
-        <v>5514700</v>
+        <v>5424100</v>
       </c>
       <c r="J57" s="3">
+        <v>5687800</v>
+      </c>
+      <c r="K57" s="3">
         <v>4743800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4851300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4398100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4166000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3875300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2656100</v>
+        <v>1667100</v>
       </c>
       <c r="E58" s="3">
-        <v>4501500</v>
+        <v>2739500</v>
       </c>
       <c r="F58" s="3">
-        <v>2608200</v>
+        <v>4642800</v>
       </c>
       <c r="G58" s="3">
-        <v>2319300</v>
+        <v>2690100</v>
       </c>
       <c r="H58" s="3">
-        <v>2433800</v>
+        <v>2392100</v>
       </c>
       <c r="I58" s="3">
-        <v>3166100</v>
+        <v>2510200</v>
       </c>
       <c r="J58" s="3">
+        <v>3265400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3273900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3378300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2684300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2523800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2529600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1089100</v>
+        <v>1197400</v>
       </c>
       <c r="E59" s="3">
-        <v>1328700</v>
+        <v>1123300</v>
       </c>
       <c r="F59" s="3">
-        <v>1121000</v>
+        <v>1370400</v>
       </c>
       <c r="G59" s="3">
-        <v>1292800</v>
+        <v>1156200</v>
       </c>
       <c r="H59" s="3">
-        <v>774900</v>
+        <v>1333400</v>
       </c>
       <c r="I59" s="3">
-        <v>975900</v>
+        <v>799200</v>
       </c>
       <c r="J59" s="3">
+        <v>1006500</v>
+      </c>
+      <c r="K59" s="3">
         <v>849400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1087500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>987400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>875200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>561000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8648800</v>
+        <v>9214100</v>
       </c>
       <c r="E60" s="3">
-        <v>11786900</v>
+        <v>8920200</v>
       </c>
       <c r="F60" s="3">
-        <v>9323800</v>
+        <v>12156900</v>
       </c>
       <c r="G60" s="3">
-        <v>9490200</v>
+        <v>9616400</v>
       </c>
       <c r="H60" s="3">
-        <v>8467700</v>
+        <v>9788100</v>
       </c>
       <c r="I60" s="3">
-        <v>9656600</v>
+        <v>8733500</v>
       </c>
       <c r="J60" s="3">
+        <v>9959700</v>
+      </c>
+      <c r="K60" s="3">
         <v>8867100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9317100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8069800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7565000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6965800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19691400</v>
+        <v>19311200</v>
       </c>
       <c r="E61" s="3">
-        <v>13435200</v>
+        <v>20309500</v>
       </c>
       <c r="F61" s="3">
-        <v>14107500</v>
+        <v>13856900</v>
       </c>
       <c r="G61" s="3">
-        <v>13676100</v>
+        <v>14550300</v>
       </c>
       <c r="H61" s="3">
-        <v>10749700</v>
+        <v>14105400</v>
       </c>
       <c r="I61" s="3">
-        <v>10181200</v>
+        <v>11087100</v>
       </c>
       <c r="J61" s="3">
+        <v>10500800</v>
+      </c>
+      <c r="K61" s="3">
         <v>8764600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9239500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10527100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10343200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11008400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4769100</v>
+        <v>5016300</v>
       </c>
       <c r="E62" s="3">
-        <v>4738500</v>
+        <v>4918800</v>
       </c>
       <c r="F62" s="3">
-        <v>4714500</v>
+        <v>4887200</v>
       </c>
       <c r="G62" s="3">
-        <v>4741100</v>
+        <v>4862500</v>
       </c>
       <c r="H62" s="3">
-        <v>4750400</v>
+        <v>4889900</v>
       </c>
       <c r="I62" s="3">
-        <v>4675900</v>
+        <v>4899500</v>
       </c>
       <c r="J62" s="3">
+        <v>4822600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4762400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4815600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5286400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4421600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3816100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35330000</v>
+        <v>35683700</v>
       </c>
       <c r="E66" s="3">
-        <v>32233200</v>
+        <v>36439000</v>
       </c>
       <c r="F66" s="3">
-        <v>30535700</v>
+        <v>33244900</v>
       </c>
       <c r="G66" s="3">
-        <v>30260100</v>
+        <v>31494100</v>
       </c>
       <c r="H66" s="3">
-        <v>26317800</v>
+        <v>31209900</v>
       </c>
       <c r="I66" s="3">
-        <v>26867700</v>
+        <v>27143800</v>
       </c>
       <c r="J66" s="3">
+        <v>27711000</v>
+      </c>
+      <c r="K66" s="3">
         <v>24677500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25563100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26035300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24335800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23745700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10044100</v>
+        <v>10966300</v>
       </c>
       <c r="E72" s="3">
-        <v>11517900</v>
+        <v>10359300</v>
       </c>
       <c r="F72" s="3">
-        <v>12118400</v>
+        <v>11879500</v>
       </c>
       <c r="G72" s="3">
-        <v>13520400</v>
+        <v>12498800</v>
       </c>
       <c r="H72" s="3">
-        <v>14636100</v>
+        <v>13944700</v>
       </c>
       <c r="I72" s="3">
-        <v>14336500</v>
+        <v>15095500</v>
       </c>
       <c r="J72" s="3">
+        <v>14786500</v>
+      </c>
+      <c r="K72" s="3">
         <v>14375100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12210100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11864000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12143100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11861600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9016200</v>
+        <v>9362400</v>
       </c>
       <c r="E76" s="3">
-        <v>10016100</v>
+        <v>9299200</v>
       </c>
       <c r="F76" s="3">
-        <v>11131800</v>
+        <v>10330500</v>
       </c>
       <c r="G76" s="3">
-        <v>12469900</v>
+        <v>11481200</v>
       </c>
       <c r="H76" s="3">
-        <v>13244800</v>
+        <v>12861300</v>
       </c>
       <c r="I76" s="3">
-        <v>13210200</v>
+        <v>13660500</v>
       </c>
       <c r="J76" s="3">
+        <v>13624800</v>
+      </c>
+      <c r="K76" s="3">
         <v>13730700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11668200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11125800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10615800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10232800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-607100</v>
+        <v>2169600</v>
       </c>
       <c r="E81" s="3">
-        <v>2483100</v>
+        <v>-626200</v>
       </c>
       <c r="F81" s="3">
-        <v>1576400</v>
+        <v>2561000</v>
       </c>
       <c r="G81" s="3">
-        <v>2630800</v>
+        <v>1625900</v>
       </c>
       <c r="H81" s="3">
-        <v>1283500</v>
+        <v>2713400</v>
       </c>
       <c r="I81" s="3">
-        <v>2740000</v>
+        <v>1323800</v>
       </c>
       <c r="J81" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1528400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1864600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1093000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1833900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1409000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2067700</v>
+        <v>300700</v>
       </c>
       <c r="E83" s="3">
-        <v>380800</v>
+        <v>2132600</v>
       </c>
       <c r="F83" s="3">
-        <v>251600</v>
+        <v>392700</v>
       </c>
       <c r="G83" s="3">
-        <v>246300</v>
+        <v>259500</v>
       </c>
       <c r="H83" s="3">
-        <v>407400</v>
+        <v>254000</v>
       </c>
       <c r="I83" s="3">
-        <v>249000</v>
+        <v>420200</v>
       </c>
       <c r="J83" s="3">
+        <v>256800</v>
+      </c>
+      <c r="K83" s="3">
         <v>243600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>219200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>250400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>366500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>329200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1374000</v>
+        <v>2743600</v>
       </c>
       <c r="E89" s="3">
-        <v>1714800</v>
+        <v>1417100</v>
       </c>
       <c r="F89" s="3">
-        <v>2188800</v>
+        <v>1768700</v>
       </c>
       <c r="G89" s="3">
-        <v>2135600</v>
+        <v>2257500</v>
       </c>
       <c r="H89" s="3">
-        <v>2444500</v>
+        <v>2202600</v>
       </c>
       <c r="I89" s="3">
-        <v>1661600</v>
+        <v>2521200</v>
       </c>
       <c r="J89" s="3">
+        <v>1713700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2483100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1560400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1970800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1352600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2099000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-492600</v>
+        <v>-343300</v>
       </c>
       <c r="E91" s="3">
-        <v>-439400</v>
+        <v>-508100</v>
       </c>
       <c r="F91" s="3">
-        <v>-532600</v>
+        <v>-453200</v>
       </c>
       <c r="G91" s="3">
-        <v>-360800</v>
+        <v>-549300</v>
       </c>
       <c r="H91" s="3">
-        <v>-497900</v>
+        <v>-372100</v>
       </c>
       <c r="I91" s="3">
-        <v>-279600</v>
+        <v>-513600</v>
       </c>
       <c r="J91" s="3">
+        <v>-288400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-427400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-242600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-393900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-266100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-484600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-501900</v>
+        <v>-829400</v>
       </c>
       <c r="E94" s="3">
-        <v>-569800</v>
+        <v>-517700</v>
       </c>
       <c r="F94" s="3">
-        <v>-531200</v>
+        <v>-587700</v>
       </c>
       <c r="G94" s="3">
-        <v>171800</v>
+        <v>-547900</v>
       </c>
       <c r="H94" s="3">
-        <v>-496600</v>
+        <v>177100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1035800</v>
+        <v>-512200</v>
       </c>
       <c r="J94" s="3">
+        <v>-1068300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-450000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-263600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>197000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>580400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>36900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-852100</v>
+        <v>-1362200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1339400</v>
+        <v>-878800</v>
       </c>
       <c r="F96" s="3">
-        <v>-838800</v>
+        <v>-1381400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1322100</v>
+        <v>-865100</v>
       </c>
       <c r="H96" s="3">
-        <v>-816100</v>
+        <v>-1363600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1288800</v>
+        <v>-841800</v>
       </c>
       <c r="J96" s="3">
+        <v>-1329200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-792200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-739500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-711100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2352600</v>
+        <v>-2239700</v>
       </c>
       <c r="E100" s="3">
-        <v>-971900</v>
+        <v>2426400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2507000</v>
+        <v>-1002400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1386000</v>
+        <v>-2585700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1923900</v>
+        <v>-1429500</v>
       </c>
       <c r="I100" s="3">
-        <v>-896000</v>
+        <v>-1984300</v>
       </c>
       <c r="J100" s="3">
+        <v>-924200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2042400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-117200</v>
+        <v>-324100</v>
       </c>
       <c r="E101" s="3">
-        <v>-42600</v>
+        <v>-120800</v>
       </c>
       <c r="F101" s="3">
-        <v>-53300</v>
+        <v>-43900</v>
       </c>
       <c r="G101" s="3">
-        <v>18600</v>
+        <v>-54900</v>
       </c>
       <c r="H101" s="3">
-        <v>-14600</v>
+        <v>19200</v>
       </c>
       <c r="I101" s="3">
-        <v>-37300</v>
+        <v>-15100</v>
       </c>
       <c r="J101" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-62600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>40600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>147400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-37800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-115900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3107500</v>
+        <v>-649500</v>
       </c>
       <c r="E102" s="3">
-        <v>130500</v>
+        <v>3205000</v>
       </c>
       <c r="F102" s="3">
-        <v>-902700</v>
+        <v>134600</v>
       </c>
       <c r="G102" s="3">
-        <v>940000</v>
+        <v>-931000</v>
       </c>
       <c r="H102" s="3">
-        <v>9300</v>
+        <v>969500</v>
       </c>
       <c r="I102" s="3">
-        <v>-307600</v>
+        <v>9600</v>
       </c>
       <c r="J102" s="3">
+        <v>-317200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-71900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>199500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>446100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>110900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-399000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9439300</v>
+        <v>9727500</v>
       </c>
       <c r="E8" s="3">
-        <v>6250800</v>
+        <v>6441600</v>
       </c>
       <c r="F8" s="3">
-        <v>9887000</v>
+        <v>10188800</v>
       </c>
       <c r="G8" s="3">
-        <v>8182800</v>
+        <v>8432600</v>
       </c>
       <c r="H8" s="3">
-        <v>9486000</v>
+        <v>9775600</v>
       </c>
       <c r="I8" s="3">
-        <v>7735200</v>
+        <v>7971300</v>
       </c>
       <c r="J8" s="3">
-        <v>8966900</v>
+        <v>9240700</v>
       </c>
       <c r="K8" s="3">
         <v>7494500</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3654100</v>
+        <v>3765600</v>
       </c>
       <c r="E9" s="3">
-        <v>2680500</v>
+        <v>2762300</v>
       </c>
       <c r="F9" s="3">
-        <v>3710400</v>
+        <v>3823600</v>
       </c>
       <c r="G9" s="3">
-        <v>3238000</v>
+        <v>3336800</v>
       </c>
       <c r="H9" s="3">
-        <v>3444000</v>
+        <v>3549100</v>
       </c>
       <c r="I9" s="3">
-        <v>3014200</v>
+        <v>3106200</v>
       </c>
       <c r="J9" s="3">
-        <v>3349200</v>
+        <v>3451500</v>
       </c>
       <c r="K9" s="3">
         <v>2949100</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5785200</v>
+        <v>5961900</v>
       </c>
       <c r="E10" s="3">
-        <v>3570300</v>
+        <v>3679300</v>
       </c>
       <c r="F10" s="3">
-        <v>6176600</v>
+        <v>6365200</v>
       </c>
       <c r="G10" s="3">
-        <v>4944900</v>
+        <v>5095800</v>
       </c>
       <c r="H10" s="3">
-        <v>6042000</v>
+        <v>6226500</v>
       </c>
       <c r="I10" s="3">
-        <v>4721000</v>
+        <v>4865100</v>
       </c>
       <c r="J10" s="3">
-        <v>5617700</v>
+        <v>5789200</v>
       </c>
       <c r="K10" s="3">
         <v>4545400</v>
@@ -978,22 +978,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="E14" s="3">
-        <v>1797500</v>
+        <v>1852400</v>
       </c>
       <c r="F14" s="3">
-        <v>81000</v>
+        <v>83500</v>
       </c>
       <c r="G14" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="H14" s="3">
-        <v>-171600</v>
+        <v>-176900</v>
       </c>
       <c r="I14" s="3">
-        <v>175800</v>
+        <v>181100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6357900</v>
+        <v>6552000</v>
       </c>
       <c r="E17" s="3">
-        <v>6701200</v>
+        <v>6905700</v>
       </c>
       <c r="F17" s="3">
-        <v>6533600</v>
+        <v>6733100</v>
       </c>
       <c r="G17" s="3">
-        <v>5984400</v>
+        <v>6167000</v>
       </c>
       <c r="H17" s="3">
-        <v>5948700</v>
+        <v>6130300</v>
       </c>
       <c r="I17" s="3">
-        <v>5674000</v>
+        <v>5847200</v>
       </c>
       <c r="J17" s="3">
-        <v>5959600</v>
+        <v>6141600</v>
       </c>
       <c r="K17" s="3">
         <v>5505300</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3081400</v>
+        <v>3175500</v>
       </c>
       <c r="E18" s="3">
-        <v>-450400</v>
+        <v>-464200</v>
       </c>
       <c r="F18" s="3">
-        <v>3353300</v>
+        <v>3455700</v>
       </c>
       <c r="G18" s="3">
-        <v>2198500</v>
+        <v>2265600</v>
       </c>
       <c r="H18" s="3">
-        <v>3537300</v>
+        <v>3645300</v>
       </c>
       <c r="I18" s="3">
-        <v>2061200</v>
+        <v>2124100</v>
       </c>
       <c r="J18" s="3">
-        <v>3007300</v>
+        <v>3099100</v>
       </c>
       <c r="K18" s="3">
         <v>1989100</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>273300</v>
+        <v>281600</v>
       </c>
       <c r="E20" s="3">
-        <v>221100</v>
+        <v>227800</v>
       </c>
       <c r="F20" s="3">
-        <v>402300</v>
+        <v>414600</v>
       </c>
       <c r="G20" s="3">
-        <v>358400</v>
+        <v>369300</v>
       </c>
       <c r="H20" s="3">
-        <v>377600</v>
+        <v>389200</v>
       </c>
       <c r="I20" s="3">
-        <v>304800</v>
+        <v>314200</v>
       </c>
       <c r="J20" s="3">
-        <v>304800</v>
+        <v>314200</v>
       </c>
       <c r="K20" s="3">
         <v>274300</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3655400</v>
+        <v>3767000</v>
       </c>
       <c r="E21" s="3">
-        <v>1903200</v>
+        <v>1961300</v>
       </c>
       <c r="F21" s="3">
-        <v>4148400</v>
+        <v>4275000</v>
       </c>
       <c r="G21" s="3">
-        <v>2816400</v>
+        <v>2902400</v>
       </c>
       <c r="H21" s="3">
-        <v>4169000</v>
+        <v>4296300</v>
       </c>
       <c r="I21" s="3">
-        <v>2786200</v>
+        <v>2871300</v>
       </c>
       <c r="J21" s="3">
-        <v>3568900</v>
+        <v>3677900</v>
       </c>
       <c r="K21" s="3">
         <v>2507000</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>336400</v>
+        <v>346700</v>
       </c>
       <c r="E22" s="3">
-        <v>348800</v>
+        <v>359400</v>
       </c>
       <c r="F22" s="3">
-        <v>372100</v>
+        <v>383500</v>
       </c>
       <c r="G22" s="3">
-        <v>348800</v>
+        <v>359400</v>
       </c>
       <c r="H22" s="3">
-        <v>307600</v>
+        <v>317000</v>
       </c>
       <c r="I22" s="3">
-        <v>256800</v>
+        <v>264600</v>
       </c>
       <c r="J22" s="3">
-        <v>285600</v>
+        <v>294300</v>
       </c>
       <c r="K22" s="3">
         <v>286300</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3018300</v>
+        <v>3110400</v>
       </c>
       <c r="E23" s="3">
-        <v>-578100</v>
+        <v>-595800</v>
       </c>
       <c r="F23" s="3">
-        <v>3383500</v>
+        <v>3486800</v>
       </c>
       <c r="G23" s="3">
-        <v>2208100</v>
+        <v>2275500</v>
       </c>
       <c r="H23" s="3">
-        <v>3607400</v>
+        <v>3717500</v>
       </c>
       <c r="I23" s="3">
-        <v>2109200</v>
+        <v>2173600</v>
       </c>
       <c r="J23" s="3">
-        <v>3026500</v>
+        <v>3118900</v>
       </c>
       <c r="K23" s="3">
         <v>1977100</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>737400</v>
+        <v>759900</v>
       </c>
       <c r="E24" s="3">
-        <v>81000</v>
+        <v>83500</v>
       </c>
       <c r="F24" s="3">
-        <v>727800</v>
+        <v>750000</v>
       </c>
       <c r="G24" s="3">
-        <v>464100</v>
+        <v>478300</v>
       </c>
       <c r="H24" s="3">
-        <v>769000</v>
+        <v>792500</v>
       </c>
       <c r="I24" s="3">
-        <v>704400</v>
+        <v>726000</v>
       </c>
       <c r="J24" s="3">
-        <v>600100</v>
+        <v>618400</v>
       </c>
       <c r="K24" s="3">
         <v>394100</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2280900</v>
+        <v>2350500</v>
       </c>
       <c r="E26" s="3">
-        <v>-659100</v>
+        <v>-679300</v>
       </c>
       <c r="F26" s="3">
-        <v>2655700</v>
+        <v>2736800</v>
       </c>
       <c r="G26" s="3">
-        <v>1744000</v>
+        <v>1797200</v>
       </c>
       <c r="H26" s="3">
-        <v>2838400</v>
+        <v>2925000</v>
       </c>
       <c r="I26" s="3">
-        <v>1404800</v>
+        <v>1447700</v>
       </c>
       <c r="J26" s="3">
-        <v>2426400</v>
+        <v>2500500</v>
       </c>
       <c r="K26" s="3">
         <v>1583000</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2169600</v>
+        <v>2235900</v>
       </c>
       <c r="E27" s="3">
-        <v>-626200</v>
+        <v>-645300</v>
       </c>
       <c r="F27" s="3">
-        <v>2561000</v>
+        <v>2639200</v>
       </c>
       <c r="G27" s="3">
-        <v>1625900</v>
+        <v>1675500</v>
       </c>
       <c r="H27" s="3">
-        <v>2713400</v>
+        <v>2796300</v>
       </c>
       <c r="I27" s="3">
-        <v>1332000</v>
+        <v>1372700</v>
       </c>
       <c r="J27" s="3">
-        <v>2331700</v>
+        <v>2402900</v>
       </c>
       <c r="K27" s="3">
         <v>1528400</v>
@@ -1598,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="J29" s="3">
-        <v>494300</v>
+        <v>509400</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-273300</v>
+        <v>-281600</v>
       </c>
       <c r="E32" s="3">
-        <v>-221100</v>
+        <v>-227800</v>
       </c>
       <c r="F32" s="3">
-        <v>-402300</v>
+        <v>-414600</v>
       </c>
       <c r="G32" s="3">
-        <v>-358400</v>
+        <v>-369300</v>
       </c>
       <c r="H32" s="3">
-        <v>-377600</v>
+        <v>-389200</v>
       </c>
       <c r="I32" s="3">
-        <v>-304800</v>
+        <v>-314200</v>
       </c>
       <c r="J32" s="3">
-        <v>-304800</v>
+        <v>-314200</v>
       </c>
       <c r="K32" s="3">
         <v>-274300</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2169600</v>
+        <v>2235900</v>
       </c>
       <c r="E33" s="3">
-        <v>-626200</v>
+        <v>-645300</v>
       </c>
       <c r="F33" s="3">
-        <v>2561000</v>
+        <v>2639200</v>
       </c>
       <c r="G33" s="3">
-        <v>1625900</v>
+        <v>1675500</v>
       </c>
       <c r="H33" s="3">
-        <v>2713400</v>
+        <v>2796300</v>
       </c>
       <c r="I33" s="3">
-        <v>1323800</v>
+        <v>1364200</v>
       </c>
       <c r="J33" s="3">
-        <v>2826000</v>
+        <v>2912300</v>
       </c>
       <c r="K33" s="3">
         <v>1528400</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2169600</v>
+        <v>2235900</v>
       </c>
       <c r="E35" s="3">
-        <v>-626200</v>
+        <v>-645300</v>
       </c>
       <c r="F35" s="3">
-        <v>2561000</v>
+        <v>2639200</v>
       </c>
       <c r="G35" s="3">
-        <v>1625900</v>
+        <v>1675500</v>
       </c>
       <c r="H35" s="3">
-        <v>2713400</v>
+        <v>2796300</v>
       </c>
       <c r="I35" s="3">
-        <v>1323800</v>
+        <v>1364200</v>
       </c>
       <c r="J35" s="3">
-        <v>2826000</v>
+        <v>2912300</v>
       </c>
       <c r="K35" s="3">
         <v>1528400</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3794100</v>
+        <v>3909900</v>
       </c>
       <c r="E41" s="3">
-        <v>4563100</v>
+        <v>4702400</v>
       </c>
       <c r="F41" s="3">
-        <v>1304500</v>
+        <v>1344400</v>
       </c>
       <c r="G41" s="3">
-        <v>1279800</v>
+        <v>1318900</v>
       </c>
       <c r="H41" s="3">
-        <v>2184700</v>
+        <v>2251400</v>
       </c>
       <c r="I41" s="3">
-        <v>1200200</v>
+        <v>1236800</v>
       </c>
       <c r="J41" s="3">
-        <v>1263300</v>
+        <v>1301900</v>
       </c>
       <c r="K41" s="3">
         <v>1585700</v>
@@ -2020,25 +2020,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>115300</v>
+        <v>118900</v>
       </c>
       <c r="E42" s="3">
-        <v>103000</v>
+        <v>106100</v>
       </c>
       <c r="F42" s="3">
-        <v>57700</v>
+        <v>59400</v>
       </c>
       <c r="G42" s="3">
-        <v>174400</v>
+        <v>179700</v>
       </c>
       <c r="H42" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="I42" s="3">
-        <v>48100</v>
+        <v>49500</v>
       </c>
       <c r="J42" s="3">
-        <v>168900</v>
+        <v>174100</v>
       </c>
       <c r="K42" s="3">
         <v>107800</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4460100</v>
+        <v>4596300</v>
       </c>
       <c r="E43" s="3">
-        <v>3159700</v>
+        <v>3256200</v>
       </c>
       <c r="F43" s="3">
-        <v>5019000</v>
+        <v>5172200</v>
       </c>
       <c r="G43" s="3">
-        <v>3813300</v>
+        <v>3929800</v>
       </c>
       <c r="H43" s="3">
-        <v>4878900</v>
+        <v>5027900</v>
       </c>
       <c r="I43" s="3">
-        <v>3766700</v>
+        <v>3881600</v>
       </c>
       <c r="J43" s="3">
-        <v>4858300</v>
+        <v>5006700</v>
       </c>
       <c r="K43" s="3">
         <v>3451000</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7895800</v>
+        <v>8136900</v>
       </c>
       <c r="E44" s="3">
-        <v>7926100</v>
+        <v>8168000</v>
       </c>
       <c r="F44" s="3">
-        <v>7496200</v>
+        <v>7725100</v>
       </c>
       <c r="G44" s="3">
-        <v>7514100</v>
+        <v>7743500</v>
       </c>
       <c r="H44" s="3">
-        <v>7245000</v>
+        <v>7466100</v>
       </c>
       <c r="I44" s="3">
-        <v>6886500</v>
+        <v>7096800</v>
       </c>
       <c r="J44" s="3">
-        <v>6754700</v>
+        <v>6960900</v>
       </c>
       <c r="K44" s="3">
         <v>6374700</v>
@@ -2158,16 +2158,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>70000</v>
+        <v>72200</v>
       </c>
       <c r="G45" s="3">
-        <v>89300</v>
+        <v>92000</v>
       </c>
       <c r="H45" s="3">
-        <v>114000</v>
+        <v>117500</v>
       </c>
       <c r="I45" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16265400</v>
+        <v>16762000</v>
       </c>
       <c r="E46" s="3">
-        <v>15751900</v>
+        <v>16232700</v>
       </c>
       <c r="F46" s="3">
-        <v>13947500</v>
+        <v>14373300</v>
       </c>
       <c r="G46" s="3">
-        <v>12870900</v>
+        <v>13263800</v>
       </c>
       <c r="H46" s="3">
-        <v>14439100</v>
+        <v>14879900</v>
       </c>
       <c r="I46" s="3">
-        <v>11934400</v>
+        <v>12298700</v>
       </c>
       <c r="J46" s="3">
-        <v>13045300</v>
+        <v>13443500</v>
       </c>
       <c r="K46" s="3">
         <v>11519300</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5582000</v>
+        <v>5752400</v>
       </c>
       <c r="E47" s="3">
-        <v>5945900</v>
+        <v>6127400</v>
       </c>
       <c r="F47" s="3">
-        <v>4997000</v>
+        <v>5149600</v>
       </c>
       <c r="G47" s="3">
-        <v>5052000</v>
+        <v>5206200</v>
       </c>
       <c r="H47" s="3">
-        <v>4968200</v>
+        <v>5119900</v>
       </c>
       <c r="I47" s="3">
-        <v>4508200</v>
+        <v>4645800</v>
       </c>
       <c r="J47" s="3">
-        <v>4589200</v>
+        <v>4729300</v>
       </c>
       <c r="K47" s="3">
         <v>4233900</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6618800</v>
+        <v>6820800</v>
       </c>
       <c r="E48" s="3">
-        <v>6834400</v>
+        <v>7043000</v>
       </c>
       <c r="F48" s="3">
-        <v>6695700</v>
+        <v>6900100</v>
       </c>
       <c r="G48" s="3">
-        <v>6164200</v>
+        <v>6352400</v>
       </c>
       <c r="H48" s="3">
-        <v>5855300</v>
+        <v>6034000</v>
       </c>
       <c r="I48" s="3">
-        <v>5646600</v>
+        <v>5818900</v>
       </c>
       <c r="J48" s="3">
-        <v>5457100</v>
+        <v>5623600</v>
       </c>
       <c r="K48" s="3">
         <v>5372200</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14936200</v>
+        <v>15392200</v>
       </c>
       <c r="E49" s="3">
-        <v>15517000</v>
+        <v>15990700</v>
       </c>
       <c r="F49" s="3">
-        <v>16526300</v>
+        <v>17030800</v>
       </c>
       <c r="G49" s="3">
-        <v>17243100</v>
+        <v>17769500</v>
       </c>
       <c r="H49" s="3">
-        <v>17240400</v>
+        <v>17766700</v>
       </c>
       <c r="I49" s="3">
-        <v>17263700</v>
+        <v>17790800</v>
       </c>
       <c r="J49" s="3">
-        <v>17586400</v>
+        <v>18123300</v>
       </c>
       <c r="K49" s="3">
         <v>16730400</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1643700</v>
+        <v>1693900</v>
       </c>
       <c r="E52" s="3">
-        <v>1689000</v>
+        <v>1740600</v>
       </c>
       <c r="F52" s="3">
-        <v>1408900</v>
+        <v>1451900</v>
       </c>
       <c r="G52" s="3">
-        <v>1645100</v>
+        <v>1695300</v>
       </c>
       <c r="H52" s="3">
-        <v>1568200</v>
+        <v>1616100</v>
       </c>
       <c r="I52" s="3">
-        <v>1451500</v>
+        <v>1495800</v>
       </c>
       <c r="J52" s="3">
-        <v>657800</v>
+        <v>677800</v>
       </c>
       <c r="K52" s="3">
         <v>552500</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45046100</v>
+        <v>46421300</v>
       </c>
       <c r="E54" s="3">
-        <v>45738200</v>
+        <v>47134500</v>
       </c>
       <c r="F54" s="3">
-        <v>43575400</v>
+        <v>44905700</v>
       </c>
       <c r="G54" s="3">
-        <v>42975400</v>
+        <v>44287300</v>
       </c>
       <c r="H54" s="3">
-        <v>44071200</v>
+        <v>45416500</v>
       </c>
       <c r="I54" s="3">
-        <v>40804300</v>
+        <v>42050000</v>
       </c>
       <c r="J54" s="3">
-        <v>41335800</v>
+        <v>42597600</v>
       </c>
       <c r="K54" s="3">
         <v>38408200</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6349600</v>
+        <v>6543500</v>
       </c>
       <c r="E57" s="3">
-        <v>5057500</v>
+        <v>5211900</v>
       </c>
       <c r="F57" s="3">
-        <v>6143700</v>
+        <v>6331200</v>
       </c>
       <c r="G57" s="3">
-        <v>5770100</v>
+        <v>5946300</v>
       </c>
       <c r="H57" s="3">
-        <v>6062600</v>
+        <v>6247700</v>
       </c>
       <c r="I57" s="3">
-        <v>5424100</v>
+        <v>5589700</v>
       </c>
       <c r="J57" s="3">
-        <v>5687800</v>
+        <v>5861400</v>
       </c>
       <c r="K57" s="3">
         <v>4743800</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1667100</v>
+        <v>1717900</v>
       </c>
       <c r="E58" s="3">
-        <v>2739500</v>
+        <v>2823100</v>
       </c>
       <c r="F58" s="3">
-        <v>4642800</v>
+        <v>4784500</v>
       </c>
       <c r="G58" s="3">
-        <v>2690100</v>
+        <v>2772200</v>
       </c>
       <c r="H58" s="3">
-        <v>2392100</v>
+        <v>2465100</v>
       </c>
       <c r="I58" s="3">
-        <v>2510200</v>
+        <v>2586800</v>
       </c>
       <c r="J58" s="3">
-        <v>3265400</v>
+        <v>3365100</v>
       </c>
       <c r="K58" s="3">
         <v>3273900</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1197400</v>
+        <v>1234000</v>
       </c>
       <c r="E59" s="3">
-        <v>1123300</v>
+        <v>1157600</v>
       </c>
       <c r="F59" s="3">
-        <v>1370400</v>
+        <v>1412300</v>
       </c>
       <c r="G59" s="3">
-        <v>1156200</v>
+        <v>1191500</v>
       </c>
       <c r="H59" s="3">
-        <v>1333400</v>
+        <v>1374100</v>
       </c>
       <c r="I59" s="3">
-        <v>799200</v>
+        <v>823600</v>
       </c>
       <c r="J59" s="3">
-        <v>1006500</v>
+        <v>1037300</v>
       </c>
       <c r="K59" s="3">
         <v>849400</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9214100</v>
+        <v>9495400</v>
       </c>
       <c r="E60" s="3">
-        <v>8920200</v>
+        <v>9192600</v>
       </c>
       <c r="F60" s="3">
-        <v>12156900</v>
+        <v>12528000</v>
       </c>
       <c r="G60" s="3">
-        <v>9616400</v>
+        <v>9910000</v>
       </c>
       <c r="H60" s="3">
-        <v>9788100</v>
+        <v>10086900</v>
       </c>
       <c r="I60" s="3">
-        <v>8733500</v>
+        <v>9000100</v>
       </c>
       <c r="J60" s="3">
-        <v>9959700</v>
+        <v>10263800</v>
       </c>
       <c r="K60" s="3">
         <v>8867100</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19311200</v>
+        <v>19900700</v>
       </c>
       <c r="E61" s="3">
-        <v>20309500</v>
+        <v>20929500</v>
       </c>
       <c r="F61" s="3">
-        <v>13856900</v>
+        <v>14279900</v>
       </c>
       <c r="G61" s="3">
-        <v>14550300</v>
+        <v>14994500</v>
       </c>
       <c r="H61" s="3">
-        <v>14105400</v>
+        <v>14536000</v>
       </c>
       <c r="I61" s="3">
-        <v>11087100</v>
+        <v>11425600</v>
       </c>
       <c r="J61" s="3">
-        <v>10500800</v>
+        <v>10821300</v>
       </c>
       <c r="K61" s="3">
         <v>8764600</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5016300</v>
+        <v>5169400</v>
       </c>
       <c r="E62" s="3">
-        <v>4918800</v>
+        <v>5068900</v>
       </c>
       <c r="F62" s="3">
-        <v>4887200</v>
+        <v>5036400</v>
       </c>
       <c r="G62" s="3">
-        <v>4862500</v>
+        <v>5010900</v>
       </c>
       <c r="H62" s="3">
-        <v>4889900</v>
+        <v>5039200</v>
       </c>
       <c r="I62" s="3">
-        <v>4899500</v>
+        <v>5049100</v>
       </c>
       <c r="J62" s="3">
-        <v>4822600</v>
+        <v>4969900</v>
       </c>
       <c r="K62" s="3">
         <v>4762400</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35683700</v>
+        <v>36773000</v>
       </c>
       <c r="E66" s="3">
-        <v>36439000</v>
+        <v>37551400</v>
       </c>
       <c r="F66" s="3">
-        <v>33244900</v>
+        <v>34259800</v>
       </c>
       <c r="G66" s="3">
-        <v>31494100</v>
+        <v>32455500</v>
       </c>
       <c r="H66" s="3">
-        <v>31209900</v>
+        <v>32162600</v>
       </c>
       <c r="I66" s="3">
-        <v>27143800</v>
+        <v>27972500</v>
       </c>
       <c r="J66" s="3">
-        <v>27711000</v>
+        <v>28556900</v>
       </c>
       <c r="K66" s="3">
         <v>24677500</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10966300</v>
+        <v>11301100</v>
       </c>
       <c r="E72" s="3">
-        <v>10359300</v>
+        <v>10675600</v>
       </c>
       <c r="F72" s="3">
-        <v>11879500</v>
+        <v>12242100</v>
       </c>
       <c r="G72" s="3">
-        <v>12498800</v>
+        <v>12880300</v>
       </c>
       <c r="H72" s="3">
-        <v>13944700</v>
+        <v>14370400</v>
       </c>
       <c r="I72" s="3">
-        <v>15095500</v>
+        <v>15556300</v>
       </c>
       <c r="J72" s="3">
-        <v>14786500</v>
+        <v>15237900</v>
       </c>
       <c r="K72" s="3">
         <v>14375100</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9362400</v>
+        <v>9648200</v>
       </c>
       <c r="E76" s="3">
-        <v>9299200</v>
+        <v>9583100</v>
       </c>
       <c r="F76" s="3">
-        <v>10330500</v>
+        <v>10645900</v>
       </c>
       <c r="G76" s="3">
-        <v>11481200</v>
+        <v>11831700</v>
       </c>
       <c r="H76" s="3">
-        <v>12861300</v>
+        <v>13253900</v>
       </c>
       <c r="I76" s="3">
-        <v>13660500</v>
+        <v>14077500</v>
       </c>
       <c r="J76" s="3">
-        <v>13624800</v>
+        <v>14040700</v>
       </c>
       <c r="K76" s="3">
         <v>13730700</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2169600</v>
+        <v>2235900</v>
       </c>
       <c r="E81" s="3">
-        <v>-626200</v>
+        <v>-645300</v>
       </c>
       <c r="F81" s="3">
-        <v>2561000</v>
+        <v>2639200</v>
       </c>
       <c r="G81" s="3">
-        <v>1625900</v>
+        <v>1675500</v>
       </c>
       <c r="H81" s="3">
-        <v>2713400</v>
+        <v>2796300</v>
       </c>
       <c r="I81" s="3">
-        <v>1323800</v>
+        <v>1364200</v>
       </c>
       <c r="J81" s="3">
-        <v>2826000</v>
+        <v>2912300</v>
       </c>
       <c r="K81" s="3">
         <v>1528400</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300700</v>
+        <v>309900</v>
       </c>
       <c r="E83" s="3">
-        <v>2132600</v>
+        <v>2197700</v>
       </c>
       <c r="F83" s="3">
-        <v>392700</v>
+        <v>404700</v>
       </c>
       <c r="G83" s="3">
-        <v>259500</v>
+        <v>267500</v>
       </c>
       <c r="H83" s="3">
-        <v>254000</v>
+        <v>261800</v>
       </c>
       <c r="I83" s="3">
-        <v>420200</v>
+        <v>433000</v>
       </c>
       <c r="J83" s="3">
-        <v>256800</v>
+        <v>264600</v>
       </c>
       <c r="K83" s="3">
         <v>243600</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2743600</v>
+        <v>2827400</v>
       </c>
       <c r="E89" s="3">
-        <v>1417100</v>
+        <v>1460400</v>
       </c>
       <c r="F89" s="3">
-        <v>1768700</v>
+        <v>1822700</v>
       </c>
       <c r="G89" s="3">
-        <v>2257500</v>
+        <v>2326400</v>
       </c>
       <c r="H89" s="3">
-        <v>2202600</v>
+        <v>2269800</v>
       </c>
       <c r="I89" s="3">
-        <v>2521200</v>
+        <v>2598100</v>
       </c>
       <c r="J89" s="3">
-        <v>1713700</v>
+        <v>1766100</v>
       </c>
       <c r="K89" s="3">
         <v>2483100</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-343300</v>
+        <v>-353800</v>
       </c>
       <c r="E91" s="3">
-        <v>-508100</v>
+        <v>-523600</v>
       </c>
       <c r="F91" s="3">
-        <v>-453200</v>
+        <v>-467000</v>
       </c>
       <c r="G91" s="3">
-        <v>-549300</v>
+        <v>-566000</v>
       </c>
       <c r="H91" s="3">
-        <v>-372100</v>
+        <v>-383500</v>
       </c>
       <c r="I91" s="3">
-        <v>-513600</v>
+        <v>-529300</v>
       </c>
       <c r="J91" s="3">
-        <v>-288400</v>
+        <v>-297200</v>
       </c>
       <c r="K91" s="3">
         <v>-427400</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-829400</v>
+        <v>-854700</v>
       </c>
       <c r="E94" s="3">
-        <v>-517700</v>
+        <v>-533500</v>
       </c>
       <c r="F94" s="3">
-        <v>-587700</v>
+        <v>-605700</v>
       </c>
       <c r="G94" s="3">
-        <v>-547900</v>
+        <v>-564600</v>
       </c>
       <c r="H94" s="3">
-        <v>177100</v>
+        <v>182500</v>
       </c>
       <c r="I94" s="3">
-        <v>-512200</v>
+        <v>-527800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1068300</v>
+        <v>-1101000</v>
       </c>
       <c r="K94" s="3">
         <v>-450000</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1362200</v>
+        <v>-1403800</v>
       </c>
       <c r="E96" s="3">
-        <v>-878800</v>
+        <v>-905700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1381400</v>
+        <v>-1423600</v>
       </c>
       <c r="G96" s="3">
-        <v>-865100</v>
+        <v>-891500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1363600</v>
+        <v>-1405200</v>
       </c>
       <c r="I96" s="3">
-        <v>-841800</v>
+        <v>-867500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1329200</v>
+        <v>-1369800</v>
       </c>
       <c r="K96" s="3">
         <v>-792200</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2239700</v>
+        <v>-2308000</v>
       </c>
       <c r="E100" s="3">
-        <v>2426400</v>
+        <v>2500500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1002400</v>
+        <v>-1033000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2585700</v>
+        <v>-2664700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1429500</v>
+        <v>-1473100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1984300</v>
+        <v>-2044800</v>
       </c>
       <c r="J100" s="3">
-        <v>-924200</v>
+        <v>-952400</v>
       </c>
       <c r="K100" s="3">
         <v>-2042400</v>
@@ -4377,25 +4377,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-324100</v>
+        <v>-334000</v>
       </c>
       <c r="E101" s="3">
-        <v>-120800</v>
+        <v>-124500</v>
       </c>
       <c r="F101" s="3">
-        <v>-43900</v>
+        <v>-45300</v>
       </c>
       <c r="G101" s="3">
-        <v>-54900</v>
+        <v>-56600</v>
       </c>
       <c r="H101" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="I101" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J101" s="3">
-        <v>-38400</v>
+        <v>-39600</v>
       </c>
       <c r="K101" s="3">
         <v>-62600</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-649500</v>
+        <v>-669300</v>
       </c>
       <c r="E102" s="3">
-        <v>3205000</v>
+        <v>3302900</v>
       </c>
       <c r="F102" s="3">
-        <v>134600</v>
+        <v>138700</v>
       </c>
       <c r="G102" s="3">
-        <v>-931000</v>
+        <v>-959400</v>
       </c>
       <c r="H102" s="3">
-        <v>969500</v>
+        <v>999100</v>
       </c>
       <c r="I102" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="J102" s="3">
-        <v>-317200</v>
+        <v>-326900</v>
       </c>
       <c r="K102" s="3">
         <v>-71900</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9727500</v>
+        <v>7990400</v>
       </c>
       <c r="E8" s="3">
-        <v>6441600</v>
+        <v>9374700</v>
       </c>
       <c r="F8" s="3">
-        <v>10188800</v>
+        <v>6208000</v>
       </c>
       <c r="G8" s="3">
-        <v>8432600</v>
+        <v>9819300</v>
       </c>
       <c r="H8" s="3">
-        <v>9775600</v>
+        <v>8126800</v>
       </c>
       <c r="I8" s="3">
-        <v>7971300</v>
+        <v>9421100</v>
       </c>
       <c r="J8" s="3">
+        <v>7682200</v>
+      </c>
+      <c r="K8" s="3">
         <v>9240700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7494500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7908100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6363700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7312000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6469400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3765600</v>
+        <v>3241700</v>
       </c>
       <c r="E9" s="3">
-        <v>2762300</v>
+        <v>3629000</v>
       </c>
       <c r="F9" s="3">
-        <v>3823600</v>
+        <v>2662100</v>
       </c>
       <c r="G9" s="3">
-        <v>3336800</v>
+        <v>3685000</v>
       </c>
       <c r="H9" s="3">
-        <v>3549100</v>
+        <v>3215800</v>
       </c>
       <c r="I9" s="3">
-        <v>3106200</v>
+        <v>3420400</v>
       </c>
       <c r="J9" s="3">
+        <v>2993500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3451500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2949100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3035900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2555100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2989500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2853500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5961900</v>
+        <v>4748700</v>
       </c>
       <c r="E10" s="3">
-        <v>3679300</v>
+        <v>5745600</v>
       </c>
       <c r="F10" s="3">
-        <v>6365200</v>
+        <v>3545900</v>
       </c>
       <c r="G10" s="3">
-        <v>5095800</v>
+        <v>6134300</v>
       </c>
       <c r="H10" s="3">
-        <v>6226500</v>
+        <v>4911000</v>
       </c>
       <c r="I10" s="3">
-        <v>4865100</v>
+        <v>6000700</v>
       </c>
       <c r="J10" s="3">
+        <v>4688700</v>
+      </c>
+      <c r="K10" s="3">
         <v>5789200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4545400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4872200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3808600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4322500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3615900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,52 +989,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
+        <v>-15000</v>
       </c>
       <c r="E14" s="3">
-        <v>1852400</v>
+        <v>16400</v>
       </c>
       <c r="F14" s="3">
-        <v>83500</v>
+        <v>1785200</v>
       </c>
       <c r="G14" s="3">
-        <v>15600</v>
+        <v>80500</v>
       </c>
       <c r="H14" s="3">
-        <v>-176900</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="3">
-        <v>181100</v>
+        <v>-170500</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>174600</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>55900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-24600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>197000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-139600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-233100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6552000</v>
+        <v>5943400</v>
       </c>
       <c r="E17" s="3">
-        <v>6905700</v>
+        <v>6314300</v>
       </c>
       <c r="F17" s="3">
-        <v>6733100</v>
+        <v>6655300</v>
       </c>
       <c r="G17" s="3">
-        <v>6167000</v>
+        <v>6488900</v>
       </c>
       <c r="H17" s="3">
-        <v>6130300</v>
+        <v>5943400</v>
       </c>
       <c r="I17" s="3">
-        <v>5847200</v>
+        <v>5907900</v>
       </c>
       <c r="J17" s="3">
+        <v>5635200</v>
+      </c>
+      <c r="K17" s="3">
         <v>6141600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5505300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5340200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4876800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4932900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4620600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3175500</v>
+        <v>2047000</v>
       </c>
       <c r="E18" s="3">
-        <v>-464200</v>
+        <v>3060300</v>
       </c>
       <c r="F18" s="3">
-        <v>3455700</v>
+        <v>-447300</v>
       </c>
       <c r="G18" s="3">
-        <v>2265600</v>
+        <v>3330400</v>
       </c>
       <c r="H18" s="3">
-        <v>3645300</v>
+        <v>2183400</v>
       </c>
       <c r="I18" s="3">
-        <v>2124100</v>
+        <v>3513100</v>
       </c>
       <c r="J18" s="3">
+        <v>2047000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3099100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1989100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2567900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1486900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2379100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1848800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>281600</v>
+        <v>309600</v>
       </c>
       <c r="E20" s="3">
-        <v>227800</v>
+        <v>271400</v>
       </c>
       <c r="F20" s="3">
-        <v>414600</v>
+        <v>219600</v>
       </c>
       <c r="G20" s="3">
-        <v>369300</v>
+        <v>399600</v>
       </c>
       <c r="H20" s="3">
-        <v>389200</v>
+        <v>355900</v>
       </c>
       <c r="I20" s="3">
+        <v>375000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K20" s="3">
         <v>314200</v>
       </c>
-      <c r="J20" s="3">
-        <v>314200</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>274300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>277100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>206100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>254300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>181700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3767000</v>
+        <v>2667600</v>
       </c>
       <c r="E21" s="3">
-        <v>1961300</v>
+        <v>3630400</v>
       </c>
       <c r="F21" s="3">
-        <v>4275000</v>
+        <v>1890200</v>
       </c>
       <c r="G21" s="3">
-        <v>2902400</v>
+        <v>4120000</v>
       </c>
       <c r="H21" s="3">
-        <v>4296300</v>
+        <v>2797100</v>
       </c>
       <c r="I21" s="3">
-        <v>2871300</v>
+        <v>4140500</v>
       </c>
       <c r="J21" s="3">
+        <v>2767100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3677900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2507000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3064200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1943400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2999900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2359700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>346700</v>
+        <v>300000</v>
       </c>
       <c r="E22" s="3">
-        <v>359400</v>
+        <v>334100</v>
       </c>
       <c r="F22" s="3">
-        <v>383500</v>
+        <v>346400</v>
       </c>
       <c r="G22" s="3">
-        <v>359400</v>
+        <v>369600</v>
       </c>
       <c r="H22" s="3">
-        <v>317000</v>
+        <v>346400</v>
       </c>
       <c r="I22" s="3">
-        <v>264600</v>
+        <v>305500</v>
       </c>
       <c r="J22" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K22" s="3">
         <v>294300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>286300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>290700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>292200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>306500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>327900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3110400</v>
+        <v>2056600</v>
       </c>
       <c r="E23" s="3">
-        <v>-595800</v>
+        <v>2997600</v>
       </c>
       <c r="F23" s="3">
-        <v>3486800</v>
+        <v>-574200</v>
       </c>
       <c r="G23" s="3">
-        <v>2275500</v>
+        <v>3360400</v>
       </c>
       <c r="H23" s="3">
-        <v>3717500</v>
+        <v>2193000</v>
       </c>
       <c r="I23" s="3">
-        <v>2173600</v>
+        <v>3582700</v>
       </c>
       <c r="J23" s="3">
+        <v>2094800</v>
+      </c>
+      <c r="K23" s="3">
         <v>3118900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1977100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2554300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2326900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1702600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>759900</v>
+        <v>504600</v>
       </c>
       <c r="E24" s="3">
-        <v>83500</v>
+        <v>732400</v>
       </c>
       <c r="F24" s="3">
-        <v>750000</v>
+        <v>80500</v>
       </c>
       <c r="G24" s="3">
-        <v>478300</v>
+        <v>722800</v>
       </c>
       <c r="H24" s="3">
-        <v>792500</v>
+        <v>461000</v>
       </c>
       <c r="I24" s="3">
-        <v>726000</v>
+        <v>763700</v>
       </c>
       <c r="J24" s="3">
+        <v>699600</v>
+      </c>
+      <c r="K24" s="3">
         <v>618400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>394100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>537000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>260900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>386100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>250200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2350500</v>
+        <v>1552000</v>
       </c>
       <c r="E26" s="3">
-        <v>-679300</v>
+        <v>2265300</v>
       </c>
       <c r="F26" s="3">
-        <v>2736800</v>
+        <v>-654600</v>
       </c>
       <c r="G26" s="3">
-        <v>1797200</v>
+        <v>2637600</v>
       </c>
       <c r="H26" s="3">
-        <v>2925000</v>
+        <v>1732000</v>
       </c>
       <c r="I26" s="3">
-        <v>1447700</v>
+        <v>2819000</v>
       </c>
       <c r="J26" s="3">
+        <v>1395200</v>
+      </c>
+      <c r="K26" s="3">
         <v>2500500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1583000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2017400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1140000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1940800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1452400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2235900</v>
+        <v>1472900</v>
       </c>
       <c r="E27" s="3">
-        <v>-645300</v>
+        <v>2154800</v>
       </c>
       <c r="F27" s="3">
-        <v>2639200</v>
+        <v>-621900</v>
       </c>
       <c r="G27" s="3">
-        <v>1675500</v>
+        <v>2543500</v>
       </c>
       <c r="H27" s="3">
-        <v>2796300</v>
+        <v>1614700</v>
       </c>
       <c r="I27" s="3">
-        <v>1372700</v>
+        <v>2694800</v>
       </c>
       <c r="J27" s="3">
+        <v>1322900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2402900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1528400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1932400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1093000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1833900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1409000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,38 +1652,41 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>-8500</v>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K29" s="3">
         <v>509400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-67700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-281600</v>
+        <v>-309600</v>
       </c>
       <c r="E32" s="3">
-        <v>-227800</v>
+        <v>-271400</v>
       </c>
       <c r="F32" s="3">
-        <v>-414600</v>
+        <v>-219600</v>
       </c>
       <c r="G32" s="3">
-        <v>-369300</v>
+        <v>-399600</v>
       </c>
       <c r="H32" s="3">
-        <v>-389200</v>
+        <v>-355900</v>
       </c>
       <c r="I32" s="3">
+        <v>-375000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-302800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-314200</v>
       </c>
-      <c r="J32" s="3">
-        <v>-314200</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-274300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-277100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-206100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-254300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-181700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2235900</v>
+        <v>1472900</v>
       </c>
       <c r="E33" s="3">
-        <v>-645300</v>
+        <v>2154800</v>
       </c>
       <c r="F33" s="3">
-        <v>2639200</v>
+        <v>-621900</v>
       </c>
       <c r="G33" s="3">
-        <v>1675500</v>
+        <v>2543500</v>
       </c>
       <c r="H33" s="3">
-        <v>2796300</v>
+        <v>1614700</v>
       </c>
       <c r="I33" s="3">
-        <v>1364200</v>
+        <v>2694800</v>
       </c>
       <c r="J33" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2912300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1528400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1864600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1093000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1833900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1409000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2235900</v>
+        <v>1472900</v>
       </c>
       <c r="E35" s="3">
-        <v>-645300</v>
+        <v>2154800</v>
       </c>
       <c r="F35" s="3">
-        <v>2639200</v>
+        <v>-621900</v>
       </c>
       <c r="G35" s="3">
-        <v>1675500</v>
+        <v>2543500</v>
       </c>
       <c r="H35" s="3">
-        <v>2796300</v>
+        <v>1614700</v>
       </c>
       <c r="I35" s="3">
-        <v>1364200</v>
+        <v>2694800</v>
       </c>
       <c r="J35" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2912300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1528400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1864600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1093000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1833900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1409000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3909900</v>
+        <v>3749100</v>
       </c>
       <c r="E41" s="3">
-        <v>4702400</v>
+        <v>3768200</v>
       </c>
       <c r="F41" s="3">
-        <v>1344400</v>
+        <v>4531900</v>
       </c>
       <c r="G41" s="3">
-        <v>1318900</v>
+        <v>1295600</v>
       </c>
       <c r="H41" s="3">
-        <v>2251400</v>
+        <v>1271100</v>
       </c>
       <c r="I41" s="3">
-        <v>1236800</v>
+        <v>2169800</v>
       </c>
       <c r="J41" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1301900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1585700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1544400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1420400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>705600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>621500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>118900</v>
+        <v>165000</v>
       </c>
       <c r="E42" s="3">
-        <v>106100</v>
+        <v>114600</v>
       </c>
       <c r="F42" s="3">
-        <v>59400</v>
+        <v>102300</v>
       </c>
       <c r="G42" s="3">
-        <v>179700</v>
+        <v>57300</v>
       </c>
       <c r="H42" s="3">
-        <v>17000</v>
+        <v>173200</v>
       </c>
       <c r="I42" s="3">
-        <v>49500</v>
+        <v>16400</v>
       </c>
       <c r="J42" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K42" s="3">
         <v>174100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>107800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>155200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>645600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>288300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>60600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4596300</v>
+        <v>3450400</v>
       </c>
       <c r="E43" s="3">
-        <v>3256200</v>
+        <v>4429600</v>
       </c>
       <c r="F43" s="3">
-        <v>5172200</v>
+        <v>3138100</v>
       </c>
       <c r="G43" s="3">
-        <v>3929800</v>
+        <v>4984700</v>
       </c>
       <c r="H43" s="3">
-        <v>5027900</v>
+        <v>3787200</v>
       </c>
       <c r="I43" s="3">
-        <v>3881600</v>
+        <v>4845500</v>
       </c>
       <c r="J43" s="3">
+        <v>3740900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5006700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3451000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4437500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3503400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4013400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3206400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8136900</v>
+        <v>8244100</v>
       </c>
       <c r="E44" s="3">
-        <v>8168000</v>
+        <v>7841800</v>
       </c>
       <c r="F44" s="3">
-        <v>7725100</v>
+        <v>7871800</v>
       </c>
       <c r="G44" s="3">
-        <v>7743500</v>
+        <v>7444900</v>
       </c>
       <c r="H44" s="3">
-        <v>7466100</v>
+        <v>7462700</v>
       </c>
       <c r="I44" s="3">
-        <v>7096800</v>
+        <v>7195400</v>
       </c>
       <c r="J44" s="3">
+        <v>6839400</v>
+      </c>
+      <c r="K44" s="3">
         <v>6960900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6374700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5839000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5972400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5722000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6023000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>72200</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>92000</v>
+        <v>69600</v>
       </c>
       <c r="H45" s="3">
-        <v>117500</v>
+        <v>88600</v>
       </c>
       <c r="I45" s="3">
-        <v>34000</v>
+        <v>113200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>32700</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>734300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>188300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16762000</v>
+        <v>15608600</v>
       </c>
       <c r="E46" s="3">
-        <v>16232700</v>
+        <v>16154100</v>
       </c>
       <c r="F46" s="3">
-        <v>14373300</v>
+        <v>15644000</v>
       </c>
       <c r="G46" s="3">
-        <v>13263800</v>
+        <v>13852000</v>
       </c>
       <c r="H46" s="3">
-        <v>14879900</v>
+        <v>12782800</v>
       </c>
       <c r="I46" s="3">
-        <v>12298700</v>
+        <v>14340300</v>
       </c>
       <c r="J46" s="3">
+        <v>11852700</v>
+      </c>
+      <c r="K46" s="3">
         <v>13443500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11519300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11979800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11545800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11463600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10099800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5752400</v>
+        <v>5061000</v>
       </c>
       <c r="E47" s="3">
-        <v>6127400</v>
+        <v>5543800</v>
       </c>
       <c r="F47" s="3">
-        <v>5149600</v>
+        <v>5905200</v>
       </c>
       <c r="G47" s="3">
-        <v>5206200</v>
+        <v>4962800</v>
       </c>
       <c r="H47" s="3">
-        <v>5119900</v>
+        <v>5017400</v>
       </c>
       <c r="I47" s="3">
-        <v>4645800</v>
+        <v>4934200</v>
       </c>
       <c r="J47" s="3">
+        <v>4477300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4729300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4233900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3953400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3945500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3457700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3322300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6820800</v>
+        <v>6703000</v>
       </c>
       <c r="E48" s="3">
-        <v>7043000</v>
+        <v>6573500</v>
       </c>
       <c r="F48" s="3">
-        <v>6900100</v>
+        <v>6787600</v>
       </c>
       <c r="G48" s="3">
-        <v>6352400</v>
+        <v>6649800</v>
       </c>
       <c r="H48" s="3">
-        <v>6034000</v>
+        <v>6122100</v>
       </c>
       <c r="I48" s="3">
-        <v>5818900</v>
+        <v>5815200</v>
       </c>
       <c r="J48" s="3">
+        <v>5607900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5623600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5372200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4928900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5075100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4738600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4944500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15392200</v>
+        <v>14679800</v>
       </c>
       <c r="E49" s="3">
-        <v>15990700</v>
+        <v>14833900</v>
       </c>
       <c r="F49" s="3">
-        <v>17030800</v>
+        <v>15410800</v>
       </c>
       <c r="G49" s="3">
-        <v>17769500</v>
+        <v>16413200</v>
       </c>
       <c r="H49" s="3">
-        <v>17766700</v>
+        <v>17125100</v>
       </c>
       <c r="I49" s="3">
-        <v>17790800</v>
+        <v>17122400</v>
       </c>
       <c r="J49" s="3">
+        <v>17145600</v>
+      </c>
+      <c r="K49" s="3">
         <v>18123300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16730400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15901200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16134300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14781700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14788900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1693900</v>
+        <v>1524700</v>
       </c>
       <c r="E52" s="3">
-        <v>1740600</v>
+        <v>1632500</v>
       </c>
       <c r="F52" s="3">
-        <v>1451900</v>
+        <v>1677500</v>
       </c>
       <c r="G52" s="3">
-        <v>1695300</v>
+        <v>1399200</v>
       </c>
       <c r="H52" s="3">
-        <v>1616100</v>
+        <v>1633800</v>
       </c>
       <c r="I52" s="3">
-        <v>1495800</v>
+        <v>1557400</v>
       </c>
       <c r="J52" s="3">
+        <v>1441500</v>
+      </c>
+      <c r="K52" s="3">
         <v>677800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>552500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>468000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>460400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>510000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>823000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46421300</v>
+        <v>43577200</v>
       </c>
       <c r="E54" s="3">
-        <v>47134500</v>
+        <v>44737800</v>
       </c>
       <c r="F54" s="3">
-        <v>44905700</v>
+        <v>45425100</v>
       </c>
       <c r="G54" s="3">
-        <v>44287300</v>
+        <v>43277100</v>
       </c>
       <c r="H54" s="3">
-        <v>45416500</v>
+        <v>42681200</v>
       </c>
       <c r="I54" s="3">
-        <v>42050000</v>
+        <v>43769500</v>
       </c>
       <c r="J54" s="3">
+        <v>40525000</v>
+      </c>
+      <c r="K54" s="3">
         <v>42597600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>38408200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37231300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37161100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34951600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33978400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6543500</v>
+        <v>6338900</v>
       </c>
       <c r="E57" s="3">
-        <v>5211900</v>
+        <v>6306200</v>
       </c>
       <c r="F57" s="3">
-        <v>6331200</v>
+        <v>5022800</v>
       </c>
       <c r="G57" s="3">
-        <v>5946300</v>
+        <v>6101600</v>
       </c>
       <c r="H57" s="3">
-        <v>6247700</v>
+        <v>5730600</v>
       </c>
       <c r="I57" s="3">
-        <v>5589700</v>
+        <v>6021100</v>
       </c>
       <c r="J57" s="3">
+        <v>5387000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5861400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4743800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4851300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4398100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4166000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3875300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1717900</v>
+        <v>2539400</v>
       </c>
       <c r="E58" s="3">
-        <v>2823100</v>
+        <v>1655600</v>
       </c>
       <c r="F58" s="3">
-        <v>4784500</v>
+        <v>2720800</v>
       </c>
       <c r="G58" s="3">
-        <v>2772200</v>
+        <v>4611000</v>
       </c>
       <c r="H58" s="3">
-        <v>2465100</v>
+        <v>2671700</v>
       </c>
       <c r="I58" s="3">
-        <v>2586800</v>
+        <v>2375700</v>
       </c>
       <c r="J58" s="3">
+        <v>2493000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3365100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3273900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3378300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2684300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2523800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2529600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1234000</v>
+        <v>861900</v>
       </c>
       <c r="E59" s="3">
-        <v>1157600</v>
+        <v>1189200</v>
       </c>
       <c r="F59" s="3">
-        <v>1412300</v>
+        <v>1115600</v>
       </c>
       <c r="G59" s="3">
-        <v>1191500</v>
+        <v>1361100</v>
       </c>
       <c r="H59" s="3">
-        <v>1374100</v>
+        <v>1148300</v>
       </c>
       <c r="I59" s="3">
-        <v>823600</v>
+        <v>1324200</v>
       </c>
       <c r="J59" s="3">
+        <v>793700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1037300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>849400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1087500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>987400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>875200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>561000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9495400</v>
+        <v>9740200</v>
       </c>
       <c r="E60" s="3">
-        <v>9192600</v>
+        <v>9151000</v>
       </c>
       <c r="F60" s="3">
-        <v>12528000</v>
+        <v>8859200</v>
       </c>
       <c r="G60" s="3">
-        <v>9910000</v>
+        <v>12073600</v>
       </c>
       <c r="H60" s="3">
-        <v>10086900</v>
+        <v>9550600</v>
       </c>
       <c r="I60" s="3">
-        <v>9000100</v>
+        <v>9721100</v>
       </c>
       <c r="J60" s="3">
+        <v>8673700</v>
+      </c>
+      <c r="K60" s="3">
         <v>10263800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8867100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9317100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8069800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7565000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6965800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19900700</v>
+        <v>17545200</v>
       </c>
       <c r="E61" s="3">
-        <v>20929500</v>
+        <v>19179000</v>
       </c>
       <c r="F61" s="3">
-        <v>14279900</v>
+        <v>20170500</v>
       </c>
       <c r="G61" s="3">
-        <v>14994500</v>
+        <v>13762000</v>
       </c>
       <c r="H61" s="3">
-        <v>14536000</v>
+        <v>14450700</v>
       </c>
       <c r="I61" s="3">
-        <v>11425600</v>
+        <v>14008900</v>
       </c>
       <c r="J61" s="3">
+        <v>11011200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10821300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8764600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9239500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10527100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10343200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11008400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5169400</v>
+        <v>4793700</v>
       </c>
       <c r="E62" s="3">
-        <v>5068900</v>
+        <v>4981900</v>
       </c>
       <c r="F62" s="3">
-        <v>5036400</v>
+        <v>4885100</v>
       </c>
       <c r="G62" s="3">
-        <v>5010900</v>
+        <v>4853700</v>
       </c>
       <c r="H62" s="3">
-        <v>5039200</v>
+        <v>4829200</v>
       </c>
       <c r="I62" s="3">
-        <v>5049100</v>
+        <v>4856500</v>
       </c>
       <c r="J62" s="3">
+        <v>4866000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4969900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4762400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4815600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5286400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4421600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3816100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36773000</v>
+        <v>34171100</v>
       </c>
       <c r="E66" s="3">
-        <v>37551400</v>
+        <v>35439400</v>
       </c>
       <c r="F66" s="3">
-        <v>34259800</v>
+        <v>36189500</v>
       </c>
       <c r="G66" s="3">
-        <v>32455500</v>
+        <v>33017400</v>
       </c>
       <c r="H66" s="3">
-        <v>32162600</v>
+        <v>31278500</v>
       </c>
       <c r="I66" s="3">
-        <v>27972500</v>
+        <v>30996200</v>
       </c>
       <c r="J66" s="3">
+        <v>26958000</v>
+      </c>
+      <c r="K66" s="3">
         <v>28556900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24677500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25563100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26035300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24335800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23745700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11301100</v>
+        <v>11269000</v>
       </c>
       <c r="E72" s="3">
-        <v>10675600</v>
+        <v>10891200</v>
       </c>
       <c r="F72" s="3">
-        <v>12242100</v>
+        <v>10288400</v>
       </c>
       <c r="G72" s="3">
-        <v>12880300</v>
+        <v>11798100</v>
       </c>
       <c r="H72" s="3">
-        <v>14370400</v>
+        <v>12413200</v>
       </c>
       <c r="I72" s="3">
-        <v>15556300</v>
+        <v>13849300</v>
       </c>
       <c r="J72" s="3">
+        <v>14992100</v>
+      </c>
+      <c r="K72" s="3">
         <v>15237900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14375100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12210100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11864000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12143100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11861600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9648200</v>
+        <v>9406100</v>
       </c>
       <c r="E76" s="3">
-        <v>9583100</v>
+        <v>9298300</v>
       </c>
       <c r="F76" s="3">
-        <v>10645900</v>
+        <v>9235600</v>
       </c>
       <c r="G76" s="3">
-        <v>11831700</v>
+        <v>10259800</v>
       </c>
       <c r="H76" s="3">
-        <v>13253900</v>
+        <v>11402600</v>
       </c>
       <c r="I76" s="3">
-        <v>14077500</v>
+        <v>12773300</v>
       </c>
       <c r="J76" s="3">
+        <v>13567000</v>
+      </c>
+      <c r="K76" s="3">
         <v>14040700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13730700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11668200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11125800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10615800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10232800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2235900</v>
+        <v>1472900</v>
       </c>
       <c r="E81" s="3">
-        <v>-645300</v>
+        <v>2154800</v>
       </c>
       <c r="F81" s="3">
-        <v>2639200</v>
+        <v>-621900</v>
       </c>
       <c r="G81" s="3">
-        <v>1675500</v>
+        <v>2543500</v>
       </c>
       <c r="H81" s="3">
-        <v>2796300</v>
+        <v>1614700</v>
       </c>
       <c r="I81" s="3">
-        <v>1364200</v>
+        <v>2694800</v>
       </c>
       <c r="J81" s="3">
+        <v>1314700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2912300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1528400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1864600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1093000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1833900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1409000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>309900</v>
+        <v>310900</v>
       </c>
       <c r="E83" s="3">
-        <v>2197700</v>
+        <v>298700</v>
       </c>
       <c r="F83" s="3">
-        <v>404700</v>
+        <v>2118000</v>
       </c>
       <c r="G83" s="3">
-        <v>267500</v>
+        <v>390000</v>
       </c>
       <c r="H83" s="3">
-        <v>261800</v>
+        <v>257800</v>
       </c>
       <c r="I83" s="3">
-        <v>433000</v>
+        <v>252300</v>
       </c>
       <c r="J83" s="3">
+        <v>417300</v>
+      </c>
+      <c r="K83" s="3">
         <v>264600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>243600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>219200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>250400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>366500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>329200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2827400</v>
+        <v>2258400</v>
       </c>
       <c r="E89" s="3">
-        <v>1460400</v>
+        <v>2724900</v>
       </c>
       <c r="F89" s="3">
-        <v>1822700</v>
+        <v>1407400</v>
       </c>
       <c r="G89" s="3">
-        <v>2326400</v>
+        <v>1756600</v>
       </c>
       <c r="H89" s="3">
-        <v>2269800</v>
+        <v>2242100</v>
       </c>
       <c r="I89" s="3">
-        <v>2598100</v>
+        <v>2187500</v>
       </c>
       <c r="J89" s="3">
+        <v>2503900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1766100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2483100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1560400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1970800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1352600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2099000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-353800</v>
+        <v>-512800</v>
       </c>
       <c r="E91" s="3">
-        <v>-523600</v>
+        <v>-340900</v>
       </c>
       <c r="F91" s="3">
-        <v>-467000</v>
+        <v>-504600</v>
       </c>
       <c r="G91" s="3">
-        <v>-566000</v>
+        <v>-450100</v>
       </c>
       <c r="H91" s="3">
-        <v>-383500</v>
+        <v>-545500</v>
       </c>
       <c r="I91" s="3">
-        <v>-529300</v>
+        <v>-369600</v>
       </c>
       <c r="J91" s="3">
+        <v>-510100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-297200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-427400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-242600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-393900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-266100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-484600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-854700</v>
+        <v>-664200</v>
       </c>
       <c r="E94" s="3">
-        <v>-533500</v>
+        <v>-823700</v>
       </c>
       <c r="F94" s="3">
-        <v>-605700</v>
+        <v>-514100</v>
       </c>
       <c r="G94" s="3">
-        <v>-564600</v>
+        <v>-583700</v>
       </c>
       <c r="H94" s="3">
-        <v>182500</v>
+        <v>-544200</v>
       </c>
       <c r="I94" s="3">
-        <v>-527800</v>
+        <v>175900</v>
       </c>
       <c r="J94" s="3">
+        <v>-508700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-450000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-263600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>197000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>580400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>36900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1403800</v>
+        <v>-891900</v>
       </c>
       <c r="E96" s="3">
-        <v>-905700</v>
+        <v>-1352900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1423600</v>
+        <v>-872800</v>
       </c>
       <c r="G96" s="3">
-        <v>-891500</v>
+        <v>-1372000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1405200</v>
+        <v>-859200</v>
       </c>
       <c r="I96" s="3">
-        <v>-867500</v>
+        <v>-1354200</v>
       </c>
       <c r="J96" s="3">
+        <v>-836000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1369800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-792200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-739500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-711100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2308000</v>
+        <v>-1586100</v>
       </c>
       <c r="E100" s="3">
-        <v>2500500</v>
+        <v>-2224300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1033000</v>
+        <v>2409800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2664700</v>
+        <v>-995600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1473100</v>
+        <v>-2568000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2044800</v>
+        <v>-1419700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1970700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-952400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2042400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-334000</v>
+        <v>-66800</v>
       </c>
       <c r="E101" s="3">
-        <v>-124500</v>
+        <v>-321900</v>
       </c>
       <c r="F101" s="3">
-        <v>-45300</v>
+        <v>-120000</v>
       </c>
       <c r="G101" s="3">
-        <v>-56600</v>
+        <v>-43600</v>
       </c>
       <c r="H101" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="M101" s="3">
+        <v>40600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>147400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="Q101" s="3">
         <v>19800</v>
       </c>
-      <c r="I101" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-62600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>40600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>147400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-37800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-115900</v>
-      </c>
-      <c r="P101" s="3">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-669300</v>
+        <v>-58600</v>
       </c>
       <c r="E102" s="3">
-        <v>3302900</v>
+        <v>-645100</v>
       </c>
       <c r="F102" s="3">
-        <v>138700</v>
+        <v>3183100</v>
       </c>
       <c r="G102" s="3">
-        <v>-959400</v>
+        <v>133700</v>
       </c>
       <c r="H102" s="3">
-        <v>999100</v>
+        <v>-924600</v>
       </c>
       <c r="I102" s="3">
-        <v>9900</v>
+        <v>962800</v>
       </c>
       <c r="J102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-326900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-71900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>199500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>446100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>110900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-399000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7990400</v>
+        <v>7798900</v>
       </c>
       <c r="E8" s="3">
-        <v>9374700</v>
+        <v>9150000</v>
       </c>
       <c r="F8" s="3">
-        <v>6208000</v>
+        <v>6059200</v>
       </c>
       <c r="G8" s="3">
-        <v>9819300</v>
+        <v>9583900</v>
       </c>
       <c r="H8" s="3">
-        <v>8126800</v>
+        <v>7932000</v>
       </c>
       <c r="I8" s="3">
-        <v>9421100</v>
+        <v>9195200</v>
       </c>
       <c r="J8" s="3">
-        <v>7682200</v>
+        <v>7498100</v>
       </c>
       <c r="K8" s="3">
         <v>9240700</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3241700</v>
+        <v>3164000</v>
       </c>
       <c r="E9" s="3">
-        <v>3629000</v>
+        <v>3542100</v>
       </c>
       <c r="F9" s="3">
-        <v>2662100</v>
+        <v>2598300</v>
       </c>
       <c r="G9" s="3">
-        <v>3685000</v>
+        <v>3596600</v>
       </c>
       <c r="H9" s="3">
-        <v>3215800</v>
+        <v>3138700</v>
       </c>
       <c r="I9" s="3">
-        <v>3420400</v>
+        <v>3338400</v>
       </c>
       <c r="J9" s="3">
-        <v>2993500</v>
+        <v>2921800</v>
       </c>
       <c r="K9" s="3">
         <v>3451500</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4748700</v>
+        <v>4634900</v>
       </c>
       <c r="E10" s="3">
-        <v>5745600</v>
+        <v>5607900</v>
       </c>
       <c r="F10" s="3">
-        <v>3545900</v>
+        <v>3460900</v>
       </c>
       <c r="G10" s="3">
-        <v>6134300</v>
+        <v>5987300</v>
       </c>
       <c r="H10" s="3">
-        <v>4911000</v>
+        <v>4793300</v>
       </c>
       <c r="I10" s="3">
-        <v>6000700</v>
+        <v>5856800</v>
       </c>
       <c r="J10" s="3">
-        <v>4688700</v>
+        <v>4576300</v>
       </c>
       <c r="K10" s="3">
         <v>5789200</v>
@@ -998,25 +998,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="E14" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="3">
-        <v>1785200</v>
+        <v>1742400</v>
       </c>
       <c r="G14" s="3">
-        <v>80500</v>
+        <v>78500</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="I14" s="3">
-        <v>-170500</v>
+        <v>-166400</v>
       </c>
       <c r="J14" s="3">
-        <v>174600</v>
+        <v>170400</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5943400</v>
+        <v>5800900</v>
       </c>
       <c r="E17" s="3">
-        <v>6314300</v>
+        <v>6163000</v>
       </c>
       <c r="F17" s="3">
-        <v>6655300</v>
+        <v>6495800</v>
       </c>
       <c r="G17" s="3">
-        <v>6488900</v>
+        <v>6333400</v>
       </c>
       <c r="H17" s="3">
-        <v>5943400</v>
+        <v>5800900</v>
       </c>
       <c r="I17" s="3">
-        <v>5907900</v>
+        <v>5766300</v>
       </c>
       <c r="J17" s="3">
-        <v>5635200</v>
+        <v>5500100</v>
       </c>
       <c r="K17" s="3">
         <v>6141600</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2047000</v>
+        <v>1998000</v>
       </c>
       <c r="E18" s="3">
-        <v>3060300</v>
+        <v>2987000</v>
       </c>
       <c r="F18" s="3">
-        <v>-447300</v>
+        <v>-436600</v>
       </c>
       <c r="G18" s="3">
-        <v>3330400</v>
+        <v>3250500</v>
       </c>
       <c r="H18" s="3">
-        <v>2183400</v>
+        <v>2131100</v>
       </c>
       <c r="I18" s="3">
-        <v>3513100</v>
+        <v>3428900</v>
       </c>
       <c r="J18" s="3">
-        <v>2047000</v>
+        <v>1998000</v>
       </c>
       <c r="K18" s="3">
         <v>3099100</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>309600</v>
+        <v>302200</v>
       </c>
       <c r="E20" s="3">
-        <v>271400</v>
+        <v>264900</v>
       </c>
       <c r="F20" s="3">
-        <v>219600</v>
+        <v>214300</v>
       </c>
       <c r="G20" s="3">
-        <v>399600</v>
+        <v>390000</v>
       </c>
       <c r="H20" s="3">
-        <v>355900</v>
+        <v>347400</v>
       </c>
       <c r="I20" s="3">
-        <v>375000</v>
+        <v>366100</v>
       </c>
       <c r="J20" s="3">
-        <v>302800</v>
+        <v>295500</v>
       </c>
       <c r="K20" s="3">
         <v>314200</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2667600</v>
+        <v>2603600</v>
       </c>
       <c r="E21" s="3">
-        <v>3630400</v>
+        <v>3543400</v>
       </c>
       <c r="F21" s="3">
-        <v>1890200</v>
+        <v>1844900</v>
       </c>
       <c r="G21" s="3">
-        <v>4120000</v>
+        <v>4021300</v>
       </c>
       <c r="H21" s="3">
-        <v>2797100</v>
+        <v>2730100</v>
       </c>
       <c r="I21" s="3">
-        <v>4140500</v>
+        <v>4041200</v>
       </c>
       <c r="J21" s="3">
-        <v>2767100</v>
+        <v>2700800</v>
       </c>
       <c r="K21" s="3">
         <v>3677900</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300000</v>
+        <v>292800</v>
       </c>
       <c r="E22" s="3">
-        <v>334100</v>
+        <v>326100</v>
       </c>
       <c r="F22" s="3">
-        <v>346400</v>
+        <v>338100</v>
       </c>
       <c r="G22" s="3">
-        <v>369600</v>
+        <v>360700</v>
       </c>
       <c r="H22" s="3">
-        <v>346400</v>
+        <v>338100</v>
       </c>
       <c r="I22" s="3">
-        <v>305500</v>
+        <v>298200</v>
       </c>
       <c r="J22" s="3">
-        <v>255000</v>
+        <v>248900</v>
       </c>
       <c r="K22" s="3">
         <v>294300</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2056600</v>
+        <v>2007300</v>
       </c>
       <c r="E23" s="3">
-        <v>2997600</v>
+        <v>2925800</v>
       </c>
       <c r="F23" s="3">
-        <v>-574200</v>
+        <v>-560400</v>
       </c>
       <c r="G23" s="3">
-        <v>3360400</v>
+        <v>3279800</v>
       </c>
       <c r="H23" s="3">
-        <v>2193000</v>
+        <v>2140400</v>
       </c>
       <c r="I23" s="3">
-        <v>3582700</v>
+        <v>3496800</v>
       </c>
       <c r="J23" s="3">
-        <v>2094800</v>
+        <v>2044600</v>
       </c>
       <c r="K23" s="3">
         <v>3118900</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>504600</v>
+        <v>492500</v>
       </c>
       <c r="E24" s="3">
-        <v>732400</v>
+        <v>714800</v>
       </c>
       <c r="F24" s="3">
-        <v>80500</v>
+        <v>78500</v>
       </c>
       <c r="G24" s="3">
-        <v>722800</v>
+        <v>705500</v>
       </c>
       <c r="H24" s="3">
-        <v>461000</v>
+        <v>449900</v>
       </c>
       <c r="I24" s="3">
-        <v>763700</v>
+        <v>745400</v>
       </c>
       <c r="J24" s="3">
-        <v>699600</v>
+        <v>682900</v>
       </c>
       <c r="K24" s="3">
         <v>618400</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1552000</v>
+        <v>1514800</v>
       </c>
       <c r="E26" s="3">
-        <v>2265300</v>
+        <v>2211000</v>
       </c>
       <c r="F26" s="3">
-        <v>-654600</v>
+        <v>-638900</v>
       </c>
       <c r="G26" s="3">
-        <v>2637600</v>
+        <v>2574300</v>
       </c>
       <c r="H26" s="3">
-        <v>1732000</v>
+        <v>1690500</v>
       </c>
       <c r="I26" s="3">
-        <v>2819000</v>
+        <v>2751400</v>
       </c>
       <c r="J26" s="3">
-        <v>1395200</v>
+        <v>1361700</v>
       </c>
       <c r="K26" s="3">
         <v>2500500</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1472900</v>
+        <v>1437600</v>
       </c>
       <c r="E27" s="3">
-        <v>2154800</v>
+        <v>2103100</v>
       </c>
       <c r="F27" s="3">
-        <v>-621900</v>
+        <v>-607000</v>
       </c>
       <c r="G27" s="3">
-        <v>2543500</v>
+        <v>2482500</v>
       </c>
       <c r="H27" s="3">
-        <v>1614700</v>
+        <v>1576000</v>
       </c>
       <c r="I27" s="3">
-        <v>2694800</v>
+        <v>2630300</v>
       </c>
       <c r="J27" s="3">
-        <v>1322900</v>
+        <v>1291200</v>
       </c>
       <c r="K27" s="3">
         <v>2402900</v>
@@ -1662,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="J29" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="K29" s="3">
         <v>509400</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-309600</v>
+        <v>-302200</v>
       </c>
       <c r="E32" s="3">
-        <v>-271400</v>
+        <v>-264900</v>
       </c>
       <c r="F32" s="3">
-        <v>-219600</v>
+        <v>-214300</v>
       </c>
       <c r="G32" s="3">
-        <v>-399600</v>
+        <v>-390000</v>
       </c>
       <c r="H32" s="3">
-        <v>-355900</v>
+        <v>-347400</v>
       </c>
       <c r="I32" s="3">
-        <v>-375000</v>
+        <v>-366100</v>
       </c>
       <c r="J32" s="3">
-        <v>-302800</v>
+        <v>-295500</v>
       </c>
       <c r="K32" s="3">
         <v>-314200</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1472900</v>
+        <v>1437600</v>
       </c>
       <c r="E33" s="3">
-        <v>2154800</v>
+        <v>2103100</v>
       </c>
       <c r="F33" s="3">
-        <v>-621900</v>
+        <v>-607000</v>
       </c>
       <c r="G33" s="3">
-        <v>2543500</v>
+        <v>2482500</v>
       </c>
       <c r="H33" s="3">
-        <v>1614700</v>
+        <v>1576000</v>
       </c>
       <c r="I33" s="3">
-        <v>2694800</v>
+        <v>2630300</v>
       </c>
       <c r="J33" s="3">
-        <v>1314700</v>
+        <v>1283200</v>
       </c>
       <c r="K33" s="3">
         <v>2912300</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1472900</v>
+        <v>1437600</v>
       </c>
       <c r="E35" s="3">
-        <v>2154800</v>
+        <v>2103100</v>
       </c>
       <c r="F35" s="3">
-        <v>-621900</v>
+        <v>-607000</v>
       </c>
       <c r="G35" s="3">
-        <v>2543500</v>
+        <v>2482500</v>
       </c>
       <c r="H35" s="3">
-        <v>1614700</v>
+        <v>1576000</v>
       </c>
       <c r="I35" s="3">
-        <v>2694800</v>
+        <v>2630300</v>
       </c>
       <c r="J35" s="3">
-        <v>1314700</v>
+        <v>1283200</v>
       </c>
       <c r="K35" s="3">
         <v>2912300</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3749100</v>
+        <v>3659200</v>
       </c>
       <c r="E41" s="3">
-        <v>3768200</v>
+        <v>3677800</v>
       </c>
       <c r="F41" s="3">
-        <v>4531900</v>
+        <v>4423200</v>
       </c>
       <c r="G41" s="3">
-        <v>1295600</v>
+        <v>1264500</v>
       </c>
       <c r="H41" s="3">
-        <v>1271100</v>
+        <v>1240600</v>
       </c>
       <c r="I41" s="3">
-        <v>2169800</v>
+        <v>2117800</v>
       </c>
       <c r="J41" s="3">
-        <v>1192000</v>
+        <v>1163400</v>
       </c>
       <c r="K41" s="3">
         <v>1301900</v>
@@ -2110,25 +2110,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>165000</v>
+        <v>161100</v>
       </c>
       <c r="E42" s="3">
-        <v>114600</v>
+        <v>111800</v>
       </c>
       <c r="F42" s="3">
-        <v>102300</v>
+        <v>99800</v>
       </c>
       <c r="G42" s="3">
-        <v>57300</v>
+        <v>55900</v>
       </c>
       <c r="H42" s="3">
-        <v>173200</v>
+        <v>169000</v>
       </c>
       <c r="I42" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="J42" s="3">
-        <v>47700</v>
+        <v>46600</v>
       </c>
       <c r="K42" s="3">
         <v>174100</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3450400</v>
+        <v>3367700</v>
       </c>
       <c r="E43" s="3">
-        <v>4429600</v>
+        <v>4323400</v>
       </c>
       <c r="F43" s="3">
-        <v>3138100</v>
+        <v>3062900</v>
       </c>
       <c r="G43" s="3">
-        <v>4984700</v>
+        <v>4865200</v>
       </c>
       <c r="H43" s="3">
-        <v>3787200</v>
+        <v>3696500</v>
       </c>
       <c r="I43" s="3">
-        <v>4845500</v>
+        <v>4729400</v>
       </c>
       <c r="J43" s="3">
-        <v>3740900</v>
+        <v>3651200</v>
       </c>
       <c r="K43" s="3">
         <v>5006700</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8244100</v>
+        <v>8046500</v>
       </c>
       <c r="E44" s="3">
-        <v>7841800</v>
+        <v>7653800</v>
       </c>
       <c r="F44" s="3">
-        <v>7871800</v>
+        <v>7683100</v>
       </c>
       <c r="G44" s="3">
-        <v>7444900</v>
+        <v>7266500</v>
       </c>
       <c r="H44" s="3">
-        <v>7462700</v>
+        <v>7283800</v>
       </c>
       <c r="I44" s="3">
-        <v>7195400</v>
+        <v>7022900</v>
       </c>
       <c r="J44" s="3">
-        <v>6839400</v>
+        <v>6675500</v>
       </c>
       <c r="K44" s="3">
         <v>6960900</v>
@@ -2260,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>69600</v>
+        <v>67900</v>
       </c>
       <c r="H45" s="3">
-        <v>88600</v>
+        <v>86500</v>
       </c>
       <c r="I45" s="3">
-        <v>113200</v>
+        <v>110500</v>
       </c>
       <c r="J45" s="3">
-        <v>32700</v>
+        <v>31900</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15608600</v>
+        <v>15234400</v>
       </c>
       <c r="E46" s="3">
-        <v>16154100</v>
+        <v>15766900</v>
       </c>
       <c r="F46" s="3">
-        <v>15644000</v>
+        <v>15269000</v>
       </c>
       <c r="G46" s="3">
-        <v>13852000</v>
+        <v>13520000</v>
       </c>
       <c r="H46" s="3">
-        <v>12782800</v>
+        <v>12476400</v>
       </c>
       <c r="I46" s="3">
-        <v>14340300</v>
+        <v>13996500</v>
       </c>
       <c r="J46" s="3">
-        <v>11852700</v>
+        <v>11568600</v>
       </c>
       <c r="K46" s="3">
         <v>13443500</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5061000</v>
+        <v>4939700</v>
       </c>
       <c r="E47" s="3">
-        <v>5543800</v>
+        <v>5410900</v>
       </c>
       <c r="F47" s="3">
-        <v>5905200</v>
+        <v>5763700</v>
       </c>
       <c r="G47" s="3">
-        <v>4962800</v>
+        <v>4843900</v>
       </c>
       <c r="H47" s="3">
-        <v>5017400</v>
+        <v>4897100</v>
       </c>
       <c r="I47" s="3">
-        <v>4934200</v>
+        <v>4815900</v>
       </c>
       <c r="J47" s="3">
-        <v>4477300</v>
+        <v>4370000</v>
       </c>
       <c r="K47" s="3">
         <v>4729300</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6703000</v>
+        <v>6542400</v>
       </c>
       <c r="E48" s="3">
-        <v>6573500</v>
+        <v>6415900</v>
       </c>
       <c r="F48" s="3">
-        <v>6787600</v>
+        <v>6624900</v>
       </c>
       <c r="G48" s="3">
-        <v>6649800</v>
+        <v>6490400</v>
       </c>
       <c r="H48" s="3">
-        <v>6122100</v>
+        <v>5975300</v>
       </c>
       <c r="I48" s="3">
-        <v>5815200</v>
+        <v>5675800</v>
       </c>
       <c r="J48" s="3">
-        <v>5607900</v>
+        <v>5473500</v>
       </c>
       <c r="K48" s="3">
         <v>5623600</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14679800</v>
+        <v>14328000</v>
       </c>
       <c r="E49" s="3">
-        <v>14833900</v>
+        <v>14478400</v>
       </c>
       <c r="F49" s="3">
-        <v>15410800</v>
+        <v>15041400</v>
       </c>
       <c r="G49" s="3">
-        <v>16413200</v>
+        <v>16019800</v>
       </c>
       <c r="H49" s="3">
-        <v>17125100</v>
+        <v>16714600</v>
       </c>
       <c r="I49" s="3">
-        <v>17122400</v>
+        <v>16712000</v>
       </c>
       <c r="J49" s="3">
-        <v>17145600</v>
+        <v>16734600</v>
       </c>
       <c r="K49" s="3">
         <v>18123300</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1524700</v>
+        <v>1488200</v>
       </c>
       <c r="E52" s="3">
-        <v>1632500</v>
+        <v>1593300</v>
       </c>
       <c r="F52" s="3">
-        <v>1677500</v>
+        <v>1637300</v>
       </c>
       <c r="G52" s="3">
-        <v>1399200</v>
+        <v>1365700</v>
       </c>
       <c r="H52" s="3">
-        <v>1633800</v>
+        <v>1594700</v>
       </c>
       <c r="I52" s="3">
-        <v>1557400</v>
+        <v>1520100</v>
       </c>
       <c r="J52" s="3">
-        <v>1441500</v>
+        <v>1407000</v>
       </c>
       <c r="K52" s="3">
         <v>677800</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43577200</v>
+        <v>42532600</v>
       </c>
       <c r="E54" s="3">
-        <v>44737800</v>
+        <v>43665400</v>
       </c>
       <c r="F54" s="3">
-        <v>45425100</v>
+        <v>44336300</v>
       </c>
       <c r="G54" s="3">
-        <v>43277100</v>
+        <v>42239800</v>
       </c>
       <c r="H54" s="3">
-        <v>42681200</v>
+        <v>41658100</v>
       </c>
       <c r="I54" s="3">
-        <v>43769500</v>
+        <v>42720300</v>
       </c>
       <c r="J54" s="3">
-        <v>40525000</v>
+        <v>39553600</v>
       </c>
       <c r="K54" s="3">
         <v>42597600</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6338900</v>
+        <v>6187000</v>
       </c>
       <c r="E57" s="3">
-        <v>6306200</v>
+        <v>6155000</v>
       </c>
       <c r="F57" s="3">
-        <v>5022800</v>
+        <v>4902400</v>
       </c>
       <c r="G57" s="3">
-        <v>6101600</v>
+        <v>5955300</v>
       </c>
       <c r="H57" s="3">
-        <v>5730600</v>
+        <v>5593300</v>
       </c>
       <c r="I57" s="3">
-        <v>6021100</v>
+        <v>5876800</v>
       </c>
       <c r="J57" s="3">
-        <v>5387000</v>
+        <v>5257800</v>
       </c>
       <c r="K57" s="3">
         <v>5861400</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2539400</v>
+        <v>2478500</v>
       </c>
       <c r="E58" s="3">
-        <v>1655600</v>
+        <v>1616000</v>
       </c>
       <c r="F58" s="3">
-        <v>2720800</v>
+        <v>2655500</v>
       </c>
       <c r="G58" s="3">
-        <v>4611000</v>
+        <v>4500400</v>
       </c>
       <c r="H58" s="3">
-        <v>2671700</v>
+        <v>2607600</v>
       </c>
       <c r="I58" s="3">
-        <v>2375700</v>
+        <v>2318800</v>
       </c>
       <c r="J58" s="3">
-        <v>2493000</v>
+        <v>2433300</v>
       </c>
       <c r="K58" s="3">
         <v>3365100</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>861900</v>
+        <v>841300</v>
       </c>
       <c r="E59" s="3">
-        <v>1189200</v>
+        <v>1160700</v>
       </c>
       <c r="F59" s="3">
-        <v>1115600</v>
+        <v>1088800</v>
       </c>
       <c r="G59" s="3">
-        <v>1361100</v>
+        <v>1328400</v>
       </c>
       <c r="H59" s="3">
-        <v>1148300</v>
+        <v>1120800</v>
       </c>
       <c r="I59" s="3">
-        <v>1324200</v>
+        <v>1292500</v>
       </c>
       <c r="J59" s="3">
-        <v>793700</v>
+        <v>774700</v>
       </c>
       <c r="K59" s="3">
         <v>1037300</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9740200</v>
+        <v>9506700</v>
       </c>
       <c r="E60" s="3">
-        <v>9151000</v>
+        <v>8931700</v>
       </c>
       <c r="F60" s="3">
-        <v>8859200</v>
+        <v>8646800</v>
       </c>
       <c r="G60" s="3">
-        <v>12073600</v>
+        <v>11784200</v>
       </c>
       <c r="H60" s="3">
-        <v>9550600</v>
+        <v>9321700</v>
       </c>
       <c r="I60" s="3">
-        <v>9721100</v>
+        <v>9488100</v>
       </c>
       <c r="J60" s="3">
-        <v>8673700</v>
+        <v>8465800</v>
       </c>
       <c r="K60" s="3">
         <v>10263800</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17545200</v>
+        <v>17124600</v>
       </c>
       <c r="E61" s="3">
-        <v>19179000</v>
+        <v>18719300</v>
       </c>
       <c r="F61" s="3">
-        <v>20170500</v>
+        <v>19687000</v>
       </c>
       <c r="G61" s="3">
-        <v>13762000</v>
+        <v>13432100</v>
       </c>
       <c r="H61" s="3">
-        <v>14450700</v>
+        <v>14104300</v>
       </c>
       <c r="I61" s="3">
-        <v>14008900</v>
+        <v>13673100</v>
       </c>
       <c r="J61" s="3">
-        <v>11011200</v>
+        <v>10747300</v>
       </c>
       <c r="K61" s="3">
         <v>10821300</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4793700</v>
+        <v>4678800</v>
       </c>
       <c r="E62" s="3">
-        <v>4981900</v>
+        <v>4862500</v>
       </c>
       <c r="F62" s="3">
-        <v>4885100</v>
+        <v>4768000</v>
       </c>
       <c r="G62" s="3">
-        <v>4853700</v>
+        <v>4737400</v>
       </c>
       <c r="H62" s="3">
-        <v>4829200</v>
+        <v>4713400</v>
       </c>
       <c r="I62" s="3">
-        <v>4856500</v>
+        <v>4740000</v>
       </c>
       <c r="J62" s="3">
-        <v>4866000</v>
+        <v>4749400</v>
       </c>
       <c r="K62" s="3">
         <v>4969900</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34171100</v>
+        <v>33352000</v>
       </c>
       <c r="E66" s="3">
-        <v>35439400</v>
+        <v>34590000</v>
       </c>
       <c r="F66" s="3">
-        <v>36189500</v>
+        <v>35322100</v>
       </c>
       <c r="G66" s="3">
-        <v>33017400</v>
+        <v>32225900</v>
       </c>
       <c r="H66" s="3">
-        <v>31278500</v>
+        <v>30528800</v>
       </c>
       <c r="I66" s="3">
-        <v>30996200</v>
+        <v>30253200</v>
       </c>
       <c r="J66" s="3">
-        <v>26958000</v>
+        <v>26311900</v>
       </c>
       <c r="K66" s="3">
         <v>28556900</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11269000</v>
+        <v>10998900</v>
       </c>
       <c r="E72" s="3">
-        <v>10891200</v>
+        <v>10630200</v>
       </c>
       <c r="F72" s="3">
-        <v>10288400</v>
+        <v>10041800</v>
       </c>
       <c r="G72" s="3">
-        <v>11798100</v>
+        <v>11515300</v>
       </c>
       <c r="H72" s="3">
-        <v>12413200</v>
+        <v>12115700</v>
       </c>
       <c r="I72" s="3">
-        <v>13849300</v>
+        <v>13517300</v>
       </c>
       <c r="J72" s="3">
-        <v>14992100</v>
+        <v>14632800</v>
       </c>
       <c r="K72" s="3">
         <v>15237900</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9406100</v>
+        <v>9180600</v>
       </c>
       <c r="E76" s="3">
-        <v>9298300</v>
+        <v>9075400</v>
       </c>
       <c r="F76" s="3">
-        <v>9235600</v>
+        <v>9014200</v>
       </c>
       <c r="G76" s="3">
-        <v>10259800</v>
+        <v>10013900</v>
       </c>
       <c r="H76" s="3">
-        <v>11402600</v>
+        <v>11129300</v>
       </c>
       <c r="I76" s="3">
-        <v>12773300</v>
+        <v>12467100</v>
       </c>
       <c r="J76" s="3">
-        <v>13567000</v>
+        <v>13241800</v>
       </c>
       <c r="K76" s="3">
         <v>14040700</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1472900</v>
+        <v>1437600</v>
       </c>
       <c r="E81" s="3">
-        <v>2154800</v>
+        <v>2103100</v>
       </c>
       <c r="F81" s="3">
-        <v>-621900</v>
+        <v>-607000</v>
       </c>
       <c r="G81" s="3">
-        <v>2543500</v>
+        <v>2482500</v>
       </c>
       <c r="H81" s="3">
-        <v>1614700</v>
+        <v>1576000</v>
       </c>
       <c r="I81" s="3">
-        <v>2694800</v>
+        <v>2630300</v>
       </c>
       <c r="J81" s="3">
-        <v>1314700</v>
+        <v>1283200</v>
       </c>
       <c r="K81" s="3">
         <v>2912300</v>
@@ -3836,25 +3836,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>310900</v>
+        <v>303500</v>
       </c>
       <c r="E83" s="3">
-        <v>298700</v>
+        <v>291500</v>
       </c>
       <c r="F83" s="3">
-        <v>2118000</v>
+        <v>2067200</v>
       </c>
       <c r="G83" s="3">
-        <v>390000</v>
+        <v>380700</v>
       </c>
       <c r="H83" s="3">
-        <v>257800</v>
+        <v>251600</v>
       </c>
       <c r="I83" s="3">
-        <v>252300</v>
+        <v>246300</v>
       </c>
       <c r="J83" s="3">
-        <v>417300</v>
+        <v>407300</v>
       </c>
       <c r="K83" s="3">
         <v>264600</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2258400</v>
+        <v>2204300</v>
       </c>
       <c r="E89" s="3">
-        <v>2724900</v>
+        <v>2659500</v>
       </c>
       <c r="F89" s="3">
-        <v>1407400</v>
+        <v>1373700</v>
       </c>
       <c r="G89" s="3">
-        <v>1756600</v>
+        <v>1714500</v>
       </c>
       <c r="H89" s="3">
-        <v>2242100</v>
+        <v>2188300</v>
       </c>
       <c r="I89" s="3">
-        <v>2187500</v>
+        <v>2135100</v>
       </c>
       <c r="J89" s="3">
-        <v>2503900</v>
+        <v>2443900</v>
       </c>
       <c r="K89" s="3">
         <v>1766100</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-512800</v>
+        <v>-500500</v>
       </c>
       <c r="E91" s="3">
-        <v>-340900</v>
+        <v>-332800</v>
       </c>
       <c r="F91" s="3">
-        <v>-504600</v>
+        <v>-492500</v>
       </c>
       <c r="G91" s="3">
-        <v>-450100</v>
+        <v>-439300</v>
       </c>
       <c r="H91" s="3">
-        <v>-545500</v>
+        <v>-532400</v>
       </c>
       <c r="I91" s="3">
-        <v>-369600</v>
+        <v>-360700</v>
       </c>
       <c r="J91" s="3">
-        <v>-510100</v>
+        <v>-497800</v>
       </c>
       <c r="K91" s="3">
         <v>-297200</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-664200</v>
+        <v>-648200</v>
       </c>
       <c r="E94" s="3">
-        <v>-823700</v>
+        <v>-804000</v>
       </c>
       <c r="F94" s="3">
-        <v>-514100</v>
+        <v>-501800</v>
       </c>
       <c r="G94" s="3">
-        <v>-583700</v>
+        <v>-569700</v>
       </c>
       <c r="H94" s="3">
-        <v>-544200</v>
+        <v>-531100</v>
       </c>
       <c r="I94" s="3">
-        <v>175900</v>
+        <v>171700</v>
       </c>
       <c r="J94" s="3">
-        <v>-508700</v>
+        <v>-496500</v>
       </c>
       <c r="K94" s="3">
         <v>-1101000</v>
@@ -4391,25 +4391,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-891900</v>
+        <v>-870500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1352900</v>
+        <v>-1320500</v>
       </c>
       <c r="F96" s="3">
-        <v>-872800</v>
+        <v>-851900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1372000</v>
+        <v>-1339100</v>
       </c>
       <c r="H96" s="3">
-        <v>-859200</v>
+        <v>-838600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1354200</v>
+        <v>-1321800</v>
       </c>
       <c r="J96" s="3">
-        <v>-836000</v>
+        <v>-816000</v>
       </c>
       <c r="K96" s="3">
         <v>-1369800</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1586100</v>
+        <v>-1548100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2224300</v>
+        <v>-2171000</v>
       </c>
       <c r="F100" s="3">
-        <v>2409800</v>
+        <v>2352100</v>
       </c>
       <c r="G100" s="3">
-        <v>-995600</v>
+        <v>-971700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2568000</v>
+        <v>-2506500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1419700</v>
+        <v>-1385700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1970700</v>
+        <v>-1923400</v>
       </c>
       <c r="K100" s="3">
         <v>-952400</v>
@@ -4626,25 +4626,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66800</v>
+        <v>-65200</v>
       </c>
       <c r="E101" s="3">
-        <v>-321900</v>
+        <v>-314100</v>
       </c>
       <c r="F101" s="3">
-        <v>-120000</v>
+        <v>-117100</v>
       </c>
       <c r="G101" s="3">
-        <v>-43600</v>
+        <v>-42600</v>
       </c>
       <c r="H101" s="3">
-        <v>-54600</v>
+        <v>-53200</v>
       </c>
       <c r="I101" s="3">
-        <v>19100</v>
+        <v>18600</v>
       </c>
       <c r="J101" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="K101" s="3">
         <v>-39600</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-58600</v>
+        <v>-57200</v>
       </c>
       <c r="E102" s="3">
-        <v>-645100</v>
+        <v>-629600</v>
       </c>
       <c r="F102" s="3">
-        <v>3183100</v>
+        <v>3106800</v>
       </c>
       <c r="G102" s="3">
-        <v>133700</v>
+        <v>130400</v>
       </c>
       <c r="H102" s="3">
-        <v>-924600</v>
+        <v>-902500</v>
       </c>
       <c r="I102" s="3">
-        <v>962800</v>
+        <v>939800</v>
       </c>
       <c r="J102" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="K102" s="3">
         <v>-326900</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7798900</v>
+        <v>10372700</v>
       </c>
       <c r="E8" s="3">
-        <v>9150000</v>
+        <v>7637700</v>
       </c>
       <c r="F8" s="3">
-        <v>6059200</v>
+        <v>8960900</v>
       </c>
       <c r="G8" s="3">
-        <v>9583900</v>
+        <v>5933900</v>
       </c>
       <c r="H8" s="3">
-        <v>7932000</v>
+        <v>9385800</v>
       </c>
       <c r="I8" s="3">
-        <v>9195200</v>
+        <v>7768100</v>
       </c>
       <c r="J8" s="3">
+        <v>9005200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7498100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9240700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7494500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7908100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6363700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7312000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6469400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3164000</v>
+        <v>3852100</v>
       </c>
       <c r="E9" s="3">
-        <v>3542100</v>
+        <v>3098600</v>
       </c>
       <c r="F9" s="3">
-        <v>2598300</v>
+        <v>3468900</v>
       </c>
       <c r="G9" s="3">
-        <v>3596600</v>
+        <v>2544600</v>
       </c>
       <c r="H9" s="3">
-        <v>3138700</v>
+        <v>3522300</v>
       </c>
       <c r="I9" s="3">
-        <v>3338400</v>
+        <v>3073900</v>
       </c>
       <c r="J9" s="3">
+        <v>3269400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2921800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3451500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2949100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3035900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2555100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2989500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2853500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4634900</v>
+        <v>6520600</v>
       </c>
       <c r="E10" s="3">
-        <v>5607900</v>
+        <v>4539100</v>
       </c>
       <c r="F10" s="3">
-        <v>3460900</v>
+        <v>5492000</v>
       </c>
       <c r="G10" s="3">
-        <v>5987300</v>
+        <v>3389300</v>
       </c>
       <c r="H10" s="3">
-        <v>4793300</v>
+        <v>5863500</v>
       </c>
       <c r="I10" s="3">
-        <v>5856800</v>
+        <v>4694200</v>
       </c>
       <c r="J10" s="3">
+        <v>5735800</v>
+      </c>
+      <c r="K10" s="3">
         <v>4576300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5789200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4545400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4872200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3808600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4322500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3615900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,55 +1009,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-14600</v>
+        <v>40400</v>
       </c>
       <c r="E14" s="3">
-        <v>16000</v>
+        <v>-14300</v>
       </c>
       <c r="F14" s="3">
-        <v>1742400</v>
+        <v>15600</v>
       </c>
       <c r="G14" s="3">
-        <v>78500</v>
+        <v>1706400</v>
       </c>
       <c r="H14" s="3">
-        <v>14600</v>
+        <v>76900</v>
       </c>
       <c r="I14" s="3">
-        <v>-166400</v>
+        <v>14300</v>
       </c>
       <c r="J14" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="K14" s="3">
         <v>170400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>55900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-24600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>197000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-139600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-233100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>5800900</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>6163000</v>
+        <v>5681000</v>
       </c>
       <c r="F17" s="3">
-        <v>6495800</v>
+        <v>6035600</v>
       </c>
       <c r="G17" s="3">
-        <v>6333400</v>
+        <v>6361500</v>
       </c>
       <c r="H17" s="3">
-        <v>5800900</v>
+        <v>6202500</v>
       </c>
       <c r="I17" s="3">
-        <v>5766300</v>
+        <v>5681000</v>
       </c>
       <c r="J17" s="3">
+        <v>5647200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5500100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6141600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5505300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5340200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4876800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4932900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4620600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1956700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2925300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-427600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3183400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2087000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3358000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1998000</v>
       </c>
-      <c r="E18" s="3">
-        <v>2987000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-436600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3250500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2131100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3428900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1998000</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3099100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1989100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2567900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1486900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2379100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1848800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>302200</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>264900</v>
+        <v>295900</v>
       </c>
       <c r="F20" s="3">
-        <v>214300</v>
+        <v>259400</v>
       </c>
       <c r="G20" s="3">
-        <v>390000</v>
+        <v>209900</v>
       </c>
       <c r="H20" s="3">
-        <v>347400</v>
+        <v>382000</v>
       </c>
       <c r="I20" s="3">
-        <v>366100</v>
+        <v>340200</v>
       </c>
       <c r="J20" s="3">
+        <v>358500</v>
+      </c>
+      <c r="K20" s="3">
         <v>295500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>314200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>274300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>277100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>206100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>254300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>181700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2603600</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>3543400</v>
+        <v>2549800</v>
       </c>
       <c r="F21" s="3">
-        <v>1844900</v>
+        <v>3470200</v>
       </c>
       <c r="G21" s="3">
-        <v>4021300</v>
+        <v>1806800</v>
       </c>
       <c r="H21" s="3">
-        <v>2730100</v>
+        <v>3938100</v>
       </c>
       <c r="I21" s="3">
-        <v>4041200</v>
+        <v>2673700</v>
       </c>
       <c r="J21" s="3">
+        <v>3957700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2700800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3677900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2507000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3064200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1943400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2999900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2359700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>292800</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>326100</v>
+        <v>286800</v>
       </c>
       <c r="F22" s="3">
-        <v>338100</v>
+        <v>319400</v>
       </c>
       <c r="G22" s="3">
-        <v>360700</v>
+        <v>331100</v>
       </c>
       <c r="H22" s="3">
-        <v>338100</v>
+        <v>353300</v>
       </c>
       <c r="I22" s="3">
-        <v>298200</v>
+        <v>331100</v>
       </c>
       <c r="J22" s="3">
+        <v>292000</v>
+      </c>
+      <c r="K22" s="3">
         <v>248900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>294300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>286300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>290700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>292200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>306500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>327900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2007300</v>
+        <v>3548400</v>
       </c>
       <c r="E23" s="3">
-        <v>2925800</v>
+        <v>1965800</v>
       </c>
       <c r="F23" s="3">
-        <v>-560400</v>
+        <v>2865300</v>
       </c>
       <c r="G23" s="3">
-        <v>3279800</v>
+        <v>-548800</v>
       </c>
       <c r="H23" s="3">
-        <v>2140400</v>
+        <v>3212000</v>
       </c>
       <c r="I23" s="3">
-        <v>3496800</v>
+        <v>2096200</v>
       </c>
       <c r="J23" s="3">
+        <v>3424500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2044600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3118900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1977100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2554300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2326900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1702600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>492500</v>
+        <v>826500</v>
       </c>
       <c r="E24" s="3">
-        <v>714800</v>
+        <v>482300</v>
       </c>
       <c r="F24" s="3">
-        <v>78500</v>
+        <v>700000</v>
       </c>
       <c r="G24" s="3">
-        <v>705500</v>
+        <v>76900</v>
       </c>
       <c r="H24" s="3">
-        <v>449900</v>
+        <v>690900</v>
       </c>
       <c r="I24" s="3">
-        <v>745400</v>
+        <v>440600</v>
       </c>
       <c r="J24" s="3">
+        <v>730000</v>
+      </c>
+      <c r="K24" s="3">
         <v>682900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>618400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>394100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>537000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>260900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>386100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>250200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>1514800</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>2211000</v>
+        <v>1483500</v>
       </c>
       <c r="F26" s="3">
-        <v>-638900</v>
+        <v>2165300</v>
       </c>
       <c r="G26" s="3">
-        <v>2574300</v>
+        <v>-625700</v>
       </c>
       <c r="H26" s="3">
-        <v>1690500</v>
+        <v>2521100</v>
       </c>
       <c r="I26" s="3">
-        <v>2751400</v>
+        <v>1655600</v>
       </c>
       <c r="J26" s="3">
+        <v>2694500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1361700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1583000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2017400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1140000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1940800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1452400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>1437600</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>2103100</v>
+        <v>1407900</v>
       </c>
       <c r="F27" s="3">
-        <v>-607000</v>
+        <v>2059700</v>
       </c>
       <c r="G27" s="3">
-        <v>2482500</v>
+        <v>-594400</v>
       </c>
       <c r="H27" s="3">
-        <v>1576000</v>
+        <v>2431200</v>
       </c>
       <c r="I27" s="3">
-        <v>2630300</v>
+        <v>1543500</v>
       </c>
       <c r="J27" s="3">
+        <v>2575900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1291200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2402900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1528400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1932400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1093000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1833900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1409000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,38 +1716,41 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-8000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>509400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-67700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-302200</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-264900</v>
+        <v>-295900</v>
       </c>
       <c r="F32" s="3">
-        <v>-214300</v>
+        <v>-259400</v>
       </c>
       <c r="G32" s="3">
-        <v>-390000</v>
+        <v>-209900</v>
       </c>
       <c r="H32" s="3">
-        <v>-347400</v>
+        <v>-382000</v>
       </c>
       <c r="I32" s="3">
-        <v>-366100</v>
+        <v>-340200</v>
       </c>
       <c r="J32" s="3">
+        <v>-358500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-295500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-314200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-274300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-277100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-206100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-254300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-181700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>1437600</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>2103100</v>
+        <v>1407900</v>
       </c>
       <c r="F33" s="3">
-        <v>-607000</v>
+        <v>2059700</v>
       </c>
       <c r="G33" s="3">
-        <v>2482500</v>
+        <v>-594400</v>
       </c>
       <c r="H33" s="3">
-        <v>1576000</v>
+        <v>2431200</v>
       </c>
       <c r="I33" s="3">
-        <v>2630300</v>
+        <v>1543500</v>
       </c>
       <c r="J33" s="3">
+        <v>2575900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1283200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2912300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1528400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1864600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1093000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1833900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1409000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>1437600</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>2103100</v>
+        <v>1407900</v>
       </c>
       <c r="F35" s="3">
-        <v>-607000</v>
+        <v>2059700</v>
       </c>
       <c r="G35" s="3">
-        <v>2482500</v>
+        <v>-594400</v>
       </c>
       <c r="H35" s="3">
-        <v>1576000</v>
+        <v>2431200</v>
       </c>
       <c r="I35" s="3">
-        <v>2630300</v>
+        <v>1543500</v>
       </c>
       <c r="J35" s="3">
+        <v>2575900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1283200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2912300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1528400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1864600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1093000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1833900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1409000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,431 +2143,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3659200</v>
+        <v>2320400</v>
       </c>
       <c r="E41" s="3">
-        <v>3677800</v>
+        <v>3583600</v>
       </c>
       <c r="F41" s="3">
-        <v>4423200</v>
+        <v>3601800</v>
       </c>
       <c r="G41" s="3">
-        <v>1264500</v>
+        <v>4331800</v>
       </c>
       <c r="H41" s="3">
-        <v>1240600</v>
+        <v>1238400</v>
       </c>
       <c r="I41" s="3">
-        <v>2117800</v>
+        <v>1214900</v>
       </c>
       <c r="J41" s="3">
+        <v>2074000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1163400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1301900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1585700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1544400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1420400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>705600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>621500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>161100</v>
+        <v>86000</v>
       </c>
       <c r="E42" s="3">
-        <v>111800</v>
+        <v>157700</v>
       </c>
       <c r="F42" s="3">
-        <v>99800</v>
+        <v>109500</v>
       </c>
       <c r="G42" s="3">
-        <v>55900</v>
+        <v>97800</v>
       </c>
       <c r="H42" s="3">
-        <v>169000</v>
+        <v>54800</v>
       </c>
       <c r="I42" s="3">
-        <v>16000</v>
+        <v>165600</v>
       </c>
       <c r="J42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K42" s="3">
         <v>46600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>174100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>107800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>155200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>645600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>288300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>60600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3367700</v>
+        <v>4535200</v>
       </c>
       <c r="E43" s="3">
-        <v>4323400</v>
+        <v>3298100</v>
       </c>
       <c r="F43" s="3">
-        <v>3062900</v>
+        <v>4234100</v>
       </c>
       <c r="G43" s="3">
-        <v>4865200</v>
+        <v>2999600</v>
       </c>
       <c r="H43" s="3">
-        <v>3696500</v>
+        <v>4764600</v>
       </c>
       <c r="I43" s="3">
-        <v>4729400</v>
+        <v>3620100</v>
       </c>
       <c r="J43" s="3">
+        <v>4631700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3651200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5006700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3451000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4437500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3503400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4013400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3206400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8046500</v>
+        <v>8127900</v>
       </c>
       <c r="E44" s="3">
-        <v>7653800</v>
+        <v>7880200</v>
       </c>
       <c r="F44" s="3">
-        <v>7683100</v>
+        <v>7495600</v>
       </c>
       <c r="G44" s="3">
-        <v>7266500</v>
+        <v>7524300</v>
       </c>
       <c r="H44" s="3">
-        <v>7283800</v>
+        <v>7116300</v>
       </c>
       <c r="I44" s="3">
-        <v>7022900</v>
+        <v>7133200</v>
       </c>
       <c r="J44" s="3">
+        <v>6877700</v>
+      </c>
+      <c r="K44" s="3">
         <v>6675500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6960900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6374700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5839000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5972400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5722000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6023000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>67900</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>86500</v>
+        <v>66500</v>
       </c>
       <c r="I45" s="3">
-        <v>110500</v>
+        <v>84700</v>
       </c>
       <c r="J45" s="3">
+        <v>108200</v>
+      </c>
+      <c r="K45" s="3">
         <v>31900</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>734300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>188300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>15234400</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>15766900</v>
+        <v>14919600</v>
       </c>
       <c r="F46" s="3">
-        <v>15269000</v>
+        <v>15441000</v>
       </c>
       <c r="G46" s="3">
-        <v>13520000</v>
+        <v>14953500</v>
       </c>
       <c r="H46" s="3">
-        <v>12476400</v>
+        <v>13240600</v>
       </c>
       <c r="I46" s="3">
-        <v>13996500</v>
+        <v>12218500</v>
       </c>
       <c r="J46" s="3">
+        <v>13707200</v>
+      </c>
+      <c r="K46" s="3">
         <v>11568600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13443500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11519300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11979800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11545800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11463600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10099800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4939700</v>
+        <v>5044900</v>
       </c>
       <c r="E47" s="3">
-        <v>5410900</v>
+        <v>4837600</v>
       </c>
       <c r="F47" s="3">
-        <v>5763700</v>
+        <v>5299100</v>
       </c>
       <c r="G47" s="3">
-        <v>4843900</v>
+        <v>5644500</v>
       </c>
       <c r="H47" s="3">
-        <v>4897100</v>
+        <v>4743800</v>
       </c>
       <c r="I47" s="3">
-        <v>4815900</v>
+        <v>4795900</v>
       </c>
       <c r="J47" s="3">
+        <v>4716400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4370000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4729300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4233900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3953400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3945500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3457700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3322300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6542400</v>
+        <v>6734300</v>
       </c>
       <c r="E48" s="3">
-        <v>6415900</v>
+        <v>6407100</v>
       </c>
       <c r="F48" s="3">
-        <v>6624900</v>
+        <v>6283300</v>
       </c>
       <c r="G48" s="3">
-        <v>6490400</v>
+        <v>6488000</v>
       </c>
       <c r="H48" s="3">
-        <v>5975300</v>
+        <v>6356300</v>
       </c>
       <c r="I48" s="3">
-        <v>5675800</v>
+        <v>5851800</v>
       </c>
       <c r="J48" s="3">
+        <v>5558500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5473500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5623600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5372200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4928900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5075100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4738600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4944500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14328000</v>
+        <v>14236500</v>
       </c>
       <c r="E49" s="3">
-        <v>14478400</v>
+        <v>14031800</v>
       </c>
       <c r="F49" s="3">
-        <v>15041400</v>
+        <v>14179100</v>
       </c>
       <c r="G49" s="3">
-        <v>16019800</v>
+        <v>14730600</v>
       </c>
       <c r="H49" s="3">
-        <v>16714600</v>
+        <v>15688700</v>
       </c>
       <c r="I49" s="3">
-        <v>16712000</v>
+        <v>16369200</v>
       </c>
       <c r="J49" s="3">
+        <v>16366600</v>
+      </c>
+      <c r="K49" s="3">
         <v>16734600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18123300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16730400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15901200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16134300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14781700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14788900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1488200</v>
+        <v>2120900</v>
       </c>
       <c r="E52" s="3">
-        <v>1593300</v>
+        <v>1457400</v>
       </c>
       <c r="F52" s="3">
-        <v>1637300</v>
+        <v>1560400</v>
       </c>
       <c r="G52" s="3">
-        <v>1365700</v>
+        <v>1603400</v>
       </c>
       <c r="H52" s="3">
-        <v>1594700</v>
+        <v>1337500</v>
       </c>
       <c r="I52" s="3">
-        <v>1520100</v>
+        <v>1561700</v>
       </c>
       <c r="J52" s="3">
+        <v>1488700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1407000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>677800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>552500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>468000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>460400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>510000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>823000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42532600</v>
+        <v>43227000</v>
       </c>
       <c r="E54" s="3">
-        <v>43665400</v>
+        <v>41653600</v>
       </c>
       <c r="F54" s="3">
-        <v>44336300</v>
+        <v>42763000</v>
       </c>
       <c r="G54" s="3">
-        <v>42239800</v>
+        <v>43420000</v>
       </c>
       <c r="H54" s="3">
-        <v>41658100</v>
+        <v>41366800</v>
       </c>
       <c r="I54" s="3">
-        <v>42720300</v>
+        <v>40797200</v>
       </c>
       <c r="J54" s="3">
+        <v>41837400</v>
+      </c>
+      <c r="K54" s="3">
         <v>39553600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42597600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38408200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37231300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37161100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34951600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33978400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6187000</v>
+        <v>6944200</v>
       </c>
       <c r="E57" s="3">
-        <v>6155000</v>
+        <v>6059100</v>
       </c>
       <c r="F57" s="3">
-        <v>4902400</v>
+        <v>6027800</v>
       </c>
       <c r="G57" s="3">
-        <v>5955300</v>
+        <v>4801100</v>
       </c>
       <c r="H57" s="3">
-        <v>5593300</v>
+        <v>5832300</v>
       </c>
       <c r="I57" s="3">
-        <v>5876800</v>
+        <v>5477700</v>
       </c>
       <c r="J57" s="3">
+        <v>5755300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5257800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5861400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4743800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4851300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4398100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4166000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3875300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2478500</v>
+        <v>1543500</v>
       </c>
       <c r="E58" s="3">
-        <v>1616000</v>
+        <v>2427300</v>
       </c>
       <c r="F58" s="3">
-        <v>2655500</v>
+        <v>1582600</v>
       </c>
       <c r="G58" s="3">
-        <v>4500400</v>
+        <v>2600700</v>
       </c>
       <c r="H58" s="3">
-        <v>2607600</v>
+        <v>4407400</v>
       </c>
       <c r="I58" s="3">
-        <v>2318800</v>
+        <v>2553700</v>
       </c>
       <c r="J58" s="3">
+        <v>2270900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2433300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3365100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3273900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3378300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2684300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2523800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2529600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>841300</v>
+        <v>1346600</v>
       </c>
       <c r="E59" s="3">
-        <v>1160700</v>
+        <v>823900</v>
       </c>
       <c r="F59" s="3">
-        <v>1088800</v>
+        <v>1136700</v>
       </c>
       <c r="G59" s="3">
-        <v>1328400</v>
+        <v>1066300</v>
       </c>
       <c r="H59" s="3">
-        <v>1120800</v>
+        <v>1301000</v>
       </c>
       <c r="I59" s="3">
-        <v>1292500</v>
+        <v>1097600</v>
       </c>
       <c r="J59" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="K59" s="3">
         <v>774700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1037300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>849400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1087500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>987400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>875200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>561000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>9506700</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>8931700</v>
+        <v>9310200</v>
       </c>
       <c r="F60" s="3">
-        <v>8646800</v>
+        <v>8747100</v>
       </c>
       <c r="G60" s="3">
-        <v>11784200</v>
+        <v>8468100</v>
       </c>
       <c r="H60" s="3">
-        <v>9321700</v>
+        <v>11540700</v>
       </c>
       <c r="I60" s="3">
-        <v>9488100</v>
+        <v>9129000</v>
       </c>
       <c r="J60" s="3">
+        <v>9292000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8465800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10263800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8867100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9317100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8069800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7565000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6965800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17124600</v>
+        <v>16546500</v>
       </c>
       <c r="E61" s="3">
-        <v>18719300</v>
+        <v>16770700</v>
       </c>
       <c r="F61" s="3">
-        <v>19687000</v>
+        <v>18332400</v>
       </c>
       <c r="G61" s="3">
-        <v>13432100</v>
+        <v>19280100</v>
       </c>
       <c r="H61" s="3">
-        <v>14104300</v>
+        <v>13154500</v>
       </c>
       <c r="I61" s="3">
-        <v>13673100</v>
+        <v>13812800</v>
       </c>
       <c r="J61" s="3">
+        <v>13390500</v>
+      </c>
+      <c r="K61" s="3">
         <v>10747300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10821300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8764600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9239500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10527100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10343200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11008400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4678800</v>
+        <v>4604300</v>
       </c>
       <c r="E62" s="3">
-        <v>4862500</v>
+        <v>4582100</v>
       </c>
       <c r="F62" s="3">
-        <v>4768000</v>
+        <v>4762000</v>
       </c>
       <c r="G62" s="3">
-        <v>4737400</v>
+        <v>4669500</v>
       </c>
       <c r="H62" s="3">
-        <v>4713400</v>
+        <v>4639500</v>
       </c>
       <c r="I62" s="3">
-        <v>4740000</v>
+        <v>4616000</v>
       </c>
       <c r="J62" s="3">
+        <v>4642100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4749400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4969900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4762400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4815600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5286400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4421600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3816100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33352000</v>
+        <v>33244200</v>
       </c>
       <c r="E66" s="3">
-        <v>34590000</v>
+        <v>32662800</v>
       </c>
       <c r="F66" s="3">
-        <v>35322100</v>
+        <v>33875100</v>
       </c>
       <c r="G66" s="3">
-        <v>32225900</v>
+        <v>34592100</v>
       </c>
       <c r="H66" s="3">
-        <v>30528800</v>
+        <v>31559900</v>
       </c>
       <c r="I66" s="3">
-        <v>30253200</v>
+        <v>29897800</v>
       </c>
       <c r="J66" s="3">
+        <v>29628000</v>
+      </c>
+      <c r="K66" s="3">
         <v>26311900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28556900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24677500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25563100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26035300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24335800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23745700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10998900</v>
+        <v>7261000</v>
       </c>
       <c r="E72" s="3">
-        <v>10630200</v>
+        <v>10771600</v>
       </c>
       <c r="F72" s="3">
-        <v>10041800</v>
+        <v>10410500</v>
       </c>
       <c r="G72" s="3">
-        <v>11515300</v>
+        <v>9834300</v>
       </c>
       <c r="H72" s="3">
-        <v>12115700</v>
+        <v>11277400</v>
       </c>
       <c r="I72" s="3">
-        <v>13517300</v>
+        <v>11865300</v>
       </c>
       <c r="J72" s="3">
+        <v>13238000</v>
+      </c>
+      <c r="K72" s="3">
         <v>14632800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15237900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14375100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12210100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11864000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12143100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11861600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9180600</v>
+        <v>9982900</v>
       </c>
       <c r="E76" s="3">
-        <v>9075400</v>
+        <v>8990900</v>
       </c>
       <c r="F76" s="3">
-        <v>9014200</v>
+        <v>8887900</v>
       </c>
       <c r="G76" s="3">
-        <v>10013900</v>
+        <v>8827900</v>
       </c>
       <c r="H76" s="3">
-        <v>11129300</v>
+        <v>9806900</v>
       </c>
       <c r="I76" s="3">
-        <v>12467100</v>
+        <v>10899300</v>
       </c>
       <c r="J76" s="3">
+        <v>12209400</v>
+      </c>
+      <c r="K76" s="3">
         <v>13241800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14040700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13730700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11668200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11125800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10615800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10232800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>1437600</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>2103100</v>
+        <v>1407900</v>
       </c>
       <c r="F81" s="3">
-        <v>-607000</v>
+        <v>2059700</v>
       </c>
       <c r="G81" s="3">
-        <v>2482500</v>
+        <v>-594400</v>
       </c>
       <c r="H81" s="3">
-        <v>1576000</v>
+        <v>2431200</v>
       </c>
       <c r="I81" s="3">
-        <v>2630300</v>
+        <v>1543500</v>
       </c>
       <c r="J81" s="3">
+        <v>2575900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1283200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2912300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1528400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1864600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1093000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1833900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1409000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>303500</v>
+        <v>292000</v>
       </c>
       <c r="E83" s="3">
-        <v>291500</v>
+        <v>297200</v>
       </c>
       <c r="F83" s="3">
-        <v>2067200</v>
+        <v>285500</v>
       </c>
       <c r="G83" s="3">
-        <v>380700</v>
+        <v>2024500</v>
       </c>
       <c r="H83" s="3">
-        <v>251600</v>
+        <v>372800</v>
       </c>
       <c r="I83" s="3">
-        <v>246300</v>
+        <v>246400</v>
       </c>
       <c r="J83" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K83" s="3">
         <v>407300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>264600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>243600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>219200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>250400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>366500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>329200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2204300</v>
+        <v>2538100</v>
       </c>
       <c r="E89" s="3">
-        <v>2659500</v>
+        <v>2158700</v>
       </c>
       <c r="F89" s="3">
-        <v>1373700</v>
+        <v>2604600</v>
       </c>
       <c r="G89" s="3">
-        <v>1714500</v>
+        <v>1345300</v>
       </c>
       <c r="H89" s="3">
-        <v>2188300</v>
+        <v>1679000</v>
       </c>
       <c r="I89" s="3">
-        <v>2135100</v>
+        <v>2143100</v>
       </c>
       <c r="J89" s="3">
+        <v>2091000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2443900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1766100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2483100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1560400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1970800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1352600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2099000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-500500</v>
+        <v>-498000</v>
       </c>
       <c r="E91" s="3">
-        <v>-332800</v>
+        <v>-490100</v>
       </c>
       <c r="F91" s="3">
-        <v>-492500</v>
+        <v>-325900</v>
       </c>
       <c r="G91" s="3">
-        <v>-439300</v>
+        <v>-482300</v>
       </c>
       <c r="H91" s="3">
-        <v>-532400</v>
+        <v>-430200</v>
       </c>
       <c r="I91" s="3">
-        <v>-360700</v>
+        <v>-521400</v>
       </c>
       <c r="J91" s="3">
+        <v>-353300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-497800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-297200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-427400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-242600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-393900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-266100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-484600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-648200</v>
+        <v>-657000</v>
       </c>
       <c r="E94" s="3">
-        <v>-804000</v>
+        <v>-634800</v>
       </c>
       <c r="F94" s="3">
-        <v>-501800</v>
+        <v>-787400</v>
       </c>
       <c r="G94" s="3">
-        <v>-569700</v>
+        <v>-491500</v>
       </c>
       <c r="H94" s="3">
-        <v>-531100</v>
+        <v>-557900</v>
       </c>
       <c r="I94" s="3">
-        <v>171700</v>
+        <v>-520100</v>
       </c>
       <c r="J94" s="3">
+        <v>168200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-496500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-450000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-263600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>197000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>580400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>36900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-870500</v>
+        <v>-1355700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1320500</v>
+        <v>-852500</v>
       </c>
       <c r="F96" s="3">
-        <v>-851900</v>
+        <v>-1293200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1339100</v>
+        <v>-834300</v>
       </c>
       <c r="H96" s="3">
-        <v>-838600</v>
+        <v>-1311400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1321800</v>
+        <v>-821300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1294500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-816000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1369800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-792200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-739500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-711100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1548100</v>
+        <v>-3038700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2171000</v>
+        <v>-1516100</v>
       </c>
       <c r="F100" s="3">
-        <v>2352100</v>
+        <v>-2126200</v>
       </c>
       <c r="G100" s="3">
-        <v>-971700</v>
+        <v>2303400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2506500</v>
+        <v>-951600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1385700</v>
+        <v>-2454700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1357000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1923400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-952400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2042400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65200</v>
+        <v>18300</v>
       </c>
       <c r="E101" s="3">
-        <v>-314100</v>
+        <v>-63900</v>
       </c>
       <c r="F101" s="3">
-        <v>-117100</v>
+        <v>-307600</v>
       </c>
       <c r="G101" s="3">
-        <v>-42600</v>
+        <v>-114700</v>
       </c>
       <c r="H101" s="3">
-        <v>-53200</v>
+        <v>-41700</v>
       </c>
       <c r="I101" s="3">
-        <v>18600</v>
+        <v>-52100</v>
       </c>
       <c r="J101" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-39600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-62600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>40600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>147400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-37800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-115900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-57200</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-629600</v>
+        <v>-56100</v>
       </c>
       <c r="F102" s="3">
-        <v>3106800</v>
+        <v>-616600</v>
       </c>
       <c r="G102" s="3">
-        <v>130400</v>
+        <v>3042600</v>
       </c>
       <c r="H102" s="3">
-        <v>-902500</v>
+        <v>127800</v>
       </c>
       <c r="I102" s="3">
-        <v>939800</v>
+        <v>-883800</v>
       </c>
       <c r="J102" s="3">
+        <v>920300</v>
+      </c>
+      <c r="K102" s="3">
         <v>9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-326900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-71900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>199500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>446100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>110900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-399000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10372700</v>
+        <v>9706700</v>
       </c>
       <c r="E8" s="3">
-        <v>7637700</v>
+        <v>7147400</v>
       </c>
       <c r="F8" s="3">
-        <v>8960900</v>
+        <v>8385600</v>
       </c>
       <c r="G8" s="3">
-        <v>5933900</v>
+        <v>5553000</v>
       </c>
       <c r="H8" s="3">
-        <v>9385800</v>
+        <v>8783300</v>
       </c>
       <c r="I8" s="3">
-        <v>7768100</v>
+        <v>7269400</v>
       </c>
       <c r="J8" s="3">
-        <v>9005200</v>
+        <v>8427100</v>
       </c>
       <c r="K8" s="3">
         <v>7498100</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3852100</v>
+        <v>3604800</v>
       </c>
       <c r="E9" s="3">
-        <v>3098600</v>
+        <v>2899700</v>
       </c>
       <c r="F9" s="3">
-        <v>3468900</v>
+        <v>3246200</v>
       </c>
       <c r="G9" s="3">
-        <v>2544600</v>
+        <v>2381200</v>
       </c>
       <c r="H9" s="3">
-        <v>3522300</v>
+        <v>3296200</v>
       </c>
       <c r="I9" s="3">
-        <v>3073900</v>
+        <v>2876500</v>
       </c>
       <c r="J9" s="3">
-        <v>3269400</v>
+        <v>3059500</v>
       </c>
       <c r="K9" s="3">
         <v>2921800</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6520600</v>
+        <v>6101900</v>
       </c>
       <c r="E10" s="3">
-        <v>4539100</v>
+        <v>4247700</v>
       </c>
       <c r="F10" s="3">
-        <v>5492000</v>
+        <v>5139400</v>
       </c>
       <c r="G10" s="3">
-        <v>3389300</v>
+        <v>3171700</v>
       </c>
       <c r="H10" s="3">
-        <v>5863500</v>
+        <v>5487100</v>
       </c>
       <c r="I10" s="3">
-        <v>4694200</v>
+        <v>4392900</v>
       </c>
       <c r="J10" s="3">
-        <v>5735800</v>
+        <v>5367600</v>
       </c>
       <c r="K10" s="3">
         <v>4576300</v>
@@ -1018,25 +1018,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40400</v>
+        <v>37800</v>
       </c>
       <c r="E14" s="3">
-        <v>-14300</v>
+        <v>-13400</v>
       </c>
       <c r="F14" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="G14" s="3">
-        <v>1706400</v>
+        <v>1596800</v>
       </c>
       <c r="H14" s="3">
-        <v>76900</v>
+        <v>72000</v>
       </c>
       <c r="I14" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="J14" s="3">
-        <v>-162900</v>
+        <v>-152500</v>
       </c>
       <c r="K14" s="3">
         <v>170400</v>
@@ -1138,22 +1138,22 @@
         <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>5681000</v>
+        <v>5316300</v>
       </c>
       <c r="F17" s="3">
-        <v>6035600</v>
+        <v>5648100</v>
       </c>
       <c r="G17" s="3">
-        <v>6361500</v>
+        <v>5953100</v>
       </c>
       <c r="H17" s="3">
-        <v>6202500</v>
+        <v>5804300</v>
       </c>
       <c r="I17" s="3">
-        <v>5681000</v>
+        <v>5316300</v>
       </c>
       <c r="J17" s="3">
-        <v>5647200</v>
+        <v>5284600</v>
       </c>
       <c r="K17" s="3">
         <v>5500100</v>
@@ -1188,22 +1188,22 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>1956700</v>
+        <v>1831100</v>
       </c>
       <c r="F18" s="3">
-        <v>2925300</v>
+        <v>2737500</v>
       </c>
       <c r="G18" s="3">
-        <v>-427600</v>
+        <v>-400100</v>
       </c>
       <c r="H18" s="3">
-        <v>3183400</v>
+        <v>2979000</v>
       </c>
       <c r="I18" s="3">
-        <v>2087000</v>
+        <v>1953100</v>
       </c>
       <c r="J18" s="3">
-        <v>3358000</v>
+        <v>3142500</v>
       </c>
       <c r="K18" s="3">
         <v>1998000</v>
@@ -1258,22 +1258,22 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>295900</v>
+        <v>276900</v>
       </c>
       <c r="F20" s="3">
-        <v>259400</v>
+        <v>242800</v>
       </c>
       <c r="G20" s="3">
-        <v>209900</v>
+        <v>196400</v>
       </c>
       <c r="H20" s="3">
-        <v>382000</v>
+        <v>357400</v>
       </c>
       <c r="I20" s="3">
-        <v>340200</v>
+        <v>318400</v>
       </c>
       <c r="J20" s="3">
-        <v>358500</v>
+        <v>335500</v>
       </c>
       <c r="K20" s="3">
         <v>295500</v>
@@ -1308,22 +1308,22 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>2549800</v>
+        <v>2386100</v>
       </c>
       <c r="F21" s="3">
-        <v>3470200</v>
+        <v>3247400</v>
       </c>
       <c r="G21" s="3">
-        <v>1806800</v>
+        <v>1690800</v>
       </c>
       <c r="H21" s="3">
-        <v>3938100</v>
+        <v>3685300</v>
       </c>
       <c r="I21" s="3">
-        <v>2673700</v>
+        <v>2502000</v>
       </c>
       <c r="J21" s="3">
-        <v>3957700</v>
+        <v>3703600</v>
       </c>
       <c r="K21" s="3">
         <v>2700800</v>
@@ -1358,22 +1358,22 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>286800</v>
+        <v>268400</v>
       </c>
       <c r="F22" s="3">
-        <v>319400</v>
+        <v>298900</v>
       </c>
       <c r="G22" s="3">
-        <v>331100</v>
+        <v>309900</v>
       </c>
       <c r="H22" s="3">
-        <v>353300</v>
+        <v>330600</v>
       </c>
       <c r="I22" s="3">
-        <v>331100</v>
+        <v>309900</v>
       </c>
       <c r="J22" s="3">
-        <v>292000</v>
+        <v>273300</v>
       </c>
       <c r="K22" s="3">
         <v>248900</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3548400</v>
+        <v>3320600</v>
       </c>
       <c r="E23" s="3">
-        <v>1965800</v>
+        <v>1839600</v>
       </c>
       <c r="F23" s="3">
-        <v>2865300</v>
+        <v>2681300</v>
       </c>
       <c r="G23" s="3">
-        <v>-548800</v>
+        <v>-513600</v>
       </c>
       <c r="H23" s="3">
-        <v>3212000</v>
+        <v>3005800</v>
       </c>
       <c r="I23" s="3">
-        <v>2096200</v>
+        <v>1961600</v>
       </c>
       <c r="J23" s="3">
-        <v>3424500</v>
+        <v>3204700</v>
       </c>
       <c r="K23" s="3">
         <v>2044600</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>826500</v>
+        <v>773400</v>
       </c>
       <c r="E24" s="3">
-        <v>482300</v>
+        <v>451400</v>
       </c>
       <c r="F24" s="3">
-        <v>700000</v>
+        <v>655100</v>
       </c>
       <c r="G24" s="3">
-        <v>76900</v>
+        <v>72000</v>
       </c>
       <c r="H24" s="3">
-        <v>690900</v>
+        <v>646500</v>
       </c>
       <c r="I24" s="3">
-        <v>440600</v>
+        <v>412300</v>
       </c>
       <c r="J24" s="3">
-        <v>730000</v>
+        <v>683100</v>
       </c>
       <c r="K24" s="3">
         <v>682900</v>
@@ -1558,22 +1558,22 @@
         <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>1483500</v>
+        <v>1388200</v>
       </c>
       <c r="F26" s="3">
-        <v>2165300</v>
+        <v>2026300</v>
       </c>
       <c r="G26" s="3">
-        <v>-625700</v>
+        <v>-585600</v>
       </c>
       <c r="H26" s="3">
-        <v>2521100</v>
+        <v>2359300</v>
       </c>
       <c r="I26" s="3">
-        <v>1655600</v>
+        <v>1549300</v>
       </c>
       <c r="J26" s="3">
-        <v>2694500</v>
+        <v>2521500</v>
       </c>
       <c r="K26" s="3">
         <v>1361700</v>
@@ -1608,22 +1608,22 @@
         <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>1407900</v>
+        <v>1317500</v>
       </c>
       <c r="F27" s="3">
-        <v>2059700</v>
+        <v>1927400</v>
       </c>
       <c r="G27" s="3">
-        <v>-594400</v>
+        <v>-556300</v>
       </c>
       <c r="H27" s="3">
-        <v>2431200</v>
+        <v>2275100</v>
       </c>
       <c r="I27" s="3">
-        <v>1543500</v>
+        <v>1444400</v>
       </c>
       <c r="J27" s="3">
-        <v>2575900</v>
+        <v>2410500</v>
       </c>
       <c r="K27" s="3">
         <v>1291200</v>
@@ -1858,22 +1858,22 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>-295900</v>
+        <v>-276900</v>
       </c>
       <c r="F32" s="3">
-        <v>-259400</v>
+        <v>-242800</v>
       </c>
       <c r="G32" s="3">
-        <v>-209900</v>
+        <v>-196400</v>
       </c>
       <c r="H32" s="3">
-        <v>-382000</v>
+        <v>-357400</v>
       </c>
       <c r="I32" s="3">
-        <v>-340200</v>
+        <v>-318400</v>
       </c>
       <c r="J32" s="3">
-        <v>-358500</v>
+        <v>-335500</v>
       </c>
       <c r="K32" s="3">
         <v>-295500</v>
@@ -1908,22 +1908,22 @@
         <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>1407900</v>
+        <v>1317500</v>
       </c>
       <c r="F33" s="3">
-        <v>2059700</v>
+        <v>1927400</v>
       </c>
       <c r="G33" s="3">
-        <v>-594400</v>
+        <v>-556300</v>
       </c>
       <c r="H33" s="3">
-        <v>2431200</v>
+        <v>2275100</v>
       </c>
       <c r="I33" s="3">
-        <v>1543500</v>
+        <v>1444400</v>
       </c>
       <c r="J33" s="3">
-        <v>2575900</v>
+        <v>2410500</v>
       </c>
       <c r="K33" s="3">
         <v>1283200</v>
@@ -2008,22 +2008,22 @@
         <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>1407900</v>
+        <v>1317500</v>
       </c>
       <c r="F35" s="3">
-        <v>2059700</v>
+        <v>1927400</v>
       </c>
       <c r="G35" s="3">
-        <v>-594400</v>
+        <v>-556300</v>
       </c>
       <c r="H35" s="3">
-        <v>2431200</v>
+        <v>2275100</v>
       </c>
       <c r="I35" s="3">
-        <v>1543500</v>
+        <v>1444400</v>
       </c>
       <c r="J35" s="3">
-        <v>2575900</v>
+        <v>2410500</v>
       </c>
       <c r="K35" s="3">
         <v>1283200</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2320400</v>
+        <v>2171400</v>
       </c>
       <c r="E41" s="3">
-        <v>3583600</v>
+        <v>3353500</v>
       </c>
       <c r="F41" s="3">
-        <v>3601800</v>
+        <v>3370600</v>
       </c>
       <c r="G41" s="3">
-        <v>4331800</v>
+        <v>4053700</v>
       </c>
       <c r="H41" s="3">
-        <v>1238400</v>
+        <v>1158900</v>
       </c>
       <c r="I41" s="3">
-        <v>1214900</v>
+        <v>1136900</v>
       </c>
       <c r="J41" s="3">
-        <v>2074000</v>
+        <v>1940900</v>
       </c>
       <c r="K41" s="3">
         <v>1163400</v>
@@ -2200,25 +2200,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>86000</v>
+        <v>80500</v>
       </c>
       <c r="E42" s="3">
-        <v>157700</v>
+        <v>147600</v>
       </c>
       <c r="F42" s="3">
-        <v>109500</v>
+        <v>102500</v>
       </c>
       <c r="G42" s="3">
-        <v>97800</v>
+        <v>91500</v>
       </c>
       <c r="H42" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="I42" s="3">
-        <v>165600</v>
+        <v>154900</v>
       </c>
       <c r="J42" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="K42" s="3">
         <v>46600</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4535200</v>
+        <v>4244000</v>
       </c>
       <c r="E43" s="3">
-        <v>3298100</v>
+        <v>3086300</v>
       </c>
       <c r="F43" s="3">
-        <v>4234100</v>
+        <v>3962200</v>
       </c>
       <c r="G43" s="3">
-        <v>2999600</v>
+        <v>2807000</v>
       </c>
       <c r="H43" s="3">
-        <v>4764600</v>
+        <v>4458700</v>
       </c>
       <c r="I43" s="3">
-        <v>3620100</v>
+        <v>3387700</v>
       </c>
       <c r="J43" s="3">
-        <v>4631700</v>
+        <v>4334300</v>
       </c>
       <c r="K43" s="3">
         <v>3651200</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8127900</v>
+        <v>7606100</v>
       </c>
       <c r="E44" s="3">
-        <v>7880200</v>
+        <v>7374300</v>
       </c>
       <c r="F44" s="3">
-        <v>7495600</v>
+        <v>7014400</v>
       </c>
       <c r="G44" s="3">
-        <v>7524300</v>
+        <v>7041300</v>
       </c>
       <c r="H44" s="3">
-        <v>7116300</v>
+        <v>6659400</v>
       </c>
       <c r="I44" s="3">
-        <v>7133200</v>
+        <v>6675300</v>
       </c>
       <c r="J44" s="3">
-        <v>6877700</v>
+        <v>6436200</v>
       </c>
       <c r="K44" s="3">
         <v>6675500</v>
@@ -2350,7 +2350,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="I45" s="3">
-        <v>84700</v>
+        <v>79300</v>
       </c>
       <c r="J45" s="3">
-        <v>108200</v>
+        <v>101300</v>
       </c>
       <c r="K45" s="3">
         <v>31900</v>
@@ -2403,22 +2403,22 @@
         <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>14919600</v>
+        <v>13961800</v>
       </c>
       <c r="F46" s="3">
-        <v>15441000</v>
+        <v>14449700</v>
       </c>
       <c r="G46" s="3">
-        <v>14953500</v>
+        <v>13993500</v>
       </c>
       <c r="H46" s="3">
-        <v>13240600</v>
+        <v>12390500</v>
       </c>
       <c r="I46" s="3">
-        <v>12218500</v>
+        <v>11434100</v>
       </c>
       <c r="J46" s="3">
-        <v>13707200</v>
+        <v>12827200</v>
       </c>
       <c r="K46" s="3">
         <v>11568600</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5044900</v>
+        <v>4721000</v>
       </c>
       <c r="E47" s="3">
-        <v>4837600</v>
+        <v>4527000</v>
       </c>
       <c r="F47" s="3">
-        <v>5299100</v>
+        <v>4958900</v>
       </c>
       <c r="G47" s="3">
-        <v>5644500</v>
+        <v>5282200</v>
       </c>
       <c r="H47" s="3">
-        <v>4743800</v>
+        <v>4439200</v>
       </c>
       <c r="I47" s="3">
-        <v>4795900</v>
+        <v>4488000</v>
       </c>
       <c r="J47" s="3">
-        <v>4716400</v>
+        <v>4413600</v>
       </c>
       <c r="K47" s="3">
         <v>4370000</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6734300</v>
+        <v>6302000</v>
       </c>
       <c r="E48" s="3">
-        <v>6407100</v>
+        <v>5995800</v>
       </c>
       <c r="F48" s="3">
-        <v>6283300</v>
+        <v>5879900</v>
       </c>
       <c r="G48" s="3">
-        <v>6488000</v>
+        <v>6071400</v>
       </c>
       <c r="H48" s="3">
-        <v>6356300</v>
+        <v>5948200</v>
       </c>
       <c r="I48" s="3">
-        <v>5851800</v>
+        <v>5476100</v>
       </c>
       <c r="J48" s="3">
-        <v>5558500</v>
+        <v>5201700</v>
       </c>
       <c r="K48" s="3">
         <v>5473500</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14236500</v>
+        <v>13322500</v>
       </c>
       <c r="E49" s="3">
-        <v>14031800</v>
+        <v>13131000</v>
       </c>
       <c r="F49" s="3">
-        <v>14179100</v>
+        <v>13268900</v>
       </c>
       <c r="G49" s="3">
-        <v>14730600</v>
+        <v>13784900</v>
       </c>
       <c r="H49" s="3">
-        <v>15688700</v>
+        <v>14681500</v>
       </c>
       <c r="I49" s="3">
-        <v>16369200</v>
+        <v>15318300</v>
       </c>
       <c r="J49" s="3">
-        <v>16366600</v>
+        <v>15315800</v>
       </c>
       <c r="K49" s="3">
         <v>16734600</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2120900</v>
+        <v>1984800</v>
       </c>
       <c r="E52" s="3">
-        <v>1457400</v>
+        <v>1363800</v>
       </c>
       <c r="F52" s="3">
-        <v>1560400</v>
+        <v>1460200</v>
       </c>
       <c r="G52" s="3">
-        <v>1603400</v>
+        <v>1500500</v>
       </c>
       <c r="H52" s="3">
-        <v>1337500</v>
+        <v>1251600</v>
       </c>
       <c r="I52" s="3">
-        <v>1561700</v>
+        <v>1461400</v>
       </c>
       <c r="J52" s="3">
-        <v>1488700</v>
+        <v>1393100</v>
       </c>
       <c r="K52" s="3">
         <v>1407000</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43227000</v>
+        <v>40451900</v>
       </c>
       <c r="E54" s="3">
-        <v>41653600</v>
+        <v>38979500</v>
       </c>
       <c r="F54" s="3">
-        <v>42763000</v>
+        <v>40017600</v>
       </c>
       <c r="G54" s="3">
-        <v>43420000</v>
+        <v>40632400</v>
       </c>
       <c r="H54" s="3">
-        <v>41366800</v>
+        <v>38711100</v>
       </c>
       <c r="I54" s="3">
-        <v>40797200</v>
+        <v>38178000</v>
       </c>
       <c r="J54" s="3">
-        <v>41837400</v>
+        <v>39151500</v>
       </c>
       <c r="K54" s="3">
         <v>39553600</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6944200</v>
+        <v>6498400</v>
       </c>
       <c r="E57" s="3">
-        <v>6059100</v>
+        <v>5670100</v>
       </c>
       <c r="F57" s="3">
-        <v>6027800</v>
+        <v>5640800</v>
       </c>
       <c r="G57" s="3">
-        <v>4801100</v>
+        <v>4492900</v>
       </c>
       <c r="H57" s="3">
-        <v>5832300</v>
+        <v>5457800</v>
       </c>
       <c r="I57" s="3">
-        <v>5477700</v>
+        <v>5126000</v>
       </c>
       <c r="J57" s="3">
-        <v>5755300</v>
+        <v>5385900</v>
       </c>
       <c r="K57" s="3">
         <v>5257800</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1543500</v>
+        <v>1444400</v>
       </c>
       <c r="E58" s="3">
-        <v>2427300</v>
+        <v>2271500</v>
       </c>
       <c r="F58" s="3">
-        <v>1582600</v>
+        <v>1481000</v>
       </c>
       <c r="G58" s="3">
-        <v>2600700</v>
+        <v>2433700</v>
       </c>
       <c r="H58" s="3">
-        <v>4407400</v>
+        <v>4124500</v>
       </c>
       <c r="I58" s="3">
-        <v>2553700</v>
+        <v>2389800</v>
       </c>
       <c r="J58" s="3">
-        <v>2270900</v>
+        <v>2125100</v>
       </c>
       <c r="K58" s="3">
         <v>2433300</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1346600</v>
+        <v>1260200</v>
       </c>
       <c r="E59" s="3">
-        <v>823900</v>
+        <v>771000</v>
       </c>
       <c r="F59" s="3">
-        <v>1136700</v>
+        <v>1063800</v>
       </c>
       <c r="G59" s="3">
-        <v>1066300</v>
+        <v>997900</v>
       </c>
       <c r="H59" s="3">
-        <v>1301000</v>
+        <v>1217500</v>
       </c>
       <c r="I59" s="3">
-        <v>1097600</v>
+        <v>1027200</v>
       </c>
       <c r="J59" s="3">
-        <v>1265800</v>
+        <v>1184500</v>
       </c>
       <c r="K59" s="3">
         <v>774700</v>
@@ -3043,22 +3043,22 @@
         <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>9310200</v>
+        <v>8712500</v>
       </c>
       <c r="F60" s="3">
-        <v>8747100</v>
+        <v>8185500</v>
       </c>
       <c r="G60" s="3">
-        <v>8468100</v>
+        <v>7924500</v>
       </c>
       <c r="H60" s="3">
-        <v>11540700</v>
+        <v>10799800</v>
       </c>
       <c r="I60" s="3">
-        <v>9129000</v>
+        <v>8543000</v>
       </c>
       <c r="J60" s="3">
-        <v>9292000</v>
+        <v>8695400</v>
       </c>
       <c r="K60" s="3">
         <v>8465800</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16546500</v>
+        <v>15484200</v>
       </c>
       <c r="E61" s="3">
-        <v>16770700</v>
+        <v>15694000</v>
       </c>
       <c r="F61" s="3">
-        <v>18332400</v>
+        <v>17155500</v>
       </c>
       <c r="G61" s="3">
-        <v>19280100</v>
+        <v>18042300</v>
       </c>
       <c r="H61" s="3">
-        <v>13154500</v>
+        <v>12310000</v>
       </c>
       <c r="I61" s="3">
-        <v>13812800</v>
+        <v>12926100</v>
       </c>
       <c r="J61" s="3">
-        <v>13390500</v>
+        <v>12530800</v>
       </c>
       <c r="K61" s="3">
         <v>10747300</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4604300</v>
+        <v>4308700</v>
       </c>
       <c r="E62" s="3">
-        <v>4582100</v>
+        <v>4287900</v>
       </c>
       <c r="F62" s="3">
-        <v>4762000</v>
+        <v>4456300</v>
       </c>
       <c r="G62" s="3">
-        <v>4669500</v>
+        <v>4369700</v>
       </c>
       <c r="H62" s="3">
-        <v>4639500</v>
+        <v>4341600</v>
       </c>
       <c r="I62" s="3">
-        <v>4616000</v>
+        <v>4319700</v>
       </c>
       <c r="J62" s="3">
-        <v>4642100</v>
+        <v>4344100</v>
       </c>
       <c r="K62" s="3">
         <v>4749400</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33244200</v>
+        <v>31109900</v>
       </c>
       <c r="E66" s="3">
-        <v>32662800</v>
+        <v>30565800</v>
       </c>
       <c r="F66" s="3">
-        <v>33875100</v>
+        <v>31700300</v>
       </c>
       <c r="G66" s="3">
-        <v>34592100</v>
+        <v>32371300</v>
       </c>
       <c r="H66" s="3">
-        <v>31559900</v>
+        <v>29533800</v>
       </c>
       <c r="I66" s="3">
-        <v>29897800</v>
+        <v>27978400</v>
       </c>
       <c r="J66" s="3">
-        <v>29628000</v>
+        <v>27725900</v>
       </c>
       <c r="K66" s="3">
         <v>26311900</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7261000</v>
+        <v>6794800</v>
       </c>
       <c r="E72" s="3">
-        <v>10771600</v>
+        <v>10080000</v>
       </c>
       <c r="F72" s="3">
-        <v>10410500</v>
+        <v>9742100</v>
       </c>
       <c r="G72" s="3">
-        <v>9834300</v>
+        <v>9202900</v>
       </c>
       <c r="H72" s="3">
-        <v>11277400</v>
+        <v>10553400</v>
       </c>
       <c r="I72" s="3">
-        <v>11865300</v>
+        <v>11103500</v>
       </c>
       <c r="J72" s="3">
-        <v>13238000</v>
+        <v>12388100</v>
       </c>
       <c r="K72" s="3">
         <v>14632800</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9982900</v>
+        <v>9342000</v>
       </c>
       <c r="E76" s="3">
-        <v>8990900</v>
+        <v>8413700</v>
       </c>
       <c r="F76" s="3">
-        <v>8887900</v>
+        <v>8317300</v>
       </c>
       <c r="G76" s="3">
-        <v>8827900</v>
+        <v>8261200</v>
       </c>
       <c r="H76" s="3">
-        <v>9806900</v>
+        <v>9177300</v>
       </c>
       <c r="I76" s="3">
-        <v>10899300</v>
+        <v>10199600</v>
       </c>
       <c r="J76" s="3">
-        <v>12209400</v>
+        <v>11425600</v>
       </c>
       <c r="K76" s="3">
         <v>13241800</v>
@@ -3968,22 +3968,22 @@
         <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>1407900</v>
+        <v>1317500</v>
       </c>
       <c r="F81" s="3">
-        <v>2059700</v>
+        <v>1927400</v>
       </c>
       <c r="G81" s="3">
-        <v>-594400</v>
+        <v>-556300</v>
       </c>
       <c r="H81" s="3">
-        <v>2431200</v>
+        <v>2275100</v>
       </c>
       <c r="I81" s="3">
-        <v>1543500</v>
+        <v>1444400</v>
       </c>
       <c r="J81" s="3">
-        <v>2575900</v>
+        <v>2410500</v>
       </c>
       <c r="K81" s="3">
         <v>1283200</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>292000</v>
+        <v>273300</v>
       </c>
       <c r="E83" s="3">
-        <v>297200</v>
+        <v>278100</v>
       </c>
       <c r="F83" s="3">
-        <v>285500</v>
+        <v>267200</v>
       </c>
       <c r="G83" s="3">
-        <v>2024500</v>
+        <v>1894500</v>
       </c>
       <c r="H83" s="3">
-        <v>372800</v>
+        <v>348900</v>
       </c>
       <c r="I83" s="3">
-        <v>246400</v>
+        <v>230600</v>
       </c>
       <c r="J83" s="3">
-        <v>241200</v>
+        <v>225700</v>
       </c>
       <c r="K83" s="3">
         <v>407300</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2538100</v>
+        <v>2375100</v>
       </c>
       <c r="E89" s="3">
-        <v>2158700</v>
+        <v>2020200</v>
       </c>
       <c r="F89" s="3">
-        <v>2604600</v>
+        <v>2437400</v>
       </c>
       <c r="G89" s="3">
-        <v>1345300</v>
+        <v>1258900</v>
       </c>
       <c r="H89" s="3">
-        <v>1679000</v>
+        <v>1571200</v>
       </c>
       <c r="I89" s="3">
-        <v>2143100</v>
+        <v>2005500</v>
       </c>
       <c r="J89" s="3">
-        <v>2091000</v>
+        <v>1956700</v>
       </c>
       <c r="K89" s="3">
         <v>2443900</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-498000</v>
+        <v>-466000</v>
       </c>
       <c r="E91" s="3">
-        <v>-490100</v>
+        <v>-458700</v>
       </c>
       <c r="F91" s="3">
-        <v>-325900</v>
+        <v>-305000</v>
       </c>
       <c r="G91" s="3">
-        <v>-482300</v>
+        <v>-451400</v>
       </c>
       <c r="H91" s="3">
-        <v>-430200</v>
+        <v>-402600</v>
       </c>
       <c r="I91" s="3">
-        <v>-521400</v>
+        <v>-488000</v>
       </c>
       <c r="J91" s="3">
-        <v>-353300</v>
+        <v>-330600</v>
       </c>
       <c r="K91" s="3">
         <v>-497800</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-657000</v>
+        <v>-614800</v>
       </c>
       <c r="E94" s="3">
-        <v>-634800</v>
+        <v>-594100</v>
       </c>
       <c r="F94" s="3">
-        <v>-787400</v>
+        <v>-736800</v>
       </c>
       <c r="G94" s="3">
-        <v>-491500</v>
+        <v>-459900</v>
       </c>
       <c r="H94" s="3">
-        <v>-557900</v>
+        <v>-522100</v>
       </c>
       <c r="I94" s="3">
-        <v>-520100</v>
+        <v>-486700</v>
       </c>
       <c r="J94" s="3">
-        <v>168200</v>
+        <v>157400</v>
       </c>
       <c r="K94" s="3">
         <v>-496500</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1355700</v>
+        <v>-1268700</v>
       </c>
       <c r="E96" s="3">
-        <v>-852500</v>
+        <v>-797800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1293200</v>
+        <v>-1210100</v>
       </c>
       <c r="G96" s="3">
-        <v>-834300</v>
+        <v>-780700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1311400</v>
+        <v>-1227200</v>
       </c>
       <c r="I96" s="3">
-        <v>-821300</v>
+        <v>-768500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1294500</v>
+        <v>-1211400</v>
       </c>
       <c r="K96" s="3">
         <v>-816000</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3038700</v>
+        <v>-2843600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1516100</v>
+        <v>-1418700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2126200</v>
+        <v>-1989700</v>
       </c>
       <c r="G100" s="3">
-        <v>2303400</v>
+        <v>2155600</v>
       </c>
       <c r="H100" s="3">
-        <v>-951600</v>
+        <v>-890500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2454700</v>
+        <v>-2297100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1357000</v>
+        <v>-1269900</v>
       </c>
       <c r="K100" s="3">
         <v>-1923400</v>
@@ -4875,25 +4875,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="E101" s="3">
-        <v>-63900</v>
+        <v>-59800</v>
       </c>
       <c r="F101" s="3">
-        <v>-307600</v>
+        <v>-287900</v>
       </c>
       <c r="G101" s="3">
-        <v>-114700</v>
+        <v>-107400</v>
       </c>
       <c r="H101" s="3">
-        <v>-41700</v>
+        <v>-39000</v>
       </c>
       <c r="I101" s="3">
-        <v>-52100</v>
+        <v>-48800</v>
       </c>
       <c r="J101" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="K101" s="3">
         <v>-14600</v>
@@ -4928,22 +4928,22 @@
         <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-56100</v>
+        <v>-52500</v>
       </c>
       <c r="F102" s="3">
-        <v>-616600</v>
+        <v>-577000</v>
       </c>
       <c r="G102" s="3">
-        <v>3042600</v>
+        <v>2847200</v>
       </c>
       <c r="H102" s="3">
-        <v>127800</v>
+        <v>119600</v>
       </c>
       <c r="I102" s="3">
-        <v>-883800</v>
+        <v>-827100</v>
       </c>
       <c r="J102" s="3">
-        <v>920300</v>
+        <v>861200</v>
       </c>
       <c r="K102" s="3">
         <v>9300</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9706700</v>
+        <v>8865800</v>
       </c>
       <c r="E8" s="3">
-        <v>7147400</v>
+        <v>9412300</v>
       </c>
       <c r="F8" s="3">
-        <v>8385600</v>
+        <v>6930600</v>
       </c>
       <c r="G8" s="3">
-        <v>5553000</v>
+        <v>8131300</v>
       </c>
       <c r="H8" s="3">
-        <v>8783300</v>
+        <v>5384600</v>
       </c>
       <c r="I8" s="3">
-        <v>7269400</v>
+        <v>8516900</v>
       </c>
       <c r="J8" s="3">
+        <v>7048900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8427100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7498100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9240700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7494500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7908100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6363700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7312000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6469400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3604800</v>
+        <v>3570000</v>
       </c>
       <c r="E9" s="3">
-        <v>2899700</v>
+        <v>3495500</v>
       </c>
       <c r="F9" s="3">
-        <v>3246200</v>
+        <v>2811800</v>
       </c>
       <c r="G9" s="3">
-        <v>2381200</v>
+        <v>3147700</v>
       </c>
       <c r="H9" s="3">
-        <v>3296200</v>
+        <v>2309000</v>
       </c>
       <c r="I9" s="3">
-        <v>2876500</v>
+        <v>3196200</v>
       </c>
       <c r="J9" s="3">
+        <v>2789300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3059500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2921800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3451500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2949100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3035900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2555100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2989500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2853500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6101900</v>
+        <v>5295800</v>
       </c>
       <c r="E10" s="3">
-        <v>4247700</v>
+        <v>5916900</v>
       </c>
       <c r="F10" s="3">
-        <v>5139400</v>
+        <v>4118900</v>
       </c>
       <c r="G10" s="3">
-        <v>3171700</v>
+        <v>4983600</v>
       </c>
       <c r="H10" s="3">
-        <v>5487100</v>
+        <v>3075500</v>
       </c>
       <c r="I10" s="3">
-        <v>4392900</v>
+        <v>5320700</v>
       </c>
       <c r="J10" s="3">
+        <v>4259600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5367600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4576300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5789200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4545400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4872200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3808600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4322500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3615900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,58 +1029,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>37800</v>
+        <v>482600</v>
       </c>
       <c r="E14" s="3">
-        <v>-13400</v>
+        <v>36700</v>
       </c>
       <c r="F14" s="3">
-        <v>14600</v>
+        <v>-13000</v>
       </c>
       <c r="G14" s="3">
-        <v>1596800</v>
+        <v>14200</v>
       </c>
       <c r="H14" s="3">
-        <v>72000</v>
+        <v>1548400</v>
       </c>
       <c r="I14" s="3">
-        <v>13400</v>
+        <v>69800</v>
       </c>
       <c r="J14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-152500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>170400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>55900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-24600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>197000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-139600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-233100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>6918800</v>
       </c>
       <c r="E17" s="3">
-        <v>5316300</v>
+        <v>6204300</v>
       </c>
       <c r="F17" s="3">
-        <v>5648100</v>
+        <v>5155100</v>
       </c>
       <c r="G17" s="3">
-        <v>5953100</v>
+        <v>5476800</v>
       </c>
       <c r="H17" s="3">
-        <v>5804300</v>
+        <v>5772600</v>
       </c>
       <c r="I17" s="3">
-        <v>5316300</v>
+        <v>5628200</v>
       </c>
       <c r="J17" s="3">
+        <v>5155100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5284600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6141600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5505300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5340200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4876800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4932900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4620600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>1947100</v>
       </c>
       <c r="E18" s="3">
-        <v>1831100</v>
+        <v>3208000</v>
       </c>
       <c r="F18" s="3">
-        <v>2737500</v>
+        <v>1775500</v>
       </c>
       <c r="G18" s="3">
-        <v>-400100</v>
+        <v>2654400</v>
       </c>
       <c r="H18" s="3">
-        <v>2979000</v>
+        <v>-388000</v>
       </c>
       <c r="I18" s="3">
-        <v>1953100</v>
+        <v>2888600</v>
       </c>
       <c r="J18" s="3">
+        <v>1893800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3142500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1998000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3099100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1989100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2567900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1486900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2379100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1848800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>313500</v>
       </c>
       <c r="E20" s="3">
-        <v>276900</v>
+        <v>282700</v>
       </c>
       <c r="F20" s="3">
-        <v>242800</v>
+        <v>268500</v>
       </c>
       <c r="G20" s="3">
-        <v>196400</v>
+        <v>235400</v>
       </c>
       <c r="H20" s="3">
-        <v>357400</v>
+        <v>190400</v>
       </c>
       <c r="I20" s="3">
-        <v>318400</v>
+        <v>346600</v>
       </c>
       <c r="J20" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K20" s="3">
         <v>335500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>295500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>314200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>274300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>277100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>206100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>254300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>181700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>2975000</v>
       </c>
       <c r="E21" s="3">
-        <v>2386100</v>
+        <v>3755700</v>
       </c>
       <c r="F21" s="3">
-        <v>3247400</v>
+        <v>2313800</v>
       </c>
       <c r="G21" s="3">
-        <v>1690800</v>
+        <v>3148900</v>
       </c>
       <c r="H21" s="3">
-        <v>3685300</v>
+        <v>1639500</v>
       </c>
       <c r="I21" s="3">
-        <v>2502000</v>
+        <v>3573500</v>
       </c>
       <c r="J21" s="3">
+        <v>2426100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3703600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2700800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3677900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2507000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3064200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1943400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2999900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2359700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>291000</v>
       </c>
       <c r="E22" s="3">
-        <v>268400</v>
+        <v>270900</v>
       </c>
       <c r="F22" s="3">
-        <v>298900</v>
+        <v>260200</v>
       </c>
       <c r="G22" s="3">
-        <v>309900</v>
+        <v>289800</v>
       </c>
       <c r="H22" s="3">
-        <v>330600</v>
+        <v>300500</v>
       </c>
       <c r="I22" s="3">
-        <v>309900</v>
+        <v>320600</v>
       </c>
       <c r="J22" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K22" s="3">
         <v>273300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>248900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>294300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>286300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>290700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>292200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>306500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>327900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3320600</v>
+        <v>1969500</v>
       </c>
       <c r="E23" s="3">
-        <v>1839600</v>
+        <v>3219900</v>
       </c>
       <c r="F23" s="3">
-        <v>2681300</v>
+        <v>1783800</v>
       </c>
       <c r="G23" s="3">
-        <v>-513600</v>
+        <v>2600000</v>
       </c>
       <c r="H23" s="3">
-        <v>3005800</v>
+        <v>-498000</v>
       </c>
       <c r="I23" s="3">
-        <v>1961600</v>
+        <v>2914700</v>
       </c>
       <c r="J23" s="3">
+        <v>1902100</v>
+      </c>
+      <c r="K23" s="3">
         <v>3204700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2044600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3118900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1977100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2554300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2326900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1702600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>773400</v>
+        <v>490900</v>
       </c>
       <c r="E24" s="3">
-        <v>451400</v>
+        <v>750000</v>
       </c>
       <c r="F24" s="3">
-        <v>655100</v>
+        <v>437700</v>
       </c>
       <c r="G24" s="3">
-        <v>72000</v>
+        <v>635200</v>
       </c>
       <c r="H24" s="3">
-        <v>646500</v>
+        <v>69800</v>
       </c>
       <c r="I24" s="3">
-        <v>412300</v>
+        <v>626900</v>
       </c>
       <c r="J24" s="3">
+        <v>399800</v>
+      </c>
+      <c r="K24" s="3">
         <v>683100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>682900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>618400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>394100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>537000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>260900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>386100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>250200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>1478600</v>
       </c>
       <c r="E26" s="3">
-        <v>1388200</v>
+        <v>2469900</v>
       </c>
       <c r="F26" s="3">
-        <v>2026300</v>
+        <v>1346100</v>
       </c>
       <c r="G26" s="3">
-        <v>-585600</v>
+        <v>1964800</v>
       </c>
       <c r="H26" s="3">
-        <v>2359300</v>
+        <v>-567800</v>
       </c>
       <c r="I26" s="3">
-        <v>1549300</v>
+        <v>2287700</v>
       </c>
       <c r="J26" s="3">
+        <v>1502300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2521500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1361700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2500500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1583000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2017400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1140000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1940800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1452400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>1518800</v>
       </c>
       <c r="E27" s="3">
-        <v>1317500</v>
+        <v>2324400</v>
       </c>
       <c r="F27" s="3">
-        <v>1927400</v>
+        <v>1277500</v>
       </c>
       <c r="G27" s="3">
-        <v>-556300</v>
+        <v>1869000</v>
       </c>
       <c r="H27" s="3">
-        <v>2275100</v>
+        <v>-539400</v>
       </c>
       <c r="I27" s="3">
-        <v>1444400</v>
+        <v>2206100</v>
       </c>
       <c r="J27" s="3">
+        <v>1400600</v>
+      </c>
+      <c r="K27" s="3">
         <v>2410500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1291200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2402900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1528400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1932400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1093000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1833900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1409000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,38 +1780,41 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-8000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>509400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-67700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-313500</v>
       </c>
       <c r="E32" s="3">
-        <v>-276900</v>
+        <v>-282700</v>
       </c>
       <c r="F32" s="3">
-        <v>-242800</v>
+        <v>-268500</v>
       </c>
       <c r="G32" s="3">
-        <v>-196400</v>
+        <v>-235400</v>
       </c>
       <c r="H32" s="3">
-        <v>-357400</v>
+        <v>-190400</v>
       </c>
       <c r="I32" s="3">
-        <v>-318400</v>
+        <v>-346600</v>
       </c>
       <c r="J32" s="3">
+        <v>-308700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-335500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-295500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-314200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-274300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-277100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-206100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-254300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-181700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>1518800</v>
       </c>
       <c r="E33" s="3">
-        <v>1317500</v>
+        <v>2324400</v>
       </c>
       <c r="F33" s="3">
-        <v>1927400</v>
+        <v>1277500</v>
       </c>
       <c r="G33" s="3">
-        <v>-556300</v>
+        <v>1869000</v>
       </c>
       <c r="H33" s="3">
-        <v>2275100</v>
+        <v>-539400</v>
       </c>
       <c r="I33" s="3">
-        <v>1444400</v>
+        <v>2206100</v>
       </c>
       <c r="J33" s="3">
+        <v>1400600</v>
+      </c>
+      <c r="K33" s="3">
         <v>2410500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1283200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2912300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1528400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1864600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1093000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1833900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1409000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>1518800</v>
       </c>
       <c r="E35" s="3">
-        <v>1317500</v>
+        <v>2324400</v>
       </c>
       <c r="F35" s="3">
-        <v>1927400</v>
+        <v>1277500</v>
       </c>
       <c r="G35" s="3">
-        <v>-556300</v>
+        <v>1869000</v>
       </c>
       <c r="H35" s="3">
-        <v>2275100</v>
+        <v>-539400</v>
       </c>
       <c r="I35" s="3">
-        <v>1444400</v>
+        <v>2206100</v>
       </c>
       <c r="J35" s="3">
+        <v>1400600</v>
+      </c>
+      <c r="K35" s="3">
         <v>2410500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1283200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2912300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1528400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1864600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1093000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1833900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1409000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2171400</v>
+        <v>2702900</v>
       </c>
       <c r="E41" s="3">
-        <v>3353500</v>
+        <v>2105600</v>
       </c>
       <c r="F41" s="3">
-        <v>3370600</v>
+        <v>3251800</v>
       </c>
       <c r="G41" s="3">
-        <v>4053700</v>
+        <v>3268400</v>
       </c>
       <c r="H41" s="3">
-        <v>1158900</v>
+        <v>3930800</v>
       </c>
       <c r="I41" s="3">
-        <v>1136900</v>
+        <v>1123800</v>
       </c>
       <c r="J41" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1940900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1163400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1301900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1585700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1544400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1420400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>705600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>621500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>80500</v>
+        <v>296900</v>
       </c>
       <c r="E42" s="3">
-        <v>147600</v>
+        <v>78100</v>
       </c>
       <c r="F42" s="3">
-        <v>102500</v>
+        <v>143100</v>
       </c>
       <c r="G42" s="3">
-        <v>91500</v>
+        <v>99400</v>
       </c>
       <c r="H42" s="3">
-        <v>51200</v>
+        <v>88700</v>
       </c>
       <c r="I42" s="3">
-        <v>154900</v>
+        <v>49700</v>
       </c>
       <c r="J42" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K42" s="3">
         <v>14600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>46600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>174100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>107800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>155200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>645600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>288300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>60600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4244000</v>
+        <v>3645700</v>
       </c>
       <c r="E43" s="3">
-        <v>3086300</v>
+        <v>4115300</v>
       </c>
       <c r="F43" s="3">
-        <v>3962200</v>
+        <v>2992700</v>
       </c>
       <c r="G43" s="3">
-        <v>2807000</v>
+        <v>3842100</v>
       </c>
       <c r="H43" s="3">
-        <v>4458700</v>
+        <v>2721900</v>
       </c>
       <c r="I43" s="3">
-        <v>3387700</v>
+        <v>4323500</v>
       </c>
       <c r="J43" s="3">
+        <v>3284900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4334300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3651200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5006700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3451000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4437500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3503400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4013400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3206400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7606100</v>
+        <v>8391500</v>
       </c>
       <c r="E44" s="3">
-        <v>7374300</v>
+        <v>7375400</v>
       </c>
       <c r="F44" s="3">
-        <v>7014400</v>
+        <v>7150600</v>
       </c>
       <c r="G44" s="3">
-        <v>7041300</v>
+        <v>6801700</v>
       </c>
       <c r="H44" s="3">
-        <v>6659400</v>
+        <v>6827700</v>
       </c>
       <c r="I44" s="3">
-        <v>6675300</v>
+        <v>6457500</v>
       </c>
       <c r="J44" s="3">
+        <v>6472800</v>
+      </c>
+      <c r="K44" s="3">
         <v>6436200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6675500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6960900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6374700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5839000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5972400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5722000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6023000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19500</v>
-      </c>
-      <c r="E45" s="3" t="s">
+        <v>262600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>62200</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>79300</v>
+        <v>60300</v>
       </c>
       <c r="J45" s="3">
+        <v>76900</v>
+      </c>
+      <c r="K45" s="3">
         <v>101300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31900</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>734300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>188300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>15299600</v>
       </c>
       <c r="E46" s="3">
-        <v>13961800</v>
+        <v>13693300</v>
       </c>
       <c r="F46" s="3">
-        <v>14449700</v>
+        <v>13538300</v>
       </c>
       <c r="G46" s="3">
-        <v>13993500</v>
+        <v>14011500</v>
       </c>
       <c r="H46" s="3">
-        <v>12390500</v>
+        <v>13569000</v>
       </c>
       <c r="I46" s="3">
-        <v>11434100</v>
+        <v>12014700</v>
       </c>
       <c r="J46" s="3">
+        <v>11087300</v>
+      </c>
+      <c r="K46" s="3">
         <v>12827200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11568600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13443500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11519300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11979800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11545800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11463600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10099800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4721000</v>
+        <v>4815600</v>
       </c>
       <c r="E47" s="3">
-        <v>4527000</v>
+        <v>4577800</v>
       </c>
       <c r="F47" s="3">
-        <v>4958900</v>
+        <v>4389700</v>
       </c>
       <c r="G47" s="3">
-        <v>5282200</v>
+        <v>4808500</v>
       </c>
       <c r="H47" s="3">
-        <v>4439200</v>
+        <v>5122000</v>
       </c>
       <c r="I47" s="3">
-        <v>4488000</v>
+        <v>4304600</v>
       </c>
       <c r="J47" s="3">
+        <v>4351900</v>
+      </c>
+      <c r="K47" s="3">
         <v>4413600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4370000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4729300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4233900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3953400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3945500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3457700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3322300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6302000</v>
+        <v>7028800</v>
       </c>
       <c r="E48" s="3">
-        <v>5995800</v>
+        <v>6110900</v>
       </c>
       <c r="F48" s="3">
-        <v>5879900</v>
+        <v>5814000</v>
       </c>
       <c r="G48" s="3">
-        <v>6071400</v>
+        <v>5701600</v>
       </c>
       <c r="H48" s="3">
-        <v>5948200</v>
+        <v>5887300</v>
       </c>
       <c r="I48" s="3">
-        <v>5476100</v>
+        <v>5767800</v>
       </c>
       <c r="J48" s="3">
+        <v>5310000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5201700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5473500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5623600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5372200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4928900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5075100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4738600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4944500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13322500</v>
+        <v>14078900</v>
       </c>
       <c r="E49" s="3">
-        <v>13131000</v>
+        <v>12918500</v>
       </c>
       <c r="F49" s="3">
-        <v>13268900</v>
+        <v>12732700</v>
       </c>
       <c r="G49" s="3">
-        <v>13784900</v>
+        <v>12866400</v>
       </c>
       <c r="H49" s="3">
-        <v>14681500</v>
+        <v>13366800</v>
       </c>
       <c r="I49" s="3">
-        <v>15318300</v>
+        <v>14236200</v>
       </c>
       <c r="J49" s="3">
+        <v>14853700</v>
+      </c>
+      <c r="K49" s="3">
         <v>15315800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16734600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18123300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16730400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15901200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16134300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14781700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14788900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1984800</v>
+        <v>1971900</v>
       </c>
       <c r="E52" s="3">
-        <v>1363800</v>
+        <v>1924600</v>
       </c>
       <c r="F52" s="3">
-        <v>1460200</v>
+        <v>1322500</v>
       </c>
       <c r="G52" s="3">
-        <v>1500500</v>
+        <v>1415900</v>
       </c>
       <c r="H52" s="3">
-        <v>1251600</v>
+        <v>1455000</v>
       </c>
       <c r="I52" s="3">
-        <v>1461400</v>
+        <v>1213700</v>
       </c>
       <c r="J52" s="3">
+        <v>1417100</v>
+      </c>
+      <c r="K52" s="3">
         <v>1393100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1407000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>677800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>552500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>468000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>460400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>510000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>823000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40451900</v>
+        <v>43194800</v>
       </c>
       <c r="E54" s="3">
-        <v>38979500</v>
+        <v>39225000</v>
       </c>
       <c r="F54" s="3">
-        <v>40017600</v>
+        <v>37797200</v>
       </c>
       <c r="G54" s="3">
-        <v>40632400</v>
+        <v>38803900</v>
       </c>
       <c r="H54" s="3">
-        <v>38711100</v>
+        <v>39400000</v>
       </c>
       <c r="I54" s="3">
-        <v>38178000</v>
+        <v>37537000</v>
       </c>
       <c r="J54" s="3">
+        <v>37020000</v>
+      </c>
+      <c r="K54" s="3">
         <v>39151500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39553600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42597600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38408200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37231300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37161100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34951600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33978400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6498400</v>
+        <v>6963700</v>
       </c>
       <c r="E57" s="3">
-        <v>5670100</v>
+        <v>6301300</v>
       </c>
       <c r="F57" s="3">
-        <v>5640800</v>
+        <v>5498100</v>
       </c>
       <c r="G57" s="3">
-        <v>4492900</v>
+        <v>5469700</v>
       </c>
       <c r="H57" s="3">
-        <v>5457800</v>
+        <v>4356600</v>
       </c>
       <c r="I57" s="3">
-        <v>5126000</v>
+        <v>5292300</v>
       </c>
       <c r="J57" s="3">
+        <v>4970500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5385900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5257800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5861400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4743800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4851300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4398100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4166000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3875300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1444400</v>
+        <v>1800400</v>
       </c>
       <c r="E58" s="3">
-        <v>2271500</v>
+        <v>1400600</v>
       </c>
       <c r="F58" s="3">
-        <v>1481000</v>
+        <v>2202600</v>
       </c>
       <c r="G58" s="3">
-        <v>2433700</v>
+        <v>1436000</v>
       </c>
       <c r="H58" s="3">
-        <v>4124500</v>
+        <v>2359900</v>
       </c>
       <c r="I58" s="3">
-        <v>2389800</v>
+        <v>3999400</v>
       </c>
       <c r="J58" s="3">
+        <v>2317300</v>
+      </c>
+      <c r="K58" s="3">
         <v>2125100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2433300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3365100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3273900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3378300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2684300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2523800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2529600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1260200</v>
+        <v>1221900</v>
       </c>
       <c r="E59" s="3">
-        <v>771000</v>
+        <v>1292900</v>
       </c>
       <c r="F59" s="3">
-        <v>1063800</v>
+        <v>747600</v>
       </c>
       <c r="G59" s="3">
-        <v>997900</v>
+        <v>1031500</v>
       </c>
       <c r="H59" s="3">
-        <v>1217500</v>
+        <v>967600</v>
       </c>
       <c r="I59" s="3">
-        <v>1027200</v>
+        <v>1180500</v>
       </c>
       <c r="J59" s="3">
+        <v>996000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1184500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>774700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1037300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>849400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1087500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>987400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>875200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>561000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>9986000</v>
       </c>
       <c r="E60" s="3">
-        <v>8712500</v>
+        <v>8994800</v>
       </c>
       <c r="F60" s="3">
-        <v>8185500</v>
+        <v>8448300</v>
       </c>
       <c r="G60" s="3">
-        <v>7924500</v>
+        <v>7937300</v>
       </c>
       <c r="H60" s="3">
-        <v>10799800</v>
+        <v>7684100</v>
       </c>
       <c r="I60" s="3">
-        <v>8543000</v>
+        <v>10472200</v>
       </c>
       <c r="J60" s="3">
+        <v>8283800</v>
+      </c>
+      <c r="K60" s="3">
         <v>8695400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8465800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10263800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8867100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9317100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8069800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7565000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6965800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15484200</v>
+        <v>17149700</v>
       </c>
       <c r="E61" s="3">
-        <v>15694000</v>
+        <v>15014500</v>
       </c>
       <c r="F61" s="3">
-        <v>17155500</v>
+        <v>15218000</v>
       </c>
       <c r="G61" s="3">
-        <v>18042300</v>
+        <v>16635100</v>
       </c>
       <c r="H61" s="3">
-        <v>12310000</v>
+        <v>17495100</v>
       </c>
       <c r="I61" s="3">
-        <v>12926100</v>
+        <v>11936600</v>
       </c>
       <c r="J61" s="3">
+        <v>12534000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12530800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10747300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10821300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8764600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9239500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10527100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10343200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11008400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4308700</v>
+        <v>4804900</v>
       </c>
       <c r="E62" s="3">
-        <v>4287900</v>
+        <v>4178000</v>
       </c>
       <c r="F62" s="3">
-        <v>4456300</v>
+        <v>4157900</v>
       </c>
       <c r="G62" s="3">
-        <v>4369700</v>
+        <v>4321100</v>
       </c>
       <c r="H62" s="3">
-        <v>4341600</v>
+        <v>4237100</v>
       </c>
       <c r="I62" s="3">
-        <v>4319700</v>
+        <v>4209900</v>
       </c>
       <c r="J62" s="3">
+        <v>4188600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4344100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4749400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4969900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4762400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4815600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5286400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4421600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3816100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31109900</v>
+        <v>33970500</v>
       </c>
       <c r="E66" s="3">
-        <v>30565800</v>
+        <v>30166300</v>
       </c>
       <c r="F66" s="3">
-        <v>31700300</v>
+        <v>29638700</v>
       </c>
       <c r="G66" s="3">
-        <v>32371300</v>
+        <v>30738800</v>
       </c>
       <c r="H66" s="3">
-        <v>29533800</v>
+        <v>31389400</v>
       </c>
       <c r="I66" s="3">
-        <v>27978400</v>
+        <v>28638000</v>
       </c>
       <c r="J66" s="3">
+        <v>27129800</v>
+      </c>
+      <c r="K66" s="3">
         <v>27725900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26311900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28556900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24677500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25563100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26035300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24335800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23745700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6794800</v>
+        <v>10182400</v>
       </c>
       <c r="E72" s="3">
-        <v>10080000</v>
+        <v>10731300</v>
       </c>
       <c r="F72" s="3">
-        <v>9742100</v>
+        <v>9774300</v>
       </c>
       <c r="G72" s="3">
-        <v>9202900</v>
+        <v>9446600</v>
       </c>
       <c r="H72" s="3">
-        <v>10553400</v>
+        <v>8923800</v>
       </c>
       <c r="I72" s="3">
-        <v>11103500</v>
+        <v>10233300</v>
       </c>
       <c r="J72" s="3">
+        <v>10766800</v>
+      </c>
+      <c r="K72" s="3">
         <v>12388100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14632800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15237900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14375100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12210100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11864000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12143100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11861600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9342000</v>
+        <v>9224300</v>
       </c>
       <c r="E76" s="3">
-        <v>8413700</v>
+        <v>9058600</v>
       </c>
       <c r="F76" s="3">
-        <v>8317300</v>
+        <v>8158500</v>
       </c>
       <c r="G76" s="3">
-        <v>8261200</v>
+        <v>8065000</v>
       </c>
       <c r="H76" s="3">
-        <v>9177300</v>
+        <v>8010600</v>
       </c>
       <c r="I76" s="3">
-        <v>10199600</v>
+        <v>8899000</v>
       </c>
       <c r="J76" s="3">
+        <v>9890200</v>
+      </c>
+      <c r="K76" s="3">
         <v>11425600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13241800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14040700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13730700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11668200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11125800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10615800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10232800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>1518800</v>
       </c>
       <c r="E81" s="3">
-        <v>1317500</v>
+        <v>2324400</v>
       </c>
       <c r="F81" s="3">
-        <v>1927400</v>
+        <v>1277500</v>
       </c>
       <c r="G81" s="3">
-        <v>-556300</v>
+        <v>1869000</v>
       </c>
       <c r="H81" s="3">
-        <v>2275100</v>
+        <v>-539400</v>
       </c>
       <c r="I81" s="3">
-        <v>1444400</v>
+        <v>2206100</v>
       </c>
       <c r="J81" s="3">
+        <v>1400600</v>
+      </c>
+      <c r="K81" s="3">
         <v>2410500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1283200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2912300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1528400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1864600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1093000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1833900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1409000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>273300</v>
+        <v>714500</v>
       </c>
       <c r="E83" s="3">
-        <v>278100</v>
+        <v>265000</v>
       </c>
       <c r="F83" s="3">
-        <v>267200</v>
+        <v>269700</v>
       </c>
       <c r="G83" s="3">
-        <v>1894500</v>
+        <v>259100</v>
       </c>
       <c r="H83" s="3">
-        <v>348900</v>
+        <v>1837000</v>
       </c>
       <c r="I83" s="3">
-        <v>230600</v>
+        <v>338300</v>
       </c>
       <c r="J83" s="3">
+        <v>223600</v>
+      </c>
+      <c r="K83" s="3">
         <v>225700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>407300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>264600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>243600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>219200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>250400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>366500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>329200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2375100</v>
+        <v>2351600</v>
       </c>
       <c r="E89" s="3">
-        <v>2020200</v>
+        <v>2303100</v>
       </c>
       <c r="F89" s="3">
-        <v>2437400</v>
+        <v>1958900</v>
       </c>
       <c r="G89" s="3">
-        <v>1258900</v>
+        <v>2363400</v>
       </c>
       <c r="H89" s="3">
-        <v>1571200</v>
+        <v>1220800</v>
       </c>
       <c r="I89" s="3">
-        <v>2005500</v>
+        <v>1523600</v>
       </c>
       <c r="J89" s="3">
+        <v>1944700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1956700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2443900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1766100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2483100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1560400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1970800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1352600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2099000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-466000</v>
+        <v>-845800</v>
       </c>
       <c r="E91" s="3">
-        <v>-458700</v>
+        <v>-451900</v>
       </c>
       <c r="F91" s="3">
-        <v>-305000</v>
+        <v>-444800</v>
       </c>
       <c r="G91" s="3">
-        <v>-451400</v>
+        <v>-295700</v>
       </c>
       <c r="H91" s="3">
-        <v>-402600</v>
+        <v>-437700</v>
       </c>
       <c r="I91" s="3">
-        <v>-488000</v>
+        <v>-390400</v>
       </c>
       <c r="J91" s="3">
+        <v>-473200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-330600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-497800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-297200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-427400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-242600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-393900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-266100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-484600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-614800</v>
+        <v>-990100</v>
       </c>
       <c r="E94" s="3">
-        <v>-594100</v>
+        <v>-596200</v>
       </c>
       <c r="F94" s="3">
-        <v>-736800</v>
+        <v>-576100</v>
       </c>
       <c r="G94" s="3">
-        <v>-459900</v>
+        <v>-714500</v>
       </c>
       <c r="H94" s="3">
-        <v>-522100</v>
+        <v>-446000</v>
       </c>
       <c r="I94" s="3">
-        <v>-486700</v>
+        <v>-506300</v>
       </c>
       <c r="J94" s="3">
+        <v>-472000</v>
+      </c>
+      <c r="K94" s="3">
         <v>157400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-496500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-450000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-263600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>197000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>580400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>36900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1268700</v>
+        <v>-802000</v>
       </c>
       <c r="E96" s="3">
-        <v>-797800</v>
+        <v>-1230200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1210100</v>
+        <v>-773600</v>
       </c>
       <c r="G96" s="3">
-        <v>-780700</v>
+        <v>-1173400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1227200</v>
+        <v>-757100</v>
       </c>
       <c r="I96" s="3">
-        <v>-768500</v>
+        <v>-1190000</v>
       </c>
       <c r="J96" s="3">
+        <v>-745200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1211400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-816000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1369800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-792200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-739500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-711100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2843600</v>
+        <v>-1097700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1418700</v>
+        <v>-2757300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1989700</v>
+        <v>-1375700</v>
       </c>
       <c r="G100" s="3">
-        <v>2155600</v>
+        <v>-1929300</v>
       </c>
       <c r="H100" s="3">
-        <v>-890500</v>
+        <v>2090200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2297100</v>
+        <v>-863500</v>
       </c>
       <c r="J100" s="3">
+        <v>-2227400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1269900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1923400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-952400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2042400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>266200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-279200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K101" s="3">
         <v>17100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-59800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-287900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-107400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-39000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-48800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>17100</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-39600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-62600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>40600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>147400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-115900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>529900</v>
       </c>
       <c r="E102" s="3">
-        <v>-52500</v>
+        <v>-1033900</v>
       </c>
       <c r="F102" s="3">
-        <v>-577000</v>
+        <v>-50900</v>
       </c>
       <c r="G102" s="3">
-        <v>2847200</v>
+        <v>-559500</v>
       </c>
       <c r="H102" s="3">
-        <v>119600</v>
+        <v>2760900</v>
       </c>
       <c r="I102" s="3">
-        <v>-827100</v>
+        <v>115900</v>
       </c>
       <c r="J102" s="3">
+        <v>-802000</v>
+      </c>
+      <c r="K102" s="3">
         <v>861200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-326900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-71900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>199500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>446100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>110900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-399000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8865800</v>
+        <v>8778900</v>
       </c>
       <c r="E8" s="3">
-        <v>9412300</v>
+        <v>9320000</v>
       </c>
       <c r="F8" s="3">
-        <v>6930600</v>
+        <v>6862600</v>
       </c>
       <c r="G8" s="3">
-        <v>8131300</v>
+        <v>8051500</v>
       </c>
       <c r="H8" s="3">
-        <v>5384600</v>
+        <v>5331800</v>
       </c>
       <c r="I8" s="3">
-        <v>8516900</v>
+        <v>8433400</v>
       </c>
       <c r="J8" s="3">
-        <v>7048900</v>
+        <v>6979800</v>
       </c>
       <c r="K8" s="3">
         <v>8427100</v>
@@ -805,25 +805,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3570000</v>
+        <v>3535000</v>
       </c>
       <c r="E9" s="3">
-        <v>3495500</v>
+        <v>3461200</v>
       </c>
       <c r="F9" s="3">
-        <v>2811800</v>
+        <v>2784200</v>
       </c>
       <c r="G9" s="3">
-        <v>3147700</v>
+        <v>3116800</v>
       </c>
       <c r="H9" s="3">
-        <v>2309000</v>
+        <v>2286400</v>
       </c>
       <c r="I9" s="3">
-        <v>3196200</v>
+        <v>3164900</v>
       </c>
       <c r="J9" s="3">
-        <v>2789300</v>
+        <v>2761900</v>
       </c>
       <c r="K9" s="3">
         <v>3059500</v>
@@ -858,25 +858,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5295800</v>
+        <v>5243900</v>
       </c>
       <c r="E10" s="3">
-        <v>5916900</v>
+        <v>5858800</v>
       </c>
       <c r="F10" s="3">
-        <v>4118900</v>
+        <v>4078500</v>
       </c>
       <c r="G10" s="3">
-        <v>4983600</v>
+        <v>4934700</v>
       </c>
       <c r="H10" s="3">
-        <v>3075500</v>
+        <v>3045400</v>
       </c>
       <c r="I10" s="3">
-        <v>5320700</v>
+        <v>5268500</v>
       </c>
       <c r="J10" s="3">
-        <v>4259600</v>
+        <v>4217900</v>
       </c>
       <c r="K10" s="3">
         <v>5367600</v>
@@ -1038,25 +1038,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>482600</v>
+        <v>477900</v>
       </c>
       <c r="E14" s="3">
-        <v>36700</v>
+        <v>36300</v>
       </c>
       <c r="F14" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G14" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="H14" s="3">
-        <v>1548400</v>
+        <v>1533200</v>
       </c>
       <c r="I14" s="3">
-        <v>69800</v>
+        <v>69100</v>
       </c>
       <c r="J14" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="K14" s="3">
         <v>-152500</v>
@@ -1162,25 +1162,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6918800</v>
+        <v>6850900</v>
       </c>
       <c r="E17" s="3">
-        <v>6204300</v>
+        <v>6143500</v>
       </c>
       <c r="F17" s="3">
-        <v>5155100</v>
+        <v>5104500</v>
       </c>
       <c r="G17" s="3">
-        <v>5476800</v>
+        <v>5423100</v>
       </c>
       <c r="H17" s="3">
-        <v>5772600</v>
+        <v>5715900</v>
       </c>
       <c r="I17" s="3">
-        <v>5628200</v>
+        <v>5573000</v>
       </c>
       <c r="J17" s="3">
-        <v>5155100</v>
+        <v>5104500</v>
       </c>
       <c r="K17" s="3">
         <v>5284600</v>
@@ -1215,25 +1215,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1947100</v>
+        <v>1928000</v>
       </c>
       <c r="E18" s="3">
-        <v>3208000</v>
+        <v>3176600</v>
       </c>
       <c r="F18" s="3">
-        <v>1775500</v>
+        <v>1758100</v>
       </c>
       <c r="G18" s="3">
-        <v>2654400</v>
+        <v>2628400</v>
       </c>
       <c r="H18" s="3">
-        <v>-388000</v>
+        <v>-384200</v>
       </c>
       <c r="I18" s="3">
-        <v>2888600</v>
+        <v>2860300</v>
       </c>
       <c r="J18" s="3">
-        <v>1893800</v>
+        <v>1875300</v>
       </c>
       <c r="K18" s="3">
         <v>3142500</v>
@@ -1289,25 +1289,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>313500</v>
+        <v>310400</v>
       </c>
       <c r="E20" s="3">
-        <v>282700</v>
+        <v>279900</v>
       </c>
       <c r="F20" s="3">
-        <v>268500</v>
+        <v>265900</v>
       </c>
       <c r="G20" s="3">
-        <v>235400</v>
+        <v>233100</v>
       </c>
       <c r="H20" s="3">
-        <v>190400</v>
+        <v>188600</v>
       </c>
       <c r="I20" s="3">
-        <v>346600</v>
+        <v>343200</v>
       </c>
       <c r="J20" s="3">
-        <v>308700</v>
+        <v>305700</v>
       </c>
       <c r="K20" s="3">
         <v>335500</v>
@@ -1342,25 +1342,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2975000</v>
+        <v>2945800</v>
       </c>
       <c r="E21" s="3">
-        <v>3755700</v>
+        <v>3718900</v>
       </c>
       <c r="F21" s="3">
-        <v>2313800</v>
+        <v>2291100</v>
       </c>
       <c r="G21" s="3">
-        <v>3148900</v>
+        <v>3118000</v>
       </c>
       <c r="H21" s="3">
-        <v>1639500</v>
+        <v>1623400</v>
       </c>
       <c r="I21" s="3">
-        <v>3573500</v>
+        <v>3538500</v>
       </c>
       <c r="J21" s="3">
-        <v>2426100</v>
+        <v>2402300</v>
       </c>
       <c r="K21" s="3">
         <v>3703600</v>
@@ -1395,25 +1395,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>291000</v>
+        <v>288100</v>
       </c>
       <c r="E22" s="3">
-        <v>270900</v>
+        <v>268200</v>
       </c>
       <c r="F22" s="3">
-        <v>260200</v>
+        <v>257700</v>
       </c>
       <c r="G22" s="3">
-        <v>289800</v>
+        <v>287000</v>
       </c>
       <c r="H22" s="3">
-        <v>300500</v>
+        <v>297500</v>
       </c>
       <c r="I22" s="3">
-        <v>320600</v>
+        <v>317400</v>
       </c>
       <c r="J22" s="3">
-        <v>300500</v>
+        <v>297500</v>
       </c>
       <c r="K22" s="3">
         <v>273300</v>
@@ -1448,25 +1448,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1969500</v>
+        <v>1950200</v>
       </c>
       <c r="E23" s="3">
-        <v>3219900</v>
+        <v>3188300</v>
       </c>
       <c r="F23" s="3">
-        <v>1783800</v>
+        <v>1766300</v>
       </c>
       <c r="G23" s="3">
-        <v>2600000</v>
+        <v>2574500</v>
       </c>
       <c r="H23" s="3">
-        <v>-498000</v>
+        <v>-493100</v>
       </c>
       <c r="I23" s="3">
-        <v>2914700</v>
+        <v>2886100</v>
       </c>
       <c r="J23" s="3">
-        <v>1902100</v>
+        <v>1883500</v>
       </c>
       <c r="K23" s="3">
         <v>3204700</v>
@@ -1501,25 +1501,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>490900</v>
+        <v>486100</v>
       </c>
       <c r="E24" s="3">
-        <v>750000</v>
+        <v>742600</v>
       </c>
       <c r="F24" s="3">
-        <v>437700</v>
+        <v>433400</v>
       </c>
       <c r="G24" s="3">
-        <v>635200</v>
+        <v>629000</v>
       </c>
       <c r="H24" s="3">
-        <v>69800</v>
+        <v>69100</v>
       </c>
       <c r="I24" s="3">
-        <v>626900</v>
+        <v>620800</v>
       </c>
       <c r="J24" s="3">
-        <v>399800</v>
+        <v>395900</v>
       </c>
       <c r="K24" s="3">
         <v>683100</v>
@@ -1607,25 +1607,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1478600</v>
+        <v>1464100</v>
       </c>
       <c r="E26" s="3">
-        <v>2469900</v>
+        <v>2445700</v>
       </c>
       <c r="F26" s="3">
-        <v>1346100</v>
+        <v>1332900</v>
       </c>
       <c r="G26" s="3">
-        <v>1964800</v>
+        <v>1945500</v>
       </c>
       <c r="H26" s="3">
-        <v>-567800</v>
+        <v>-562200</v>
       </c>
       <c r="I26" s="3">
-        <v>2287700</v>
+        <v>2265300</v>
       </c>
       <c r="J26" s="3">
-        <v>1502300</v>
+        <v>1487600</v>
       </c>
       <c r="K26" s="3">
         <v>2521500</v>
@@ -1660,25 +1660,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1518800</v>
+        <v>1503900</v>
       </c>
       <c r="E27" s="3">
-        <v>2324400</v>
+        <v>2301600</v>
       </c>
       <c r="F27" s="3">
-        <v>1277500</v>
+        <v>1265000</v>
       </c>
       <c r="G27" s="3">
-        <v>1869000</v>
+        <v>1850700</v>
       </c>
       <c r="H27" s="3">
-        <v>-539400</v>
+        <v>-534100</v>
       </c>
       <c r="I27" s="3">
-        <v>2206100</v>
+        <v>2184500</v>
       </c>
       <c r="J27" s="3">
-        <v>1400600</v>
+        <v>1386800</v>
       </c>
       <c r="K27" s="3">
         <v>2410500</v>
@@ -1925,25 +1925,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-313500</v>
+        <v>-310400</v>
       </c>
       <c r="E32" s="3">
-        <v>-282700</v>
+        <v>-279900</v>
       </c>
       <c r="F32" s="3">
-        <v>-268500</v>
+        <v>-265900</v>
       </c>
       <c r="G32" s="3">
-        <v>-235400</v>
+        <v>-233100</v>
       </c>
       <c r="H32" s="3">
-        <v>-190400</v>
+        <v>-188600</v>
       </c>
       <c r="I32" s="3">
-        <v>-346600</v>
+        <v>-343200</v>
       </c>
       <c r="J32" s="3">
-        <v>-308700</v>
+        <v>-305700</v>
       </c>
       <c r="K32" s="3">
         <v>-335500</v>
@@ -1978,25 +1978,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1518800</v>
+        <v>1503900</v>
       </c>
       <c r="E33" s="3">
-        <v>2324400</v>
+        <v>2301600</v>
       </c>
       <c r="F33" s="3">
-        <v>1277500</v>
+        <v>1265000</v>
       </c>
       <c r="G33" s="3">
-        <v>1869000</v>
+        <v>1850700</v>
       </c>
       <c r="H33" s="3">
-        <v>-539400</v>
+        <v>-534100</v>
       </c>
       <c r="I33" s="3">
-        <v>2206100</v>
+        <v>2184500</v>
       </c>
       <c r="J33" s="3">
-        <v>1400600</v>
+        <v>1386800</v>
       </c>
       <c r="K33" s="3">
         <v>2410500</v>
@@ -2084,25 +2084,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1518800</v>
+        <v>1503900</v>
       </c>
       <c r="E35" s="3">
-        <v>2324400</v>
+        <v>2301600</v>
       </c>
       <c r="F35" s="3">
-        <v>1277500</v>
+        <v>1265000</v>
       </c>
       <c r="G35" s="3">
-        <v>1869000</v>
+        <v>1850700</v>
       </c>
       <c r="H35" s="3">
-        <v>-539400</v>
+        <v>-534100</v>
       </c>
       <c r="I35" s="3">
-        <v>2206100</v>
+        <v>2184500</v>
       </c>
       <c r="J35" s="3">
-        <v>1400600</v>
+        <v>1386800</v>
       </c>
       <c r="K35" s="3">
         <v>2410500</v>
@@ -2237,25 +2237,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2702900</v>
+        <v>2676400</v>
       </c>
       <c r="E41" s="3">
-        <v>2105600</v>
+        <v>2084900</v>
       </c>
       <c r="F41" s="3">
-        <v>3251800</v>
+        <v>3219900</v>
       </c>
       <c r="G41" s="3">
-        <v>3268400</v>
+        <v>3236300</v>
       </c>
       <c r="H41" s="3">
-        <v>3930800</v>
+        <v>3892200</v>
       </c>
       <c r="I41" s="3">
-        <v>1123800</v>
+        <v>1112700</v>
       </c>
       <c r="J41" s="3">
-        <v>1102500</v>
+        <v>1091700</v>
       </c>
       <c r="K41" s="3">
         <v>1940900</v>
@@ -2290,25 +2290,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>296900</v>
+        <v>294000</v>
       </c>
       <c r="E42" s="3">
-        <v>78100</v>
+        <v>77300</v>
       </c>
       <c r="F42" s="3">
-        <v>143100</v>
+        <v>141700</v>
       </c>
       <c r="G42" s="3">
-        <v>99400</v>
+        <v>98400</v>
       </c>
       <c r="H42" s="3">
-        <v>88700</v>
+        <v>87800</v>
       </c>
       <c r="I42" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="J42" s="3">
-        <v>150200</v>
+        <v>148800</v>
       </c>
       <c r="K42" s="3">
         <v>14600</v>
@@ -2343,25 +2343,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3645700</v>
+        <v>3609900</v>
       </c>
       <c r="E43" s="3">
-        <v>4115300</v>
+        <v>4075000</v>
       </c>
       <c r="F43" s="3">
-        <v>2992700</v>
+        <v>2963400</v>
       </c>
       <c r="G43" s="3">
-        <v>3842100</v>
+        <v>3804400</v>
       </c>
       <c r="H43" s="3">
-        <v>2721900</v>
+        <v>2695200</v>
       </c>
       <c r="I43" s="3">
-        <v>4323500</v>
+        <v>4281100</v>
       </c>
       <c r="J43" s="3">
-        <v>3284900</v>
+        <v>3252700</v>
       </c>
       <c r="K43" s="3">
         <v>4334300</v>
@@ -2396,25 +2396,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8391500</v>
+        <v>8309200</v>
       </c>
       <c r="E44" s="3">
-        <v>7375400</v>
+        <v>7303100</v>
       </c>
       <c r="F44" s="3">
-        <v>7150600</v>
+        <v>7080500</v>
       </c>
       <c r="G44" s="3">
-        <v>6801700</v>
+        <v>6735000</v>
       </c>
       <c r="H44" s="3">
-        <v>6827700</v>
+        <v>6760700</v>
       </c>
       <c r="I44" s="3">
-        <v>6457500</v>
+        <v>6394100</v>
       </c>
       <c r="J44" s="3">
-        <v>6472800</v>
+        <v>6409400</v>
       </c>
       <c r="K44" s="3">
         <v>6436200</v>
@@ -2449,10 +2449,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>262600</v>
+        <v>260000</v>
       </c>
       <c r="E45" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
@@ -2464,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="J45" s="3">
-        <v>76900</v>
+        <v>76100</v>
       </c>
       <c r="K45" s="3">
         <v>101300</v>
@@ -2502,25 +2502,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15299600</v>
+        <v>15149600</v>
       </c>
       <c r="E46" s="3">
-        <v>13693300</v>
+        <v>13559000</v>
       </c>
       <c r="F46" s="3">
-        <v>13538300</v>
+        <v>13405500</v>
       </c>
       <c r="G46" s="3">
-        <v>14011500</v>
+        <v>13874000</v>
       </c>
       <c r="H46" s="3">
-        <v>13569000</v>
+        <v>13436000</v>
       </c>
       <c r="I46" s="3">
-        <v>12014700</v>
+        <v>11896900</v>
       </c>
       <c r="J46" s="3">
-        <v>11087300</v>
+        <v>10978600</v>
       </c>
       <c r="K46" s="3">
         <v>12827200</v>
@@ -2555,25 +2555,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4815600</v>
+        <v>4768400</v>
       </c>
       <c r="E47" s="3">
-        <v>4577800</v>
+        <v>4532900</v>
       </c>
       <c r="F47" s="3">
-        <v>4389700</v>
+        <v>4346700</v>
       </c>
       <c r="G47" s="3">
-        <v>4808500</v>
+        <v>4761300</v>
       </c>
       <c r="H47" s="3">
-        <v>5122000</v>
+        <v>5071700</v>
       </c>
       <c r="I47" s="3">
-        <v>4304600</v>
+        <v>4262400</v>
       </c>
       <c r="J47" s="3">
-        <v>4351900</v>
+        <v>4309200</v>
       </c>
       <c r="K47" s="3">
         <v>4413600</v>
@@ -2608,25 +2608,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7028800</v>
+        <v>6959900</v>
       </c>
       <c r="E48" s="3">
-        <v>6110900</v>
+        <v>6050900</v>
       </c>
       <c r="F48" s="3">
-        <v>5814000</v>
+        <v>5756900</v>
       </c>
       <c r="G48" s="3">
-        <v>5701600</v>
+        <v>5645700</v>
       </c>
       <c r="H48" s="3">
-        <v>5887300</v>
+        <v>5829600</v>
       </c>
       <c r="I48" s="3">
-        <v>5767800</v>
+        <v>5711300</v>
       </c>
       <c r="J48" s="3">
-        <v>5310000</v>
+        <v>5258000</v>
       </c>
       <c r="K48" s="3">
         <v>5201700</v>
@@ -2661,25 +2661,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14078900</v>
+        <v>13940800</v>
       </c>
       <c r="E49" s="3">
-        <v>12918500</v>
+        <v>12791800</v>
       </c>
       <c r="F49" s="3">
-        <v>12732700</v>
+        <v>12607900</v>
       </c>
       <c r="G49" s="3">
-        <v>12866400</v>
+        <v>12740200</v>
       </c>
       <c r="H49" s="3">
-        <v>13366800</v>
+        <v>13235700</v>
       </c>
       <c r="I49" s="3">
-        <v>14236200</v>
+        <v>14096600</v>
       </c>
       <c r="J49" s="3">
-        <v>14853700</v>
+        <v>14708000</v>
       </c>
       <c r="K49" s="3">
         <v>15315800</v>
@@ -2820,25 +2820,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1971900</v>
+        <v>1952600</v>
       </c>
       <c r="E52" s="3">
-        <v>1924600</v>
+        <v>1905700</v>
       </c>
       <c r="F52" s="3">
-        <v>1322500</v>
+        <v>1309500</v>
       </c>
       <c r="G52" s="3">
-        <v>1415900</v>
+        <v>1402000</v>
       </c>
       <c r="H52" s="3">
-        <v>1455000</v>
+        <v>1440700</v>
       </c>
       <c r="I52" s="3">
-        <v>1213700</v>
+        <v>1201800</v>
       </c>
       <c r="J52" s="3">
-        <v>1417100</v>
+        <v>1403200</v>
       </c>
       <c r="K52" s="3">
         <v>1393100</v>
@@ -2926,25 +2926,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43194800</v>
+        <v>42771200</v>
       </c>
       <c r="E54" s="3">
-        <v>39225000</v>
+        <v>38840300</v>
       </c>
       <c r="F54" s="3">
-        <v>37797200</v>
+        <v>37426500</v>
       </c>
       <c r="G54" s="3">
-        <v>38803900</v>
+        <v>38423300</v>
       </c>
       <c r="H54" s="3">
-        <v>39400000</v>
+        <v>39013700</v>
       </c>
       <c r="I54" s="3">
-        <v>37537000</v>
+        <v>37168900</v>
       </c>
       <c r="J54" s="3">
-        <v>37020000</v>
+        <v>36657000</v>
       </c>
       <c r="K54" s="3">
         <v>39151500</v>
@@ -3021,25 +3021,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6963700</v>
+        <v>6895400</v>
       </c>
       <c r="E57" s="3">
-        <v>6301300</v>
+        <v>6239500</v>
       </c>
       <c r="F57" s="3">
-        <v>5498100</v>
+        <v>5444200</v>
       </c>
       <c r="G57" s="3">
-        <v>5469700</v>
+        <v>5416100</v>
       </c>
       <c r="H57" s="3">
-        <v>4356600</v>
+        <v>4313900</v>
       </c>
       <c r="I57" s="3">
-        <v>5292300</v>
+        <v>5240400</v>
       </c>
       <c r="J57" s="3">
-        <v>4970500</v>
+        <v>4921800</v>
       </c>
       <c r="K57" s="3">
         <v>5385900</v>
@@ -3074,25 +3074,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800400</v>
+        <v>1782700</v>
       </c>
       <c r="E58" s="3">
-        <v>1400600</v>
+        <v>1386800</v>
       </c>
       <c r="F58" s="3">
-        <v>2202600</v>
+        <v>2181000</v>
       </c>
       <c r="G58" s="3">
-        <v>1436000</v>
+        <v>1422000</v>
       </c>
       <c r="H58" s="3">
-        <v>2359900</v>
+        <v>2336700</v>
       </c>
       <c r="I58" s="3">
-        <v>3999400</v>
+        <v>3960200</v>
       </c>
       <c r="J58" s="3">
-        <v>2317300</v>
+        <v>2294600</v>
       </c>
       <c r="K58" s="3">
         <v>2125100</v>
@@ -3127,25 +3127,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1221900</v>
+        <v>1210000</v>
       </c>
       <c r="E59" s="3">
-        <v>1292900</v>
+        <v>1280200</v>
       </c>
       <c r="F59" s="3">
-        <v>747600</v>
+        <v>740300</v>
       </c>
       <c r="G59" s="3">
-        <v>1031500</v>
+        <v>1021400</v>
       </c>
       <c r="H59" s="3">
-        <v>967600</v>
+        <v>958100</v>
       </c>
       <c r="I59" s="3">
-        <v>1180500</v>
+        <v>1169000</v>
       </c>
       <c r="J59" s="3">
-        <v>996000</v>
+        <v>986200</v>
       </c>
       <c r="K59" s="3">
         <v>1184500</v>
@@ -3180,25 +3180,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9986000</v>
+        <v>9888100</v>
       </c>
       <c r="E60" s="3">
-        <v>8994800</v>
+        <v>8906600</v>
       </c>
       <c r="F60" s="3">
-        <v>8448300</v>
+        <v>8365400</v>
       </c>
       <c r="G60" s="3">
-        <v>7937300</v>
+        <v>7859400</v>
       </c>
       <c r="H60" s="3">
-        <v>7684100</v>
+        <v>7608800</v>
       </c>
       <c r="I60" s="3">
-        <v>10472200</v>
+        <v>10369500</v>
       </c>
       <c r="J60" s="3">
-        <v>8283800</v>
+        <v>8202600</v>
       </c>
       <c r="K60" s="3">
         <v>8695400</v>
@@ -3233,25 +3233,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17149700</v>
+        <v>16981500</v>
       </c>
       <c r="E61" s="3">
-        <v>15014500</v>
+        <v>14867300</v>
       </c>
       <c r="F61" s="3">
-        <v>15218000</v>
+        <v>15068800</v>
       </c>
       <c r="G61" s="3">
-        <v>16635100</v>
+        <v>16472000</v>
       </c>
       <c r="H61" s="3">
-        <v>17495100</v>
+        <v>17323500</v>
       </c>
       <c r="I61" s="3">
-        <v>11936600</v>
+        <v>11819600</v>
       </c>
       <c r="J61" s="3">
-        <v>12534000</v>
+        <v>12411100</v>
       </c>
       <c r="K61" s="3">
         <v>12530800</v>
@@ -3286,25 +3286,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4804900</v>
+        <v>4757800</v>
       </c>
       <c r="E62" s="3">
-        <v>4178000</v>
+        <v>4137000</v>
       </c>
       <c r="F62" s="3">
-        <v>4157900</v>
+        <v>4117100</v>
       </c>
       <c r="G62" s="3">
-        <v>4321100</v>
+        <v>4278800</v>
       </c>
       <c r="H62" s="3">
-        <v>4237100</v>
+        <v>4195600</v>
       </c>
       <c r="I62" s="3">
-        <v>4209900</v>
+        <v>4168700</v>
       </c>
       <c r="J62" s="3">
-        <v>4188600</v>
+        <v>4147600</v>
       </c>
       <c r="K62" s="3">
         <v>4344100</v>
@@ -3498,25 +3498,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33970500</v>
+        <v>33637400</v>
       </c>
       <c r="E66" s="3">
-        <v>30166300</v>
+        <v>29870500</v>
       </c>
       <c r="F66" s="3">
-        <v>29638700</v>
+        <v>29348100</v>
       </c>
       <c r="G66" s="3">
-        <v>30738800</v>
+        <v>30437400</v>
       </c>
       <c r="H66" s="3">
-        <v>31389400</v>
+        <v>31081600</v>
       </c>
       <c r="I66" s="3">
-        <v>28638000</v>
+        <v>28357200</v>
       </c>
       <c r="J66" s="3">
-        <v>27129800</v>
+        <v>26863800</v>
       </c>
       <c r="K66" s="3">
         <v>27725900</v>
@@ -3784,25 +3784,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10182400</v>
+        <v>10082600</v>
       </c>
       <c r="E72" s="3">
-        <v>10731300</v>
+        <v>10626000</v>
       </c>
       <c r="F72" s="3">
-        <v>9774300</v>
+        <v>9678500</v>
       </c>
       <c r="G72" s="3">
-        <v>9446600</v>
+        <v>9354000</v>
       </c>
       <c r="H72" s="3">
-        <v>8923800</v>
+        <v>8836300</v>
       </c>
       <c r="I72" s="3">
-        <v>10233300</v>
+        <v>10132900</v>
       </c>
       <c r="J72" s="3">
-        <v>10766800</v>
+        <v>10661200</v>
       </c>
       <c r="K72" s="3">
         <v>12388100</v>
@@ -3996,25 +3996,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9224300</v>
+        <v>9133800</v>
       </c>
       <c r="E76" s="3">
-        <v>9058600</v>
+        <v>8969800</v>
       </c>
       <c r="F76" s="3">
-        <v>8158500</v>
+        <v>8078500</v>
       </c>
       <c r="G76" s="3">
-        <v>8065000</v>
+        <v>7985900</v>
       </c>
       <c r="H76" s="3">
-        <v>8010600</v>
+        <v>7932000</v>
       </c>
       <c r="I76" s="3">
-        <v>8899000</v>
+        <v>8811700</v>
       </c>
       <c r="J76" s="3">
-        <v>9890200</v>
+        <v>9793200</v>
       </c>
       <c r="K76" s="3">
         <v>11425600</v>
@@ -4160,25 +4160,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1518800</v>
+        <v>1503900</v>
       </c>
       <c r="E81" s="3">
-        <v>2324400</v>
+        <v>2301600</v>
       </c>
       <c r="F81" s="3">
-        <v>1277500</v>
+        <v>1265000</v>
       </c>
       <c r="G81" s="3">
-        <v>1869000</v>
+        <v>1850700</v>
       </c>
       <c r="H81" s="3">
-        <v>-539400</v>
+        <v>-534100</v>
       </c>
       <c r="I81" s="3">
-        <v>2206100</v>
+        <v>2184500</v>
       </c>
       <c r="J81" s="3">
-        <v>1400600</v>
+        <v>1386800</v>
       </c>
       <c r="K81" s="3">
         <v>2410500</v>
@@ -4234,25 +4234,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>714500</v>
+        <v>707500</v>
       </c>
       <c r="E83" s="3">
-        <v>265000</v>
+        <v>262400</v>
       </c>
       <c r="F83" s="3">
-        <v>269700</v>
+        <v>267100</v>
       </c>
       <c r="G83" s="3">
-        <v>259100</v>
+        <v>256500</v>
       </c>
       <c r="H83" s="3">
-        <v>1837000</v>
+        <v>1819000</v>
       </c>
       <c r="I83" s="3">
-        <v>338300</v>
+        <v>335000</v>
       </c>
       <c r="J83" s="3">
-        <v>223600</v>
+        <v>221400</v>
       </c>
       <c r="K83" s="3">
         <v>225700</v>
@@ -4552,25 +4552,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2351600</v>
+        <v>2328500</v>
       </c>
       <c r="E89" s="3">
-        <v>2303100</v>
+        <v>2280500</v>
       </c>
       <c r="F89" s="3">
-        <v>1958900</v>
+        <v>1939700</v>
       </c>
       <c r="G89" s="3">
-        <v>2363400</v>
+        <v>2340300</v>
       </c>
       <c r="H89" s="3">
-        <v>1220800</v>
+        <v>1208800</v>
       </c>
       <c r="I89" s="3">
-        <v>1523600</v>
+        <v>1508600</v>
       </c>
       <c r="J89" s="3">
-        <v>1944700</v>
+        <v>1925600</v>
       </c>
       <c r="K89" s="3">
         <v>1956700</v>
@@ -4626,25 +4626,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-845800</v>
+        <v>-837500</v>
       </c>
       <c r="E91" s="3">
-        <v>-451900</v>
+        <v>-447400</v>
       </c>
       <c r="F91" s="3">
-        <v>-444800</v>
+        <v>-440400</v>
       </c>
       <c r="G91" s="3">
-        <v>-295700</v>
+        <v>-292800</v>
       </c>
       <c r="H91" s="3">
-        <v>-437700</v>
+        <v>-433400</v>
       </c>
       <c r="I91" s="3">
-        <v>-390400</v>
+        <v>-386500</v>
       </c>
       <c r="J91" s="3">
-        <v>-473200</v>
+        <v>-468500</v>
       </c>
       <c r="K91" s="3">
         <v>-330600</v>
@@ -4785,25 +4785,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-990100</v>
+        <v>-980400</v>
       </c>
       <c r="E94" s="3">
-        <v>-596200</v>
+        <v>-590300</v>
       </c>
       <c r="F94" s="3">
-        <v>-576100</v>
+        <v>-570400</v>
       </c>
       <c r="G94" s="3">
-        <v>-714500</v>
+        <v>-707500</v>
       </c>
       <c r="H94" s="3">
-        <v>-446000</v>
+        <v>-441600</v>
       </c>
       <c r="I94" s="3">
-        <v>-506300</v>
+        <v>-501300</v>
       </c>
       <c r="J94" s="3">
-        <v>-472000</v>
+        <v>-467300</v>
       </c>
       <c r="K94" s="3">
         <v>157400</v>
@@ -4859,25 +4859,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-802000</v>
+        <v>-794100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1230200</v>
+        <v>-1218200</v>
       </c>
       <c r="F96" s="3">
-        <v>-773600</v>
+        <v>-766000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1173400</v>
+        <v>-1161900</v>
       </c>
       <c r="H96" s="3">
-        <v>-757100</v>
+        <v>-749600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1190000</v>
+        <v>-1178300</v>
       </c>
       <c r="J96" s="3">
-        <v>-745200</v>
+        <v>-737900</v>
       </c>
       <c r="K96" s="3">
         <v>-1211400</v>
@@ -5071,25 +5071,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1097700</v>
+        <v>-1087000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2757300</v>
+        <v>-2730300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1375700</v>
+        <v>-1362200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1929300</v>
+        <v>-1910400</v>
       </c>
       <c r="H100" s="3">
-        <v>2090200</v>
+        <v>2069700</v>
       </c>
       <c r="I100" s="3">
-        <v>-863500</v>
+        <v>-855000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2227400</v>
+        <v>-2205600</v>
       </c>
       <c r="K100" s="3">
         <v>-1269900</v>
@@ -5124,25 +5124,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>266200</v>
+        <v>263500</v>
       </c>
       <c r="E101" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="F101" s="3">
-        <v>-58000</v>
+        <v>-57400</v>
       </c>
       <c r="G101" s="3">
-        <v>-279200</v>
+        <v>-276400</v>
       </c>
       <c r="H101" s="3">
-        <v>-104100</v>
+        <v>-103100</v>
       </c>
       <c r="I101" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="J101" s="3">
-        <v>-47300</v>
+        <v>-46900</v>
       </c>
       <c r="K101" s="3">
         <v>17100</v>
@@ -5177,25 +5177,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>529900</v>
+        <v>524700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1033900</v>
+        <v>-1023700</v>
       </c>
       <c r="F102" s="3">
-        <v>-50900</v>
+        <v>-50400</v>
       </c>
       <c r="G102" s="3">
-        <v>-559500</v>
+        <v>-554000</v>
       </c>
       <c r="H102" s="3">
-        <v>2760900</v>
+        <v>2733800</v>
       </c>
       <c r="I102" s="3">
-        <v>115900</v>
+        <v>114800</v>
       </c>
       <c r="J102" s="3">
-        <v>-802000</v>
+        <v>-794100</v>
       </c>
       <c r="K102" s="3">
         <v>861200</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8778900</v>
+        <v>11233400</v>
       </c>
       <c r="E8" s="3">
-        <v>9320000</v>
+        <v>8937900</v>
       </c>
       <c r="F8" s="3">
-        <v>6862600</v>
+        <v>9488800</v>
       </c>
       <c r="G8" s="3">
-        <v>8051500</v>
+        <v>6986900</v>
       </c>
       <c r="H8" s="3">
-        <v>5331800</v>
+        <v>8197300</v>
       </c>
       <c r="I8" s="3">
-        <v>8433400</v>
+        <v>5428300</v>
       </c>
       <c r="J8" s="3">
+        <v>8586100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6979800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8427100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7498100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9240700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7494500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7908100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6363700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7312000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6469400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3535000</v>
+        <v>4321700</v>
       </c>
       <c r="E9" s="3">
-        <v>3461200</v>
+        <v>3599000</v>
       </c>
       <c r="F9" s="3">
-        <v>2784200</v>
+        <v>3523900</v>
       </c>
       <c r="G9" s="3">
-        <v>3116800</v>
+        <v>2834600</v>
       </c>
       <c r="H9" s="3">
-        <v>2286400</v>
+        <v>3173300</v>
       </c>
       <c r="I9" s="3">
-        <v>3164900</v>
+        <v>2327800</v>
       </c>
       <c r="J9" s="3">
+        <v>3222200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2761900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3059500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2921800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3451500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2949100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3035900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2555100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2989500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2853500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5243900</v>
+        <v>6911800</v>
       </c>
       <c r="E10" s="3">
-        <v>5858800</v>
+        <v>5338900</v>
       </c>
       <c r="F10" s="3">
-        <v>4078500</v>
+        <v>5964900</v>
       </c>
       <c r="G10" s="3">
-        <v>4934700</v>
+        <v>4152300</v>
       </c>
       <c r="H10" s="3">
-        <v>3045400</v>
+        <v>5024000</v>
       </c>
       <c r="I10" s="3">
-        <v>5268500</v>
+        <v>3100500</v>
       </c>
       <c r="J10" s="3">
+        <v>5363900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4217900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5367600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4576300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5789200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4545400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4872200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3808600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4322500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3615900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,61 +1049,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>477900</v>
+        <v>-58400</v>
       </c>
       <c r="E14" s="3">
-        <v>36300</v>
+        <v>486500</v>
       </c>
       <c r="F14" s="3">
-        <v>-12900</v>
+        <v>37000</v>
       </c>
       <c r="G14" s="3">
-        <v>14100</v>
+        <v>-13100</v>
       </c>
       <c r="H14" s="3">
-        <v>1533200</v>
+        <v>14300</v>
       </c>
       <c r="I14" s="3">
-        <v>69100</v>
+        <v>1561000</v>
       </c>
       <c r="J14" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K14" s="3">
         <v>12900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-152500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>170400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>55900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-24600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>197000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-139600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-233100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6850900</v>
+        <v>7444800</v>
       </c>
       <c r="E17" s="3">
-        <v>6143500</v>
+        <v>6975000</v>
       </c>
       <c r="F17" s="3">
+        <v>6254700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5197000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5521300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5819400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5674000</v>
+      </c>
+      <c r="K17" s="3">
         <v>5104500</v>
       </c>
-      <c r="G17" s="3">
-        <v>5423100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5715900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5573000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5104500</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5284600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6141600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5505300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5340200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4876800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4932900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4620600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1928000</v>
+        <v>3788600</v>
       </c>
       <c r="E18" s="3">
-        <v>3176600</v>
+        <v>1962900</v>
       </c>
       <c r="F18" s="3">
-        <v>1758100</v>
+        <v>3234100</v>
       </c>
       <c r="G18" s="3">
-        <v>2628400</v>
+        <v>1790000</v>
       </c>
       <c r="H18" s="3">
-        <v>-384200</v>
+        <v>2676000</v>
       </c>
       <c r="I18" s="3">
-        <v>2860300</v>
+        <v>-391100</v>
       </c>
       <c r="J18" s="3">
+        <v>2912100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1875300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3142500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1998000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3099100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1989100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2567900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1486900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2379100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1848800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1316,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>310400</v>
+        <v>304100</v>
       </c>
       <c r="E20" s="3">
-        <v>279900</v>
+        <v>316000</v>
       </c>
       <c r="F20" s="3">
-        <v>265900</v>
+        <v>285000</v>
       </c>
       <c r="G20" s="3">
-        <v>233100</v>
+        <v>270700</v>
       </c>
       <c r="H20" s="3">
-        <v>188600</v>
+        <v>237300</v>
       </c>
       <c r="I20" s="3">
-        <v>343200</v>
+        <v>192000</v>
       </c>
       <c r="J20" s="3">
+        <v>349400</v>
+      </c>
+      <c r="K20" s="3">
         <v>305700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>335500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>295500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>314200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>274300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>277100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>206100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>254300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>181700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2945800</v>
+        <v>4427800</v>
       </c>
       <c r="E21" s="3">
-        <v>3718900</v>
+        <v>2999200</v>
       </c>
       <c r="F21" s="3">
-        <v>2291100</v>
+        <v>3786200</v>
       </c>
       <c r="G21" s="3">
-        <v>3118000</v>
+        <v>2332500</v>
       </c>
       <c r="H21" s="3">
-        <v>1623400</v>
+        <v>3174500</v>
       </c>
       <c r="I21" s="3">
-        <v>3538500</v>
+        <v>1652800</v>
       </c>
       <c r="J21" s="3">
+        <v>3602600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2402300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3703600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2700800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3677900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2507000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3064200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1943400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2999900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2359700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>288100</v>
+        <v>447200</v>
       </c>
       <c r="E22" s="3">
-        <v>268200</v>
+        <v>293400</v>
       </c>
       <c r="F22" s="3">
-        <v>257700</v>
+        <v>273100</v>
       </c>
       <c r="G22" s="3">
-        <v>287000</v>
+        <v>262400</v>
       </c>
       <c r="H22" s="3">
+        <v>292200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>302900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>323200</v>
+      </c>
+      <c r="K22" s="3">
         <v>297500</v>
       </c>
-      <c r="I22" s="3">
-        <v>317400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>297500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>273300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>248900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>294300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>286300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>290700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>292200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>306500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>327900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1950200</v>
+        <v>3645500</v>
       </c>
       <c r="E23" s="3">
-        <v>3188300</v>
+        <v>1985500</v>
       </c>
       <c r="F23" s="3">
-        <v>1766300</v>
+        <v>3246000</v>
       </c>
       <c r="G23" s="3">
-        <v>2574500</v>
+        <v>1798300</v>
       </c>
       <c r="H23" s="3">
-        <v>-493100</v>
+        <v>2621100</v>
       </c>
       <c r="I23" s="3">
-        <v>2886100</v>
+        <v>-502000</v>
       </c>
       <c r="J23" s="3">
+        <v>2938300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1883500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3204700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2044600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3118900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1977100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2554300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2326900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1702600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>486100</v>
+        <v>775100</v>
       </c>
       <c r="E24" s="3">
-        <v>742600</v>
+        <v>494900</v>
       </c>
       <c r="F24" s="3">
-        <v>433400</v>
+        <v>756100</v>
       </c>
       <c r="G24" s="3">
-        <v>629000</v>
+        <v>441200</v>
       </c>
       <c r="H24" s="3">
-        <v>69100</v>
+        <v>640400</v>
       </c>
       <c r="I24" s="3">
-        <v>620800</v>
+        <v>70400</v>
       </c>
       <c r="J24" s="3">
+        <v>632000</v>
+      </c>
+      <c r="K24" s="3">
         <v>395900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>683100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>682900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>618400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>394100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>537000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>260900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>386100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>250200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1464100</v>
+        <v>2870400</v>
       </c>
       <c r="E26" s="3">
-        <v>2445700</v>
+        <v>1490600</v>
       </c>
       <c r="F26" s="3">
-        <v>1332900</v>
+        <v>2490000</v>
       </c>
       <c r="G26" s="3">
-        <v>1945500</v>
+        <v>1357100</v>
       </c>
       <c r="H26" s="3">
-        <v>-562200</v>
+        <v>1980800</v>
       </c>
       <c r="I26" s="3">
-        <v>2265300</v>
+        <v>-572400</v>
       </c>
       <c r="J26" s="3">
+        <v>2306300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1487600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2521500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1361700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2500500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1583000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2017400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1940800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1452400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1503900</v>
+        <v>2736800</v>
       </c>
       <c r="E27" s="3">
-        <v>2301600</v>
+        <v>1531200</v>
       </c>
       <c r="F27" s="3">
-        <v>1265000</v>
+        <v>2343300</v>
       </c>
       <c r="G27" s="3">
-        <v>1850700</v>
+        <v>1287900</v>
       </c>
       <c r="H27" s="3">
-        <v>-534100</v>
+        <v>1884200</v>
       </c>
       <c r="I27" s="3">
-        <v>2184500</v>
+        <v>-543800</v>
       </c>
       <c r="J27" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1386800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2410500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1291200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2402900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1528400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1932400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1833900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1409000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1783,38 +1844,41 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>509400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-67700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-310400</v>
+        <v>-304100</v>
       </c>
       <c r="E32" s="3">
-        <v>-279900</v>
+        <v>-316000</v>
       </c>
       <c r="F32" s="3">
-        <v>-265900</v>
+        <v>-285000</v>
       </c>
       <c r="G32" s="3">
-        <v>-233100</v>
+        <v>-270700</v>
       </c>
       <c r="H32" s="3">
-        <v>-188600</v>
+        <v>-237300</v>
       </c>
       <c r="I32" s="3">
-        <v>-343200</v>
+        <v>-192000</v>
       </c>
       <c r="J32" s="3">
+        <v>-349400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-305700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-335500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-295500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-314200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-274300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-277100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-206100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-254300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-181700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1503900</v>
+        <v>2736800</v>
       </c>
       <c r="E33" s="3">
-        <v>2301600</v>
+        <v>1531200</v>
       </c>
       <c r="F33" s="3">
-        <v>1265000</v>
+        <v>2343300</v>
       </c>
       <c r="G33" s="3">
-        <v>1850700</v>
+        <v>1287900</v>
       </c>
       <c r="H33" s="3">
-        <v>-534100</v>
+        <v>1884200</v>
       </c>
       <c r="I33" s="3">
-        <v>2184500</v>
+        <v>-543800</v>
       </c>
       <c r="J33" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1386800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2410500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1283200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2912300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1528400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1864600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1833900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1409000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1503900</v>
+        <v>2736800</v>
       </c>
       <c r="E35" s="3">
-        <v>2301600</v>
+        <v>1531200</v>
       </c>
       <c r="F35" s="3">
-        <v>1265000</v>
+        <v>2343300</v>
       </c>
       <c r="G35" s="3">
-        <v>1850700</v>
+        <v>1287900</v>
       </c>
       <c r="H35" s="3">
-        <v>-534100</v>
+        <v>1884200</v>
       </c>
       <c r="I35" s="3">
-        <v>2184500</v>
+        <v>-543800</v>
       </c>
       <c r="J35" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1386800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2410500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1283200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2912300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1528400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1864600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1833900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1409000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2676400</v>
+        <v>3298500</v>
       </c>
       <c r="E41" s="3">
-        <v>2084900</v>
+        <v>2724900</v>
       </c>
       <c r="F41" s="3">
-        <v>3219900</v>
+        <v>2122700</v>
       </c>
       <c r="G41" s="3">
-        <v>3236300</v>
+        <v>3278200</v>
       </c>
       <c r="H41" s="3">
-        <v>3892200</v>
+        <v>3294900</v>
       </c>
       <c r="I41" s="3">
-        <v>1112700</v>
+        <v>3962700</v>
       </c>
       <c r="J41" s="3">
+        <v>1132900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1091700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1940900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1163400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1301900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1585700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1544400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1420400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>705600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>621500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>294000</v>
+        <v>474600</v>
       </c>
       <c r="E42" s="3">
-        <v>77300</v>
+        <v>299300</v>
       </c>
       <c r="F42" s="3">
-        <v>141700</v>
+        <v>78700</v>
       </c>
       <c r="G42" s="3">
-        <v>98400</v>
+        <v>144300</v>
       </c>
       <c r="H42" s="3">
-        <v>87800</v>
+        <v>100200</v>
       </c>
       <c r="I42" s="3">
-        <v>49200</v>
+        <v>89400</v>
       </c>
       <c r="J42" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K42" s="3">
         <v>148800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>46600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>174100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>107800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>155200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>645600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>288300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>150100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3609900</v>
+        <v>4817700</v>
       </c>
       <c r="E43" s="3">
-        <v>4075000</v>
+        <v>3675300</v>
       </c>
       <c r="F43" s="3">
-        <v>2963400</v>
+        <v>4148700</v>
       </c>
       <c r="G43" s="3">
-        <v>3804400</v>
+        <v>3017100</v>
       </c>
       <c r="H43" s="3">
-        <v>2695200</v>
+        <v>3873300</v>
       </c>
       <c r="I43" s="3">
-        <v>4281100</v>
+        <v>2744000</v>
       </c>
       <c r="J43" s="3">
+        <v>4358600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3252700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4334300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3651200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5006700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3451000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4437500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3503400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4013400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3206400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8309200</v>
+        <v>9005800</v>
       </c>
       <c r="E44" s="3">
-        <v>7303100</v>
+        <v>8459700</v>
       </c>
       <c r="F44" s="3">
-        <v>7080500</v>
+        <v>7435300</v>
       </c>
       <c r="G44" s="3">
-        <v>6735000</v>
+        <v>7208700</v>
       </c>
       <c r="H44" s="3">
-        <v>6760700</v>
+        <v>6856900</v>
       </c>
       <c r="I44" s="3">
-        <v>6394100</v>
+        <v>6883200</v>
       </c>
       <c r="J44" s="3">
+        <v>6509900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6409400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6436200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6675500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6960900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6374700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5839000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5972400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5722000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6023000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>260000</v>
+        <v>217000</v>
       </c>
       <c r="E45" s="3">
-        <v>18700</v>
-      </c>
-      <c r="F45" s="3" t="s">
+        <v>264700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>59700</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K45" s="3">
         <v>76100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>101300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31900</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>3700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>734300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>188300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15149600</v>
+        <v>17813700</v>
       </c>
       <c r="E46" s="3">
-        <v>13559000</v>
+        <v>15423900</v>
       </c>
       <c r="F46" s="3">
-        <v>13405500</v>
+        <v>13804500</v>
       </c>
       <c r="G46" s="3">
-        <v>13874000</v>
+        <v>13648300</v>
       </c>
       <c r="H46" s="3">
-        <v>13436000</v>
+        <v>14125300</v>
       </c>
       <c r="I46" s="3">
-        <v>11896900</v>
+        <v>13679300</v>
       </c>
       <c r="J46" s="3">
+        <v>12112300</v>
+      </c>
+      <c r="K46" s="3">
         <v>10978600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12827200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11568600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13443500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11519300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11979800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11545800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11463600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10099800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4768400</v>
+        <v>5239900</v>
       </c>
       <c r="E47" s="3">
-        <v>4532900</v>
+        <v>4854700</v>
       </c>
       <c r="F47" s="3">
-        <v>4346700</v>
+        <v>4615000</v>
       </c>
       <c r="G47" s="3">
-        <v>4761300</v>
+        <v>4425400</v>
       </c>
       <c r="H47" s="3">
-        <v>5071700</v>
+        <v>4847600</v>
       </c>
       <c r="I47" s="3">
-        <v>4262400</v>
+        <v>5163600</v>
       </c>
       <c r="J47" s="3">
+        <v>4339500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4309200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4413600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4370000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4729300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4233900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3953400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3945500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3457700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3322300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6959900</v>
+        <v>7263600</v>
       </c>
       <c r="E48" s="3">
-        <v>6050900</v>
+        <v>7085900</v>
       </c>
       <c r="F48" s="3">
-        <v>5756900</v>
+        <v>6160500</v>
       </c>
       <c r="G48" s="3">
-        <v>5645700</v>
+        <v>5861200</v>
       </c>
       <c r="H48" s="3">
-        <v>5829600</v>
+        <v>5747900</v>
       </c>
       <c r="I48" s="3">
-        <v>5711300</v>
+        <v>5935100</v>
       </c>
       <c r="J48" s="3">
+        <v>5814700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5258000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5201700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5473500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5623600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5372200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4928900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5075100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4738600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4944500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13940800</v>
+        <v>14465100</v>
       </c>
       <c r="E49" s="3">
-        <v>12791800</v>
+        <v>14193300</v>
       </c>
       <c r="F49" s="3">
-        <v>12607900</v>
+        <v>13023400</v>
       </c>
       <c r="G49" s="3">
-        <v>12740200</v>
+        <v>12836200</v>
       </c>
       <c r="H49" s="3">
-        <v>13235700</v>
+        <v>12970900</v>
       </c>
       <c r="I49" s="3">
-        <v>14096600</v>
+        <v>13475400</v>
       </c>
       <c r="J49" s="3">
+        <v>14351900</v>
+      </c>
+      <c r="K49" s="3">
         <v>14708000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15315800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16734600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18123300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16730400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15901200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16134300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14781700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14788900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1952600</v>
+        <v>1390500</v>
       </c>
       <c r="E52" s="3">
-        <v>1905700</v>
+        <v>1987900</v>
       </c>
       <c r="F52" s="3">
-        <v>1309500</v>
+        <v>1940200</v>
       </c>
       <c r="G52" s="3">
-        <v>1402000</v>
+        <v>1333200</v>
       </c>
       <c r="H52" s="3">
-        <v>1440700</v>
+        <v>1427400</v>
       </c>
       <c r="I52" s="3">
-        <v>1201800</v>
+        <v>1466800</v>
       </c>
       <c r="J52" s="3">
+        <v>1223500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1403200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1393100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1407000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>677800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>552500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>468000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>460400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>510000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>823000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42771200</v>
+        <v>46172800</v>
       </c>
       <c r="E54" s="3">
-        <v>38840300</v>
+        <v>43545700</v>
       </c>
       <c r="F54" s="3">
-        <v>37426500</v>
+        <v>39543600</v>
       </c>
       <c r="G54" s="3">
-        <v>38423300</v>
+        <v>38104300</v>
       </c>
       <c r="H54" s="3">
-        <v>39013700</v>
+        <v>39119100</v>
       </c>
       <c r="I54" s="3">
-        <v>37168900</v>
+        <v>39720100</v>
       </c>
       <c r="J54" s="3">
+        <v>37841900</v>
+      </c>
+      <c r="K54" s="3">
         <v>36657000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39151500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39553600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>42597600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38408200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37231300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37161100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34951600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33978400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6895400</v>
+        <v>7286200</v>
       </c>
       <c r="E57" s="3">
-        <v>6239500</v>
+        <v>7020300</v>
       </c>
       <c r="F57" s="3">
-        <v>5444200</v>
+        <v>6352500</v>
       </c>
       <c r="G57" s="3">
-        <v>5416100</v>
+        <v>5542800</v>
       </c>
       <c r="H57" s="3">
-        <v>4313900</v>
+        <v>5514200</v>
       </c>
       <c r="I57" s="3">
-        <v>5240400</v>
+        <v>4392000</v>
       </c>
       <c r="J57" s="3">
+        <v>5335300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4921800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5385900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5257800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5861400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4743800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4851300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4398100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4166000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3875300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1782700</v>
+        <v>2748700</v>
       </c>
       <c r="E58" s="3">
-        <v>1386800</v>
+        <v>1815000</v>
       </c>
       <c r="F58" s="3">
-        <v>2181000</v>
+        <v>1411900</v>
       </c>
       <c r="G58" s="3">
-        <v>1422000</v>
+        <v>2220500</v>
       </c>
       <c r="H58" s="3">
-        <v>2336700</v>
+        <v>1447700</v>
       </c>
       <c r="I58" s="3">
-        <v>3960200</v>
+        <v>2379100</v>
       </c>
       <c r="J58" s="3">
+        <v>4031900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2294600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2125100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2433300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3365100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3273900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3378300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2684300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2523800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2529600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1210000</v>
+        <v>1318900</v>
       </c>
       <c r="E59" s="3">
-        <v>1280200</v>
+        <v>1231900</v>
       </c>
       <c r="F59" s="3">
-        <v>740300</v>
+        <v>1303400</v>
       </c>
       <c r="G59" s="3">
-        <v>1021400</v>
+        <v>753700</v>
       </c>
       <c r="H59" s="3">
-        <v>958100</v>
+        <v>1039900</v>
       </c>
       <c r="I59" s="3">
-        <v>1169000</v>
+        <v>975500</v>
       </c>
       <c r="J59" s="3">
+        <v>1190100</v>
+      </c>
+      <c r="K59" s="3">
         <v>986200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1184500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>774700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1037300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>849400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1087500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>987400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>875200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>561000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9888100</v>
+        <v>11353900</v>
       </c>
       <c r="E60" s="3">
-        <v>8906600</v>
+        <v>10067200</v>
       </c>
       <c r="F60" s="3">
-        <v>8365400</v>
+        <v>9067800</v>
       </c>
       <c r="G60" s="3">
-        <v>7859400</v>
+        <v>8516900</v>
       </c>
       <c r="H60" s="3">
-        <v>7608800</v>
+        <v>8001700</v>
       </c>
       <c r="I60" s="3">
-        <v>10369500</v>
+        <v>7746500</v>
       </c>
       <c r="J60" s="3">
+        <v>10557300</v>
+      </c>
+      <c r="K60" s="3">
         <v>8202600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8695400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8465800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10263800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8867100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9317100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8069800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7565000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6965800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16981500</v>
+        <v>18250200</v>
       </c>
       <c r="E61" s="3">
-        <v>14867300</v>
+        <v>17289000</v>
       </c>
       <c r="F61" s="3">
-        <v>15068800</v>
+        <v>15136500</v>
       </c>
       <c r="G61" s="3">
-        <v>16472000</v>
+        <v>15341600</v>
       </c>
       <c r="H61" s="3">
-        <v>17323500</v>
+        <v>16770300</v>
       </c>
       <c r="I61" s="3">
-        <v>11819600</v>
+        <v>17637200</v>
       </c>
       <c r="J61" s="3">
+        <v>12033600</v>
+      </c>
+      <c r="K61" s="3">
         <v>12411100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12530800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10747300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10821300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8764600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9239500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10527100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10343200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11008400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4757800</v>
+        <v>4803400</v>
       </c>
       <c r="E62" s="3">
-        <v>4137000</v>
+        <v>4844000</v>
       </c>
       <c r="F62" s="3">
-        <v>4117100</v>
+        <v>4211900</v>
       </c>
       <c r="G62" s="3">
-        <v>4278800</v>
+        <v>4191700</v>
       </c>
       <c r="H62" s="3">
-        <v>4195600</v>
+        <v>4356200</v>
       </c>
       <c r="I62" s="3">
-        <v>4168700</v>
+        <v>4271600</v>
       </c>
       <c r="J62" s="3">
+        <v>4244100</v>
+      </c>
+      <c r="K62" s="3">
         <v>4147600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4344100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4749400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4969900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4762400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4815600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5286400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4421600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3816100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33637400</v>
+        <v>36467000</v>
       </c>
       <c r="E66" s="3">
-        <v>29870500</v>
+        <v>34246500</v>
       </c>
       <c r="F66" s="3">
-        <v>29348100</v>
+        <v>30411400</v>
       </c>
       <c r="G66" s="3">
-        <v>30437400</v>
+        <v>29879500</v>
       </c>
       <c r="H66" s="3">
-        <v>31081600</v>
+        <v>30988600</v>
       </c>
       <c r="I66" s="3">
-        <v>28357200</v>
+        <v>31644400</v>
       </c>
       <c r="J66" s="3">
+        <v>28870700</v>
+      </c>
+      <c r="K66" s="3">
         <v>26863800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27725900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26311900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28556900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24677500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25563100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26035300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24335800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23745700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10082600</v>
+        <v>10638400</v>
       </c>
       <c r="E72" s="3">
-        <v>10626000</v>
+        <v>10265100</v>
       </c>
       <c r="F72" s="3">
-        <v>9678500</v>
+        <v>10818500</v>
       </c>
       <c r="G72" s="3">
-        <v>9354000</v>
+        <v>9853700</v>
       </c>
       <c r="H72" s="3">
-        <v>8836300</v>
+        <v>9523400</v>
       </c>
       <c r="I72" s="3">
-        <v>10132900</v>
+        <v>8996300</v>
       </c>
       <c r="J72" s="3">
+        <v>10316400</v>
+      </c>
+      <c r="K72" s="3">
         <v>10661200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12388100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14632800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15237900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14375100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12210100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11864000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12143100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11861600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9133800</v>
+        <v>9705800</v>
       </c>
       <c r="E76" s="3">
-        <v>8969800</v>
+        <v>9299200</v>
       </c>
       <c r="F76" s="3">
-        <v>8078500</v>
+        <v>9132200</v>
       </c>
       <c r="G76" s="3">
-        <v>7985900</v>
+        <v>8224700</v>
       </c>
       <c r="H76" s="3">
-        <v>7932000</v>
+        <v>8130500</v>
       </c>
       <c r="I76" s="3">
-        <v>8811700</v>
+        <v>8075700</v>
       </c>
       <c r="J76" s="3">
+        <v>8971300</v>
+      </c>
+      <c r="K76" s="3">
         <v>9793200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11425600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13241800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14040700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13730700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11668200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11125800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10615800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10232800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1503900</v>
+        <v>2736800</v>
       </c>
       <c r="E81" s="3">
-        <v>2301600</v>
+        <v>1531200</v>
       </c>
       <c r="F81" s="3">
-        <v>1265000</v>
+        <v>2343300</v>
       </c>
       <c r="G81" s="3">
-        <v>1850700</v>
+        <v>1287900</v>
       </c>
       <c r="H81" s="3">
-        <v>-534100</v>
+        <v>1884200</v>
       </c>
       <c r="I81" s="3">
-        <v>2184500</v>
+        <v>-543800</v>
       </c>
       <c r="J81" s="3">
+        <v>2224000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1386800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2410500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1283200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2912300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1528400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1864600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1093000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1833900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1409000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>707500</v>
+        <v>335100</v>
       </c>
       <c r="E83" s="3">
-        <v>262400</v>
+        <v>720300</v>
       </c>
       <c r="F83" s="3">
         <v>267100</v>
       </c>
       <c r="G83" s="3">
-        <v>256500</v>
+        <v>271900</v>
       </c>
       <c r="H83" s="3">
-        <v>1819000</v>
+        <v>261200</v>
       </c>
       <c r="I83" s="3">
-        <v>335000</v>
+        <v>1852000</v>
       </c>
       <c r="J83" s="3">
+        <v>341100</v>
+      </c>
+      <c r="K83" s="3">
         <v>221400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>225700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>407300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>264600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>243600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>219200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>250400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>366500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>329200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2328500</v>
+        <v>1432200</v>
       </c>
       <c r="E89" s="3">
-        <v>2280500</v>
+        <v>2370700</v>
       </c>
       <c r="F89" s="3">
-        <v>1939700</v>
+        <v>2321800</v>
       </c>
       <c r="G89" s="3">
-        <v>2340300</v>
+        <v>1974800</v>
       </c>
       <c r="H89" s="3">
-        <v>1208800</v>
+        <v>2382600</v>
       </c>
       <c r="I89" s="3">
-        <v>1508600</v>
+        <v>1230700</v>
       </c>
       <c r="J89" s="3">
+        <v>1536000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1925600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1956700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2443900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1766100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2483100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1560400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1970800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1352600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2099000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-837500</v>
+        <v>-518700</v>
       </c>
       <c r="E91" s="3">
-        <v>-447400</v>
+        <v>-852600</v>
       </c>
       <c r="F91" s="3">
-        <v>-440400</v>
+        <v>-455500</v>
       </c>
       <c r="G91" s="3">
-        <v>-292800</v>
+        <v>-448400</v>
       </c>
       <c r="H91" s="3">
-        <v>-433400</v>
+        <v>-298100</v>
       </c>
       <c r="I91" s="3">
-        <v>-386500</v>
+        <v>-441200</v>
       </c>
       <c r="J91" s="3">
+        <v>-393500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-468500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-330600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-497800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-297200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-427400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-242600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-393900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-266100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-484600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-980400</v>
+        <v>-567600</v>
       </c>
       <c r="E94" s="3">
-        <v>-590300</v>
+        <v>-998100</v>
       </c>
       <c r="F94" s="3">
-        <v>-570400</v>
+        <v>-601000</v>
       </c>
       <c r="G94" s="3">
-        <v>-707500</v>
+        <v>-580800</v>
       </c>
       <c r="H94" s="3">
-        <v>-441600</v>
+        <v>-720300</v>
       </c>
       <c r="I94" s="3">
-        <v>-501300</v>
+        <v>-449600</v>
       </c>
       <c r="J94" s="3">
+        <v>-510400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-467300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>157400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-496500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-450000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-263600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>197000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>580400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>36900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-794100</v>
+        <v>-1270000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1218200</v>
+        <v>-808500</v>
       </c>
       <c r="F96" s="3">
-        <v>-766000</v>
+        <v>-1240200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1161900</v>
+        <v>-779900</v>
       </c>
       <c r="H96" s="3">
-        <v>-749600</v>
+        <v>-1183000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1178300</v>
+        <v>-763200</v>
       </c>
       <c r="J96" s="3">
+        <v>-1199700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-737900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1211400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-816000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1369800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-792200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-739500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-711100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1087000</v>
+        <v>-218200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2730300</v>
+        <v>-1106600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1362200</v>
+        <v>-2779700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1910400</v>
+        <v>-1386900</v>
       </c>
       <c r="H100" s="3">
-        <v>2069700</v>
+        <v>-1945000</v>
       </c>
       <c r="I100" s="3">
-        <v>-855000</v>
+        <v>2107200</v>
       </c>
       <c r="J100" s="3">
+        <v>-870500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2205600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1269900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1923400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-952400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2042400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>263500</v>
+        <v>-75100</v>
       </c>
       <c r="E101" s="3">
-        <v>16400</v>
+        <v>268300</v>
       </c>
       <c r="F101" s="3">
-        <v>-57400</v>
+        <v>16700</v>
       </c>
       <c r="G101" s="3">
-        <v>-276400</v>
+        <v>-58400</v>
       </c>
       <c r="H101" s="3">
-        <v>-103100</v>
+        <v>-281400</v>
       </c>
       <c r="I101" s="3">
-        <v>-37500</v>
+        <v>-104900</v>
       </c>
       <c r="J101" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-46900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-39600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-62600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>40600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>147400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-37800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-115900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>524700</v>
+        <v>571200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1023700</v>
+        <v>534200</v>
       </c>
       <c r="F102" s="3">
-        <v>-50400</v>
+        <v>-1042300</v>
       </c>
       <c r="G102" s="3">
-        <v>-554000</v>
+        <v>-51300</v>
       </c>
       <c r="H102" s="3">
-        <v>2733800</v>
+        <v>-564100</v>
       </c>
       <c r="I102" s="3">
-        <v>114800</v>
+        <v>2783300</v>
       </c>
       <c r="J102" s="3">
+        <v>116900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-794100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>861200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-326900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-71900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>199500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>446100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>110900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-399000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11233400</v>
+        <v>11688300</v>
       </c>
       <c r="E8" s="3">
-        <v>8937900</v>
+        <v>9299800</v>
       </c>
       <c r="F8" s="3">
-        <v>9488800</v>
+        <v>9873000</v>
       </c>
       <c r="G8" s="3">
-        <v>6986900</v>
+        <v>7269800</v>
       </c>
       <c r="H8" s="3">
-        <v>8197300</v>
+        <v>8529300</v>
       </c>
       <c r="I8" s="3">
-        <v>5428300</v>
+        <v>5648100</v>
       </c>
       <c r="J8" s="3">
-        <v>8586100</v>
+        <v>8933800</v>
       </c>
       <c r="K8" s="3">
         <v>6979800</v>
@@ -812,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4321700</v>
+        <v>4496700</v>
       </c>
       <c r="E9" s="3">
-        <v>3599000</v>
+        <v>3744700</v>
       </c>
       <c r="F9" s="3">
-        <v>3523900</v>
+        <v>3666600</v>
       </c>
       <c r="G9" s="3">
-        <v>2834600</v>
+        <v>2949400</v>
       </c>
       <c r="H9" s="3">
-        <v>3173300</v>
+        <v>3301800</v>
       </c>
       <c r="I9" s="3">
-        <v>2327800</v>
+        <v>2422000</v>
       </c>
       <c r="J9" s="3">
-        <v>3222200</v>
+        <v>3352600</v>
       </c>
       <c r="K9" s="3">
         <v>2761900</v>
@@ -868,25 +868,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6911800</v>
+        <v>7191700</v>
       </c>
       <c r="E10" s="3">
-        <v>5338900</v>
+        <v>5555100</v>
       </c>
       <c r="F10" s="3">
-        <v>5964900</v>
+        <v>6206500</v>
       </c>
       <c r="G10" s="3">
-        <v>4152300</v>
+        <v>4320500</v>
       </c>
       <c r="H10" s="3">
-        <v>5024000</v>
+        <v>5227500</v>
       </c>
       <c r="I10" s="3">
-        <v>3100500</v>
+        <v>3226100</v>
       </c>
       <c r="J10" s="3">
-        <v>5363900</v>
+        <v>5581100</v>
       </c>
       <c r="K10" s="3">
         <v>4217900</v>
@@ -1058,25 +1058,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-58400</v>
+        <v>-60800</v>
       </c>
       <c r="E14" s="3">
-        <v>486500</v>
+        <v>506200</v>
       </c>
       <c r="F14" s="3">
-        <v>37000</v>
+        <v>38500</v>
       </c>
       <c r="G14" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="H14" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="I14" s="3">
-        <v>1561000</v>
+        <v>1624200</v>
       </c>
       <c r="J14" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="K14" s="3">
         <v>12900</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7444800</v>
+        <v>7746300</v>
       </c>
       <c r="E17" s="3">
-        <v>6975000</v>
+        <v>7257400</v>
       </c>
       <c r="F17" s="3">
-        <v>6254700</v>
+        <v>6508000</v>
       </c>
       <c r="G17" s="3">
-        <v>5197000</v>
+        <v>5407400</v>
       </c>
       <c r="H17" s="3">
-        <v>5521300</v>
+        <v>5744900</v>
       </c>
       <c r="I17" s="3">
-        <v>5819400</v>
+        <v>6055100</v>
       </c>
       <c r="J17" s="3">
-        <v>5674000</v>
+        <v>5903700</v>
       </c>
       <c r="K17" s="3">
         <v>5104500</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3788600</v>
+        <v>3942000</v>
       </c>
       <c r="E18" s="3">
-        <v>1962900</v>
+        <v>2042400</v>
       </c>
       <c r="F18" s="3">
-        <v>3234100</v>
+        <v>3365000</v>
       </c>
       <c r="G18" s="3">
-        <v>1790000</v>
+        <v>1862400</v>
       </c>
       <c r="H18" s="3">
-        <v>2676000</v>
+        <v>2784400</v>
       </c>
       <c r="I18" s="3">
-        <v>-391100</v>
+        <v>-407000</v>
       </c>
       <c r="J18" s="3">
-        <v>2912100</v>
+        <v>3030000</v>
       </c>
       <c r="K18" s="3">
         <v>1875300</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>304100</v>
+        <v>316400</v>
       </c>
       <c r="E20" s="3">
-        <v>316000</v>
+        <v>328800</v>
       </c>
       <c r="F20" s="3">
-        <v>285000</v>
+        <v>296600</v>
       </c>
       <c r="G20" s="3">
-        <v>270700</v>
+        <v>281700</v>
       </c>
       <c r="H20" s="3">
-        <v>237300</v>
+        <v>246900</v>
       </c>
       <c r="I20" s="3">
-        <v>192000</v>
+        <v>199800</v>
       </c>
       <c r="J20" s="3">
-        <v>349400</v>
+        <v>363600</v>
       </c>
       <c r="K20" s="3">
         <v>305700</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4427800</v>
+        <v>4607100</v>
       </c>
       <c r="E21" s="3">
-        <v>2999200</v>
+        <v>3120600</v>
       </c>
       <c r="F21" s="3">
-        <v>3786200</v>
+        <v>3939500</v>
       </c>
       <c r="G21" s="3">
-        <v>2332500</v>
+        <v>2427000</v>
       </c>
       <c r="H21" s="3">
-        <v>3174500</v>
+        <v>3303000</v>
       </c>
       <c r="I21" s="3">
-        <v>1652800</v>
+        <v>1719700</v>
       </c>
       <c r="J21" s="3">
-        <v>3602600</v>
+        <v>3748500</v>
       </c>
       <c r="K21" s="3">
         <v>2402300</v>
@@ -1435,25 +1435,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>447200</v>
+        <v>465300</v>
       </c>
       <c r="E22" s="3">
-        <v>293400</v>
+        <v>305200</v>
       </c>
       <c r="F22" s="3">
-        <v>273100</v>
+        <v>284100</v>
       </c>
       <c r="G22" s="3">
-        <v>262400</v>
+        <v>273000</v>
       </c>
       <c r="H22" s="3">
-        <v>292200</v>
+        <v>304000</v>
       </c>
       <c r="I22" s="3">
-        <v>302900</v>
+        <v>315200</v>
       </c>
       <c r="J22" s="3">
-        <v>323200</v>
+        <v>336300</v>
       </c>
       <c r="K22" s="3">
         <v>297500</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3645500</v>
+        <v>3793100</v>
       </c>
       <c r="E23" s="3">
-        <v>1985500</v>
+        <v>2065900</v>
       </c>
       <c r="F23" s="3">
-        <v>3246000</v>
+        <v>3377500</v>
       </c>
       <c r="G23" s="3">
-        <v>1798300</v>
+        <v>1871100</v>
       </c>
       <c r="H23" s="3">
-        <v>2621100</v>
+        <v>2727300</v>
       </c>
       <c r="I23" s="3">
-        <v>-502000</v>
+        <v>-522400</v>
       </c>
       <c r="J23" s="3">
-        <v>2938300</v>
+        <v>3057300</v>
       </c>
       <c r="K23" s="3">
         <v>1883500</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>775100</v>
+        <v>806500</v>
       </c>
       <c r="E24" s="3">
-        <v>494900</v>
+        <v>514900</v>
       </c>
       <c r="F24" s="3">
-        <v>756100</v>
+        <v>786700</v>
       </c>
       <c r="G24" s="3">
-        <v>441200</v>
+        <v>459100</v>
       </c>
       <c r="H24" s="3">
-        <v>640400</v>
+        <v>666300</v>
       </c>
       <c r="I24" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="J24" s="3">
-        <v>632000</v>
+        <v>657600</v>
       </c>
       <c r="K24" s="3">
         <v>395900</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2870400</v>
+        <v>2986600</v>
       </c>
       <c r="E26" s="3">
-        <v>1490600</v>
+        <v>1551000</v>
       </c>
       <c r="F26" s="3">
-        <v>2490000</v>
+        <v>2590800</v>
       </c>
       <c r="G26" s="3">
-        <v>1357100</v>
+        <v>1412000</v>
       </c>
       <c r="H26" s="3">
-        <v>1980800</v>
+        <v>2061000</v>
       </c>
       <c r="I26" s="3">
-        <v>-572400</v>
+        <v>-595600</v>
       </c>
       <c r="J26" s="3">
-        <v>2306300</v>
+        <v>2399700</v>
       </c>
       <c r="K26" s="3">
         <v>1487600</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2736800</v>
+        <v>2847600</v>
       </c>
       <c r="E27" s="3">
-        <v>1531200</v>
+        <v>1593200</v>
       </c>
       <c r="F27" s="3">
-        <v>2343300</v>
+        <v>2438200</v>
       </c>
       <c r="G27" s="3">
-        <v>1287900</v>
+        <v>1340100</v>
       </c>
       <c r="H27" s="3">
-        <v>1884200</v>
+        <v>1960500</v>
       </c>
       <c r="I27" s="3">
-        <v>-543800</v>
+        <v>-565800</v>
       </c>
       <c r="J27" s="3">
-        <v>2224000</v>
+        <v>2314100</v>
       </c>
       <c r="K27" s="3">
         <v>1386800</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-304100</v>
+        <v>-316400</v>
       </c>
       <c r="E32" s="3">
-        <v>-316000</v>
+        <v>-328800</v>
       </c>
       <c r="F32" s="3">
-        <v>-285000</v>
+        <v>-296600</v>
       </c>
       <c r="G32" s="3">
-        <v>-270700</v>
+        <v>-281700</v>
       </c>
       <c r="H32" s="3">
-        <v>-237300</v>
+        <v>-246900</v>
       </c>
       <c r="I32" s="3">
-        <v>-192000</v>
+        <v>-199800</v>
       </c>
       <c r="J32" s="3">
-        <v>-349400</v>
+        <v>-363600</v>
       </c>
       <c r="K32" s="3">
         <v>-305700</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2736800</v>
+        <v>2847600</v>
       </c>
       <c r="E33" s="3">
-        <v>1531200</v>
+        <v>1593200</v>
       </c>
       <c r="F33" s="3">
-        <v>2343300</v>
+        <v>2438200</v>
       </c>
       <c r="G33" s="3">
-        <v>1287900</v>
+        <v>1340100</v>
       </c>
       <c r="H33" s="3">
-        <v>1884200</v>
+        <v>1960500</v>
       </c>
       <c r="I33" s="3">
-        <v>-543800</v>
+        <v>-565800</v>
       </c>
       <c r="J33" s="3">
-        <v>2224000</v>
+        <v>2314100</v>
       </c>
       <c r="K33" s="3">
         <v>1386800</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2736800</v>
+        <v>2847600</v>
       </c>
       <c r="E35" s="3">
-        <v>1531200</v>
+        <v>1593200</v>
       </c>
       <c r="F35" s="3">
-        <v>2343300</v>
+        <v>2438200</v>
       </c>
       <c r="G35" s="3">
-        <v>1287900</v>
+        <v>1340100</v>
       </c>
       <c r="H35" s="3">
-        <v>1884200</v>
+        <v>1960500</v>
       </c>
       <c r="I35" s="3">
-        <v>-543800</v>
+        <v>-565800</v>
       </c>
       <c r="J35" s="3">
-        <v>2224000</v>
+        <v>2314100</v>
       </c>
       <c r="K35" s="3">
         <v>1386800</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3298500</v>
+        <v>3432100</v>
       </c>
       <c r="E41" s="3">
-        <v>2724900</v>
+        <v>2835200</v>
       </c>
       <c r="F41" s="3">
-        <v>2122700</v>
+        <v>2208600</v>
       </c>
       <c r="G41" s="3">
-        <v>3278200</v>
+        <v>3411000</v>
       </c>
       <c r="H41" s="3">
-        <v>3294900</v>
+        <v>3428300</v>
       </c>
       <c r="I41" s="3">
-        <v>3962700</v>
+        <v>4123200</v>
       </c>
       <c r="J41" s="3">
-        <v>1132900</v>
+        <v>1178800</v>
       </c>
       <c r="K41" s="3">
         <v>1091700</v>
@@ -2380,25 +2380,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>474600</v>
+        <v>493800</v>
       </c>
       <c r="E42" s="3">
-        <v>299300</v>
+        <v>311400</v>
       </c>
       <c r="F42" s="3">
-        <v>78700</v>
+        <v>81900</v>
       </c>
       <c r="G42" s="3">
-        <v>144300</v>
+        <v>150100</v>
       </c>
       <c r="H42" s="3">
-        <v>100200</v>
+        <v>104200</v>
       </c>
       <c r="I42" s="3">
-        <v>89400</v>
+        <v>93100</v>
       </c>
       <c r="J42" s="3">
-        <v>50100</v>
+        <v>52100</v>
       </c>
       <c r="K42" s="3">
         <v>148800</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4817700</v>
+        <v>5012800</v>
       </c>
       <c r="E43" s="3">
-        <v>3675300</v>
+        <v>3824100</v>
       </c>
       <c r="F43" s="3">
-        <v>4148700</v>
+        <v>4316700</v>
       </c>
       <c r="G43" s="3">
-        <v>3017100</v>
+        <v>3139200</v>
       </c>
       <c r="H43" s="3">
-        <v>3873300</v>
+        <v>4030100</v>
       </c>
       <c r="I43" s="3">
-        <v>2744000</v>
+        <v>2855100</v>
       </c>
       <c r="J43" s="3">
-        <v>4358600</v>
+        <v>4535100</v>
       </c>
       <c r="K43" s="3">
         <v>3252700</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9005800</v>
+        <v>9370500</v>
       </c>
       <c r="E44" s="3">
-        <v>8459700</v>
+        <v>8802200</v>
       </c>
       <c r="F44" s="3">
-        <v>7435300</v>
+        <v>7736400</v>
       </c>
       <c r="G44" s="3">
-        <v>7208700</v>
+        <v>7500600</v>
       </c>
       <c r="H44" s="3">
-        <v>6856900</v>
+        <v>7134600</v>
       </c>
       <c r="I44" s="3">
-        <v>6883200</v>
+        <v>7161900</v>
       </c>
       <c r="J44" s="3">
-        <v>6509900</v>
+        <v>6773500</v>
       </c>
       <c r="K44" s="3">
         <v>6409400</v>
@@ -2548,13 +2548,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>217000</v>
+        <v>225800</v>
       </c>
       <c r="E45" s="3">
-        <v>264700</v>
+        <v>275500</v>
       </c>
       <c r="F45" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>60800</v>
+        <v>63300</v>
       </c>
       <c r="K45" s="3">
         <v>76100</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17813700</v>
+        <v>18535100</v>
       </c>
       <c r="E46" s="3">
-        <v>15423900</v>
+        <v>16048500</v>
       </c>
       <c r="F46" s="3">
-        <v>13804500</v>
+        <v>14363500</v>
       </c>
       <c r="G46" s="3">
-        <v>13648300</v>
+        <v>14201000</v>
       </c>
       <c r="H46" s="3">
-        <v>14125300</v>
+        <v>14697300</v>
       </c>
       <c r="I46" s="3">
-        <v>13679300</v>
+        <v>14233200</v>
       </c>
       <c r="J46" s="3">
-        <v>12112300</v>
+        <v>12602800</v>
       </c>
       <c r="K46" s="3">
         <v>10978600</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5239900</v>
+        <v>5452100</v>
       </c>
       <c r="E47" s="3">
-        <v>4854700</v>
+        <v>5051300</v>
       </c>
       <c r="F47" s="3">
-        <v>4615000</v>
+        <v>4801900</v>
       </c>
       <c r="G47" s="3">
-        <v>4425400</v>
+        <v>4604600</v>
       </c>
       <c r="H47" s="3">
-        <v>4847600</v>
+        <v>5043900</v>
       </c>
       <c r="I47" s="3">
-        <v>5163600</v>
+        <v>5372700</v>
       </c>
       <c r="J47" s="3">
-        <v>4339500</v>
+        <v>4515300</v>
       </c>
       <c r="K47" s="3">
         <v>4309200</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7263600</v>
+        <v>7557700</v>
       </c>
       <c r="E48" s="3">
-        <v>7085900</v>
+        <v>7372800</v>
       </c>
       <c r="F48" s="3">
-        <v>6160500</v>
+        <v>6410000</v>
       </c>
       <c r="G48" s="3">
-        <v>5861200</v>
+        <v>6098500</v>
       </c>
       <c r="H48" s="3">
-        <v>5747900</v>
+        <v>5980700</v>
       </c>
       <c r="I48" s="3">
-        <v>5935100</v>
+        <v>6175500</v>
       </c>
       <c r="J48" s="3">
-        <v>5814700</v>
+        <v>6050100</v>
       </c>
       <c r="K48" s="3">
         <v>5258000</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14465100</v>
+        <v>15050900</v>
       </c>
       <c r="E49" s="3">
-        <v>14193300</v>
+        <v>14768000</v>
       </c>
       <c r="F49" s="3">
-        <v>13023400</v>
+        <v>13550800</v>
       </c>
       <c r="G49" s="3">
-        <v>12836200</v>
+        <v>13356000</v>
       </c>
       <c r="H49" s="3">
-        <v>12970900</v>
+        <v>13496200</v>
       </c>
       <c r="I49" s="3">
-        <v>13475400</v>
+        <v>14021000</v>
       </c>
       <c r="J49" s="3">
-        <v>14351900</v>
+        <v>14933000</v>
       </c>
       <c r="K49" s="3">
         <v>14708000</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1390500</v>
+        <v>1446800</v>
       </c>
       <c r="E52" s="3">
-        <v>1987900</v>
+        <v>2068400</v>
       </c>
       <c r="F52" s="3">
-        <v>1940200</v>
+        <v>2018800</v>
       </c>
       <c r="G52" s="3">
-        <v>1333200</v>
+        <v>1387200</v>
       </c>
       <c r="H52" s="3">
-        <v>1427400</v>
+        <v>1485200</v>
       </c>
       <c r="I52" s="3">
-        <v>1466800</v>
+        <v>1526200</v>
       </c>
       <c r="J52" s="3">
-        <v>1223500</v>
+        <v>1273100</v>
       </c>
       <c r="K52" s="3">
         <v>1403200</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46172800</v>
+        <v>48042500</v>
       </c>
       <c r="E54" s="3">
-        <v>43545700</v>
+        <v>45309100</v>
       </c>
       <c r="F54" s="3">
-        <v>39543600</v>
+        <v>41144900</v>
       </c>
       <c r="G54" s="3">
-        <v>38104300</v>
+        <v>39647300</v>
       </c>
       <c r="H54" s="3">
-        <v>39119100</v>
+        <v>40703200</v>
       </c>
       <c r="I54" s="3">
-        <v>39720100</v>
+        <v>41328600</v>
       </c>
       <c r="J54" s="3">
-        <v>37841900</v>
+        <v>39374300</v>
       </c>
       <c r="K54" s="3">
         <v>36657000</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7286200</v>
+        <v>7581300</v>
       </c>
       <c r="E57" s="3">
-        <v>7020300</v>
+        <v>7304600</v>
       </c>
       <c r="F57" s="3">
-        <v>6352500</v>
+        <v>6609700</v>
       </c>
       <c r="G57" s="3">
-        <v>5542800</v>
+        <v>5767200</v>
       </c>
       <c r="H57" s="3">
-        <v>5514200</v>
+        <v>5737500</v>
       </c>
       <c r="I57" s="3">
-        <v>4392000</v>
+        <v>4569900</v>
       </c>
       <c r="J57" s="3">
-        <v>5335300</v>
+        <v>5551300</v>
       </c>
       <c r="K57" s="3">
         <v>4921800</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2748700</v>
+        <v>2860000</v>
       </c>
       <c r="E58" s="3">
-        <v>1815000</v>
+        <v>1888500</v>
       </c>
       <c r="F58" s="3">
-        <v>1411900</v>
+        <v>1469100</v>
       </c>
       <c r="G58" s="3">
-        <v>2220500</v>
+        <v>2310400</v>
       </c>
       <c r="H58" s="3">
-        <v>1447700</v>
+        <v>1506300</v>
       </c>
       <c r="I58" s="3">
-        <v>2379100</v>
+        <v>2475400</v>
       </c>
       <c r="J58" s="3">
-        <v>4031900</v>
+        <v>4195100</v>
       </c>
       <c r="K58" s="3">
         <v>2294600</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1318900</v>
+        <v>1372300</v>
       </c>
       <c r="E59" s="3">
-        <v>1231900</v>
+        <v>1281700</v>
       </c>
       <c r="F59" s="3">
-        <v>1303400</v>
+        <v>1356200</v>
       </c>
       <c r="G59" s="3">
-        <v>753700</v>
+        <v>784200</v>
       </c>
       <c r="H59" s="3">
-        <v>1039900</v>
+        <v>1082000</v>
       </c>
       <c r="I59" s="3">
-        <v>975500</v>
+        <v>1015000</v>
       </c>
       <c r="J59" s="3">
-        <v>1190100</v>
+        <v>1238300</v>
       </c>
       <c r="K59" s="3">
         <v>986200</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11353900</v>
+        <v>11813700</v>
       </c>
       <c r="E60" s="3">
-        <v>10067200</v>
+        <v>10474800</v>
       </c>
       <c r="F60" s="3">
-        <v>9067800</v>
+        <v>9435000</v>
       </c>
       <c r="G60" s="3">
-        <v>8516900</v>
+        <v>8861800</v>
       </c>
       <c r="H60" s="3">
-        <v>8001700</v>
+        <v>8325800</v>
       </c>
       <c r="I60" s="3">
-        <v>7746500</v>
+        <v>8060200</v>
       </c>
       <c r="J60" s="3">
-        <v>10557300</v>
+        <v>10984800</v>
       </c>
       <c r="K60" s="3">
         <v>8202600</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18250200</v>
+        <v>18989200</v>
       </c>
       <c r="E61" s="3">
-        <v>17289000</v>
+        <v>17989100</v>
       </c>
       <c r="F61" s="3">
-        <v>15136500</v>
+        <v>15749500</v>
       </c>
       <c r="G61" s="3">
-        <v>15341600</v>
+        <v>15962900</v>
       </c>
       <c r="H61" s="3">
-        <v>16770300</v>
+        <v>17449400</v>
       </c>
       <c r="I61" s="3">
-        <v>17637200</v>
+        <v>18351400</v>
       </c>
       <c r="J61" s="3">
-        <v>12033600</v>
+        <v>12520900</v>
       </c>
       <c r="K61" s="3">
         <v>12411100</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4803400</v>
+        <v>4997900</v>
       </c>
       <c r="E62" s="3">
-        <v>4844000</v>
+        <v>5040100</v>
       </c>
       <c r="F62" s="3">
-        <v>4211900</v>
+        <v>4382500</v>
       </c>
       <c r="G62" s="3">
-        <v>4191700</v>
+        <v>4361400</v>
       </c>
       <c r="H62" s="3">
-        <v>4356200</v>
+        <v>4532600</v>
       </c>
       <c r="I62" s="3">
-        <v>4271600</v>
+        <v>4444500</v>
       </c>
       <c r="J62" s="3">
-        <v>4244100</v>
+        <v>4416000</v>
       </c>
       <c r="K62" s="3">
         <v>4147600</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36467000</v>
+        <v>37943700</v>
       </c>
       <c r="E66" s="3">
-        <v>34246500</v>
+        <v>35633300</v>
       </c>
       <c r="F66" s="3">
-        <v>30411400</v>
+        <v>31642900</v>
       </c>
       <c r="G66" s="3">
-        <v>29879500</v>
+        <v>31089500</v>
       </c>
       <c r="H66" s="3">
-        <v>30988600</v>
+        <v>32243400</v>
       </c>
       <c r="I66" s="3">
-        <v>31644400</v>
+        <v>32925900</v>
       </c>
       <c r="J66" s="3">
-        <v>28870700</v>
+        <v>30039800</v>
       </c>
       <c r="K66" s="3">
         <v>26863800</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10638400</v>
+        <v>11069200</v>
       </c>
       <c r="E72" s="3">
-        <v>10265100</v>
+        <v>10680800</v>
       </c>
       <c r="F72" s="3">
-        <v>10818500</v>
+        <v>11256500</v>
       </c>
       <c r="G72" s="3">
-        <v>9853700</v>
+        <v>10252700</v>
       </c>
       <c r="H72" s="3">
-        <v>9523400</v>
+        <v>9909000</v>
       </c>
       <c r="I72" s="3">
-        <v>8996300</v>
+        <v>9360600</v>
       </c>
       <c r="J72" s="3">
-        <v>10316400</v>
+        <v>10734200</v>
       </c>
       <c r="K72" s="3">
         <v>10661200</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9705800</v>
+        <v>10098900</v>
       </c>
       <c r="E76" s="3">
-        <v>9299200</v>
+        <v>9675800</v>
       </c>
       <c r="F76" s="3">
-        <v>9132200</v>
+        <v>9502000</v>
       </c>
       <c r="G76" s="3">
-        <v>8224700</v>
+        <v>8557800</v>
       </c>
       <c r="H76" s="3">
-        <v>8130500</v>
+        <v>8459800</v>
       </c>
       <c r="I76" s="3">
-        <v>8075700</v>
+        <v>8402700</v>
       </c>
       <c r="J76" s="3">
-        <v>8971300</v>
+        <v>9334500</v>
       </c>
       <c r="K76" s="3">
         <v>9793200</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2736800</v>
+        <v>2847600</v>
       </c>
       <c r="E81" s="3">
-        <v>1531200</v>
+        <v>1593200</v>
       </c>
       <c r="F81" s="3">
-        <v>2343300</v>
+        <v>2438200</v>
       </c>
       <c r="G81" s="3">
-        <v>1287900</v>
+        <v>1340100</v>
       </c>
       <c r="H81" s="3">
-        <v>1884200</v>
+        <v>1960500</v>
       </c>
       <c r="I81" s="3">
-        <v>-543800</v>
+        <v>-565800</v>
       </c>
       <c r="J81" s="3">
-        <v>2224000</v>
+        <v>2314100</v>
       </c>
       <c r="K81" s="3">
         <v>1386800</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>335100</v>
+        <v>348700</v>
       </c>
       <c r="E83" s="3">
-        <v>720300</v>
+        <v>749400</v>
       </c>
       <c r="F83" s="3">
-        <v>267100</v>
+        <v>277900</v>
       </c>
       <c r="G83" s="3">
-        <v>271900</v>
+        <v>282900</v>
       </c>
       <c r="H83" s="3">
-        <v>261200</v>
+        <v>271700</v>
       </c>
       <c r="I83" s="3">
-        <v>1852000</v>
+        <v>1927000</v>
       </c>
       <c r="J83" s="3">
-        <v>341100</v>
+        <v>354900</v>
       </c>
       <c r="K83" s="3">
         <v>221400</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1432200</v>
+        <v>1490200</v>
       </c>
       <c r="E89" s="3">
-        <v>2370700</v>
+        <v>2466700</v>
       </c>
       <c r="F89" s="3">
-        <v>2321800</v>
+        <v>2415800</v>
       </c>
       <c r="G89" s="3">
-        <v>1974800</v>
+        <v>2054800</v>
       </c>
       <c r="H89" s="3">
-        <v>2382600</v>
+        <v>2479100</v>
       </c>
       <c r="I89" s="3">
-        <v>1230700</v>
+        <v>1280500</v>
       </c>
       <c r="J89" s="3">
-        <v>1536000</v>
+        <v>1598200</v>
       </c>
       <c r="K89" s="3">
         <v>1925600</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-518700</v>
+        <v>-435000</v>
       </c>
       <c r="E91" s="3">
-        <v>-852600</v>
+        <v>-715000</v>
       </c>
       <c r="F91" s="3">
-        <v>-455500</v>
+        <v>-382000</v>
       </c>
       <c r="G91" s="3">
-        <v>-448400</v>
+        <v>-376000</v>
       </c>
       <c r="H91" s="3">
-        <v>-298100</v>
+        <v>-250000</v>
       </c>
       <c r="I91" s="3">
-        <v>-441200</v>
+        <v>-370000</v>
       </c>
       <c r="J91" s="3">
-        <v>-393500</v>
+        <v>-330000</v>
       </c>
       <c r="K91" s="3">
         <v>-468500</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-567600</v>
+        <v>-590600</v>
       </c>
       <c r="E94" s="3">
-        <v>-998100</v>
+        <v>-1038500</v>
       </c>
       <c r="F94" s="3">
-        <v>-601000</v>
+        <v>-625400</v>
       </c>
       <c r="G94" s="3">
-        <v>-580800</v>
+        <v>-604300</v>
       </c>
       <c r="H94" s="3">
-        <v>-720300</v>
+        <v>-749400</v>
       </c>
       <c r="I94" s="3">
-        <v>-449600</v>
+        <v>-467800</v>
       </c>
       <c r="J94" s="3">
-        <v>-510400</v>
+        <v>-531100</v>
       </c>
       <c r="K94" s="3">
         <v>-467300</v>
@@ -5093,25 +5093,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1270000</v>
+        <v>-1321500</v>
       </c>
       <c r="E96" s="3">
-        <v>-808500</v>
+        <v>-841300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1240200</v>
+        <v>-1290400</v>
       </c>
       <c r="G96" s="3">
-        <v>-779900</v>
+        <v>-811500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1183000</v>
+        <v>-1230900</v>
       </c>
       <c r="I96" s="3">
-        <v>-763200</v>
+        <v>-794100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1199700</v>
+        <v>-1248200</v>
       </c>
       <c r="K96" s="3">
         <v>-737900</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-218200</v>
+        <v>-227100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1106600</v>
+        <v>-1151500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2779700</v>
+        <v>-2892300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1386900</v>
+        <v>-1443100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1945000</v>
+        <v>-2023700</v>
       </c>
       <c r="I100" s="3">
-        <v>2107200</v>
+        <v>2192500</v>
       </c>
       <c r="J100" s="3">
-        <v>-870500</v>
+        <v>-905800</v>
       </c>
       <c r="K100" s="3">
         <v>-2205600</v>
@@ -5373,25 +5373,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75100</v>
+        <v>-78200</v>
       </c>
       <c r="E101" s="3">
-        <v>268300</v>
+        <v>279200</v>
       </c>
       <c r="F101" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="G101" s="3">
-        <v>-58400</v>
+        <v>-60800</v>
       </c>
       <c r="H101" s="3">
-        <v>-281400</v>
+        <v>-292800</v>
       </c>
       <c r="I101" s="3">
-        <v>-104900</v>
+        <v>-109200</v>
       </c>
       <c r="J101" s="3">
-        <v>-38200</v>
+        <v>-39700</v>
       </c>
       <c r="K101" s="3">
         <v>-46900</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>571200</v>
+        <v>594300</v>
       </c>
       <c r="E102" s="3">
-        <v>534200</v>
+        <v>555900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1042300</v>
+        <v>-1084500</v>
       </c>
       <c r="G102" s="3">
-        <v>-51300</v>
+        <v>-53400</v>
       </c>
       <c r="H102" s="3">
-        <v>-564100</v>
+        <v>-586900</v>
       </c>
       <c r="I102" s="3">
-        <v>2783300</v>
+        <v>2896000</v>
       </c>
       <c r="J102" s="3">
-        <v>116900</v>
+        <v>121600</v>
       </c>
       <c r="K102" s="3">
         <v>-794100</v>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>DEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11688300</v>
+        <v>9749300</v>
       </c>
       <c r="E8" s="3">
-        <v>9299800</v>
+        <v>11938000</v>
       </c>
       <c r="F8" s="3">
-        <v>9873000</v>
+        <v>9498400</v>
       </c>
       <c r="G8" s="3">
-        <v>7269800</v>
+        <v>10083900</v>
       </c>
       <c r="H8" s="3">
-        <v>8529300</v>
+        <v>7425100</v>
       </c>
       <c r="I8" s="3">
-        <v>5648100</v>
+        <v>8711400</v>
       </c>
       <c r="J8" s="3">
+        <v>5768700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8933800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6979800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8427100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7498100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9240700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7494500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7908100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6363700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7312000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6469400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7769100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4496700</v>
+        <v>4150400</v>
       </c>
       <c r="E9" s="3">
-        <v>3744700</v>
+        <v>4592700</v>
       </c>
       <c r="F9" s="3">
-        <v>3666600</v>
+        <v>3824700</v>
       </c>
       <c r="G9" s="3">
-        <v>2949400</v>
+        <v>3744900</v>
       </c>
       <c r="H9" s="3">
-        <v>3301800</v>
+        <v>3012400</v>
       </c>
       <c r="I9" s="3">
-        <v>2422000</v>
+        <v>3372300</v>
       </c>
       <c r="J9" s="3">
+        <v>2473800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3352600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2761900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3059500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2921800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3451500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2949100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3035900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2555100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2989500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2853500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3184000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7191700</v>
+        <v>5598900</v>
       </c>
       <c r="E10" s="3">
-        <v>5555100</v>
+        <v>7345300</v>
       </c>
       <c r="F10" s="3">
-        <v>6206500</v>
+        <v>5673700</v>
       </c>
       <c r="G10" s="3">
-        <v>4320500</v>
+        <v>6339000</v>
       </c>
       <c r="H10" s="3">
-        <v>5227500</v>
+        <v>4412700</v>
       </c>
       <c r="I10" s="3">
-        <v>3226100</v>
+        <v>5339100</v>
       </c>
       <c r="J10" s="3">
+        <v>3295000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5581100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4217900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5367600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4576300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5789200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4545400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4872200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3808600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4322500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3615900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4585100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,64 +1069,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-60800</v>
+        <v>351000</v>
       </c>
       <c r="E14" s="3">
-        <v>506200</v>
+        <v>21500</v>
       </c>
       <c r="F14" s="3">
-        <v>38500</v>
+        <v>517100</v>
       </c>
       <c r="G14" s="3">
-        <v>-13600</v>
+        <v>39300</v>
       </c>
       <c r="H14" s="3">
-        <v>14900</v>
+        <v>-13900</v>
       </c>
       <c r="I14" s="3">
-        <v>1624200</v>
+        <v>15200</v>
       </c>
       <c r="J14" s="3">
+        <v>1658900</v>
+      </c>
+      <c r="K14" s="3">
         <v>73200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-152500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>170400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>55900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>197000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-139600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-233100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>96100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7746300</v>
+        <v>7489700</v>
       </c>
       <c r="E17" s="3">
-        <v>7257400</v>
+        <v>7911800</v>
       </c>
       <c r="F17" s="3">
-        <v>6508000</v>
+        <v>7412400</v>
       </c>
       <c r="G17" s="3">
-        <v>5407400</v>
+        <v>6647000</v>
       </c>
       <c r="H17" s="3">
-        <v>5744900</v>
+        <v>5522900</v>
       </c>
       <c r="I17" s="3">
-        <v>6055100</v>
+        <v>5867600</v>
       </c>
       <c r="J17" s="3">
+        <v>6184400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5903700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5104500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5284600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6141600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5505300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5340200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4876800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4932900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4620600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5443600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3942000</v>
+        <v>2259600</v>
       </c>
       <c r="E18" s="3">
-        <v>2042400</v>
+        <v>4026200</v>
       </c>
       <c r="F18" s="3">
-        <v>3365000</v>
+        <v>2086000</v>
       </c>
       <c r="G18" s="3">
-        <v>1862400</v>
+        <v>3436900</v>
       </c>
       <c r="H18" s="3">
-        <v>2784400</v>
+        <v>1902200</v>
       </c>
       <c r="I18" s="3">
-        <v>-407000</v>
+        <v>2843800</v>
       </c>
       <c r="J18" s="3">
+        <v>-415700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3030000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1875300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3142500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1998000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3099100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1989100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2567900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1486900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2379100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1848800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2325500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,288 +1350,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>316400</v>
+        <v>351000</v>
       </c>
       <c r="E20" s="3">
-        <v>328800</v>
+        <v>323200</v>
       </c>
       <c r="F20" s="3">
-        <v>296600</v>
+        <v>335800</v>
       </c>
       <c r="G20" s="3">
-        <v>281700</v>
+        <v>302900</v>
       </c>
       <c r="H20" s="3">
-        <v>246900</v>
+        <v>287700</v>
       </c>
       <c r="I20" s="3">
-        <v>199800</v>
+        <v>252200</v>
       </c>
       <c r="J20" s="3">
+        <v>204000</v>
+      </c>
+      <c r="K20" s="3">
         <v>363600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>305700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>335500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>295500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>314200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>274300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>277100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>206100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>254300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>181700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4607100</v>
+        <v>3605500</v>
       </c>
       <c r="E21" s="3">
-        <v>3120600</v>
+        <v>4705500</v>
       </c>
       <c r="F21" s="3">
-        <v>3939500</v>
+        <v>3187300</v>
       </c>
       <c r="G21" s="3">
-        <v>2427000</v>
+        <v>4023700</v>
       </c>
       <c r="H21" s="3">
-        <v>3303000</v>
+        <v>2478800</v>
       </c>
       <c r="I21" s="3">
-        <v>1719700</v>
+        <v>3373600</v>
       </c>
       <c r="J21" s="3">
+        <v>1756500</v>
+      </c>
+      <c r="K21" s="3">
         <v>3748500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2402300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3703600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2700800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3677900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2507000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3064200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1943400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2999900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2359700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2777100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>465300</v>
+        <v>482800</v>
       </c>
       <c r="E22" s="3">
-        <v>305200</v>
+        <v>475200</v>
       </c>
       <c r="F22" s="3">
-        <v>284100</v>
+        <v>311800</v>
       </c>
       <c r="G22" s="3">
-        <v>273000</v>
+        <v>290200</v>
       </c>
       <c r="H22" s="3">
-        <v>304000</v>
+        <v>278800</v>
       </c>
       <c r="I22" s="3">
-        <v>315200</v>
+        <v>310500</v>
       </c>
       <c r="J22" s="3">
+        <v>321900</v>
+      </c>
+      <c r="K22" s="3">
         <v>336300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>297500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>273300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>248900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>294300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>286300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>290700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>292200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>306500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>327900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3793100</v>
+        <v>2127800</v>
       </c>
       <c r="E23" s="3">
-        <v>2065900</v>
+        <v>3874100</v>
       </c>
       <c r="F23" s="3">
-        <v>3377500</v>
+        <v>2110100</v>
       </c>
       <c r="G23" s="3">
-        <v>1871100</v>
+        <v>3449600</v>
       </c>
       <c r="H23" s="3">
-        <v>2727300</v>
+        <v>1911100</v>
       </c>
       <c r="I23" s="3">
-        <v>-522400</v>
+        <v>2785500</v>
       </c>
       <c r="J23" s="3">
+        <v>-533500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3057300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1883500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3204700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2044600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3118900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1977100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2554300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2326900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1702600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2159500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>806500</v>
+        <v>405500</v>
       </c>
       <c r="E24" s="3">
-        <v>514900</v>
+        <v>823700</v>
       </c>
       <c r="F24" s="3">
-        <v>786700</v>
+        <v>525900</v>
       </c>
       <c r="G24" s="3">
-        <v>459100</v>
+        <v>803500</v>
       </c>
       <c r="H24" s="3">
-        <v>666300</v>
+        <v>468900</v>
       </c>
       <c r="I24" s="3">
-        <v>73200</v>
+        <v>680500</v>
       </c>
       <c r="J24" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K24" s="3">
         <v>657600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>395900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>683100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>682900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>618400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>394100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>537000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>260900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>386100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>250200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>363400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2986600</v>
+        <v>1722300</v>
       </c>
       <c r="E26" s="3">
-        <v>1551000</v>
+        <v>3050400</v>
       </c>
       <c r="F26" s="3">
-        <v>2590800</v>
+        <v>1584100</v>
       </c>
       <c r="G26" s="3">
-        <v>1412000</v>
+        <v>2646100</v>
       </c>
       <c r="H26" s="3">
-        <v>2061000</v>
+        <v>1442200</v>
       </c>
       <c r="I26" s="3">
-        <v>-595600</v>
+        <v>2105000</v>
       </c>
       <c r="J26" s="3">
+        <v>-608300</v>
+      </c>
+      <c r="K26" s="3">
         <v>2399700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1487600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2521500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1361700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2500500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1583000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2017400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1140000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1940800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1452400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1796100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2847600</v>
+        <v>1823600</v>
       </c>
       <c r="E27" s="3">
-        <v>1593200</v>
+        <v>2908500</v>
       </c>
       <c r="F27" s="3">
-        <v>2438200</v>
+        <v>1627200</v>
       </c>
       <c r="G27" s="3">
-        <v>1340100</v>
+        <v>2490200</v>
       </c>
       <c r="H27" s="3">
-        <v>1960500</v>
+        <v>1368700</v>
       </c>
       <c r="I27" s="3">
-        <v>-565800</v>
+        <v>2002300</v>
       </c>
       <c r="J27" s="3">
+        <v>-577900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2314100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1386800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2410500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1291200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2402900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1528400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1932400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1093000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1833900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1409000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1847,38 +1908,41 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>509400</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-67700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-316400</v>
+        <v>-351000</v>
       </c>
       <c r="E32" s="3">
-        <v>-328800</v>
+        <v>-323200</v>
       </c>
       <c r="F32" s="3">
-        <v>-296600</v>
+        <v>-335800</v>
       </c>
       <c r="G32" s="3">
-        <v>-281700</v>
+        <v>-302900</v>
       </c>
       <c r="H32" s="3">
-        <v>-246900</v>
+        <v>-287700</v>
       </c>
       <c r="I32" s="3">
-        <v>-199800</v>
+        <v>-252200</v>
       </c>
       <c r="J32" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-363600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-305700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-335500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-295500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-314200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-274300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-277100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-206100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-254300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-181700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-201500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2847600</v>
+        <v>1823600</v>
       </c>
       <c r="E33" s="3">
-        <v>1593200</v>
+        <v>2908500</v>
       </c>
       <c r="F33" s="3">
-        <v>2438200</v>
+        <v>1627200</v>
       </c>
       <c r="G33" s="3">
-        <v>1340100</v>
+        <v>2490200</v>
       </c>
       <c r="H33" s="3">
-        <v>1960500</v>
+        <v>1368700</v>
       </c>
       <c r="I33" s="3">
-        <v>-565800</v>
+        <v>2002300</v>
       </c>
       <c r="J33" s="3">
+        <v>-577900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2314100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1386800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2410500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1283200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2912300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1528400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1864600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1093000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1833900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1409000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2847600</v>
+        <v>1823600</v>
       </c>
       <c r="E35" s="3">
-        <v>1593200</v>
+        <v>2908500</v>
       </c>
       <c r="F35" s="3">
-        <v>2438200</v>
+        <v>1627200</v>
       </c>
       <c r="G35" s="3">
-        <v>1340100</v>
+        <v>2490200</v>
       </c>
       <c r="H35" s="3">
-        <v>1960500</v>
+        <v>1368700</v>
       </c>
       <c r="I35" s="3">
-        <v>-565800</v>
+        <v>2002300</v>
       </c>
       <c r="J35" s="3">
+        <v>-577900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2314100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1386800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2410500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1283200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2912300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1528400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1864600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1093000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1833900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1409000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,512 +2404,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3432100</v>
+        <v>1823600</v>
       </c>
       <c r="E41" s="3">
-        <v>2835200</v>
+        <v>3505400</v>
       </c>
       <c r="F41" s="3">
-        <v>2208600</v>
+        <v>2895800</v>
       </c>
       <c r="G41" s="3">
-        <v>3411000</v>
+        <v>2255800</v>
       </c>
       <c r="H41" s="3">
-        <v>3428300</v>
+        <v>3483800</v>
       </c>
       <c r="I41" s="3">
-        <v>4123200</v>
+        <v>3501500</v>
       </c>
       <c r="J41" s="3">
+        <v>4211200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1178800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1091700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1940900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1163400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1301900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1585700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1544400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1420400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>705600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>621500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1056100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>493800</v>
+        <v>439800</v>
       </c>
       <c r="E42" s="3">
-        <v>311400</v>
+        <v>504400</v>
       </c>
       <c r="F42" s="3">
-        <v>81900</v>
+        <v>318100</v>
       </c>
       <c r="G42" s="3">
+        <v>83600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>153300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>106500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>52100</v>
+      </c>
+      <c r="L42" s="3">
+        <v>148800</v>
+      </c>
+      <c r="M42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="N42" s="3">
+        <v>46600</v>
+      </c>
+      <c r="O42" s="3">
+        <v>174100</v>
+      </c>
+      <c r="P42" s="3">
+        <v>107800</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>155200</v>
+      </c>
+      <c r="R42" s="3">
+        <v>645600</v>
+      </c>
+      <c r="S42" s="3">
+        <v>288300</v>
+      </c>
+      <c r="T42" s="3">
+        <v>60600</v>
+      </c>
+      <c r="U42" s="3">
         <v>150100</v>
       </c>
-      <c r="H42" s="3">
-        <v>104200</v>
-      </c>
-      <c r="I42" s="3">
-        <v>93100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>52100</v>
-      </c>
-      <c r="K42" s="3">
-        <v>148800</v>
-      </c>
-      <c r="L42" s="3">
-        <v>14600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>46600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>174100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>107800</v>
-      </c>
-      <c r="P42" s="3">
-        <v>155200</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>645600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>288300</v>
-      </c>
-      <c r="S42" s="3">
-        <v>60600</v>
-      </c>
-      <c r="T42" s="3">
-        <v>150100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5012800</v>
+        <v>3741100</v>
       </c>
       <c r="E43" s="3">
-        <v>3824100</v>
+        <v>5119900</v>
       </c>
       <c r="F43" s="3">
-        <v>4316700</v>
+        <v>3905800</v>
       </c>
       <c r="G43" s="3">
-        <v>3139200</v>
+        <v>4408900</v>
       </c>
       <c r="H43" s="3">
-        <v>4030100</v>
+        <v>3206300</v>
       </c>
       <c r="I43" s="3">
-        <v>2855100</v>
+        <v>4116200</v>
       </c>
       <c r="J43" s="3">
+        <v>2916100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4535100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3252700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4334300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3651200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5006700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3451000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4437500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3503400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4013400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3206400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4558700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9370500</v>
+        <v>9708800</v>
       </c>
       <c r="E44" s="3">
-        <v>8802200</v>
+        <v>9570600</v>
       </c>
       <c r="F44" s="3">
-        <v>7736400</v>
+        <v>8990200</v>
       </c>
       <c r="G44" s="3">
-        <v>7500600</v>
+        <v>7901600</v>
       </c>
       <c r="H44" s="3">
-        <v>7134600</v>
+        <v>7660800</v>
       </c>
       <c r="I44" s="3">
-        <v>7161900</v>
+        <v>7287000</v>
       </c>
       <c r="J44" s="3">
+        <v>7314900</v>
+      </c>
+      <c r="K44" s="3">
         <v>6773500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6409400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6436200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6675500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6960900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6374700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5839000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5972400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5722000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6023000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6053300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>225800</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>275500</v>
+        <v>230600</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
-      </c>
-      <c r="G45" s="3" t="s">
+        <v>281300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>63300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>101300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31900</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>3700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>734300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>188300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>428000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18535100</v>
+        <v>15713300</v>
       </c>
       <c r="E46" s="3">
-        <v>16048500</v>
+        <v>18930900</v>
       </c>
       <c r="F46" s="3">
-        <v>14363500</v>
+        <v>16391300</v>
       </c>
       <c r="G46" s="3">
-        <v>14201000</v>
+        <v>14670300</v>
       </c>
       <c r="H46" s="3">
-        <v>14697300</v>
+        <v>14504200</v>
       </c>
       <c r="I46" s="3">
-        <v>14233200</v>
+        <v>15011200</v>
       </c>
       <c r="J46" s="3">
+        <v>14537200</v>
+      </c>
+      <c r="K46" s="3">
         <v>12602800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10978600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12827200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11568600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13443500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11519300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11979800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11545800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11463600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10099800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12246100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5452100</v>
+        <v>5463300</v>
       </c>
       <c r="E47" s="3">
-        <v>5051300</v>
+        <v>5568500</v>
       </c>
       <c r="F47" s="3">
-        <v>4801900</v>
+        <v>5159200</v>
       </c>
       <c r="G47" s="3">
-        <v>4604600</v>
+        <v>4904500</v>
       </c>
       <c r="H47" s="3">
-        <v>5043900</v>
+        <v>4703000</v>
       </c>
       <c r="I47" s="3">
-        <v>5372700</v>
+        <v>5151600</v>
       </c>
       <c r="J47" s="3">
+        <v>5487400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4515300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4309200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4413600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4370000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4729300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4233900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3953400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3945500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3457700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3322300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3928000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7557700</v>
+        <v>7981500</v>
       </c>
       <c r="E48" s="3">
-        <v>7372800</v>
+        <v>7719100</v>
       </c>
       <c r="F48" s="3">
-        <v>6410000</v>
+        <v>7530300</v>
       </c>
       <c r="G48" s="3">
-        <v>6098500</v>
+        <v>6546900</v>
       </c>
       <c r="H48" s="3">
-        <v>5980700</v>
+        <v>6228800</v>
       </c>
       <c r="I48" s="3">
-        <v>6175500</v>
+        <v>6108400</v>
       </c>
       <c r="J48" s="3">
+        <v>6307400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6050100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5258000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5201700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5473500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5623600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5372200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4928900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5075100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4738600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4944500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5030100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15050900</v>
+        <v>14589200</v>
       </c>
       <c r="E49" s="3">
-        <v>14768000</v>
+        <v>15372300</v>
       </c>
       <c r="F49" s="3">
-        <v>13550800</v>
+        <v>15083400</v>
       </c>
       <c r="G49" s="3">
-        <v>13356000</v>
+        <v>13840200</v>
       </c>
       <c r="H49" s="3">
-        <v>13496200</v>
+        <v>13641200</v>
       </c>
       <c r="I49" s="3">
-        <v>14021000</v>
+        <v>13784400</v>
       </c>
       <c r="J49" s="3">
+        <v>14320500</v>
+      </c>
+      <c r="K49" s="3">
         <v>14933000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14708000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15315800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16734600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18123300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16730400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15901200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16134300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14781700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14788900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14983800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1446800</v>
+        <v>1395300</v>
       </c>
       <c r="E52" s="3">
-        <v>2068400</v>
+        <v>1477700</v>
       </c>
       <c r="F52" s="3">
-        <v>2018800</v>
+        <v>2112600</v>
       </c>
       <c r="G52" s="3">
-        <v>1387200</v>
+        <v>2061900</v>
       </c>
       <c r="H52" s="3">
-        <v>1485200</v>
+        <v>1416800</v>
       </c>
       <c r="I52" s="3">
-        <v>1526200</v>
+        <v>1517000</v>
       </c>
       <c r="J52" s="3">
+        <v>1558800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1273100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1403200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1393100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1407000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>677800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>552500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>468000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>460400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>510000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>823000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48042500</v>
+        <v>45142500</v>
       </c>
       <c r="E54" s="3">
-        <v>45309100</v>
+        <v>49068600</v>
       </c>
       <c r="F54" s="3">
-        <v>41144900</v>
+        <v>46276700</v>
       </c>
       <c r="G54" s="3">
-        <v>39647300</v>
+        <v>42023700</v>
       </c>
       <c r="H54" s="3">
-        <v>40703200</v>
+        <v>40494000</v>
       </c>
       <c r="I54" s="3">
-        <v>41328600</v>
+        <v>41572500</v>
       </c>
       <c r="J54" s="3">
+        <v>42211200</v>
+      </c>
+      <c r="K54" s="3">
         <v>39374300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36657000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39151500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39553600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42597600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38408200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37231300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37161100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34951600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33978400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36751600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7581300</v>
+        <v>6716700</v>
       </c>
       <c r="E57" s="3">
-        <v>7304600</v>
+        <v>7743200</v>
       </c>
       <c r="F57" s="3">
-        <v>6609700</v>
+        <v>7460600</v>
       </c>
       <c r="G57" s="3">
-        <v>5767200</v>
+        <v>6750900</v>
       </c>
       <c r="H57" s="3">
-        <v>5737500</v>
+        <v>5890400</v>
       </c>
       <c r="I57" s="3">
-        <v>4569900</v>
+        <v>5860000</v>
       </c>
       <c r="J57" s="3">
+        <v>4667500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5551300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4921800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5385900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5257800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5861400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4743800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4851300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4398100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4166000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3875300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4341500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2860000</v>
+        <v>2155700</v>
       </c>
       <c r="E58" s="3">
-        <v>1888500</v>
+        <v>2921100</v>
       </c>
       <c r="F58" s="3">
-        <v>1469100</v>
+        <v>1928800</v>
       </c>
       <c r="G58" s="3">
-        <v>2310400</v>
+        <v>1500500</v>
       </c>
       <c r="H58" s="3">
-        <v>1506300</v>
+        <v>2359700</v>
       </c>
       <c r="I58" s="3">
-        <v>2475400</v>
+        <v>1538500</v>
       </c>
       <c r="J58" s="3">
+        <v>2528300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4195100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2294600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2125100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2433300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3365100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3273900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3378300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2684300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2523800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2529600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3746300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1372300</v>
+        <v>776900</v>
       </c>
       <c r="E59" s="3">
-        <v>1281700</v>
+        <v>1401600</v>
       </c>
       <c r="F59" s="3">
-        <v>1356200</v>
+        <v>1309100</v>
       </c>
       <c r="G59" s="3">
-        <v>784200</v>
+        <v>1385200</v>
       </c>
       <c r="H59" s="3">
-        <v>1082000</v>
+        <v>800900</v>
       </c>
       <c r="I59" s="3">
-        <v>1015000</v>
+        <v>1105100</v>
       </c>
       <c r="J59" s="3">
+        <v>1036700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1238300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>986200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1184500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>774700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1037300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>849400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1087500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>987400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>875200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>561000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>886200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11813700</v>
+        <v>9649200</v>
       </c>
       <c r="E60" s="3">
-        <v>10474800</v>
+        <v>12066000</v>
       </c>
       <c r="F60" s="3">
-        <v>9435000</v>
+        <v>10698500</v>
       </c>
       <c r="G60" s="3">
-        <v>8861800</v>
+        <v>9636500</v>
       </c>
       <c r="H60" s="3">
-        <v>8325800</v>
+        <v>9051100</v>
       </c>
       <c r="I60" s="3">
-        <v>8060200</v>
+        <v>8503600</v>
       </c>
       <c r="J60" s="3">
+        <v>8232400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10984800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8202600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8695400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8465800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10263800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8867100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9317100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8069800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7565000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6965800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8973900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18989200</v>
+        <v>18757300</v>
       </c>
       <c r="E61" s="3">
-        <v>17989100</v>
+        <v>19394800</v>
       </c>
       <c r="F61" s="3">
-        <v>15749500</v>
+        <v>18373300</v>
       </c>
       <c r="G61" s="3">
-        <v>15962900</v>
+        <v>16085800</v>
       </c>
       <c r="H61" s="3">
-        <v>17449400</v>
+        <v>16303800</v>
       </c>
       <c r="I61" s="3">
-        <v>18351400</v>
+        <v>17822000</v>
       </c>
       <c r="J61" s="3">
+        <v>18743400</v>
+      </c>
+      <c r="K61" s="3">
         <v>12520900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12411100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12530800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10747300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10821300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8764600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9239500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10527100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10343200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11008400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11216400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4997900</v>
+        <v>4960200</v>
       </c>
       <c r="E62" s="3">
-        <v>5040100</v>
+        <v>5104700</v>
       </c>
       <c r="F62" s="3">
-        <v>4382500</v>
+        <v>5147800</v>
       </c>
       <c r="G62" s="3">
-        <v>4361400</v>
+        <v>4476100</v>
       </c>
       <c r="H62" s="3">
-        <v>4532600</v>
+        <v>4454600</v>
       </c>
       <c r="I62" s="3">
-        <v>4444500</v>
+        <v>4629400</v>
       </c>
       <c r="J62" s="3">
+        <v>4539500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4416000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4147600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4344100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4749400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4969900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4762400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4815600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5286400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4421600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3816100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5110500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37943700</v>
+        <v>35229700</v>
       </c>
       <c r="E66" s="3">
-        <v>35633300</v>
+        <v>38754000</v>
       </c>
       <c r="F66" s="3">
-        <v>31642900</v>
+        <v>36394300</v>
       </c>
       <c r="G66" s="3">
-        <v>31089500</v>
+        <v>32318700</v>
       </c>
       <c r="H66" s="3">
-        <v>32243400</v>
+        <v>31753500</v>
       </c>
       <c r="I66" s="3">
-        <v>32925900</v>
+        <v>32932100</v>
       </c>
       <c r="J66" s="3">
+        <v>33629100</v>
+      </c>
+      <c r="K66" s="3">
         <v>30039800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26863800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27725900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26311900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28556900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24677500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25563100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26035300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24335800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23745700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>27233900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11069200</v>
+        <v>11333500</v>
       </c>
       <c r="E72" s="3">
-        <v>10680800</v>
+        <v>11305600</v>
       </c>
       <c r="F72" s="3">
-        <v>11256500</v>
+        <v>10908900</v>
       </c>
       <c r="G72" s="3">
-        <v>10252700</v>
+        <v>11496900</v>
       </c>
       <c r="H72" s="3">
-        <v>9909000</v>
+        <v>10471700</v>
       </c>
       <c r="I72" s="3">
-        <v>9360600</v>
+        <v>10120700</v>
       </c>
       <c r="J72" s="3">
+        <v>9560500</v>
+      </c>
+      <c r="K72" s="3">
         <v>10734200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10661200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12388100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14632800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15237900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14375100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12210100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11864000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12143100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11861600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9648100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10098900</v>
+        <v>9912800</v>
       </c>
       <c r="E76" s="3">
-        <v>9675800</v>
+        <v>10314600</v>
       </c>
       <c r="F76" s="3">
-        <v>9502000</v>
+        <v>9882400</v>
       </c>
       <c r="G76" s="3">
-        <v>8557800</v>
+        <v>9705000</v>
       </c>
       <c r="H76" s="3">
-        <v>8459800</v>
+        <v>8740600</v>
       </c>
       <c r="I76" s="3">
-        <v>8402700</v>
+        <v>8640500</v>
       </c>
       <c r="J76" s="3">
+        <v>8582200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9334500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9793200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11425600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13241800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14040700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13730700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11668200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11125800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10615800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10232800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9517800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2847600</v>
+        <v>1823600</v>
       </c>
       <c r="E81" s="3">
-        <v>1593200</v>
+        <v>2908500</v>
       </c>
       <c r="F81" s="3">
-        <v>2438200</v>
+        <v>1627200</v>
       </c>
       <c r="G81" s="3">
-        <v>1340100</v>
+        <v>2490200</v>
       </c>
       <c r="H81" s="3">
-        <v>1960500</v>
+        <v>1368700</v>
       </c>
       <c r="I81" s="3">
-        <v>-565800</v>
+        <v>2002300</v>
       </c>
       <c r="J81" s="3">
+        <v>-577900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2314100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1386800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2410500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1283200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2912300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1528400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1864600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1093000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1833900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1409000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1726300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>348700</v>
+        <v>994800</v>
       </c>
       <c r="E83" s="3">
-        <v>749400</v>
+        <v>356100</v>
       </c>
       <c r="F83" s="3">
-        <v>277900</v>
+        <v>765400</v>
       </c>
       <c r="G83" s="3">
-        <v>282900</v>
+        <v>283900</v>
       </c>
       <c r="H83" s="3">
-        <v>271700</v>
+        <v>288900</v>
       </c>
       <c r="I83" s="3">
-        <v>1927000</v>
+        <v>277500</v>
       </c>
       <c r="J83" s="3">
+        <v>1968100</v>
+      </c>
+      <c r="K83" s="3">
         <v>354900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>221400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>225700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>407300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>264600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>243600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>219200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>250400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>366500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>329200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>250200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1490200</v>
+        <v>2310300</v>
       </c>
       <c r="E89" s="3">
-        <v>2466700</v>
+        <v>1522000</v>
       </c>
       <c r="F89" s="3">
-        <v>2415800</v>
+        <v>2519400</v>
       </c>
       <c r="G89" s="3">
-        <v>2054800</v>
+        <v>2467400</v>
       </c>
       <c r="H89" s="3">
-        <v>2479100</v>
+        <v>2098600</v>
       </c>
       <c r="I89" s="3">
-        <v>1280500</v>
+        <v>2532100</v>
       </c>
       <c r="J89" s="3">
+        <v>1307900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1598200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1925600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1956700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2443900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1766100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2483100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1560400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1970800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1352600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2099000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1260200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-745000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-435000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-715000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-382000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-376000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-250000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-370000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-330000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-468500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-330600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-497800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-297200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-427400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-242600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-393900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-266100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-484600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-355500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-590600</v>
+        <v>-913700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1038500</v>
+        <v>-603200</v>
       </c>
       <c r="F94" s="3">
-        <v>-625400</v>
+        <v>-1060700</v>
       </c>
       <c r="G94" s="3">
-        <v>-604300</v>
+        <v>-638700</v>
       </c>
       <c r="H94" s="3">
-        <v>-749400</v>
+        <v>-617200</v>
       </c>
       <c r="I94" s="3">
-        <v>-467800</v>
+        <v>-765400</v>
       </c>
       <c r="J94" s="3">
+        <v>-477800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-531100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-467300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>157400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-496500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1101000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-450000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-263600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>197000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>580400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>36900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1214100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1321500</v>
+        <v>-882000</v>
       </c>
       <c r="E96" s="3">
-        <v>-841300</v>
+        <v>-1349700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1290400</v>
+        <v>-859200</v>
       </c>
       <c r="G96" s="3">
-        <v>-811500</v>
+        <v>-1318000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1230900</v>
+        <v>-828800</v>
       </c>
       <c r="I96" s="3">
-        <v>-794100</v>
+        <v>-1257200</v>
       </c>
       <c r="J96" s="3">
+        <v>-811100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1248200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-737900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1211400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-816000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1369800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-792200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1133100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-739500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1142600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-711100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1054700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-227100</v>
+        <v>-2819700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1151500</v>
+        <v>-231900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2892300</v>
+        <v>-1176100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1443100</v>
+        <v>-2954100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2023700</v>
+        <v>-1473900</v>
       </c>
       <c r="I100" s="3">
-        <v>2192500</v>
+        <v>-2067000</v>
       </c>
       <c r="J100" s="3">
+        <v>2239300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-905800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2205600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1269900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1923400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-952400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2042400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1138000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1869100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1784300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2418900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>135600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78200</v>
+        <v>-207800</v>
       </c>
       <c r="E101" s="3">
-        <v>279200</v>
+        <v>-79800</v>
       </c>
       <c r="F101" s="3">
-        <v>17400</v>
+        <v>285100</v>
       </c>
       <c r="G101" s="3">
-        <v>-60800</v>
+        <v>17700</v>
       </c>
       <c r="H101" s="3">
-        <v>-292800</v>
+        <v>-62100</v>
       </c>
       <c r="I101" s="3">
-        <v>-109200</v>
+        <v>-299100</v>
       </c>
       <c r="J101" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-39700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-46900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-39600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-62600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>40600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>147400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-37800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-115900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>594300</v>
+        <v>-1631000</v>
       </c>
       <c r="E102" s="3">
-        <v>555900</v>
+        <v>607000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1084500</v>
+        <v>567800</v>
       </c>
       <c r="G102" s="3">
-        <v>-53400</v>
+        <v>-1107600</v>
       </c>
       <c r="H102" s="3">
-        <v>-586900</v>
+        <v>-54500</v>
       </c>
       <c r="I102" s="3">
-        <v>2896000</v>
+        <v>-599400</v>
       </c>
       <c r="J102" s="3">
+        <v>2957900</v>
+      </c>
+      <c r="K102" s="3">
         <v>121600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-794100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>861200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-326900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-71900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>199500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>446100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>110900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-399000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>201500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DEO_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9749300</v>
+        <v>9543900</v>
       </c>
       <c r="E8" s="3">
-        <v>11938000</v>
+        <v>11686500</v>
       </c>
       <c r="F8" s="3">
-        <v>9498400</v>
+        <v>9298300</v>
       </c>
       <c r="G8" s="3">
-        <v>10083900</v>
+        <v>9871500</v>
       </c>
       <c r="H8" s="3">
-        <v>7425100</v>
+        <v>7268700</v>
       </c>
       <c r="I8" s="3">
-        <v>8711400</v>
+        <v>8527900</v>
       </c>
       <c r="J8" s="3">
-        <v>5768700</v>
+        <v>5647200</v>
       </c>
       <c r="K8" s="3">
         <v>8933800</v>
@@ -819,25 +819,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4150400</v>
+        <v>4063000</v>
       </c>
       <c r="E9" s="3">
-        <v>4592700</v>
+        <v>4495900</v>
       </c>
       <c r="F9" s="3">
-        <v>3824700</v>
+        <v>3744100</v>
       </c>
       <c r="G9" s="3">
-        <v>3744900</v>
+        <v>3666000</v>
       </c>
       <c r="H9" s="3">
-        <v>3012400</v>
+        <v>2948900</v>
       </c>
       <c r="I9" s="3">
-        <v>3372300</v>
+        <v>3301200</v>
       </c>
       <c r="J9" s="3">
-        <v>2473800</v>
+        <v>2421700</v>
       </c>
       <c r="K9" s="3">
         <v>3352600</v>
@@ -878,25 +878,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5598900</v>
+        <v>5481000</v>
       </c>
       <c r="E10" s="3">
-        <v>7345300</v>
+        <v>7190500</v>
       </c>
       <c r="F10" s="3">
-        <v>5673700</v>
+        <v>5554200</v>
       </c>
       <c r="G10" s="3">
-        <v>6339000</v>
+        <v>6205500</v>
       </c>
       <c r="H10" s="3">
-        <v>4412700</v>
+        <v>4319800</v>
       </c>
       <c r="I10" s="3">
-        <v>5339100</v>
+        <v>5226600</v>
       </c>
       <c r="J10" s="3">
-        <v>3295000</v>
+        <v>3225600</v>
       </c>
       <c r="K10" s="3">
         <v>5581100</v>
@@ -1078,25 +1078,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>351000</v>
+        <v>343600</v>
       </c>
       <c r="E14" s="3">
-        <v>21500</v>
+        <v>21100</v>
       </c>
       <c r="F14" s="3">
-        <v>517100</v>
+        <v>506200</v>
       </c>
       <c r="G14" s="3">
-        <v>39300</v>
+        <v>38500</v>
       </c>
       <c r="H14" s="3">
-        <v>-13900</v>
+        <v>-13600</v>
       </c>
       <c r="I14" s="3">
-        <v>15200</v>
+        <v>14900</v>
       </c>
       <c r="J14" s="3">
-        <v>1658900</v>
+        <v>1623900</v>
       </c>
       <c r="K14" s="3">
         <v>73200</v>
@@ -1216,25 +1216,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7489700</v>
+        <v>7331900</v>
       </c>
       <c r="E17" s="3">
-        <v>7911800</v>
+        <v>7745100</v>
       </c>
       <c r="F17" s="3">
-        <v>7412400</v>
+        <v>7256300</v>
       </c>
       <c r="G17" s="3">
-        <v>6647000</v>
+        <v>6506900</v>
       </c>
       <c r="H17" s="3">
-        <v>5522900</v>
+        <v>5406500</v>
       </c>
       <c r="I17" s="3">
-        <v>5867600</v>
+        <v>5744000</v>
       </c>
       <c r="J17" s="3">
-        <v>6184400</v>
+        <v>6054100</v>
       </c>
       <c r="K17" s="3">
         <v>5903700</v>
@@ -1275,25 +1275,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2259600</v>
+        <v>2212000</v>
       </c>
       <c r="E18" s="3">
-        <v>4026200</v>
+        <v>3941400</v>
       </c>
       <c r="F18" s="3">
-        <v>2086000</v>
+        <v>2042000</v>
       </c>
       <c r="G18" s="3">
-        <v>3436900</v>
+        <v>3364500</v>
       </c>
       <c r="H18" s="3">
-        <v>1902200</v>
+        <v>1862100</v>
       </c>
       <c r="I18" s="3">
-        <v>2843800</v>
+        <v>2783900</v>
       </c>
       <c r="J18" s="3">
-        <v>-415700</v>
+        <v>-406900</v>
       </c>
       <c r="K18" s="3">
         <v>3030000</v>
@@ -1357,25 +1357,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>351000</v>
+        <v>343600</v>
       </c>
       <c r="E20" s="3">
-        <v>323200</v>
+        <v>316400</v>
       </c>
       <c r="F20" s="3">
-        <v>335800</v>
+        <v>328800</v>
       </c>
       <c r="G20" s="3">
-        <v>302900</v>
+        <v>296500</v>
       </c>
       <c r="H20" s="3">
-        <v>287700</v>
+        <v>281600</v>
       </c>
       <c r="I20" s="3">
-        <v>252200</v>
+        <v>246900</v>
       </c>
       <c r="J20" s="3">
-        <v>204000</v>
+        <v>199700</v>
       </c>
       <c r="K20" s="3">
         <v>363600</v>
@@ -1416,25 +1416,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3605500</v>
+        <v>3529500</v>
       </c>
       <c r="E21" s="3">
-        <v>4705500</v>
+        <v>4606300</v>
       </c>
       <c r="F21" s="3">
-        <v>3187300</v>
+        <v>3120100</v>
       </c>
       <c r="G21" s="3">
-        <v>4023700</v>
+        <v>3938900</v>
       </c>
       <c r="H21" s="3">
-        <v>2478800</v>
+        <v>2426600</v>
       </c>
       <c r="I21" s="3">
-        <v>3373600</v>
+        <v>3302500</v>
       </c>
       <c r="J21" s="3">
-        <v>1756500</v>
+        <v>1719500</v>
       </c>
       <c r="K21" s="3">
         <v>3748500</v>
@@ -1475,25 +1475,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>482800</v>
+        <v>472700</v>
       </c>
       <c r="E22" s="3">
-        <v>475200</v>
+        <v>465200</v>
       </c>
       <c r="F22" s="3">
-        <v>311800</v>
+        <v>305200</v>
       </c>
       <c r="G22" s="3">
-        <v>290200</v>
+        <v>284100</v>
       </c>
       <c r="H22" s="3">
-        <v>278800</v>
+        <v>272900</v>
       </c>
       <c r="I22" s="3">
-        <v>310500</v>
+        <v>303900</v>
       </c>
       <c r="J22" s="3">
-        <v>321900</v>
+        <v>315100</v>
       </c>
       <c r="K22" s="3">
         <v>336300</v>
@@ -1534,25 +1534,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2127800</v>
+        <v>2083000</v>
       </c>
       <c r="E23" s="3">
-        <v>3874100</v>
+        <v>3792500</v>
       </c>
       <c r="F23" s="3">
-        <v>2110100</v>
+        <v>2065600</v>
       </c>
       <c r="G23" s="3">
-        <v>3449600</v>
+        <v>3376900</v>
       </c>
       <c r="H23" s="3">
-        <v>1911100</v>
+        <v>1870800</v>
       </c>
       <c r="I23" s="3">
-        <v>2785500</v>
+        <v>2726800</v>
       </c>
       <c r="J23" s="3">
-        <v>-533500</v>
+        <v>-522300</v>
       </c>
       <c r="K23" s="3">
         <v>3057300</v>
@@ -1593,25 +1593,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>405500</v>
+        <v>397000</v>
       </c>
       <c r="E24" s="3">
-        <v>823700</v>
+        <v>806400</v>
       </c>
       <c r="F24" s="3">
-        <v>525900</v>
+        <v>514800</v>
       </c>
       <c r="G24" s="3">
-        <v>803500</v>
+        <v>786500</v>
       </c>
       <c r="H24" s="3">
-        <v>468900</v>
+        <v>459000</v>
       </c>
       <c r="I24" s="3">
-        <v>680500</v>
+        <v>666200</v>
       </c>
       <c r="J24" s="3">
-        <v>74800</v>
+        <v>73200</v>
       </c>
       <c r="K24" s="3">
         <v>657600</v>
@@ -1711,25 +1711,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1722300</v>
+        <v>1686000</v>
       </c>
       <c r="E26" s="3">
-        <v>3050400</v>
+        <v>2986100</v>
       </c>
       <c r="F26" s="3">
-        <v>1584100</v>
+        <v>1550800</v>
       </c>
       <c r="G26" s="3">
-        <v>2646100</v>
+        <v>2590400</v>
       </c>
       <c r="H26" s="3">
-        <v>1442200</v>
+        <v>1411800</v>
       </c>
       <c r="I26" s="3">
-        <v>2105000</v>
+        <v>2060600</v>
       </c>
       <c r="J26" s="3">
-        <v>-608300</v>
+        <v>-595500</v>
       </c>
       <c r="K26" s="3">
         <v>2399700</v>
@@ -1770,25 +1770,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1823600</v>
+        <v>1785200</v>
       </c>
       <c r="E27" s="3">
-        <v>2908500</v>
+        <v>2847200</v>
       </c>
       <c r="F27" s="3">
-        <v>1627200</v>
+        <v>1592900</v>
       </c>
       <c r="G27" s="3">
-        <v>2490200</v>
+        <v>2437800</v>
       </c>
       <c r="H27" s="3">
-        <v>1368700</v>
+        <v>1339800</v>
       </c>
       <c r="I27" s="3">
-        <v>2002300</v>
+        <v>1960100</v>
       </c>
       <c r="J27" s="3">
-        <v>-577900</v>
+        <v>-565700</v>
       </c>
       <c r="K27" s="3">
         <v>2314100</v>
@@ -2065,25 +2065,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-351000</v>
+        <v>-343600</v>
       </c>
       <c r="E32" s="3">
-        <v>-323200</v>
+        <v>-316400</v>
       </c>
       <c r="F32" s="3">
-        <v>-335800</v>
+        <v>-328800</v>
       </c>
       <c r="G32" s="3">
-        <v>-302900</v>
+        <v>-296500</v>
       </c>
       <c r="H32" s="3">
-        <v>-287700</v>
+        <v>-281600</v>
       </c>
       <c r="I32" s="3">
-        <v>-252200</v>
+        <v>-246900</v>
       </c>
       <c r="J32" s="3">
-        <v>-204000</v>
+        <v>-199700</v>
       </c>
       <c r="K32" s="3">
         <v>-363600</v>
@@ -2124,25 +2124,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1823600</v>
+        <v>1785200</v>
       </c>
       <c r="E33" s="3">
-        <v>2908500</v>
+        <v>2847200</v>
       </c>
       <c r="F33" s="3">
-        <v>1627200</v>
+        <v>1592900</v>
       </c>
       <c r="G33" s="3">
-        <v>2490200</v>
+        <v>2437800</v>
       </c>
       <c r="H33" s="3">
-        <v>1368700</v>
+        <v>1339800</v>
       </c>
       <c r="I33" s="3">
-        <v>2002300</v>
+        <v>1960100</v>
       </c>
       <c r="J33" s="3">
-        <v>-577900</v>
+        <v>-565700</v>
       </c>
       <c r="K33" s="3">
         <v>2314100</v>
@@ -2242,25 +2242,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1823600</v>
+        <v>1785200</v>
       </c>
       <c r="E35" s="3">
-        <v>2908500</v>
+        <v>2847200</v>
       </c>
       <c r="F35" s="3">
-        <v>1627200</v>
+        <v>1592900</v>
       </c>
       <c r="G35" s="3">
-        <v>2490200</v>
+        <v>2437800</v>
       </c>
       <c r="H35" s="3">
-        <v>1368700</v>
+        <v>1339800</v>
       </c>
       <c r="I35" s="3">
-        <v>2002300</v>
+        <v>1960100</v>
       </c>
       <c r="J35" s="3">
-        <v>-577900</v>
+        <v>-565700</v>
       </c>
       <c r="K35" s="3">
         <v>2314100</v>
@@ -2411,25 +2411,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1823600</v>
+        <v>1785200</v>
       </c>
       <c r="E41" s="3">
-        <v>3505400</v>
+        <v>3431500</v>
       </c>
       <c r="F41" s="3">
-        <v>2895800</v>
+        <v>2834800</v>
       </c>
       <c r="G41" s="3">
-        <v>2255800</v>
+        <v>2208300</v>
       </c>
       <c r="H41" s="3">
-        <v>3483800</v>
+        <v>3410400</v>
       </c>
       <c r="I41" s="3">
-        <v>3501500</v>
+        <v>3427800</v>
       </c>
       <c r="J41" s="3">
-        <v>4211200</v>
+        <v>4122500</v>
       </c>
       <c r="K41" s="3">
         <v>1178800</v>
@@ -2470,25 +2470,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>439800</v>
+        <v>430500</v>
       </c>
       <c r="E42" s="3">
-        <v>504400</v>
+        <v>493800</v>
       </c>
       <c r="F42" s="3">
-        <v>318100</v>
+        <v>311400</v>
       </c>
       <c r="G42" s="3">
-        <v>83600</v>
+        <v>81900</v>
       </c>
       <c r="H42" s="3">
-        <v>153300</v>
+        <v>150100</v>
       </c>
       <c r="I42" s="3">
-        <v>106500</v>
+        <v>104200</v>
       </c>
       <c r="J42" s="3">
-        <v>95000</v>
+        <v>93000</v>
       </c>
       <c r="K42" s="3">
         <v>52100</v>
@@ -2529,25 +2529,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3741100</v>
+        <v>3662300</v>
       </c>
       <c r="E43" s="3">
-        <v>5119900</v>
+        <v>5012000</v>
       </c>
       <c r="F43" s="3">
-        <v>3905800</v>
+        <v>3823500</v>
       </c>
       <c r="G43" s="3">
-        <v>4408900</v>
+        <v>4316000</v>
       </c>
       <c r="H43" s="3">
-        <v>3206300</v>
+        <v>3138700</v>
       </c>
       <c r="I43" s="3">
-        <v>4116200</v>
+        <v>4029500</v>
       </c>
       <c r="J43" s="3">
-        <v>2916100</v>
+        <v>2854600</v>
       </c>
       <c r="K43" s="3">
         <v>4535100</v>
@@ -2588,25 +2588,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9708800</v>
+        <v>9504200</v>
       </c>
       <c r="E44" s="3">
-        <v>9570600</v>
+        <v>9369000</v>
       </c>
       <c r="F44" s="3">
-        <v>8990200</v>
+        <v>8800800</v>
       </c>
       <c r="G44" s="3">
-        <v>7901600</v>
+        <v>7735100</v>
       </c>
       <c r="H44" s="3">
-        <v>7660800</v>
+        <v>7499400</v>
       </c>
       <c r="I44" s="3">
-        <v>7287000</v>
+        <v>7133500</v>
       </c>
       <c r="J44" s="3">
-        <v>7314900</v>
+        <v>7160700</v>
       </c>
       <c r="K44" s="3">
         <v>6773500</v>
@@ -2650,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>230600</v>
+        <v>225800</v>
       </c>
       <c r="F45" s="3">
-        <v>281300</v>
+        <v>275400</v>
       </c>
       <c r="G45" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -2706,25 +2706,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15713300</v>
+        <v>15382200</v>
       </c>
       <c r="E46" s="3">
-        <v>18930900</v>
+        <v>18532100</v>
       </c>
       <c r="F46" s="3">
-        <v>16391300</v>
+        <v>16045900</v>
       </c>
       <c r="G46" s="3">
-        <v>14670300</v>
+        <v>14361200</v>
       </c>
       <c r="H46" s="3">
-        <v>14504200</v>
+        <v>14198700</v>
       </c>
       <c r="I46" s="3">
-        <v>15011200</v>
+        <v>14694900</v>
       </c>
       <c r="J46" s="3">
-        <v>14537200</v>
+        <v>14230900</v>
       </c>
       <c r="K46" s="3">
         <v>12602800</v>
@@ -2765,25 +2765,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5463300</v>
+        <v>5348200</v>
       </c>
       <c r="E47" s="3">
-        <v>5568500</v>
+        <v>5451200</v>
       </c>
       <c r="F47" s="3">
-        <v>5159200</v>
+        <v>5050500</v>
       </c>
       <c r="G47" s="3">
-        <v>4904500</v>
+        <v>4801100</v>
       </c>
       <c r="H47" s="3">
-        <v>4703000</v>
+        <v>4603900</v>
       </c>
       <c r="I47" s="3">
-        <v>5151600</v>
+        <v>5043000</v>
       </c>
       <c r="J47" s="3">
-        <v>5487400</v>
+        <v>5371800</v>
       </c>
       <c r="K47" s="3">
         <v>4515300</v>
@@ -2824,25 +2824,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7981500</v>
+        <v>7813300</v>
       </c>
       <c r="E48" s="3">
-        <v>7719100</v>
+        <v>7556500</v>
       </c>
       <c r="F48" s="3">
-        <v>7530300</v>
+        <v>7371600</v>
       </c>
       <c r="G48" s="3">
-        <v>6546900</v>
+        <v>6408900</v>
       </c>
       <c r="H48" s="3">
-        <v>6228800</v>
+        <v>6097500</v>
       </c>
       <c r="I48" s="3">
-        <v>6108400</v>
+        <v>5979700</v>
       </c>
       <c r="J48" s="3">
-        <v>6307400</v>
+        <v>6174500</v>
       </c>
       <c r="K48" s="3">
         <v>6050100</v>
@@ -2883,25 +2883,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14589200</v>
+        <v>14281800</v>
       </c>
       <c r="E49" s="3">
-        <v>15372300</v>
+        <v>15048500</v>
       </c>
       <c r="F49" s="3">
-        <v>15083400</v>
+        <v>14765600</v>
       </c>
       <c r="G49" s="3">
-        <v>13840200</v>
+        <v>13548600</v>
       </c>
       <c r="H49" s="3">
-        <v>13641200</v>
+        <v>13353800</v>
       </c>
       <c r="I49" s="3">
-        <v>13784400</v>
+        <v>13494000</v>
       </c>
       <c r="J49" s="3">
-        <v>14320500</v>
+        <v>14018800</v>
       </c>
       <c r="K49" s="3">
         <v>14933000</v>
@@ -3060,25 +3060,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1395300</v>
+        <v>1365900</v>
       </c>
       <c r="E52" s="3">
-        <v>1477700</v>
+        <v>1446500</v>
       </c>
       <c r="F52" s="3">
-        <v>2112600</v>
+        <v>2068100</v>
       </c>
       <c r="G52" s="3">
-        <v>2061900</v>
+        <v>2018500</v>
       </c>
       <c r="H52" s="3">
-        <v>1416800</v>
+        <v>1387000</v>
       </c>
       <c r="I52" s="3">
-        <v>1517000</v>
+        <v>1485000</v>
       </c>
       <c r="J52" s="3">
-        <v>1558800</v>
+        <v>1525900</v>
       </c>
       <c r="K52" s="3">
         <v>1273100</v>
@@ -3178,25 +3178,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45142500</v>
+        <v>44191400</v>
       </c>
       <c r="E54" s="3">
-        <v>49068600</v>
+        <v>48034800</v>
       </c>
       <c r="F54" s="3">
-        <v>46276700</v>
+        <v>45301700</v>
       </c>
       <c r="G54" s="3">
-        <v>42023700</v>
+        <v>41138300</v>
       </c>
       <c r="H54" s="3">
-        <v>40494000</v>
+        <v>39640900</v>
       </c>
       <c r="I54" s="3">
-        <v>41572500</v>
+        <v>40696600</v>
       </c>
       <c r="J54" s="3">
-        <v>42211200</v>
+        <v>41321900</v>
       </c>
       <c r="K54" s="3">
         <v>39374300</v>
@@ -3283,25 +3283,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6716700</v>
+        <v>6575200</v>
       </c>
       <c r="E57" s="3">
-        <v>7743200</v>
+        <v>7580100</v>
       </c>
       <c r="F57" s="3">
-        <v>7460600</v>
+        <v>7303400</v>
       </c>
       <c r="G57" s="3">
-        <v>6750900</v>
+        <v>6608700</v>
       </c>
       <c r="H57" s="3">
-        <v>5890400</v>
+        <v>5766300</v>
       </c>
       <c r="I57" s="3">
-        <v>5860000</v>
+        <v>5736500</v>
       </c>
       <c r="J57" s="3">
-        <v>4667500</v>
+        <v>4569100</v>
       </c>
       <c r="K57" s="3">
         <v>5551300</v>
@@ -3342,25 +3342,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2155700</v>
+        <v>2110300</v>
       </c>
       <c r="E58" s="3">
-        <v>2921100</v>
+        <v>2859600</v>
       </c>
       <c r="F58" s="3">
-        <v>1928800</v>
+        <v>1888200</v>
       </c>
       <c r="G58" s="3">
-        <v>1500500</v>
+        <v>1468900</v>
       </c>
       <c r="H58" s="3">
-        <v>2359700</v>
+        <v>2310000</v>
       </c>
       <c r="I58" s="3">
-        <v>1538500</v>
+        <v>1506100</v>
       </c>
       <c r="J58" s="3">
-        <v>2528300</v>
+        <v>2475000</v>
       </c>
       <c r="K58" s="3">
         <v>4195100</v>
@@ -3401,25 +3401,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>776900</v>
+        <v>760500</v>
       </c>
       <c r="E59" s="3">
-        <v>1401600</v>
+        <v>1372100</v>
       </c>
       <c r="F59" s="3">
-        <v>1309100</v>
+        <v>1281500</v>
       </c>
       <c r="G59" s="3">
-        <v>1385200</v>
+        <v>1356000</v>
       </c>
       <c r="H59" s="3">
-        <v>800900</v>
+        <v>784100</v>
       </c>
       <c r="I59" s="3">
-        <v>1105100</v>
+        <v>1081800</v>
       </c>
       <c r="J59" s="3">
-        <v>1036700</v>
+        <v>1014800</v>
       </c>
       <c r="K59" s="3">
         <v>1238300</v>
@@ -3460,25 +3460,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9649200</v>
+        <v>9445900</v>
       </c>
       <c r="E60" s="3">
-        <v>12066000</v>
+        <v>11811800</v>
       </c>
       <c r="F60" s="3">
-        <v>10698500</v>
+        <v>10473100</v>
       </c>
       <c r="G60" s="3">
-        <v>9636500</v>
+        <v>9433500</v>
       </c>
       <c r="H60" s="3">
-        <v>9051100</v>
+        <v>8860400</v>
       </c>
       <c r="I60" s="3">
-        <v>8503600</v>
+        <v>8324400</v>
       </c>
       <c r="J60" s="3">
-        <v>8232400</v>
+        <v>8058900</v>
       </c>
       <c r="K60" s="3">
         <v>10984800</v>
@@ -3519,25 +3519,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18757300</v>
+        <v>18362100</v>
       </c>
       <c r="E61" s="3">
-        <v>19394800</v>
+        <v>18986100</v>
       </c>
       <c r="F61" s="3">
-        <v>18373300</v>
+        <v>17986200</v>
       </c>
       <c r="G61" s="3">
-        <v>16085800</v>
+        <v>15746900</v>
       </c>
       <c r="H61" s="3">
-        <v>16303800</v>
+        <v>15960300</v>
       </c>
       <c r="I61" s="3">
-        <v>17822000</v>
+        <v>17446600</v>
       </c>
       <c r="J61" s="3">
-        <v>18743400</v>
+        <v>18348500</v>
       </c>
       <c r="K61" s="3">
         <v>12520900</v>
@@ -3578,25 +3578,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4960200</v>
+        <v>4855700</v>
       </c>
       <c r="E62" s="3">
-        <v>5104700</v>
+        <v>4997100</v>
       </c>
       <c r="F62" s="3">
-        <v>5147800</v>
+        <v>5039300</v>
       </c>
       <c r="G62" s="3">
-        <v>4476100</v>
+        <v>4381800</v>
       </c>
       <c r="H62" s="3">
-        <v>4454600</v>
+        <v>4360700</v>
       </c>
       <c r="I62" s="3">
-        <v>4629400</v>
+        <v>4531900</v>
       </c>
       <c r="J62" s="3">
-        <v>4539500</v>
+        <v>4443800</v>
       </c>
       <c r="K62" s="3">
         <v>4416000</v>
@@ -3814,25 +3814,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35229700</v>
+        <v>34487400</v>
       </c>
       <c r="E66" s="3">
-        <v>38754000</v>
+        <v>37937500</v>
       </c>
       <c r="F66" s="3">
-        <v>36394300</v>
+        <v>35627600</v>
       </c>
       <c r="G66" s="3">
-        <v>32318700</v>
+        <v>31637800</v>
       </c>
       <c r="H66" s="3">
-        <v>31753500</v>
+        <v>31084500</v>
       </c>
       <c r="I66" s="3">
-        <v>32932100</v>
+        <v>32238200</v>
       </c>
       <c r="J66" s="3">
-        <v>33629100</v>
+        <v>32920600</v>
       </c>
       <c r="K66" s="3">
         <v>30039800</v>
@@ -4132,25 +4132,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11333500</v>
+        <v>11094700</v>
       </c>
       <c r="E72" s="3">
-        <v>11305600</v>
+        <v>11067400</v>
       </c>
       <c r="F72" s="3">
-        <v>10908900</v>
+        <v>10679100</v>
       </c>
       <c r="G72" s="3">
-        <v>11496900</v>
+        <v>11254700</v>
       </c>
       <c r="H72" s="3">
-        <v>10471700</v>
+        <v>10251100</v>
       </c>
       <c r="I72" s="3">
-        <v>10120700</v>
+        <v>9907400</v>
       </c>
       <c r="J72" s="3">
-        <v>9560500</v>
+        <v>9359100</v>
       </c>
       <c r="K72" s="3">
         <v>10734200</v>
@@ -4368,25 +4368,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9912800</v>
+        <v>9704000</v>
       </c>
       <c r="E76" s="3">
-        <v>10314600</v>
+        <v>10097200</v>
       </c>
       <c r="F76" s="3">
-        <v>9882400</v>
+        <v>9674200</v>
       </c>
       <c r="G76" s="3">
-        <v>9705000</v>
+        <v>9500500</v>
       </c>
       <c r="H76" s="3">
-        <v>8740600</v>
+        <v>8556400</v>
       </c>
       <c r="I76" s="3">
-        <v>8640500</v>
+        <v>8458400</v>
       </c>
       <c r="J76" s="3">
-        <v>8582200</v>
+        <v>8401300</v>
       </c>
       <c r="K76" s="3">
         <v>9334500</v>
@@ -4550,25 +4550,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1823600</v>
+        <v>1785200</v>
       </c>
       <c r="E81" s="3">
-        <v>2908500</v>
+        <v>2847200</v>
       </c>
       <c r="F81" s="3">
-        <v>1627200</v>
+        <v>1592900</v>
       </c>
       <c r="G81" s="3">
-        <v>2490200</v>
+        <v>2437800</v>
       </c>
       <c r="H81" s="3">
-        <v>1368700</v>
+        <v>1339800</v>
       </c>
       <c r="I81" s="3">
-        <v>2002300</v>
+        <v>1960100</v>
       </c>
       <c r="J81" s="3">
-        <v>-577900</v>
+        <v>-565700</v>
       </c>
       <c r="K81" s="3">
         <v>2314100</v>
@@ -4632,25 +4632,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>994800</v>
+        <v>973900</v>
       </c>
       <c r="E83" s="3">
-        <v>356100</v>
+        <v>348600</v>
       </c>
       <c r="F83" s="3">
-        <v>765400</v>
+        <v>749300</v>
       </c>
       <c r="G83" s="3">
-        <v>283900</v>
+        <v>277900</v>
       </c>
       <c r="H83" s="3">
-        <v>288900</v>
+        <v>282900</v>
       </c>
       <c r="I83" s="3">
-        <v>277500</v>
+        <v>271700</v>
       </c>
       <c r="J83" s="3">
-        <v>1968100</v>
+        <v>1926700</v>
       </c>
       <c r="K83" s="3">
         <v>354900</v>
@@ -4986,25 +4986,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2310300</v>
+        <v>2261600</v>
       </c>
       <c r="E89" s="3">
-        <v>1522000</v>
+        <v>1490000</v>
       </c>
       <c r="F89" s="3">
-        <v>2519400</v>
+        <v>2466300</v>
       </c>
       <c r="G89" s="3">
-        <v>2467400</v>
+        <v>2415400</v>
       </c>
       <c r="H89" s="3">
-        <v>2098600</v>
+        <v>2054400</v>
       </c>
       <c r="I89" s="3">
-        <v>2532100</v>
+        <v>2478700</v>
       </c>
       <c r="J89" s="3">
-        <v>1307900</v>
+        <v>1280300</v>
       </c>
       <c r="K89" s="3">
         <v>1598200</v>
@@ -5245,25 +5245,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-913700</v>
+        <v>-894500</v>
       </c>
       <c r="E94" s="3">
-        <v>-603200</v>
+        <v>-590500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1060700</v>
+        <v>-1038400</v>
       </c>
       <c r="G94" s="3">
-        <v>-638700</v>
+        <v>-625300</v>
       </c>
       <c r="H94" s="3">
-        <v>-617200</v>
+        <v>-604200</v>
       </c>
       <c r="I94" s="3">
-        <v>-765400</v>
+        <v>-749300</v>
       </c>
       <c r="J94" s="3">
-        <v>-477800</v>
+        <v>-467700</v>
       </c>
       <c r="K94" s="3">
         <v>-531100</v>
@@ -5327,25 +5327,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-882000</v>
+        <v>-863500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1349700</v>
+        <v>-1321200</v>
       </c>
       <c r="F96" s="3">
-        <v>-859200</v>
+        <v>-841100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1318000</v>
+        <v>-1290200</v>
       </c>
       <c r="H96" s="3">
-        <v>-828800</v>
+        <v>-811400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1257200</v>
+        <v>-1230700</v>
       </c>
       <c r="J96" s="3">
-        <v>-811100</v>
+        <v>-794000</v>
       </c>
       <c r="K96" s="3">
         <v>-1248200</v>
@@ -5563,25 +5563,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2819700</v>
+        <v>-2760300</v>
       </c>
       <c r="E100" s="3">
-        <v>-231900</v>
+        <v>-227000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1176100</v>
+        <v>-1151300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2954100</v>
+        <v>-2891800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1473900</v>
+        <v>-1442800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2067000</v>
+        <v>-2023400</v>
       </c>
       <c r="J100" s="3">
-        <v>2239300</v>
+        <v>2192100</v>
       </c>
       <c r="K100" s="3">
         <v>-905800</v>
@@ -5622,25 +5622,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-207800</v>
+        <v>-203500</v>
       </c>
       <c r="E101" s="3">
-        <v>-79800</v>
+        <v>-78200</v>
       </c>
       <c r="F101" s="3">
-        <v>285100</v>
+        <v>279100</v>
       </c>
       <c r="G101" s="3">
-        <v>17700</v>
+        <v>17400</v>
       </c>
       <c r="H101" s="3">
-        <v>-62100</v>
+        <v>-60800</v>
       </c>
       <c r="I101" s="3">
-        <v>-299100</v>
+        <v>-292800</v>
       </c>
       <c r="J101" s="3">
-        <v>-111500</v>
+        <v>-109200</v>
       </c>
       <c r="K101" s="3">
         <v>-39700</v>
@@ -5681,25 +5681,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1631000</v>
+        <v>-1596700</v>
       </c>
       <c r="E102" s="3">
-        <v>607000</v>
+        <v>594200</v>
       </c>
       <c r="F102" s="3">
-        <v>567800</v>
+        <v>555800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1107600</v>
+        <v>-1084300</v>
       </c>
       <c r="H102" s="3">
-        <v>-54500</v>
+        <v>-53300</v>
       </c>
       <c r="I102" s="3">
-        <v>-599400</v>
+        <v>-586800</v>
       </c>
       <c r="J102" s="3">
-        <v>2957900</v>
+        <v>2895600</v>
       </c>
       <c r="K102" s="3">
         <v>121600</v>
